--- a/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
+++ b/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thida\Downloads\CISO ASSISTANT\traduccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/NIS2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6EA0A3-B522-4B74-8CF7-329C44836307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F55472-C932-E54F-82C0-0CDB0E16B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="1334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1777">
   <si>
     <t>assessable</t>
   </si>
@@ -4032,13 +4032,1491 @@
   </si>
   <si>
     <t>SEGURIDAD MEDIOAMBIENTAL Y FÍSICA [Artículo 21, Apartado 2, Letras C), E) e I), de la directiva (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politika bezpečnosti sítí a informačních systémů (čl. 21 odst. 2 písm. a) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Politika bezpečnosti sítí a informačních systémů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pro účely čl. 21 odst. 2 písm. a) směrnice (EU) 2022/2555 politika bezpečnosti sítí a informačních systémů:</t>
+  </si>
+  <si>
+    <t>stanoví přístup příslušných subjektů k řízení bezpečnosti jejich sítí a informačních systémů;</t>
+  </si>
+  <si>
+    <t>odpovídá obchodní strategii a cílům příslušných subjektů a doplňuje je;</t>
+  </si>
+  <si>
+    <t>stanoví cíle bezpečnosti sítí a informací;</t>
+  </si>
+  <si>
+    <t>obsahuje závazek k neustálému zlepšování bezpečnosti sítí a informačních systémů;</t>
+  </si>
+  <si>
+    <t>obsahuje závazek poskytnout odpovídající zdroje potřebné pro její provedení, včetně potřebných zaměstnanců, finančních zdrojů, postupů, nástrojů a technologií;</t>
+  </si>
+  <si>
+    <t>je sdělena příslušným zaměstnancům a dotčeným zúčastněným externím stranám a je jimi uznána;</t>
+  </si>
+  <si>
+    <t>stanoví role a odpovědnosti podle bodu 1.2.;</t>
+  </si>
+  <si>
+    <t>uvádí seznam dokumentace, která má být uchovávána, a dobu jejího uchovávání;</t>
+  </si>
+  <si>
+    <t>uvádí seznam politik specifických pro toto téma;</t>
+  </si>
+  <si>
+    <t>stanoví ukazatele a opatření ke sledování jejího provádění a aktuálního stavu úrovně vyspělosti bezpečnosti sítí a informací příslušných subjektů;</t>
+  </si>
+  <si>
+    <t>uvádí datum formálního schválení řídícími orgány příslušných subjektů (dále jen „řídící orgány“).</t>
+  </si>
+  <si>
+    <t>Bezpečnostní politiku v oblasti sítí a informačních systémů řídící orgány přezkoumávají a v případě potřeby aktualizují nejméně každý rok a vždy v případě výskytu významných incidentů nebo významných změn operací či rizik. Výsledky přezkumů se zdokumentují.</t>
+  </si>
+  <si>
+    <t>Úkoly, odpovědnosti a pravomoci</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v rámci své politiky bezpečnosti sítí a informačních systémů uvedené v bodě 1.1 stanoví odpovědnosti a pravomoci v oblasti bezpečnosti sítí a informačních systémů, přidělí je k úkolům, rozdělí je podle potřeb příslušných subjektů a sdělí je řídícím orgánům.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty vyžadují, aby všichni zaměstnanci a třetí strany uplatňovali bezpečnost sítí a informačních systémů v souladu se zavedenou politikou bezpečnosti sítí a informací, tematicky zaměřenými politikami a postupy příslušných subjektů.</t>
+  </si>
+  <si>
+    <t>Řídícím orgánům je v otázkách bezpečnosti sítí a informačních systémů přímo podřízena alespoň jedna osoba.</t>
+  </si>
+  <si>
+    <t>V závislosti na velikosti příslušných subjektů spadá bezpečnost sítí a informačních systémů pod specializované úkoly nebo povinnosti, které jsou vykonávány nad rámec stávajících úkolů.</t>
+  </si>
+  <si>
+    <t>Kolidující povinnosti a protichůdné oblasti odpovědnosti budou v příslušných případech odděleny.</t>
+  </si>
+  <si>
+    <t>Řídící orgány úkoly, odpovědnosti a pravomoci přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Politika řízení rizik (čl. 21 odst. 2 bod a) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Rámec pro řízení rizik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Pro účely čl. 21 odst. 2 písm. a) směrnice (EU) 2022/2555 příslušné subjekty zřídí a spravují vhodný rámec řízení rizik, aby identifikovaly a řešily rizika pro bezpečnost sítí a informačních systémů. Příslušné subjekty provedou a zdokumentují posouzení rizik a na základě výsledků vypracují, zavedou a sledují plán ošetření rizik. Výsledky posouzení rizik a zbytková rizika přijímají řídící orgány nebo v příslušných případech osoby, které jsou odpovědné a mají pravomoc řídit rizika, za předpokladu, že příslušné subjekty zajistí odpovídající podávání zpráv řídícím orgánům.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 2.1.1 příslušné subjekty stanoví postupy pro identifikaci, analýzu, posouzení a ošetření rizik (dále jen „proces řízení rizik v oblasti kybernetické bezpečnosti“). Proces řízení rizik v oblasti kybernetické bezpečnosti musí být v příslušných případech nedílnou součástí celkového procesu řízení rizik příslušných subjektů. V rámci procesu řízení rizik v oblasti kybernetické bezpečnosti příslušné subjekty:</t>
+  </si>
+  <si>
+    <t>dodržují metodiku řízení rizik;</t>
+  </si>
+  <si>
+    <t>v souladu s přístupem zohledňujícím všechny druhy rizik identifikují a dokumentují rizika pro bezpečnost sítí a informačních systémů, zejména ve vztahu ke třetím stranám, a rizika, která by mohla vést k narušení dostupnosti, integrity, autenticity a důvěrnosti sítí a informačních systémů, včetně identifikace kritického místa (tzv. single point of failures);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyzují rizika pro bezpečnost sítí a informačních systémů, včetně hrozby, pravděpodobnosti, dopadu a úrovně rizika, s přihlédnutím k informacím o kybernetických hrozbách a zranitelnostech;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyhodnotí identifikovaná rizika na základě kritérií rizik;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">identifikují vhodné možnosti a opatření k ošetření rizik a stanoví pořadí jejich důležitosti;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">průběžně sledují provádění opatření k ošetření rizik;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">určí, kdo je odpovědný za provádění opatření k ošetření rizik a kdy by tato opatření měla být provedena;
+</t>
+  </si>
+  <si>
+    <t>stanoví a spravují příslušná kritéria rizik;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví úroveň tolerance rizika v souladu s ochotou příslušných subjektů riskovat;
+</t>
+  </si>
+  <si>
+    <t>komplexně zdokumentují zvolená opatření k ošetření rizik v plánu ošetření rizik a důvody, které vedly k akceptaci zbytkových rizik.</t>
+  </si>
+  <si>
+    <t>Při identifikování vhodných možností a opatření k ošetření rizik a stanovení pořadí jejich důležitosti příslušné subjekty zohlední výsledky posouzení rizik, výsledky postupu pro zhodnocení účinnosti opatření k řízení kybernetických bezpečnostních rizik, náklady na provedení ve vztahu k očekávanému přínosu, klasifikaci aktiv uvedenou v bodě 12.1 a analýzu obchodního dopadu uvedenou v bodě 4.1.3.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty výsledky posouzení rizik a plán ošetření rizik přezkoumají a v případě potřeby aktualizují v plánovaných intervalech alespoň jednou ročně a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Sledování souladu</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty pravidelně přezkoumávají dodržování svých politik bezpečnosti sítí a informačních systémů, tematicky zaměřených politik, pravidel a norem. Řídící orgány jsou informovány o stavu bezpečnosti sítí a informací na základě přezkumů dodržování souladu prostřednictvím pravidelných zpráv.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zavedou účinný systém podávání zpráv o dodržování souladu, který bude odpovídat jejich struktuře, provoznímu prostředí a prostředí hrozeb. Systém podávání zpráv o dodržování souladu musí být schopen poskytovat řídicím orgánům informovaný přehled o aktuálním stavu řízení rizik příslušnými subjekty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Příslušné subjekty provádějí sledování souladu v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Nezávislý přezkum bezpečnosti informací a sítí</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty nezávisle přezkoumávají svůj přístup k řízení bezpečnosti sítí a informačních systémů a jeho provádění, včetně lidí, procesů a technologií.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Příslušné subjekty vypracovávají a spravují postupy pro provádění nezávislých přezkumů, které vykonávají osoby s patřičnou kvalifikací pro audit. Pokud nezávislý přezkum vykonávají zaměstnanci příslušného subjektu, nesmí být osoby provádějící přezkumy podřízeny zaměstnancům přezkoumávané oblasti. V případě, že velikost příslušných subjektů neumožňuje takové oddělení pravomocí, zavedou příslušné subjekty alternativní opatření, která zaručí nestrannost přezkumů.</t>
+  </si>
+  <si>
+    <t>Výsledky nezávislých přezkumů, včetně výsledků sledování souladu podle bodu 2.2 a monitorování a měření podle bodu 7, se oznamují řídícím orgánům. Přijmou se nápravná opatření nebo se akceptuje zbytkové riziko podle kritérií, které si příslušné subjekty stanovily pro přijatelnost rizika.</t>
+  </si>
+  <si>
+    <t>Nezávislé přezkumy se provádějí v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Řešení incidentů (čl. 21 odst. 2 písm. b) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Politika řešení incidentů</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. b) směrnice (EU) 2022/2555 příslušné subjekty vypracují a zavedou politiku řešení incidentů, která stanoví úkoly, odpovědnosti a postupy pro včasné odhalování, analýzu a omezování incidentů nebo reagování na ně, obnovu po incidentech, dokumentování a oznamování incidentů.</t>
+  </si>
+  <si>
+    <t>Politika uvedená v bodě 3.1.1 musí být v souladu s plánem kontinuity provozu a plánem pro obnovu po havárii uvedeným v bodě 4.1. Politika obsahuje:</t>
+  </si>
+  <si>
+    <t>systém klasifikace incidentů, který je v souladu s hodnocením a klasifikací událostí provedenými podle bodu 3.4.1;</t>
+  </si>
+  <si>
+    <t>účinné komunikační plány, včetně plánů pro eskalaci a podávání zpráv;</t>
+  </si>
+  <si>
+    <t>přidělení úkolů týkajících se odhalování incidentů a vhodné reakce na ně kompetentním zaměstnancům;</t>
+  </si>
+  <si>
+    <t>dokumenty, které se používají při odhalování incidentů a reakci na ně, jako jsou příručky pro reakci na incidenty, eskalační matice, seznamy kontaktů a šablony.</t>
+  </si>
+  <si>
+    <t>Úkoly, odpovědnosti a postupy stanovené v politice se testují, přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a po významných incidentech nebo významných změnách operací či rizik.</t>
+  </si>
+  <si>
+    <t>Monitorování a vedení protokolů</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty stanoví postupy a používají nástroje pro činnosti v rámci monitorování a vedení protokolů ve svých sítích a informačních systémech s cílem odhalit události, které by mohly být považovány za incidenty, a odpovídajícím způsobem na ně reagovat, aby bylo možné zmírnit dopad.</t>
+  </si>
+  <si>
+    <t>Monitorování musí být v proveditelném rozsahu automatizované a v závislosti na kapacitách podniku prováděné buď nepřetržitě, nebo v pravidelných intervalech. Příslušné subjekty provádějí své monitorovací činnosti způsobem, který minimalizuje falešně pozitivní a falešně negativní výsledky.</t>
+  </si>
+  <si>
+    <t>Na základě postupů uvedených v bodě 3.2.1 příslušné subjekty vedou, dokumentují a přezkoumávají protokoly. Příslušné subjekty sestaví seznam aktiv, o kterých mají být vedeny protokoly, na základě výsledků posouzení rizik provedeného podle bodu 2.1. Protokoly musí případně obsahovat:</t>
+  </si>
+  <si>
+    <t>příslušný odchozí a příchozí síťový provoz;</t>
+  </si>
+  <si>
+    <t>vytváření, změny nebo odstraňování uživatelů sítí a informačních systémů příslušných subjektů a rozšiřování oprávnění;</t>
+  </si>
+  <si>
+    <t>přístup k systémům a aplikacím;</t>
+  </si>
+  <si>
+    <t>události související s autentizací;</t>
+  </si>
+  <si>
+    <t>veškerý administrátorský přístup k systémům a aplikacím a činnosti prováděné prostřednictvím účtů správce;</t>
+  </si>
+  <si>
+    <t>přístup k důležitým konfiguračním a záložním souborům nebo jejich změny;</t>
+  </si>
+  <si>
+    <t>protokoly událostí a protokoly z bezpečnostních nástrojů, jako jsou antivirové programy, systémy detekce narušení nebo brány firewall;</t>
+  </si>
+  <si>
+    <t>využití systémových prostředků a jejich výkonnost;</t>
+  </si>
+  <si>
+    <t>fyzický přístup k zařízením;</t>
+  </si>
+  <si>
+    <t>přístup k jejich síťovému vybavení a zařízením a jejich používání;</t>
+  </si>
+  <si>
+    <t>aktivace, zastavení a pozastavení různých protokolů;</t>
+  </si>
+  <si>
+    <t>environmentální události.</t>
+  </si>
+  <si>
+    <t>Protokoly se pravidelně přezkoumávají, zda se v nich neobjevují neobvyklé nebo nežádoucí trendy. Příslušné subjekty v případě potřeby stanoví vhodné hodnoty výstražných prahů. Pokud jsou překročeny stanovené hodnoty výstražných prahů, spustí se v případě potřeby automaticky alarm. Příslušné subjekty zajistí, aby v případě spuštění alarmu byla včas zahájena kvalifikovaná a vhodná reakce.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty uchovávají a zálohují protokoly po předem stanovenou dobu a chrání je před neoprávněným přístupem nebo změnami.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v proveditelném rozsahu zajistí, aby všechny systémy měly synchronizované zdroje času, a aby tak bylo možné propojovat protokoly mezi systémy za účelem vyhodnocení události. Příslušné subjekty vytvářejí a vedou seznam všech aktiv, o kterých mají být vedeny protokoly, a zajistí, aby systémy monitorování a vedení protokolů byly redundantní. Dostupnost systémů monitorování a vedení protokolů se sleduje nezávisle na systémech, které monitorují.</t>
+  </si>
+  <si>
+    <t>Postupy i seznam aktiv, o kterých mají být vedeny protokoly, se přezkoumávají a v případě potřeby aktualizují pravidelně a po významných incidentech.</t>
+  </si>
+  <si>
+    <t>Oznamování událostí</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zavedou jednoduchý mechanismus, který umožní jejich zaměstnancům, dodavatelům a zákazníkům oznamovat podezřelé události.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v případě potřeby informují své dodavatele a zákazníky o mechanismu pro oznamování událostí a pravidelně školí své zaměstnance, jak tento mechanismus používat.</t>
+  </si>
+  <si>
+    <t>Hodnocení a klasifikace událostí</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty posoudí podezřelé události, aby určily, zda se jedná o incidenty, a pokud ano, určí jejich povahu a závažnost.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 3.4.1 postupují příslušné subjekty takto:</t>
+  </si>
+  <si>
+    <t>provedení hodnocení na základě předem stanovených kritérií a na základě roztřídění s cílem určit priority, pokud jde o zamezení šíření incidentu a jeho odstranění;</t>
+  </si>
+  <si>
+    <t>zhodnocení existence opakujících se incidentů podle článku 4 tohoto nařízení jednou za čtvrtletí;</t>
+  </si>
+  <si>
+    <t>přezkoumání příslušných protokolů pro účely hodnocení a klasifikace událostí;</t>
+  </si>
+  <si>
+    <t>přehodnocení a překlasifikování událostí v případě, že se objeví nové informace, nebo po analýze dříve dostupných informací.</t>
+  </si>
+  <si>
+    <t>zavedení postupu pro propojení a analýzu protokolů a</t>
+  </si>
+  <si>
+    <t>Reakce na incident</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty reagují na incidenty včas a v souladu se zdokumentovanými postupy.</t>
+  </si>
+  <si>
+    <t>Postupy reakce na incident zahrnují tyto fáze:</t>
+  </si>
+  <si>
+    <t>zamezení šíření incidentu s cílem předejít důsledkům incidentu způsobeným jeho rozšířením;</t>
+  </si>
+  <si>
+    <t>odstranění incidentu, aby se zabránilo jeho pokračování nebo opětovnému výskytu;</t>
+  </si>
+  <si>
+    <t>případně obnova po incidentu.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty stanoví komunikační plány a postupy:</t>
+  </si>
+  <si>
+    <t>s týmy pro reakce na počítačové bezpečnostní incidenty (CSIRT) nebo v příslušných případech s příslušnými orgány v souvislosti s oznamováním incidentů;</t>
+  </si>
+  <si>
+    <t>pro komunikaci mezi zaměstnanci příslušného subjektu a pro komunikaci s příslušnými zúčastněnými stranami mimo subjekt.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty vedou protokoly o činnostech v rámce reakce na incident v souladu s postupy uvedenými v bodě 3.2.1 a zaznamenávají důkazy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Příslušné subjekty v plánovaných intervalech testují své postupy reakce na incidenty.</t>
+  </si>
+  <si>
+    <t>Přezkumy po incidentu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	V případě potřeby příslušné subjekty provádějí po obnově přezkumy po incidentu. Přezkumy po incidentu musí pokud možno identifikovat hlavní příčinu incidentu a vést ke zdokumentování získaných zkušeností s cílem omezit výskyt a následky incidentů v budoucnu.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zajistí, aby přezkumy po incidentu přispěly ke zlepšení jejich přístupu k bezpečnosti sítí a informací, k opatřením pro ošetření rizik a k postupům pro řešení a odhalování incidentů a reakci na ně.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech přezkoumávají, zda incidenty vedly k přezkumu po incidentu.</t>
+  </si>
+  <si>
+    <t>Kontinuita podnikání a krizové řízení (čl. 21 odst. 2 písm. c) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Plán kontinuity provozu a obnovy provozu po havárii</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. c) směrnice (EU) 2022/2555 příslušné subjekty stanoví a udržují plán kontinuity provozu a obnovy provozu po havárii, který se použije v případě incidentů.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Provoz příslušných subjektů se obnoví v souladu s plánem kontinuity provozu a obnovy provozu po havárii. Plán se zakládá na výsledcích posouzení rizik provedeného podle bodu 2.1 a obsahuje v případě potřeby tyto údaje:</t>
+  </si>
+  <si>
+    <t>účel, oblast působnosti a cílová skupina;</t>
+  </si>
+  <si>
+    <t>úkoly a povinnosti;</t>
+  </si>
+  <si>
+    <t>hlavní kontaktní osoby a (interní a externí) komunikační kanály;</t>
+  </si>
+  <si>
+    <t>podmínky pro aktivaci a deaktivaci plánu;</t>
+  </si>
+  <si>
+    <t>postup obnovy pro operace;</t>
+  </si>
+  <si>
+    <t>plány obnovy pro konkrétní operace, včetně cílů obnovy;</t>
+  </si>
+  <si>
+    <t>požadované zdroje, včetně záloh a redundancí;</t>
+  </si>
+  <si>
+    <t>obnovení činností po dočasných opatřeních a pokračování v těchto činnostech.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty provedou analýzu obchodního dopadu, aby posoudily potenciální dopady závažných narušení na jejich obchodní operace, a na základě výsledků analýzy obchodního dopadu stanoví požadavky na zachování provozu pro sítě a informační systémy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Plán kontinuity provozu a obnovy provozu po havárii se testuje, přezkoumává a v případě potřeby aktualizuje v plánovaných intervalech a po významných incidentech nebo významných změnách operací nebo rizik. Příslušné subjekty zajistí, aby plány zohledňovaly poznatky získané z těchto testů.</t>
+  </si>
+  <si>
+    <t>Správa zálohování a redundance</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty uchovávají záložní kopie údajů a poskytují dostatečné dostupné zdroje, včetně zařízení, sítí a informačních systémů a zaměstnanců, aby zajistily odpovídající úroveň redundance.</t>
+  </si>
+  <si>
+    <t>Na základě výsledků posouzení rizik provedeného podle bodu 2.1 a plánu kontinuity provozu stanoví příslušné subjekty plány zálohování, které obsahují tyto skutečnosti:</t>
+  </si>
+  <si>
+    <t>doby obnovy;</t>
+  </si>
+  <si>
+    <t>ujištění, že záložní kopie jsou úplné a správné, včetně konfiguračních dat a údajů uložených v prostředí služby cloud computingu;</t>
+  </si>
+  <si>
+    <t>uložení záložních kopií (online nebo offline) na bezpečném místě nebo místech, která nejsou ve stejné síti jako systém a jsou v dostatečné vzdálenosti, aby nedošlo k poškození v případě havárie v hlavní provozovně;</t>
+  </si>
+  <si>
+    <t>vhodné kontroly fyzického a logického přístupu k záložním kopiím v souladu se stupněm utajení dat;</t>
+  </si>
+  <si>
+    <t>obnovení údajů ze záložních kopií;</t>
+  </si>
+  <si>
+    <t>doby uchovávání na základě obchodních a regulačních požadavků.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty provádějí pravidelné kontroly integrity záložních kopií.</t>
+  </si>
+  <si>
+    <t>Na základě výsledků posouzení rizik provedeného podle bodu 2.1 a plánu kontinuity provozu zajistí příslušné subjekty dostatečnou dostupnost zdrojů alespoň částečnou redundancí těchto zdrojů:</t>
+  </si>
+  <si>
+    <t>sítě a informační systémy;</t>
+  </si>
+  <si>
+    <t>aktiva, včetně zařízení, vybavení a zásob;</t>
+  </si>
+  <si>
+    <t>pracovníci s potřebnou odpovědností, pravomocemi a kompetencemi;</t>
+  </si>
+  <si>
+    <t>vhodné komunikační kanály.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v případě potřeby zajistí, aby sledování a přizpůsobení zdrojů, včetně zařízení, systémů a zaměstnanců, byly řádně podloženy požadavky na zálohování a redundanci.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty provádějí pravidelné testování obnovy záložních kopií a redundancí, aby bylo zajištěno, že se na ně lze v podmínkách obnovy spoléhat a že zahrnují kopie, postupy a znalosti k provedení účinné obnovy. Příslušné subjekty zdokumentují výsledky testů a v případě potřeby přijmou nápravná opatření.</t>
+  </si>
+  <si>
+    <t>Krizové řízení</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Příslušné subjekty zavedou postup pro krizové řízení.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zajistí, aby postup krizových řízení zahrnoval alespoň tyto prvky:</t>
+  </si>
+  <si>
+    <t>úlohy a odpovědnost zaměstnanců a v případě potřeby dodavatelů a poskytovatelů služeb s uvedením rozdělení úkolů v krizových situacích, včetně konkrétních kroků, které je třeba dodržovat;</t>
+  </si>
+  <si>
+    <t>vhodné komunikační prostředky mezi příslušnými subjekty a příslušnými orgány;</t>
+  </si>
+  <si>
+    <t>uplatňování vhodných opatření k zajištění zachování bezpečnosti sítí a informačních systémů v krizových situacích.</t>
+  </si>
+  <si>
+    <t>Pro účely písmene b) zahrnuje tok informací mezi příslušnými subjekty a příslušnými orgány jak povinná sdělení, jako jsou oznámení o incidentech a související časové plány, tak nepovinná sdělení.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zavedou postup pro správu a využívání informací obdržených od týmů CSIRT nebo v příslušných případech od příslušných orgánů, které se týkají incidentů, zranitelností, hrozeb nebo možných zmírňujících opatření.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty plán krizového řízení pravidelně nebo po významných incidentech nebo významných změnách operací či rizik testují, přezkoumávají a v případě potřeby aktualizují.</t>
+  </si>
+  <si>
+    <t>Bezpečnost dodavatelského řetězce (čl. 21 odst. 2 písm. d) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Politika bezpečnosti dodavatelského řetězce</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. d) směrnice (EU) 2022/2555 příslušné subjekty stanoví, zavedou a uplatňují politiku bezpečnosti dodavatelského řetězce, která upravuje vztahy s jejich přímými dodavateli a poskytovateli služeb s cílem zmírnit zjištěná rizika pro bezpečnost sítí a informačních systémů. V politice bezpečnosti dodavatelského řetězce příslušné subjekty určí svou úlohu v dodavatelském řetězci a sdělí ji svým přímým dodavatelům a poskytovatelům služeb.</t>
+  </si>
+  <si>
+    <t>V rámci politiky bezpečnosti dodavatelského řetězce uvedené v bodě 5.1.1 stanoví příslušné subjekty kritéria pro výběr dodavatelů a poskytovatelů služeb a uzavírání smluv s nimi. Tato kritéria zahrnují:</t>
+  </si>
+  <si>
+    <t>postupy kybernetické bezpečnosti dodavatelů a poskytovatelů služeb, včetně jejich postupů k zajištění bezpečného vývoje;</t>
+  </si>
+  <si>
+    <t>schopnost dodavatelů a poskytovatelů služeb splňovat specifikace v oblasti kybernetické bezpečnosti stanovené příslušnými subjekty;</t>
+  </si>
+  <si>
+    <t>celkovou kvalitu a odolnost produktů a služeb IKT a v nich obsažených opatření pro řízení kybernetických bezpečnostních rizik, včetně rizik a úrovně klasifikace produktů IKT a služeb IKT;</t>
+  </si>
+  <si>
+    <t>schopnost příslušných subjektů diverzifikovat zdroje dodávek a v příslušných případech omezit závislost na dodavateli.</t>
+  </si>
+  <si>
+    <t>Při vytváření své politiky bezpečnosti dodavatelského řetězce příslušné subjekty v příslušných případech zohlední výsledky koordinovaného posouzení bezpečnostních rizik kritických dodavatelských řetězců provedeného v souladu s čl. 22 odst. 1 směrnice (EU) 2022/2555.</t>
+  </si>
+  <si>
+    <t>Na základě politiky bezpečnosti dodavatelského řetězce a s přihlédnutím k výsledkům posouzení rizik provedeného podle bodu 2.1 této přílohy příslušné subjekty zajistí, aby jejich smlouvy s dodavateli a poskytovateli služeb, a to v případě potřeby prostřednictvím dohod o úrovni služeb, stanovovaly:</t>
+  </si>
+  <si>
+    <t>požadavky na kybernetickou bezpečnost pro dodavatele nebo poskytovatele služeb, včetně požadavků na bezpečnost při pořizování služeb IKT nebo produktů IKT uvedených v bodě 6.1;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">požadavky na informovanost, dovednosti a školení a v případě potřeby osvědčení, která se vyžadují od zaměstnanců dodavatelů nebo poskytovatelů služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">požadavky na ověřování spolehlivosti zaměstnanců dodavatelů a poskytovatelů služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povinnost dodavatelů a poskytovatelů služeb bez zbytečného odkladu informovat příslušné subjekty o incidentech, které představují riziko pro bezpečnost sítě a informačních systémů těchto subjektů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">právo provést audit nebo právo obdržet auditní zprávy;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povinnost dodavatelů a poskytovatelů služeb řešit zranitelnosti, které představují riziko pro bezpečnost sítí a informačních systémů příslušných subjektů;
+</t>
+  </si>
+  <si>
+    <t>povinnosti dodavatelů a poskytovatelů služeb při ukončení smlouvy, jako je vyhledání a zničení informací, které dodavatelé a poskytovatelé služeb získali při plnění svých úkolů.</t>
+  </si>
+  <si>
+    <t>požadavky týkající se subdodávek, a pokud příslušné subjekty subdodávky umožňují, požadavky na kybernetickou bezpečnost subdodavatelů v souladu s požadavky na kybernetickou bezpečnost uvedenými v písmenu a);</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zohlední prvky uvedené v bodech 5.1.2 a 5.1.3 v rámci procesu výběru nových dodavatelů a poskytovatelů služeb, ale i v rámci procesu zadávání zakázek uvedeného v bodě 6.1.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty politiku bezpečnosti dodavatelského řetězce přezkoumávají, sledují a vyhodnocují v plánovaných intervalech a v případě, že dojde k významným změnám operací nebo rizik nebo k významným incidentům souvisejícím s poskytováním služeb IKT nebo majícím dopad na bezpečnost produktů IKT od dodavatelů a poskytovatelů služeb, a v případě potřeby jednají v návaznosti na změny postupů kybernetické bezpečnosti dodavatelů a poskytovatelů služeb.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 5.1.6 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v příslušných případech pravidelně monitorují zprávy o provádění dohod o úrovni služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přezkoumávají incidenty týkající se produktů IKT a služeb ICT od dodavatelů a poskytovatelů služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">posuzují potřebu neplánovaných přezkumů a komplexně dokumentují zjištění;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyzují rizika, která představují změny související s produkty IKT a službami IKT od dodavatelů a poskytovatelů služeb, a v případě potřeby včas přijímají zmírňující opatření.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seznam dodavatelů a poskytovatelů služeb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Příslušné subjekty vedou a průběžně aktualizují registr svých přímých dodavatelů a poskytovatelů služeb, který obsahuje:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kontaktní místa pro každého přímého dodavatele a poskytovatele služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seznam produktů IKT, služeb IKT a procesů IKT poskytovaných přímým dodavatelem nebo poskytovatelem služeb příslušným subjektům.
+</t>
+  </si>
+  <si>
+    <t>Zabezpečení pořizování, vývoje a údržby sítí a informačních systémů (čl. 21 odst. 2 písm. e) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Zabezpečení pořizování služeb IKT nebo produktů IKT</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. e) směrnice (EU) 2022/2555 příslušné subjekty stanoví a zavedou procesy řízení rizik vyplývajících z pořizování služeb IKT nebo produktů IKT pro komponenty, které jsou kritické pro bezpečnost sítí a informačních systémů příslušných subjektů a které pocházejí od dodavatelů nebo poskytovatelů služeb, po celou dobu jejich životnosti na základě posouzení rizik provedeného podle bodu 2.1.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 6.1.1 procesy uvedené v bodě 6.1.1 zahrnují:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezpečnostní požadavky, které se mají vztahovat na pořizované služby IKT nebo produkty IKT;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">požadavky týkající se bezpečnostních aktualizací po celou dobu životnosti služeb IKT nebo produktů IKT nebo nahrazení po skončení doby podpory;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informace popisující hardwarové a softwarové komponenty používané ve službách IKT nebo produktech IKT;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informace popisující zavedené funkce kybernetické bezpečnosti ve službách IKT nebo produktech ICT a konfiguraci potřebnou pro jejich bezpečný provoz;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ujištění, že služby IKT nebo produkty IKT splňují bezpečnostní požadavky podle písmene a);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metody ověřování, zda dodané služby IKT nebo produkty IKT splňují stanovené bezpečnostní požadavky, a zdokumentování výsledků ověřování.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty procesy přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při výskytu významných incidentů.</t>
+  </si>
+  <si>
+    <t>Životní cyklus bezpečného vývoje</t>
+  </si>
+  <si>
+    <t>Před vývojem sítě a informačního systému, včetně softwaru, stanoví příslušné subjekty pravidla pro bezpečný vývoj sítí a informačních systémů a uplatňují je při vývoji sítí a informačních systémů v rámci podniku nebo při zadávání vývoje sítí a informačních systémů externím dodavatelům. Pravidla se vztahují na všechny fáze vývoje, včetně specifikace, návrhu, vývoje, implementace a testování.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 6.2.1 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 6.3.1 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provádějí analýzu bezpečnostních požadavků ve fázích specifikace a návrhu jakéhokoli projektu vývoje nebo pořízení realizovaného příslušnými subjekty nebo jejich jménem;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uplatňují zásady pro inženýring bezpečných systémů a zásady bezpečného kódování na všechny činnosti spojené s vývojem informačních systémů, jako je podpora kybernetické bezpečnosti již od návrhu a architektury nulové důvěry;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví bezpečnostní požadavky týkající se prostředí vývoje;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zavádějí a implementují procesy testování bezpečnosti během životního cyklu vývoje;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vhodným způsobem vybírají, chrání a spravují údajů o bezpečnostních testech;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opravují a anonymizují údaje o testování podle posouzení rizik provedeného podle bodu 2.1.
+</t>
+  </si>
+  <si>
+    <t>Při externě zajišťovaném vývoji sítí a informačních systémů příslušné subjekty uplatňují rovněž zásady a postupy uvedené v bodech 5 a 6.1.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech přezkoumají a, je-li to nutné, aktualizují svá pravidla bezpečného vývoje.</t>
+  </si>
+  <si>
+    <t>Správa konfigurace</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty přijmou vhodná opatření k vytvoření, zdokumentování, zavedení a monitorování konfigurací, včetně bezpečnostních konfigurací hardwaru, softwaru, služeb a sítí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví a zajistí bezpečnost konfigurací pro svůj hardware, software, služby a sítě;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví a zavedou procesy a nástroje pro vynucování stanovených bezpečných konfigurací pro hardware, software, služby a sítě, pro nově instalované systémy i pro systémy v provozu, a to po celou dobu jejich životnosti.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty konfigurace přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech nebo při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Řízení změn, opravy a údržba</t>
+  </si>
+  <si>
+    <t>Při řízení změn v sítích a informačních systémech příslušné subjekty uplatňují postupy řízení změn. V příslušných případech musí být takové postupy v souladu s obecnými politikami řízení změn příslušných subjektů.</t>
+  </si>
+  <si>
+    <t>Postupy uvedené v bodě 6.4.1. se uplatní na vydání, úpravy a mimořádné změny jakéhokoli softwaru a hardwaru při provozu a změnách konfigurace. Postupy zajistí, aby tyto změny byly zdokumentovány a na základě posouzení rizik provedeného podle bodu 2.1 byly před provedením testovány a posouzeny z hlediska možného dopadu.</t>
+  </si>
+  <si>
+    <t>V případě, že nebylo možné dodržet standardní postupy řízení změn z důvodu mimořádné události, příslušné subjekty zdokumentují výsledek změny a vysvětlení, proč nebylo možné postupy dodržet.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty postupy přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při významných incidentech nebo významných změnách operací či rizik.</t>
+  </si>
+  <si>
+    <t>estování bezpečnosti</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty stanoví, zavedou a uplatňují politiku a postupy pro testování bezpečnosti.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na základě posouzení rizik provedeného podle bodu 2.1 stanoví potřebu, rozsah, četnost a typ bezpečnostních testů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">provádějí bezpečnostní testy podle zdokumentované metodiky testování, která se vztahuje na složky identifikované v analýze rizik jako důležité pro bezpečný provoz;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dokumentují typ, rozsah, čas a výsledky testů, včetně posouzení kritičnosti a zmírňujících opatření pro každé zjištění;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v případě kritických zjištění uplatní zmírňující opatření.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty své politiky testování bezpečnosti přezkoumají a v případě potřeby aktualizují v plánovaných intervalech.</t>
+  </si>
+  <si>
+    <t>Řízení bezpečnostních záplat</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty stanoví a uplatňují postupy, které jsou v souladu s postupy řízení změn uvedenými v bodě 6.4.1, jakož i s postupy řízení zranitelností, řízení rizik a dalšími příslušnými postupy., a to s cílem zajistit, že:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezpečnostní záplaty se použijí v přiměřené době poté, co začaly být k dispozici;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezpečnostní záplaty se před použitím v produkčních systémech otestují;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezpečnostní záplaty pocházejí z důvěryhodných zdrojů a jejich integrita je kontrolována;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v případech, kdy záplata není k dispozici nebo kdy není nepoužita podle bodu 6.6.2, jsou zavedena další opatření a akceptována zbytková rizika.
+</t>
+  </si>
+  <si>
+    <t>Odchylně od bodu 6.6.1 písm. a) se příslušné subjekty mohou rozhodnout bezpečnostní záplaty nepoužít, pokud nevýhody použití bezpečnostních záplat převažují nad přínosy pro kybernetickou bezpečnost. Příslušné subjekty každé takové rozhodnutí řádně zdokumentují a zdůvodní.</t>
+  </si>
+  <si>
+    <t>Bezpečnost sítí</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty přijmou vhodná opatření na ochranu svých sítí a informačních systémů před kybernetickými hrozbami.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 6.7.1 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v komplexní a aktuální podobě zdokumentují architekturu sítě;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">určí a uplatní kontrolní mechanismy na ochranu vnitřních síťových domén příslušných subjektů před neoprávněným přístupem;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nakonfigurují kontroly, které zabrání přístupům a síťové komunikaci, jež nejsou nutné pro provoz příslušných subjektů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">určí a uplatní kontroly vzdáleného přístupu k sítím a informačním systémům, včetně přístupu ze strany poskytovatelů služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nevyužijí systémy používané pro správu provádění zásad zabezpečení k jiným účelům;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">výslovně zakážou nebo deaktivují nepotřebná připojení a služby;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v případě potřeby umožní přístup k sítím a informačním systémům příslušných subjektů výhradně prostřednictvím zařízení, která jsou těmito subjekty autorizována;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">povolí připojení poskytovatelů služeb pouze na základě žádosti o povolení a po stanovenou dobu, například po dobu trvání údržby;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zavedou spojení mezi různými systémy pouze prostřednictvím důvěryhodných kanálů, které jsou logicky, kryptograficky nebo fyzicky odděleny od ostatních komunikačních kanálů a zajišťují zaručenou identifikaci jejich koncových bodů a ochranu dat kanálu před modifikací nebo vyzrazením;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přijmou prováděcí plán pro úplný přechod na nejnovější generaci komunikačních protokolů síťové vrstvy bezpečným, vhodným a postupným způsobem a zavedou opatření k urychlení tohoto přechodu;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přijmou prováděcí plán pro zavedení mezinárodně dohodnutých a interoperabilních moderních standardů pro e-mailovou komunikaci, aby se zabezpečila e-mailová komunikace a zmírnila zranitelnost spojená s hrozbami souvisejícími s elektronickou poštou, a zavedou opatření k urychlení tohoto zavádění;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uplatňují osvědčené postupy pro zabezpečení DNS a pro zabezpečení směrování na internetu a hygienu směrování provozu vycházejícího ze sítě a směřujícího do sítě.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty tato opatření přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Segmentace sítě</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty rozdělí systémy na sítě nebo zóny v souladu s výsledky posouzení rizik podle bodu 2.1. Oddělí své systémy a sítě od systémů a sítí třetích stran.</t>
+  </si>
+  <si>
+    <t>Za tímto účelem příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zohlední funkční, logické a fyzické vztahy mezi důvěryhodnými systémy a službami, včetně jejich umístění;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">udělí přístup do sítě nebo zóny na základě posouzení jejich bezpečnostních požadavků;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uchovávají systémy, které jsou kritické pro provoz příslušných subjektů nebo pro bezpečnost, v zabezpečených zónách;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zavedou ve svých komunikačních sítích demilitarizovanou zónu, která zajistí bezpečnou komunikaci vycházející z jejich sítí nebo směřující do jejich sítí;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omezí přístup a komunikaci mezi zónami a uvnitř zón na ty, které jsou nezbytné pro provoz příslušných subjektů nebo pro bezpečnost;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oddělí specializovanou síť pro správu sítí a informačních systémů od provozní sítě příslušných subjektů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oddělí kanály pro správu sítě od ostatního provozu v síti;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oddělí produkční systémy pro útvary příslušných subjektů od systémů používaných pro vývoj a testování, včetně záloh.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty segmentaci sítě přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při významných incidentech nebo významných změnách operací či rizik.</t>
+  </si>
+  <si>
+    <t>Ochrana před škodlivým a neautorizovaným softwarem</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty chrání své sítě a informační systémy před škodlivým a neautorizovaným softwarem.</t>
+  </si>
+  <si>
+    <t>Za tímto účelem příslušné subjekty zejména zavedou opatření, která odhalí nebo zabrání používání škodlivého nebo neoprávněného softwaru. Příslušné subjekty v případě potřeby zajistí, aby jejich sítě a informační systémy byly vybaveny softwarem pro detekci a reakci, který je pravidelně aktualizován v souladu s posouzením rizik provedeným podle bodu 2.1 a se smluvními ujednáními s poskytovateli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Řešení a zveřejňování zranitelností</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty získají informace o technických zranitelnostech svých sítí a informačních systémů, vyhodnotí, zda jsou těmto zranitelnostem vystaveny, a přijmou vhodná opatření k řízení těchto zranitelností.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 6.10.1 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t>sledují informace o zranitelnostech prostřednictvím vhodných kanálů, jako jsou oznámení týmů CSIRT, příslušných orgánů nebo informace poskytované dodavateli či poskytovateli služeb;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v případě potřeby provádějí v plánovaných intervalech kontroly zranitelnosti a zaznamenávají důkazy o výsledcích těchto kontrol;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bez zbytečného odkladu řeší zranitelnosti, které příslušné subjekty označily za kritické pro své operace;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby jejich postupy pro řešení zranitelností byly v souladu s jejich postupy pro řízení změn, řízení bezpečnostních oprav, řízení rizik a řízení incidentů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví postup pro zveřejňování zranitelností v souladu s platnou vnitrostátní koordinovanou politikou zveřejňování zranitelností.
+</t>
+  </si>
+  <si>
+    <t>Pokud je to odůvodněno potenciálním dopadem zranitelnosti, příslušné subjekty vypracují a zavedou plán na její zmírnění. V ostatních případech příslušné subjekty zdokumentují a zdůvodní, proč zranitelnost nevyžaduje nápravu.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty přezkoumají a v případě potřeby v plánovaných intervalech aktualizují kanály, které používají pro sledování informací o zranitelnosti.</t>
+  </si>
+  <si>
+    <t>Politiky a postupy za účelem posouzení účinnosti opatření k řízení kybernetických bezpečnostních rizik (čl. 21 odst. 2 písm. f) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. f) směrnice (EU) 2022/2555 příslušné subjekty stanoví, zavedou a uplatňují politiku a postupy za účelem posouzení, zda jsou opatření k řízení kybernetických bezpečnostních rizik přijatá příslušným subjektem účinně prováděna a udržována.</t>
+  </si>
+  <si>
+    <t>Politika a postupy uvedené v bodě 7.1. zohledňují výsledky posouzení rizik podle bodu 2.1. a minulé významné incidenty. Příslušné subjekty určí:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaká opatření pro řízení kybernetických bezpečnostních rizik mají být sledována a měřena, včetně procesů a kontrol;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">případně metody monitorování, měření, analyzování a hodnocení, s cílem zajistit platné výsledky;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdy se má provádět monitorování a měření;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdo je odpovědný za monitorování a měření účinnosti opatření k řízení kybernetických bezpečnostních rizik;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdy se mají výsledky monitorování a měření analyzovat a vyhodnocovat;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kdo musí tyto výsledky analyzovat a vyhodnotit.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty politiku a postupy přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při významných incidentech nebo významných změnách operací či rizik.</t>
+  </si>
+  <si>
+    <t>Základní postupy v oblasti kybernetické hygieny a bezpečnostní školení (čl. 21 odst. 2 písm. g) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zvyšování povědomí a základní postupy v oblasti kybernetické hygieny</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. g) směrnice (EU) 2022/2555 příslušné subjekty zajistí, aby si jejich zaměstnanci, včetně členů řídících orgánů, ale i přímí dodavatelé a poskytovatelé služeb byli vědomi rizik, byli informováni o významu kybernetické bezpečnosti a uplatňovali postupy v oblasti kybernetické hygieny.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 8.1.1 poskytnou příslušné subjekty svým zaměstnancům, včetně členů řídících orgánů, a v případě potřeby přímým dodavatelům a poskytovatelům služeb v souladu s bodem 5.1.4. program zvyšování informovanosti, který:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">je naplánován v čase tak, aby se činnosti opakovaly a zahrnovaly nové zaměstnance;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bude vytvořen v souladu s politikou bezpečnosti sítí a informací, tematicky zaměřenými politikami a příslušnými postupy bezpečnosti sítí a informací;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zahrnuje relevantní kybernetické hrozby, zavedená opatření k řízení kybernetických bezpečnostních rizik, kontaktní místa a zdroje pro další informace a poradenství v otázkách kybernetické bezpečnosti a rovněž postupy v oblasti kybernetické hygieny pro uživatele.
+</t>
+  </si>
+  <si>
+    <t>Program zvyšování povědomí se v případě potřeby testuje z hlediska účinnosti. Program zvyšování informovanosti se v plánovaných intervalech aktualizuje a nabízí, a to s přihlédnutím ke změnám postupů v oblasti kybernetické hygieny a k aktuálním hrozbám a rizikům pro příslušné subjekty.</t>
+  </si>
+  <si>
+    <t>Bezpečnostní školení</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty určí zaměstnance, jejichž funkce vyžadují dovednosti a odborné znalosti v oblasti bezpečnosti, a zajistí, aby pravidelně absolvovali školení v oblasti bezpečnosti sítí a informačních systémů.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty vytvoří, zavedou a použijí program školení v souladu s politikou bezpečnosti sítí a informací, tematicky zaměřenými politikami a dalšími příslušnými postupy v oblasti bezpečnosti sítí a informací, který na základě kritérií stanoví potřeby školení pro určité funkce a pozice.</t>
+  </si>
+  <si>
+    <t>Školení uvedené v bodě 8.2.1 musí být relevantní pro pracovní funkci zaměstnance a musí být posouzena jeho účinnost. Školení by mělo zohledňovat zavedená bezpečnostní opatření a zahrnovat:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pokyny týkající se bezpečné konfigurace a provozu sítí a informačních systémů, včetně mobilních zařízení;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informování o známých kybernetických hrozbách;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">školení týkající se chování v případě výskytu bezpečnostních událostí.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty vztáhnou školení na zaměstnance, kteří přecházejí na nové pozice nebo funkce vyžadující dovednosti a odborné znalosti v oblasti bezpečnosti.</t>
+  </si>
+  <si>
+    <t>Program je pravidelně aktualizován a prováděn s přihlédnutím k platným politikám a pravidlům, přiděleným úkolům a odpovědnostem, ale i ke známým kybernetickým hrozbám a technologickému vývoji.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kryptografie (čl. 21 odst. 2 písm. h) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. h) směrnice (EU) 2022/2555 příslušné subjekty stanoví, zavedou a uplatňují politiku a postupy týkající se kryptografie s cílem zajistit přiměřené a účinné používání kryptografie k ochraně důvěrnosti, autenticity a integrity informací v souladu s klasifikací aktiv příslušných subjektů a výsledky posouzení rizik provedeného podle bodu 2.1.</t>
+  </si>
+  <si>
+    <t>Politika a postupy uvedené v bodě 9.1 stanoví:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v souladu s klasifikací aktiv příslušných subjektů typ, sílu a kvalitu kryptografických opatření potřebných k ochraně aktiv příslušných subjektů, včetně údajů, které jsou uloženy a předávány;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na základě písmene a) protokoly nebo rodiny protokolů, které mají být přijaty, a dále kryptografické algoritmy, úroveň šifrování, kryptografická řešení a postupy používání, které mají být schváleny a jejichž použití v příslušných subjektech se požaduje, případně v souladu s přístupem založeným na kryptografické agilitě;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přístup příslušných subjektů k řízení klíčů, včetně případných metod pro:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generování různých klíčů pro kryptografické systémy a aplikace;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vydávání a získávání certifikátů veřejných klíčů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribuci klíčů určeným subjektům, včetně způsobu aktivace klíčů po jejich obdržení;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukládání klíčů, včetně způsobu, jakým oprávnění uživatelé získávají přístup ke klíčům;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">změnu nebo aktualizaci klíčů, včetně pravidel, kdy a jak klíče měnit;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nakládání s napadenými klíči;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zrušení klíčů včetně způsobu jejich odebrání nebo deaktivace;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obnovení ztracených nebo poškozených klíčů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zálohování nebo archivaci klíčů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ničení klíčů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedení protokolů a provádění auditu klíčových činností souvisejících s řízením;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nastavení dat pro aktivaci a deaktivaci klíčů, aby se zajistilo, že klíče lze používat pouze po stanovenou dobu v souladu s pravidly organizace pro správu klíčů.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech přezkoumávají a v případě potřeby aktualizují své zásady a postupy s ohledem na nejnovější poznatky v oblasti kryptografie.</t>
+  </si>
+  <si>
+    <t>Bezpečnost lidských zdrojů (čl. 21 odst. 2 písm. i) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Bezpečnost lidských zdrojů</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. i) směrnice (EU) 2022/2555 příslušné subjekty zajistí, aby jejich zaměstnanci a případně přímí dodavatelé a poskytovatelé služeb porozuměli svým povinnostem týkajícím se bezpečnosti a aby se k jejich dodržování zavázali, a to v návaznosti na poskytované služby a pracovní místa a v souladu s politikou příslušných subjektů v oblasti bezpečnosti sítí a informačních systémů.</t>
+  </si>
+  <si>
+    <t>Požadavek uvedený v bodě 10.1.1 musí zahrnovat:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanismy, které zajistí, aby všichni zaměstnanci, případně přímí dodavatelé a poskytovatelé služeb porozuměli standardním postupům v oblasti kybernetické hygieny, které příslušné subjekty uplatňují podle bodu 8.1, a aby je dodržovali;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanismy, které zajistí, aby si všichni uživatelé s administrátorským nebo privilegovaným přístupem byli vědomi svých úkolů, odpovědností a pravomocí a jednali v souladu s nimi;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanismy, které zajistí, aby členové řídících orgánů porozuměli svým úkolům, odpovědnostem a pravomocím v oblasti bezpečnosti sítí a informačních systémů a aby jednali v souladu s nimi;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanismy pro nábor pracovníků majících kvalifikaci pro příslušné funkce, jako jsou ověření referencí, postupy prověřování, ověřování certifikátů nebo písemné testy.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech, nejméně však jednou ročně, přezkoumají zařazení pracovníků na konkrétní funkce uvedené v bodě 1.2 a vyčlenění lidských zdrojů v tomto ohledu. V případě potřeby zařazení aktualizují.</t>
+  </si>
+  <si>
+    <t>Ověření spolehlivosti</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v proveditelném rozsahu zajistí, aby se u jejich zaměstnanců a v příslušných případech u přímých dodavatelů a poskytovatelů služeb provádělo ověřování spolehlivosti v souladu s bodem 5.1.4, pokud to vyžadují jejich úkoly, povinnosti a oprávnění.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 10.2.1 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zavedou kritéria, která stanoví, které úkoly, odpovědnosti a pravomoci mohou vykonávat pouze osoby, jejichž spolehlivost byla ověřena;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby ověření spolehlivosti těchto osob uvedené v bodě 10.2.1, které vezme v potaz platné zákony, předpisy a etické zásady úměrně k obchodním požadavkům, ke klasifikaci aktiv podle bodu 12.1, k sítím a informačním systémům, k nimž mají mít přístup, a vnímaným rizikům bylo provedeno před tím, než tyto osoby začnou vykonávat dané úkoly, odpovědnosti a pravomoci.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty tuto politiku v plánovaných intervalech přezkoumávají a v případě potřeby aktualizují a v případě potřeby ji aktualizují.</t>
+  </si>
+  <si>
+    <t>Postup při ukončení nebo změně pracovního poměru</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zajistí, aby byly smluvně vymezeny a vymáhány odpovědnosti a povinnosti v oblasti bezpečnosti sítí a informačních systémů, které zůstávají v platnosti i po ukončení nebo změně pracovního poměru jejich zaměstnanců.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 10.3.1 příslušné subjekty začlení do pracovních podmínek, smlouvy nebo dohody fyzické osoby odpovědnosti a povinnosti, které zůstávají v platnosti i po ukončení pracovního poměru nebo smlouvy, například ustanovení o důvěrnosti.</t>
+  </si>
+  <si>
+    <t>Disciplinární řízení</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zavedou, sdělí a udržují disciplinární postup pro řešení porušení politik bezpečnosti sítí a informačních systémů. Tento postup zohledňuje příslušné právní, zákonné, smluvní a obchodní požadavky.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech a v případě potřeby v důsledku právních změn nebo významných změn operací či rizik disciplinární postup přezkoumávají a v případě potřeby aktualizují.</t>
+  </si>
+  <si>
+    <t>Kontrola přístupu (čl. 21 odst. 2 písm. i) a j) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Postup kontroly přístupu</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. i) směrnice (EU) 2022/2555 příslušné subjekty stanoví, zdokumentují a zavedou politiky řízení logického a fyzického přístupu k jejich sítím a informačním systémům na základě obchodních požadavků a požadavků na bezpečnost sítí a informačního systému.</t>
+  </si>
+  <si>
+    <t>Politiky uvedené v bodě 11.1.1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">řeší přístup ze strany osob, včetně zaměstnanců, návštěvníků a externích subjektů, jako jsou dodavatelé a poskytovatelé služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">řeší přístup prostřednictvím sítí a informačních systémů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby byl přístup udělen pouze uživatelům, kteří byli řádně ověřeni.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty tyto politiky přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Správa přístupových práv</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty poskytují, upravují, odebírají a dokumentují přístupová práva k sítím a informačním systémům v souladu s politikou řízení přístupu uvedenou v bodě 11.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přidělují a odebírají přístupová práva podle zásady „potřeba vědět“, zásady minimálních práv a zásady oddělení funkcí;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby byla přístupová práva při ukončení nebo změně pracovního poměru odpovídajícím způsobem upravena;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby přístup k sítím a informačním systémům byl autorizován příslušnými osobami;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby přístupová práva vhodně řešila přístup třetích stran, jako jsou návštěvníci, dodavatelé a poskytovatelé služeb, zejména omezením rozsahu a doby trvání přístupových práv;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vedou registr udělených přístupových práv;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">používají vedení protokolů pro správu přístupových práv.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech přezkoumávají přístupová práva a upravují je na základě organizačních změn. Příslušné subjekty zdokumentují výsledky přezkumu včetně nezbytných změn přístupových práv.</t>
+  </si>
+  <si>
+    <t>Administrátorské účty a účty pro správu systému</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty udržují politiky pro správu administrátorských účtů a účtů pro správu systému jako součást politiky řízení přístupu uvedenou v bodě 11.1.</t>
+  </si>
+  <si>
+    <t>Politiky uvedené v bodě 11.3.1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zavádějí silnou identifikaci, autentizaci, jako je např. vícefaktorová autentizace, a postupy schvalování pro administrátorské účty a účty pro správu systému;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zřizují specifické účty, které se budou používat výhradně pro operace správy systému, jako je instalace, konfigurace, správa nebo údržba;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v maximální možné míře individualizují a omezují oprávnění pro správu systému;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby se účty pro správu systému používaly pouze pro připojení k systémům pro správu systému.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech přezkoumávají přístupová práva administrátorských účtů a účtů pro správu systému, která upravují na základě organizačních změn, a výsledky přezkumu, včetně nezbytných změn přístupových práv, dokumentují.</t>
+  </si>
+  <si>
+    <t>Systémy správy</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty omezí a řídí používání systémů pro správu systému v souladu s politikou řízení přístupu uvedenou v bodě 11.1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">používají systémy pro správu systému pouze pro účely správy systému, a nikoli pro jiné operace;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logicky oddělí tyto systémy od aplikačního softwaru, který se nepoužívá pro účely správy systému,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrání přístup k systémům správy pomocí ověřování a šifrování.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifikace</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty řídí celý životní cyklus identit sítí a informačních systémů a jejich uživatelů.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nastaví jedinečné identity pro sítě a informační systémy a jejich uživatele;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spojí identitu uživatelů s jedinou osobou;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí dohled nad identitami sítí a informačních systémů;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">použijí vedení protokolů pro řízení identit.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty povolí identitu přidělenou více osobám, například sdílenou identitu, pouze v případě, že je to nezbytné z obchodních nebo provozních důvodů a že jsou tyto případy podrobeny postupu a zdokumentování udělení výslovného souhlasu. Příslušné subjekty zohlední identity přidělené více osobám v rámci řízení rizik v oblasti kybernetické bezpečnosti uvedeném v bodě 2.1.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty pravidelně přezkoumávají identity sítí a informačních systémů a jejich uživatelů, a pokud již nejsou potřebné, neprodleně je deaktivují.</t>
+  </si>
+  <si>
+    <t>Ověření</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zavedou bezpečné ověřovací postupy a technologie založené na omezení přístupu a politice řízení přístupu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby úroveň ověření odpovídala klasifikaci aktiva, k němuž má být poskytnut přístup;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kontrolují přidělování tajných ověřovacích údajů uživatelům a jejich správu postupem, který zajišťuje důvěrnost údajů, což zahrnuje i poskytování poradenství pracovníkům ohledně vhodného zacházení s ověřovacími údaji;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyžadují změnu ověřovacích údajů na počátku, v předem stanovených intervalech a v případě podezření, že tyto údaje byly ohroženy;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyžadují obnovení ověřovacích údajů a zablokování uživatelů po předem stanoveném počtu neúspěšných pokusů o přihlášení;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ukončí neaktivní relace po uplynutí předem stanovené doby nečinnosti a
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyžadují zvláštní ověřovací údaje pro přístup k administrátorskému přístupu nebo k účtu pro správu systému.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v proveditelném rozsahu používají nejmodernější metody ověřování, a to v souladu se souvisejícím posouzeným rizikem a klasifikací aktiva, k němuž má být poskytnut přístup, a jedinečné ověřovací informace.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty v plánovaných intervalech přezkoumávají postupy a technologie ověřování.</t>
+  </si>
+  <si>
+    <t>Vícefaktorová autentizace</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zajistí, aby uživatelé byli při přístupu do sítě a informačních systémů subjektů ověřováni pomocí více autentizačních faktorů nebo mechanismů trvalé autentizace, případně v souladu s klasifikací aktiva, k němuž mají mít přístup.</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty zajistí, aby úroveň ověření odpovídala klasifikaci aktiva, k němuž má být poskytnut přístup.</t>
+  </si>
+  <si>
+    <t>Správa aktiv (čl. 21 odst. 2 písm. i) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Klasifikace aktiv</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. i) směrnice (EU) 2022/2555 příslušné subjekty stanoví stupně utajení všech aktiv, včetně informací, v oblasti působnosti svých sítí a informačních systémů pro požadovanou úroveň ochrany.</t>
+  </si>
+  <si>
+    <t>Pro účely bodu 12.1.1 příslušné subjekty:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví systém stupňů utajení aktiv;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">přiřadí všem aktivům stupeň utajení, a to na základě požadavků na důvěrnost, integritu, autenticitu a dostupnost, s cílem určit požadovanou ochranu podle jejich citlivosti, kritičnosti, rizika a obchodní hodnoty;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uvedou do souladu požadavky na dostupnost aktiv a cíle v oblasti poskytování a obnovy stanovené v jejich plánu kontinuity a obnovy provozu po havárii.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty provádějí pravidelné přezkumy stupňů utajení aktiv a v případě potřeby je aktualizují.</t>
+  </si>
+  <si>
+    <t>Zacházení s aktivy</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty vytvoří, zavedou a uplatňují politiku správného zacházení s aktivy, včetně informací, která je v souladu s jejich politikou bezpečnosti sítí a informací, a sdělí politiku správného nakládání s aktivy všem, kteří aktiva používají nebo s nimi nakládají.</t>
+  </si>
+  <si>
+    <t>Tato politika:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pokrývá celý životní cyklus aktiv, včetně pořízení, používání, uchovávání, přepravy a likvidace;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poskytuje pravidla bezpečného používání, bezpečné skladování, bezpečnou přepravu a nevratné vymazání a zničení aktiv.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví, že převod se uskuteční bezpečným způsobem v souladu s typem převáděného aktiva.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty tuto politiku přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t>Politika týkající se vyměnitelných médií</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty stanoví, zavedou a uplatňují politiku správy vyměnitelných paměťových médií a sdělí ji svým zaměstnancům a třetím stranám, které s vyměnitelnými paměťovými médii nakládají v prostorách příslušných subjektů nebo na jiných místech, kde jsou vyměnitelná média připojena k sítím a informačním systémům příslušných subjektů.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví technický zákaz připojení vyměnitelných médií, pokud pro použití neexistují organizační důvody;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajistí, aby bylo zakázáno samospouštění z takových médií a aby byla média před jejich použitím v systémech příslušných subjektů prověřována na přítomnost škodlivého kódu;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poskytuje opatření pro zajištění kontroly a ochrany přenosných paměťových zařízení obsahujících data při přepravě a skladování;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v případě potřeby stanoví opatření pro použití kryptografických technik s cílem chránit údaje na vyměnitelných paměťových médiích.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty tuto politiku přezkoumávají a v případě potřeby aktualizují v plánovaných intervalech a při výskytu významných incidentů nebo významných změn operací či rizik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soupis aktiv</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty vypracují a udržují úplný, přesný, aktuální a ucelený soupis svých aktiv. Dohledatelným způsobem zaznamenávají změny položek v soupisu.</t>
+  </si>
+  <si>
+    <t>Podrobnost soupisu aktiv by měla být na úrovni odpovídající potřebám příslušných subjektů. Soupis obsahuje:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seznam operací a služeb a jejich popis;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seznam sítí a informačních systémů a dalších souvisejících aktiv podporujících operace a služby příslušných subjektů.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty pravidelně přezkoumávají a aktualizují soupis a svá aktiva a dokumentují historii změn.</t>
+  </si>
+  <si>
+    <t>Uložení, vrácení nebo smazání aktiv po ukončení pracovního poměru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Příslušné subjekty stanoví, zavedou a uplatňují postupy, které zajistí, aby jejich aktiva, která mají zaměstnanci v úschově, byla po skončení pracovního poměru uložena, vrácena nebo smazána, a zdokumentují uložení, vrácení a smazání těchto aktiv. Pokud uložení, vrácení nebo vymazání aktiv není možné, příslušné subjekty zajistí, aby aktiva již neměla přístup do sítě a informačních systémů příslušných subjektů v souladu s bodem 12.2.2.
+</t>
+  </si>
+  <si>
+    <t>Environmentální a fyzická bezpečnost (čl. 21 odst. 2 písm. c), e) a i) směrnice (EU) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Podpůrné služby</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. c) směrnice (EU) 2022/2555 příslušné subjekty zabrání ztrátě, poškození nebo ohrožení sítí a informačních systémů nebo přerušení jejich provozu v důsledku selhání a narušení podpůrných služeb.</t>
+  </si>
+  <si>
+    <t>Za tímto účelem příslušné subjekty v případě potřeby:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrání zařízení před výpadky napájení a dalšími narušeními způsobenými výpadky podpůrných služeb, jako jsou elektřina, telekomunikace, dodávky vody, plynu, kanalizace, ventilace a klimatizace;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zváží využití redundance v oblasti veřejných služeb;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrání služby v oblasti elektřiny a telekomunikací, které přenášejí data nebo zásobují sítě a informační systémy, proti přerušení a poškození;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleduje služby uvedené v písmenu c) a oznamuje příslušným interním nebo externím pracovníkům události, které překračují minimální a maximální prahové hodnoty kontroly uvedené v bodě 13.2.2 písm. b) a které ovlivňují tyto služby;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uzavírají smlouvy na nouzové dodávky s odpovídajícími službami, například pokud jde o pohonné hmoty pro nouzové zásobování elektřinou;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zajišťují trvalou účinnost, sledují, udržují a testují dodávky pro sítě a informační systémy nezbytné pro provoz nabízené služby, zejména v oblasti elektrické energie, regulace teploty a vlhkosti, telekomunikací a internetového připojení.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty pravidelně nebo po významných incidentech nebo významných změnách operací či rizik tato ochranná opatření testují, přezkoumávají a v případě potřeby aktualizují.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ochrana před fyzickými a environmentálními hrozbami</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. e) směrnice (EU) 2022/2555 příslušné subjekty na základě výsledků posouzení rizik provedeného podle bodu 2.1 předcházejí následkům událostí, které mají původ ve fyzických a environmentálních hrozbách, jako jsou přírodní katastrofy a jiné úmyslné nebo neúmyslné hrozby, nebo následky těchto událostí omezují.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navrhují a provádějí ochranná opatření proti fyzickým a environmentálním hrozbám;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stanoví minimální a maximální prahové hodnoty kontrol pro fyzické a environmentální hrozby;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sledují parametry prostředí a oznamují příslušným interním nebo externím pracovníkům události, kdy jsou překračovány minimální a maximální prahové hodnoty kontrol uvedené v písmenu b).
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty pravidelně nebo po významných incidentech nebo významných změnách operací nebo rizik testují, přezkoumávají a v případě potřeby aktualizují ochranná opatření proti fyzickým a environmentálním hrozbám.</t>
+  </si>
+  <si>
+    <t>Kontrola vnějšího a fyzického přístupu</t>
+  </si>
+  <si>
+    <t>Pro účely čl. 21 odst. 2 písm. i) směrnice (EU) 2022/2555 příslušné subjekty předcházejí neoprávněnému fyzickému přístupu k sítím a informačním systémům, jejich poškození a zásahům do nich a předešle uvedené sledují.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">na základě posouzení rizik provedeného podle bodu 2.1 stanoví a používají bezpečnostní zóny s cílem chránit oblasti, kde se nacházejí sítě a informační systémy a další související aktiva;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrání oblasti uvedené v písmenu a) vhodnými kontrolami vstupu a přístupovými body;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navrhují a provádějí fyzické zabezpečení kanceláří, místností a zařízení;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">průběžně monitorují své prostory, zda v nich nedochází k neoprávněnému fyzickému přístupu.
+</t>
+  </si>
+  <si>
+    <t>Příslušné subjekty opatření ke kontrole fyzického přístupu testují, přezkoumávají a v případě potřeby aktualizují pravidelně nebo po významných incidentech nebo významných změnách operací nebo rizik.</t>
+  </si>
+  <si>
+    <t>EVROPSKÁ KOMISE</t>
+  </si>
+  <si>
+    <t>NIS2: technické a metodické požadavky 2024/2690</t>
+  </si>
+  <si>
+    <t>Prováděcí nařízení 2024/2690 kterým se stanoví pravidla pro uplatňování směrnice (EU) 2022/2555, pokud jde o technické a metodické požadavky na opatření k řízení kybernetických bezpečnostních rizik a bližší upřesnění případů, v nichž se incident považuje za významný, pokud jde o provozovatele DNS, registry domén nejvyšší úrovně, poskytovatele služeb cloud computingu, poskytovatele služeb datových center, poskytovatele sítí pro doručování obsahu, poskytovatele řízených služeb, poskytovatele řízených bezpečnostních služeb, poskytovatele on-line tržišť, internetových vyhledávačů a služeb platforem sociálních sítí a poskytovatele služeb vytvářejících důvěru. https://eur-lex.europa.eu/legal-content/CS/TXT/HTML/?uri=OJ:L_202402690</t>
+  </si>
+  <si>
+    <t>name[cs]</t>
+  </si>
+  <si>
+    <t>description[cs]</t>
+  </si>
+  <si>
+    <t>library_name[cs]</t>
+  </si>
+  <si>
+    <t>library_description[cs]</t>
+  </si>
+  <si>
+    <t>library_copyright[cs]</t>
+  </si>
+  <si>
+    <t>framework_name[cs]</t>
+  </si>
+  <si>
+    <t>framework_description[cs]</t>
+  </si>
+  <si>
+    <t>library_publication_date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4077,8 +5555,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4097,6 +5586,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4110,7 +5605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4150,6 +5645,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4168,7 +5687,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4484,20 +6003,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBB3CEB-58CF-7A4E-B0B7-D78CC9ABFCD0}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="203.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="203.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4505,151 +6024,199 @@
         <v>882</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B3" s="24">
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" ht="51">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" ht="51">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" t="s">
         <v>1313</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" ht="34">
+      <c r="A17" t="s">
         <v>1314</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" t="s">
         <v>1315</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" t="s">
         <v>1316</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" ht="34">
+      <c r="A20" t="s">
         <v>1317</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>1331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="68">
+      <c r="A22" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="68">
+      <c r="A25" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>1768</v>
       </c>
     </row>
   </sheetData>
@@ -4659,22 +6226,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018D80E-CD86-A646-A799-4CD19C4C2182}">
-  <dimension ref="A1:DA440"/>
+  <dimension ref="A1:CZ440"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="49.75" customWidth="1"/>
-    <col min="5" max="5" width="69.75" style="14" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="69.6640625" style="14" customWidth="1"/>
     <col min="6" max="6" width="11" style="14" customWidth="1"/>
-    <col min="7" max="7" width="55.875" customWidth="1"/>
+    <col min="7" max="7" width="55.83203125" customWidth="1"/>
     <col min="8" max="8" width="73" style="14" customWidth="1"/>
+    <col min="9" max="9" width="56.6640625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="76.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4696,11 +6265,17 @@
       <c r="G1" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="23" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="2" spans="1:105" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I1" s="22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:104" s="8" customFormat="1" ht="51">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -4716,8 +6291,10 @@
         <v>1319</v>
       </c>
       <c r="H2" s="14"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2" s="20" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J2" s="17"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -4812,9 +6389,8 @@
       <c r="CX2"/>
       <c r="CY2"/>
       <c r="CZ2"/>
-      <c r="DA2"/>
-    </row>
-    <row r="3" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -4830,8 +6406,10 @@
         <v>896</v>
       </c>
       <c r="H3" s="14"/>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="I3" s="19" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J3" s="17"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -4926,9 +6504,8 @@
       <c r="CX3"/>
       <c r="CY3"/>
       <c r="CZ3"/>
-      <c r="DA3"/>
-    </row>
-    <row r="4" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:104" ht="34">
       <c r="B4">
         <v>3</v>
       </c>
@@ -4941,8 +6518,11 @@
       <c r="H4" s="14" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="5" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J4" s="17" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:104" ht="34">
       <c r="A5" t="s">
         <v>589</v>
       </c>
@@ -4958,8 +6538,11 @@
       <c r="H5" s="14" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="6" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J5" s="17" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:104" ht="34">
       <c r="A6" t="s">
         <v>589</v>
       </c>
@@ -4975,8 +6558,11 @@
       <c r="H6" s="14" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J6" s="17" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:104" ht="17">
       <c r="A7" t="s">
         <v>589</v>
       </c>
@@ -4992,8 +6578,11 @@
       <c r="H7" s="14" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="8" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J7" s="17" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:104" ht="34">
       <c r="A8" t="s">
         <v>589</v>
       </c>
@@ -5009,8 +6598,11 @@
       <c r="H8" s="14" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="9" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J8" s="17" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:104" ht="51">
       <c r="A9" t="s">
         <v>589</v>
       </c>
@@ -5026,8 +6618,11 @@
       <c r="H9" s="14" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="10" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J9" s="17" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:104" ht="34">
       <c r="A10" t="s">
         <v>589</v>
       </c>
@@ -5043,8 +6638,11 @@
       <c r="H10" s="14" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J10" s="17" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:104" ht="17">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -5063,8 +6661,11 @@
       <c r="H11" s="14" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="12" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J11" s="17" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:104" ht="34">
       <c r="A12" t="s">
         <v>589</v>
       </c>
@@ -5077,11 +6678,15 @@
       <c r="E12" s="14" t="s">
         <v>596</v>
       </c>
+      <c r="F12" s="18"/>
       <c r="H12" s="14" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J12" s="17" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:104" ht="17">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -5097,8 +6702,11 @@
       <c r="H13" s="14" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="14" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J13" s="17" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:104" ht="34">
       <c r="A14" t="s">
         <v>589</v>
       </c>
@@ -5114,8 +6722,11 @@
       <c r="H14" s="14" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="15" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J14" s="17" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:104" ht="34">
       <c r="A15" t="s">
         <v>589</v>
       </c>
@@ -5131,8 +6742,11 @@
       <c r="H15" s="14" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="16" spans="1:105" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="17" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:104" ht="67.5" customHeight="1">
       <c r="A16" t="s">
         <v>589</v>
       </c>
@@ -5148,8 +6762,11 @@
       <c r="H16" s="14" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="17" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="17" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B17" s="10">
         <v>2</v>
       </c>
@@ -5167,8 +6784,10 @@
         <v>910</v>
       </c>
       <c r="H17" s="14"/>
-      <c r="I17"/>
-      <c r="J17"/>
+      <c r="I17" s="19" t="s">
+        <v>1349</v>
+      </c>
+      <c r="J17" s="17"/>
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
@@ -5263,9 +6882,8 @@
       <c r="CX17"/>
       <c r="CY17"/>
       <c r="CZ17"/>
-      <c r="DA17"/>
-    </row>
-    <row r="18" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:104" ht="85">
       <c r="A18" t="s">
         <v>589</v>
       </c>
@@ -5284,8 +6902,11 @@
       <c r="H18" s="14" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="19" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J18" s="17" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:104" ht="68">
       <c r="A19" t="s">
         <v>589</v>
       </c>
@@ -5301,8 +6922,11 @@
       <c r="H19" s="14" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="20" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J19" s="17" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:104" ht="34">
       <c r="A20" t="s">
         <v>589</v>
       </c>
@@ -5318,8 +6942,11 @@
       <c r="H20" s="14" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="21" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J20" s="17" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:104" ht="51">
       <c r="A21" t="s">
         <v>589</v>
       </c>
@@ -5335,8 +6962,11 @@
       <c r="H21" s="14" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="22" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J21" s="17" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:104" ht="34">
       <c r="A22" t="s">
         <v>589</v>
       </c>
@@ -5352,8 +6982,11 @@
       <c r="H22" s="14" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="23" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J22" s="17" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:104" ht="68">
       <c r="A23" t="s">
         <v>589</v>
       </c>
@@ -5369,8 +7002,11 @@
       <c r="H23" s="14" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="24" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J23" s="17" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="24" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -5388,8 +7024,10 @@
         <v>1320</v>
       </c>
       <c r="H24" s="14"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="I24" s="20" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J24" s="17"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -5484,9 +7122,8 @@
       <c r="CX24"/>
       <c r="CY24"/>
       <c r="CZ24"/>
-      <c r="DA24"/>
-    </row>
-    <row r="25" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B25" s="10">
         <v>2</v>
       </c>
@@ -5504,8 +7141,10 @@
         <v>917</v>
       </c>
       <c r="H25" s="14"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="I25" s="19" t="s">
+        <v>1357</v>
+      </c>
+      <c r="J25" s="17"/>
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25"/>
@@ -5600,9 +7239,8 @@
       <c r="CX25"/>
       <c r="CY25"/>
       <c r="CZ25"/>
-      <c r="DA25"/>
-    </row>
-    <row r="26" spans="1:105" ht="157.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:104" ht="170">
       <c r="A26" t="s">
         <v>589</v>
       </c>
@@ -5618,8 +7256,11 @@
       <c r="H26" s="14" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="27" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J26" s="17" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="27" spans="1:104" ht="102">
       <c r="A27" t="s">
         <v>589</v>
       </c>
@@ -5638,8 +7279,11 @@
       <c r="H27" s="14" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J27" s="17" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:104" ht="17">
       <c r="A28" t="s">
         <v>589</v>
       </c>
@@ -5655,8 +7299,11 @@
       <c r="H28" s="14" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="29" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J28" s="17" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:104" ht="34">
       <c r="A29" t="s">
         <v>589</v>
       </c>
@@ -5672,8 +7319,11 @@
       <c r="H29" s="14" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J29" s="17" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:104" ht="17">
       <c r="A30" t="s">
         <v>589</v>
       </c>
@@ -5689,8 +7339,11 @@
       <c r="H30" s="14" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="31" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J30" s="17" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:104" ht="85">
       <c r="A31" t="s">
         <v>589</v>
       </c>
@@ -5706,8 +7359,11 @@
       <c r="H31" s="14" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="32" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J31" s="17" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:104" ht="68">
       <c r="A32" t="s">
         <v>589</v>
       </c>
@@ -5723,8 +7379,11 @@
       <c r="H32" s="14" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J32" s="17" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:104" ht="34">
       <c r="A33" t="s">
         <v>589</v>
       </c>
@@ -5740,8 +7399,11 @@
       <c r="H33" s="14" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="34" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J33" s="17" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:104" ht="34">
       <c r="A34" t="s">
         <v>589</v>
       </c>
@@ -5757,8 +7419,11 @@
       <c r="H34" s="14" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J34" s="17" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="35" spans="1:104" ht="34">
       <c r="A35" t="s">
         <v>589</v>
       </c>
@@ -5774,8 +7439,11 @@
       <c r="H35" s="14" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="36" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J35" s="17" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="36" spans="1:104" ht="51">
       <c r="A36" t="s">
         <v>589</v>
       </c>
@@ -5791,8 +7459,11 @@
       <c r="H36" s="14" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="37" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J36" s="17" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="37" spans="1:104" ht="51">
       <c r="A37" t="s">
         <v>589</v>
       </c>
@@ -5808,8 +7479,11 @@
       <c r="H37" s="14" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="38" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J37" s="17" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="38" spans="1:104" ht="102">
       <c r="A38" t="s">
         <v>589</v>
       </c>
@@ -5828,8 +7502,11 @@
       <c r="H38" s="14" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="39" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J38" s="17" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="39" spans="1:104" ht="68">
       <c r="A39" t="s">
         <v>589</v>
       </c>
@@ -5845,8 +7522,11 @@
       <c r="H39" s="14" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="40" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="17" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B40" s="10">
         <v>2</v>
       </c>
@@ -5864,8 +7544,10 @@
         <v>932</v>
       </c>
       <c r="H40" s="14"/>
-      <c r="I40"/>
-      <c r="J40"/>
+      <c r="I40" s="19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="J40" s="17"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -5960,9 +7642,8 @@
       <c r="CX40"/>
       <c r="CY40"/>
       <c r="CZ40"/>
-      <c r="DA40"/>
-    </row>
-    <row r="41" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:104" ht="85">
       <c r="A41" t="s">
         <v>589</v>
       </c>
@@ -5978,8 +7659,11 @@
       <c r="H41" s="16" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="42" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J41" s="17" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:104" ht="85">
       <c r="A42" t="s">
         <v>589</v>
       </c>
@@ -5995,8 +7679,11 @@
       <c r="H42" s="16" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="43" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J42" s="17" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:104" ht="51">
       <c r="A43" t="s">
         <v>589</v>
       </c>
@@ -6012,8 +7699,11 @@
       <c r="H43" s="16" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="44" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="17" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B44" s="10">
         <v>2</v>
       </c>
@@ -6031,8 +7721,10 @@
         <v>936</v>
       </c>
       <c r="H44" s="14"/>
-      <c r="I44"/>
-      <c r="J44"/>
+      <c r="I44" s="19" t="s">
+        <v>1376</v>
+      </c>
+      <c r="J44" s="17"/>
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
@@ -6127,9 +7819,8 @@
       <c r="CX44"/>
       <c r="CY44"/>
       <c r="CZ44"/>
-      <c r="DA44"/>
-    </row>
-    <row r="45" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:104" ht="51">
       <c r="A45" t="s">
         <v>589</v>
       </c>
@@ -6145,8 +7836,11 @@
       <c r="H45" s="14" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="46" spans="1:105" ht="126" x14ac:dyDescent="0.25">
+      <c r="J45" s="17" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="46" spans="1:104" ht="136">
       <c r="A46" t="s">
         <v>589</v>
       </c>
@@ -6162,8 +7856,11 @@
       <c r="H46" s="14" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="47" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J46" s="17" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:104" ht="85">
       <c r="A47" t="s">
         <v>589</v>
       </c>
@@ -6182,8 +7879,11 @@
       <c r="H47" s="14" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="48" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J47" s="17" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:104" ht="51">
       <c r="A48" t="s">
         <v>589</v>
       </c>
@@ -6199,8 +7899,11 @@
       <c r="H48" s="14" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="49" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J48" s="17" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B49" s="8">
         <v>1</v>
       </c>
@@ -6218,8 +7921,10 @@
         <v>1321</v>
       </c>
       <c r="H49" s="14"/>
-      <c r="I49"/>
-      <c r="J49"/>
+      <c r="I49" s="20" t="s">
+        <v>1381</v>
+      </c>
+      <c r="J49" s="17"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -6314,9 +8019,8 @@
       <c r="CX49"/>
       <c r="CY49"/>
       <c r="CZ49"/>
-      <c r="DA49"/>
-    </row>
-    <row r="50" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B50" s="10">
         <v>2</v>
       </c>
@@ -6334,8 +8038,10 @@
         <v>941</v>
       </c>
       <c r="H50" s="14"/>
-      <c r="I50"/>
-      <c r="J50"/>
+      <c r="I50" s="19" t="s">
+        <v>1382</v>
+      </c>
+      <c r="J50" s="17"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -6430,9 +8136,8 @@
       <c r="CX50"/>
       <c r="CY50"/>
       <c r="CZ50"/>
-      <c r="DA50"/>
-    </row>
-    <row r="51" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:104" ht="102">
       <c r="A51" t="s">
         <v>589</v>
       </c>
@@ -6448,8 +8153,11 @@
       <c r="H51" s="16" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="52" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J51" s="17" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:104" ht="51">
       <c r="A52" t="s">
         <v>589</v>
       </c>
@@ -6468,8 +8176,11 @@
       <c r="H52" s="16" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="53" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J52" s="17" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:104" ht="34">
       <c r="A53" t="s">
         <v>589</v>
       </c>
@@ -6488,8 +8199,11 @@
       <c r="H53" s="16" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="54" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J53" s="17" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="54" spans="1:104" ht="34">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -6505,8 +8219,11 @@
       <c r="H54" s="16" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="55" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J54" s="17" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:104" ht="34">
       <c r="A55" t="s">
         <v>589</v>
       </c>
@@ -6522,8 +8239,11 @@
       <c r="H55" s="16" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="56" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J55" s="17" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="56" spans="1:104" ht="51">
       <c r="A56" t="s">
         <v>589</v>
       </c>
@@ -6539,8 +8259,11 @@
       <c r="H56" s="16" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="57" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J56" s="17" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:104" ht="68">
       <c r="A57" t="s">
         <v>589</v>
       </c>
@@ -6556,8 +8279,11 @@
       <c r="H57" s="16" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="58" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="17" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="58" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B58" s="10">
         <v>2</v>
       </c>
@@ -6575,8 +8301,10 @@
         <v>949</v>
       </c>
       <c r="H58" s="14"/>
-      <c r="I58"/>
-      <c r="J58"/>
+      <c r="I58" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="J58" s="17"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
@@ -6671,9 +8399,8 @@
       <c r="CX58"/>
       <c r="CY58"/>
       <c r="CZ58"/>
-      <c r="DA58"/>
-    </row>
-    <row r="59" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:104" ht="68">
       <c r="A59" t="s">
         <v>589</v>
       </c>
@@ -6689,8 +8416,11 @@
       <c r="H59" s="14" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="60" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J59" s="17" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:104" ht="68">
       <c r="A60" t="s">
         <v>589</v>
       </c>
@@ -6706,8 +8436,11 @@
       <c r="H60" s="14" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="61" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="17" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="61" spans="1:104" ht="85">
       <c r="A61" t="s">
         <v>589</v>
       </c>
@@ -6726,8 +8459,11 @@
       <c r="H61" s="14" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="62" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J61" s="17" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:104" ht="17">
       <c r="A62" t="s">
         <v>589</v>
       </c>
@@ -6743,8 +8479,11 @@
       <c r="H62" s="14" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="63" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J62" s="17" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:104" ht="34">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -6760,8 +8499,11 @@
       <c r="H63" s="14" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="64" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J63" s="17" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:104" ht="17">
       <c r="A64" t="s">
         <v>589</v>
       </c>
@@ -6777,8 +8519,11 @@
       <c r="H64" s="14" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="65" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J64" s="17" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="65" spans="1:104" ht="17">
       <c r="A65" t="s">
         <v>589</v>
       </c>
@@ -6794,8 +8539,11 @@
       <c r="H65" s="14" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="66" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J65" s="17" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:104" ht="34">
       <c r="A66" t="s">
         <v>589</v>
       </c>
@@ -6811,8 +8559,11 @@
       <c r="H66" s="14" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="67" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J66" s="17" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="67" spans="1:104" ht="34">
       <c r="A67" t="s">
         <v>589</v>
       </c>
@@ -6828,8 +8579,11 @@
       <c r="H67" s="14" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="68" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J67" s="17" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:104" ht="34">
       <c r="A68" t="s">
         <v>589</v>
       </c>
@@ -6845,8 +8599,11 @@
       <c r="H68" s="14" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="69" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J68" s="17" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="69" spans="1:104" ht="17">
       <c r="A69" t="s">
         <v>589</v>
       </c>
@@ -6862,8 +8619,11 @@
       <c r="H69" s="14" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="70" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J69" s="17" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:104" ht="17">
       <c r="A70" t="s">
         <v>589</v>
       </c>
@@ -6879,8 +8639,11 @@
       <c r="H70" s="14" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="71" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J70" s="17" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="71" spans="1:104" ht="17">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -6896,8 +8659,11 @@
       <c r="H71" s="14" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="72" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J71" s="17" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:104" ht="17">
       <c r="A72" t="s">
         <v>589</v>
       </c>
@@ -6913,8 +8679,11 @@
       <c r="H72" s="14" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="73" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J72" s="17" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="73" spans="1:104" ht="17">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -6930,8 +8699,11 @@
       <c r="H73" s="14" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="74" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J73" s="17" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="74" spans="1:104" ht="102">
       <c r="A74" t="s">
         <v>589</v>
       </c>
@@ -6947,8 +8719,11 @@
       <c r="H74" s="14" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="75" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J74" s="17" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:104" ht="51">
       <c r="A75" t="s">
         <v>589</v>
       </c>
@@ -6964,8 +8739,11 @@
       <c r="H75" s="14" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="76" spans="1:105" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="J75" s="17" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:104" ht="119">
       <c r="A76" t="s">
         <v>589</v>
       </c>
@@ -6981,8 +8759,11 @@
       <c r="H76" s="14" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="77" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J76" s="17" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:104" ht="51">
       <c r="A77" t="s">
         <v>589</v>
       </c>
@@ -6998,8 +8779,11 @@
       <c r="H77" s="14" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="78" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="17" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B78" s="10">
         <v>2</v>
       </c>
@@ -7017,8 +8801,10 @@
         <v>969</v>
       </c>
       <c r="H78" s="14"/>
-      <c r="I78"/>
-      <c r="J78"/>
+      <c r="I78" s="19" t="s">
+        <v>1410</v>
+      </c>
+      <c r="J78" s="17"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -7113,9 +8899,8 @@
       <c r="CX78"/>
       <c r="CY78"/>
       <c r="CZ78"/>
-      <c r="DA78"/>
-    </row>
-    <row r="79" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:104" ht="34">
       <c r="A79" t="s">
         <v>589</v>
       </c>
@@ -7131,8 +8916,11 @@
       <c r="H79" s="14" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="80" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J79" s="17" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:104" ht="51">
       <c r="A80" t="s">
         <v>589</v>
       </c>
@@ -7148,8 +8936,11 @@
       <c r="H80" s="14" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="81" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="17" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B81" s="10">
         <v>2</v>
       </c>
@@ -7167,8 +8958,10 @@
         <v>972</v>
       </c>
       <c r="H81" s="14"/>
-      <c r="I81"/>
-      <c r="J81"/>
+      <c r="I81" s="19" t="s">
+        <v>1413</v>
+      </c>
+      <c r="J81" s="17"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
@@ -7263,9 +9056,8 @@
       <c r="CX81"/>
       <c r="CY81"/>
       <c r="CZ81"/>
-      <c r="DA81"/>
-    </row>
-    <row r="82" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:104" ht="34">
       <c r="A82" t="s">
         <v>589</v>
       </c>
@@ -7281,8 +9073,11 @@
       <c r="H82" s="14" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="83" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J82" s="17" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:104" ht="34">
       <c r="B83">
         <v>3</v>
       </c>
@@ -7298,8 +9093,11 @@
       <c r="H83" s="14" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="84" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J83" s="17" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:104" ht="51">
       <c r="A84" t="s">
         <v>589</v>
       </c>
@@ -7315,8 +9113,11 @@
       <c r="H84" s="14" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="85" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J84" s="17" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="85" spans="1:104" ht="34">
       <c r="A85" t="s">
         <v>589</v>
       </c>
@@ -7332,8 +9133,11 @@
       <c r="H85" s="14" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="86" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J85" s="17" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:104" ht="34">
       <c r="A86" t="s">
         <v>589</v>
       </c>
@@ -7349,8 +9153,11 @@
       <c r="H86" s="14" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="87" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J86" s="17" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:104" ht="17">
       <c r="A87" t="s">
         <v>589</v>
       </c>
@@ -7366,8 +9173,11 @@
       <c r="H87" s="14" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="88" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J87" s="17" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="88" spans="1:104" ht="34">
       <c r="A88" t="s">
         <v>589</v>
       </c>
@@ -7383,8 +9193,11 @@
       <c r="H88" s="14" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="89" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="17" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B89" s="10">
         <v>2</v>
       </c>
@@ -7402,8 +9215,10 @@
         <v>980</v>
       </c>
       <c r="H89" s="14"/>
-      <c r="I89"/>
-      <c r="J89"/>
+      <c r="I89" s="19" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J89" s="17"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -7498,9 +9313,8 @@
       <c r="CX89"/>
       <c r="CY89"/>
       <c r="CZ89"/>
-      <c r="DA89"/>
-    </row>
-    <row r="90" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:104" ht="34">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -7516,8 +9330,11 @@
       <c r="H90" s="14" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="91" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J90" s="17" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:104" ht="17">
       <c r="B91">
         <v>3</v>
       </c>
@@ -7530,8 +9347,11 @@
       <c r="H91" s="14" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="92" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J91" s="17" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="92" spans="1:104" ht="34">
       <c r="A92" t="s">
         <v>589</v>
       </c>
@@ -7547,8 +9367,11 @@
       <c r="H92" s="14" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="93" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J92" s="17" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="93" spans="1:104" ht="17">
       <c r="A93" t="s">
         <v>589</v>
       </c>
@@ -7564,8 +9387,11 @@
       <c r="H93" s="14" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="94" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J93" s="17" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="94" spans="1:104" ht="17">
       <c r="A94" t="s">
         <v>589</v>
       </c>
@@ -7581,8 +9407,11 @@
       <c r="H94" s="14" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="95" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J94" s="17" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="95" spans="1:104" ht="17">
       <c r="A95" t="s">
         <v>589</v>
       </c>
@@ -7598,8 +9427,11 @@
       <c r="H95" s="14" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="96" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J95" s="17" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:104" ht="51">
       <c r="A96" t="s">
         <v>589</v>
       </c>
@@ -7615,8 +9447,11 @@
       <c r="H96" s="14" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="97" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J96" s="17" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:104" ht="34">
       <c r="A97" t="s">
         <v>589</v>
       </c>
@@ -7632,8 +9467,11 @@
       <c r="H97" s="14" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="98" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J97" s="17" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:104" ht="51">
       <c r="A98" t="s">
         <v>589</v>
       </c>
@@ -7652,8 +9490,11 @@
       <c r="H98" s="14" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="99" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J98" s="17" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="99" spans="1:104" ht="34">
       <c r="A99" t="s">
         <v>589</v>
       </c>
@@ -7669,8 +9510,11 @@
       <c r="H99" s="14" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="100" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="17" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="100" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B100" s="10">
         <v>2</v>
       </c>
@@ -7688,8 +9532,10 @@
         <v>991</v>
       </c>
       <c r="H100" s="14"/>
-      <c r="I100"/>
-      <c r="J100"/>
+      <c r="I100" s="19" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J100" s="17"/>
       <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
@@ -7784,9 +9630,8 @@
       <c r="CX100"/>
       <c r="CY100"/>
       <c r="CZ100"/>
-      <c r="DA100"/>
-    </row>
-    <row r="101" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:104" ht="85">
       <c r="A101" t="s">
         <v>589</v>
       </c>
@@ -7802,8 +9647,11 @@
       <c r="H101" s="14" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="102" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J101" s="17" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="102" spans="1:104" ht="68">
       <c r="A102" t="s">
         <v>589</v>
       </c>
@@ -7819,8 +9667,11 @@
       <c r="H102" s="14" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="103" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J102" s="17" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:104" ht="34">
       <c r="B103">
         <v>3</v>
       </c>
@@ -7833,8 +9684,11 @@
       <c r="H103" s="14" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="104" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J103" s="17" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B104" s="8">
         <v>1</v>
       </c>
@@ -7852,8 +9706,10 @@
         <v>1322</v>
       </c>
       <c r="H104" s="14"/>
-      <c r="I104"/>
-      <c r="J104"/>
+      <c r="I104" s="20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J104" s="17"/>
       <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
@@ -7948,9 +9804,8 @@
       <c r="CX104"/>
       <c r="CY104"/>
       <c r="CZ104"/>
-      <c r="DA104"/>
-    </row>
-    <row r="105" spans="1:105" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:104" s="10" customFormat="1" ht="34">
       <c r="B105" s="10">
         <v>2</v>
       </c>
@@ -7968,8 +9823,10 @@
         <v>995</v>
       </c>
       <c r="H105" s="14"/>
-      <c r="I105"/>
-      <c r="J105"/>
+      <c r="I105" s="19" t="s">
+        <v>1437</v>
+      </c>
+      <c r="J105" s="17"/>
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
@@ -8064,9 +9921,8 @@
       <c r="CX105"/>
       <c r="CY105"/>
       <c r="CZ105"/>
-      <c r="DA105"/>
-    </row>
-    <row r="106" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:104" ht="68">
       <c r="A106" t="s">
         <v>589</v>
       </c>
@@ -8082,8 +9938,11 @@
       <c r="H106" s="14" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="107" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J106" s="17" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="107" spans="1:104" ht="68">
       <c r="A107" t="s">
         <v>589</v>
       </c>
@@ -8102,8 +9961,11 @@
       <c r="H107" s="14" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="108" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J107" s="17" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="108" spans="1:104" ht="17">
       <c r="A108" t="s">
         <v>589</v>
       </c>
@@ -8119,8 +9981,11 @@
       <c r="H108" s="14" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="109" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J108" s="17" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="109" spans="1:104" ht="17">
       <c r="A109" t="s">
         <v>589</v>
       </c>
@@ -8136,8 +10001,11 @@
       <c r="H109" s="14" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="110" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J109" s="17" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:104" ht="17">
       <c r="A110" t="s">
         <v>589</v>
       </c>
@@ -8153,8 +10021,11 @@
       <c r="H110" s="14" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="111" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J110" s="17" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="111" spans="1:104" ht="17">
       <c r="A111" t="s">
         <v>589</v>
       </c>
@@ -8170,8 +10041,11 @@
       <c r="H111" s="14" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="112" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J111" s="17" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:104" ht="17">
       <c r="A112" t="s">
         <v>589</v>
       </c>
@@ -8187,8 +10061,11 @@
       <c r="H112" s="14" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="113" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J112" s="17" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:104" ht="34">
       <c r="A113" t="s">
         <v>589</v>
       </c>
@@ -8204,8 +10081,11 @@
       <c r="H113" s="14" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="114" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J113" s="17" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:104" ht="17">
       <c r="A114" t="s">
         <v>589</v>
       </c>
@@ -8221,8 +10101,11 @@
       <c r="H114" s="14" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="115" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J114" s="17" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:104" ht="17">
       <c r="A115" t="s">
         <v>589</v>
       </c>
@@ -8238,8 +10121,11 @@
       <c r="H115" s="14" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="116" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J115" s="17" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="116" spans="1:104" ht="68">
       <c r="A116" t="s">
         <v>589</v>
       </c>
@@ -8255,8 +10141,11 @@
       <c r="H116" s="14" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="117" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J116" s="17" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:104" ht="85">
       <c r="A117" t="s">
         <v>589</v>
       </c>
@@ -8272,8 +10161,11 @@
       <c r="H117" s="14" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="118" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="17" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="118" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B118" s="10">
         <v>2</v>
       </c>
@@ -8291,8 +10183,10 @@
         <v>1008</v>
       </c>
       <c r="H118" s="14"/>
-      <c r="I118"/>
-      <c r="J118"/>
+      <c r="I118" s="19" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J118" s="17"/>
       <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
@@ -8387,9 +10281,8 @@
       <c r="CX118"/>
       <c r="CY118"/>
       <c r="CZ118"/>
-      <c r="DA118"/>
-    </row>
-    <row r="119" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:104" ht="51">
       <c r="A119" t="s">
         <v>589</v>
       </c>
@@ -8405,8 +10298,11 @@
       <c r="H119" s="14" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="120" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J119" s="17" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="120" spans="1:104" ht="51">
       <c r="A120" t="s">
         <v>589</v>
       </c>
@@ -8425,8 +10321,11 @@
       <c r="H120" s="14" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="121" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J120" s="17" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:104" ht="17">
       <c r="A121" t="s">
         <v>589</v>
       </c>
@@ -8442,8 +10341,11 @@
       <c r="H121" s="14" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="122" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J121" s="17" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:104" ht="51">
       <c r="A122" t="s">
         <v>589</v>
       </c>
@@ -8459,8 +10361,11 @@
       <c r="H122" s="14" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="123" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J122" s="17" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="123" spans="1:104" ht="68">
       <c r="A123" t="s">
         <v>589</v>
       </c>
@@ -8476,8 +10381,11 @@
       <c r="H123" s="14" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="124" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J123" s="17" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:104" ht="34">
       <c r="A124" t="s">
         <v>589</v>
       </c>
@@ -8493,8 +10401,11 @@
       <c r="H124" s="14" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="125" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J124" s="17" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="125" spans="1:104" ht="17">
       <c r="A125" t="s">
         <v>589</v>
       </c>
@@ -8510,8 +10421,11 @@
       <c r="H125" s="14" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="126" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J125" s="17" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="126" spans="1:104" ht="17">
       <c r="A126" t="s">
         <v>589</v>
       </c>
@@ -8527,8 +10441,11 @@
       <c r="H126" s="14" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="127" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J126" s="17" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="127" spans="1:104" ht="34">
       <c r="A127" t="s">
         <v>589</v>
       </c>
@@ -8544,8 +10461,11 @@
       <c r="H127" s="14" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="128" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J127" s="17" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="128" spans="1:104" ht="68">
       <c r="A128" t="s">
         <v>589</v>
       </c>
@@ -8564,8 +10484,11 @@
       <c r="H128" s="14" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="129" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J128" s="17" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="129" spans="1:104" ht="17">
       <c r="A129" t="s">
         <v>589</v>
       </c>
@@ -8581,8 +10504,11 @@
       <c r="H129" s="14" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="130" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J129" s="17" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="130" spans="1:104" ht="17">
       <c r="A130" t="s">
         <v>589</v>
       </c>
@@ -8598,8 +10524,11 @@
       <c r="H130" s="14" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="131" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J130" s="17" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="131" spans="1:104" ht="17">
       <c r="A131" t="s">
         <v>589</v>
       </c>
@@ -8615,8 +10544,11 @@
       <c r="H131" s="14" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="132" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J131" s="17" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="132" spans="1:104" ht="17">
       <c r="A132" t="s">
         <v>589</v>
       </c>
@@ -8632,8 +10564,11 @@
       <c r="H132" s="14" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="133" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J132" s="17" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="133" spans="1:104" ht="51">
       <c r="A133" t="s">
         <v>589</v>
       </c>
@@ -8649,8 +10584,11 @@
       <c r="H133" s="14" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="134" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J133" s="17" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="134" spans="1:104" ht="102">
       <c r="A134" t="s">
         <v>589</v>
       </c>
@@ -8666,8 +10604,11 @@
       <c r="H134" s="14" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="135" spans="1:105" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J134" s="17" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="135" spans="1:104" s="8" customFormat="1" ht="17">
       <c r="A135" s="10"/>
       <c r="B135" s="10">
         <v>2</v>
@@ -8686,8 +10627,10 @@
         <v>1025</v>
       </c>
       <c r="H135" s="14"/>
-      <c r="I135"/>
-      <c r="J135"/>
+      <c r="I135" s="19" t="s">
+        <v>1467</v>
+      </c>
+      <c r="J135" s="17"/>
       <c r="K135"/>
       <c r="L135"/>
       <c r="M135"/>
@@ -8782,9 +10725,8 @@
       <c r="CX135"/>
       <c r="CY135"/>
       <c r="CZ135"/>
-      <c r="DA135"/>
-    </row>
-    <row r="136" spans="1:105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:104" ht="17">
       <c r="A136" t="s">
         <v>589</v>
       </c>
@@ -8800,8 +10742,11 @@
       <c r="H136" s="14" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="137" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J136" s="17" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="137" spans="1:104" ht="34">
       <c r="A137" t="s">
         <v>589</v>
       </c>
@@ -8817,8 +10762,11 @@
       <c r="H137" s="14" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="138" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J137" s="17" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="138" spans="1:104" ht="51">
       <c r="A138" t="s">
         <v>589</v>
       </c>
@@ -8834,8 +10782,11 @@
       <c r="H138" s="14" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="139" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J138" s="17" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="139" spans="1:104" ht="34">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -8851,8 +10802,11 @@
       <c r="H139" s="14" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="140" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J139" s="17" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="140" spans="1:104" ht="34">
       <c r="A140" t="s">
         <v>589</v>
       </c>
@@ -8868,8 +10822,11 @@
       <c r="H140" s="14" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="141" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J140" s="17" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="141" spans="1:104" ht="68">
       <c r="A141" t="s">
         <v>589</v>
       </c>
@@ -8882,8 +10839,11 @@
       <c r="H141" s="14" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="142" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J141" s="17" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="142" spans="1:104" ht="68">
       <c r="A142" t="s">
         <v>589</v>
       </c>
@@ -8899,8 +10859,11 @@
       <c r="H142" s="14" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="143" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J142" s="17" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="143" spans="1:104" ht="51">
       <c r="A143" t="s">
         <v>589</v>
       </c>
@@ -8916,8 +10879,11 @@
       <c r="H143" s="14" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="144" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J143" s="17" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="144" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B144" s="8">
         <v>1</v>
       </c>
@@ -8935,8 +10901,10 @@
         <v>1323</v>
       </c>
       <c r="H144" s="14"/>
-      <c r="I144"/>
-      <c r="J144"/>
+      <c r="I144" s="20" t="s">
+        <v>1476</v>
+      </c>
+      <c r="J144" s="17"/>
       <c r="K144"/>
       <c r="L144"/>
       <c r="M144"/>
@@ -9031,9 +10999,8 @@
       <c r="CX144"/>
       <c r="CY144"/>
       <c r="CZ144"/>
-      <c r="DA144"/>
-    </row>
-    <row r="145" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B145" s="10">
         <v>2</v>
       </c>
@@ -9051,8 +11018,10 @@
         <v>1034</v>
       </c>
       <c r="H145" s="14"/>
-      <c r="I145"/>
-      <c r="J145"/>
+      <c r="I145" s="19" t="s">
+        <v>1477</v>
+      </c>
+      <c r="J145" s="17"/>
       <c r="K145"/>
       <c r="L145"/>
       <c r="M145"/>
@@ -9147,9 +11116,8 @@
       <c r="CX145"/>
       <c r="CY145"/>
       <c r="CZ145"/>
-      <c r="DA145"/>
-    </row>
-    <row r="146" spans="1:105" ht="126" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:104" ht="136">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -9165,8 +11133,11 @@
       <c r="H146" s="14" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="147" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J146" s="17" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="147" spans="1:104" ht="51">
       <c r="A147" t="s">
         <v>589</v>
       </c>
@@ -9185,8 +11156,11 @@
       <c r="H147" s="14" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="148" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J147" s="17" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:104" ht="34">
       <c r="A148" t="s">
         <v>589</v>
       </c>
@@ -9202,8 +11176,11 @@
       <c r="H148" s="14" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="149" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J148" s="17" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="149" spans="1:104" ht="34">
       <c r="A149" t="s">
         <v>589</v>
       </c>
@@ -9219,8 +11196,11 @@
       <c r="H149" s="14" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="150" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J149" s="17" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="150" spans="1:104" ht="51">
       <c r="A150" t="s">
         <v>589</v>
       </c>
@@ -9236,8 +11216,11 @@
       <c r="H150" s="14" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="151" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J150" s="17" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="151" spans="1:104" ht="34">
       <c r="A151" t="s">
         <v>589</v>
       </c>
@@ -9253,8 +11236,11 @@
       <c r="H151" s="14" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="152" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J151" s="17" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="152" spans="1:104" ht="85">
       <c r="A152" t="s">
         <v>589</v>
       </c>
@@ -9270,8 +11256,11 @@
       <c r="H152" s="14" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="153" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J152" s="17" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="153" spans="1:104" ht="85">
       <c r="A153" t="s">
         <v>589</v>
       </c>
@@ -9290,8 +11279,11 @@
       <c r="H153" s="14" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="154" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J153" s="17" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="154" spans="1:104" ht="51">
       <c r="A154" t="s">
         <v>589</v>
       </c>
@@ -9310,8 +11302,11 @@
       <c r="H154" s="14" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="155" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J154" s="17" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="155" spans="1:104" ht="51">
       <c r="A155" t="s">
         <v>589</v>
       </c>
@@ -9327,8 +11322,11 @@
       <c r="H155" s="14" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="156" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J155" s="17" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="156" spans="1:104" ht="34">
       <c r="A156" t="s">
         <v>589</v>
       </c>
@@ -9344,8 +11342,11 @@
       <c r="H156" s="14" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="157" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J156" s="17" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="157" spans="1:104" ht="68">
       <c r="A157" t="s">
         <v>589</v>
       </c>
@@ -9361,8 +11362,11 @@
       <c r="H157" s="14" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="158" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J157" s="17" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="158" spans="1:104" ht="34">
       <c r="A158" t="s">
         <v>589</v>
       </c>
@@ -9378,8 +11382,11 @@
       <c r="H158" s="14" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="159" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J158" s="17" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="159" spans="1:104" ht="51">
       <c r="A159" t="s">
         <v>589</v>
       </c>
@@ -9395,8 +11402,11 @@
       <c r="H159" s="14" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="160" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J159" s="17" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="160" spans="1:104" ht="51">
       <c r="A160" t="s">
         <v>589</v>
       </c>
@@ -9412,8 +11422,11 @@
       <c r="H160" s="14" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="161" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J160" s="17" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="161" spans="1:104" ht="51">
       <c r="A161" t="s">
         <v>589</v>
       </c>
@@ -9429,8 +11442,11 @@
       <c r="H161" s="14" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="162" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J161" s="17" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:104" ht="51">
       <c r="A162" t="s">
         <v>589</v>
       </c>
@@ -9449,8 +11465,11 @@
       <c r="H162" s="14" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="163" spans="1:105" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="J162" s="17" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="163" spans="1:104" ht="119">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -9466,8 +11485,11 @@
       <c r="H163" s="14" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="164" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J163" s="17" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="164" spans="1:104" ht="17">
       <c r="B164">
         <v>3</v>
       </c>
@@ -9483,8 +11505,11 @@
       <c r="H164" s="14" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="165" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J164" s="17" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="165" spans="1:104" ht="34">
       <c r="A165" t="s">
         <v>589</v>
       </c>
@@ -9500,8 +11525,11 @@
       <c r="H165" s="14" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="166" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J165" s="17" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="166" spans="1:104" ht="51">
       <c r="A166" t="s">
         <v>589</v>
       </c>
@@ -9517,8 +11545,11 @@
       <c r="H166" s="14" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="167" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J166" s="17" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:104" ht="34">
       <c r="A167" t="s">
         <v>589</v>
       </c>
@@ -9534,8 +11565,11 @@
       <c r="H167" s="14" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="168" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J167" s="17" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="168" spans="1:104" ht="51">
       <c r="A168" t="s">
         <v>589</v>
       </c>
@@ -9551,8 +11585,11 @@
       <c r="H168" s="14" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="169" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J168" s="17" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="169" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B169" s="10">
         <v>2</v>
       </c>
@@ -9570,8 +11607,10 @@
         <v>1058</v>
       </c>
       <c r="H169" s="14"/>
-      <c r="I169"/>
-      <c r="J169"/>
+      <c r="I169" s="19" t="s">
+        <v>1501</v>
+      </c>
+      <c r="J169" s="17"/>
       <c r="K169"/>
       <c r="L169"/>
       <c r="M169"/>
@@ -9666,9 +11705,8 @@
       <c r="CX169"/>
       <c r="CY169"/>
       <c r="CZ169"/>
-      <c r="DA169"/>
-    </row>
-    <row r="170" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:104" ht="51">
       <c r="A170" t="s">
         <v>589</v>
       </c>
@@ -9681,8 +11719,11 @@
       <c r="H170" s="14" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="171" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J170" s="17" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="171" spans="1:104" ht="34">
       <c r="A171" t="s">
         <v>589</v>
       </c>
@@ -9698,8 +11739,11 @@
       <c r="H171" s="14" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="172" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J171" s="17" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="172" spans="1:104" ht="51">
       <c r="A172" t="s">
         <v>589</v>
       </c>
@@ -9715,8 +11759,11 @@
       <c r="H172" s="14" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="173" spans="1:105" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J172" s="17" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="173" spans="1:104" s="8" customFormat="1" ht="51">
       <c r="B173" s="8">
         <v>1</v>
       </c>
@@ -9734,8 +11781,10 @@
         <v>1324</v>
       </c>
       <c r="H173" s="14"/>
-      <c r="I173"/>
-      <c r="J173"/>
+      <c r="I173" s="20" t="s">
+        <v>1505</v>
+      </c>
+      <c r="J173" s="17"/>
       <c r="K173"/>
       <c r="L173"/>
       <c r="M173"/>
@@ -9830,9 +11879,8 @@
       <c r="CX173"/>
       <c r="CY173"/>
       <c r="CZ173"/>
-      <c r="DA173"/>
-    </row>
-    <row r="174" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B174" s="10">
         <v>2</v>
       </c>
@@ -9850,8 +11898,10 @@
         <v>1062</v>
       </c>
       <c r="H174" s="14"/>
-      <c r="I174"/>
-      <c r="J174"/>
+      <c r="I174" s="19" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J174" s="17"/>
       <c r="K174"/>
       <c r="L174"/>
       <c r="M174"/>
@@ -9946,9 +11996,8 @@
       <c r="CX174"/>
       <c r="CY174"/>
       <c r="CZ174"/>
-      <c r="DA174"/>
-    </row>
-    <row r="175" spans="1:105" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:104" ht="119">
       <c r="A175" t="s">
         <v>589</v>
       </c>
@@ -9967,8 +12016,11 @@
       <c r="H175" s="14" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="176" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J175" s="17" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:104" ht="17">
       <c r="B176">
         <v>3</v>
       </c>
@@ -9984,8 +12036,11 @@
       <c r="H176" s="14" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="177" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J176" s="17" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="177" spans="1:104" ht="34">
       <c r="A177" t="s">
         <v>589</v>
       </c>
@@ -10001,8 +12056,11 @@
       <c r="H177" s="14" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="178" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J177" s="17" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="178" spans="1:104" ht="51">
       <c r="A178" t="s">
         <v>589</v>
       </c>
@@ -10018,8 +12076,11 @@
       <c r="H178" s="14" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="179" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J178" s="17" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="179" spans="1:104" ht="51">
       <c r="A179" t="s">
         <v>589</v>
       </c>
@@ -10035,8 +12096,11 @@
       <c r="H179" s="14" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="180" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J179" s="17" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="180" spans="1:104" ht="51">
       <c r="A180" t="s">
         <v>589</v>
       </c>
@@ -10052,8 +12116,11 @@
       <c r="H180" s="14" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="181" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J180" s="17" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="181" spans="1:104" ht="34">
       <c r="A181" t="s">
         <v>589</v>
       </c>
@@ -10069,8 +12136,11 @@
       <c r="H181" s="14" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="182" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J181" s="17" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="182" spans="1:104" ht="51">
       <c r="A182" t="s">
         <v>589</v>
       </c>
@@ -10086,8 +12156,11 @@
       <c r="H182" s="14" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="183" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J182" s="17" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:104" ht="51">
       <c r="A183" t="s">
         <v>589</v>
       </c>
@@ -10103,8 +12176,11 @@
       <c r="H183" s="14" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="184" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J183" s="17" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="184" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B184" s="10">
         <v>2</v>
       </c>
@@ -10119,8 +12195,10 @@
         <v>1072</v>
       </c>
       <c r="H184" s="14"/>
-      <c r="I184"/>
-      <c r="J184"/>
+      <c r="I184" s="19" t="s">
+        <v>1516</v>
+      </c>
+      <c r="J184" s="17"/>
       <c r="K184"/>
       <c r="L184"/>
       <c r="M184"/>
@@ -10215,9 +12293,8 @@
       <c r="CX184"/>
       <c r="CY184"/>
       <c r="CZ184"/>
-      <c r="DA184"/>
-    </row>
-    <row r="185" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:104" ht="102">
       <c r="A185" t="s">
         <v>589</v>
       </c>
@@ -10233,8 +12310,11 @@
       <c r="H185" s="14" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="186" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J185" s="17" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="186" spans="1:104" ht="17">
       <c r="B186">
         <v>3</v>
       </c>
@@ -10250,8 +12330,11 @@
       <c r="H186" s="14" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="187" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J186" s="17" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="187" spans="1:104" ht="51">
       <c r="A187" t="s">
         <v>589</v>
       </c>
@@ -10267,8 +12350,11 @@
       <c r="H187" s="14" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="188" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J187" s="17" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="188" spans="1:104" ht="68">
       <c r="A188" t="s">
         <v>589</v>
       </c>
@@ -10284,8 +12370,11 @@
       <c r="H188" s="14" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="189" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J188" s="17" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="189" spans="1:104" ht="34">
       <c r="A189" t="s">
         <v>589</v>
       </c>
@@ -10301,8 +12390,11 @@
       <c r="H189" s="14" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="190" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J189" s="17" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="190" spans="1:104" ht="34">
       <c r="A190" t="s">
         <v>589</v>
       </c>
@@ -10318,8 +12410,11 @@
       <c r="H190" s="14" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="191" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J190" s="17" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="191" spans="1:104" ht="34">
       <c r="A191" t="s">
         <v>589</v>
       </c>
@@ -10335,8 +12430,11 @@
       <c r="H191" s="14" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="192" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J191" s="17" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="192" spans="1:104" ht="34">
       <c r="A192" t="s">
         <v>589</v>
       </c>
@@ -10355,8 +12453,11 @@
       <c r="H192" s="14" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="193" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J192" s="17" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="193" spans="1:104" ht="51">
       <c r="A193" t="s">
         <v>589</v>
       </c>
@@ -10375,8 +12476,11 @@
       <c r="H193" s="14" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="194" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J193" s="17" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="194" spans="1:104" ht="34">
       <c r="A194" t="s">
         <v>589</v>
       </c>
@@ -10392,8 +12496,11 @@
       <c r="H194" s="14" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="195" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J194" s="17" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="195" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B195" s="10">
         <v>2</v>
       </c>
@@ -10411,8 +12518,10 @@
         <v>1083</v>
       </c>
       <c r="H195" s="14"/>
-      <c r="I195"/>
-      <c r="J195"/>
+      <c r="I195" s="19" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J195" s="17"/>
       <c r="K195"/>
       <c r="L195"/>
       <c r="M195"/>
@@ -10507,9 +12616,8 @@
       <c r="CX195"/>
       <c r="CY195"/>
       <c r="CZ195"/>
-      <c r="DA195"/>
-    </row>
-    <row r="196" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:104" ht="68">
       <c r="A196" t="s">
         <v>589</v>
       </c>
@@ -10525,8 +12633,11 @@
       <c r="H196" s="14" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="197" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J196" s="17" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="197" spans="1:104" ht="17">
       <c r="B197">
         <v>3</v>
       </c>
@@ -10542,8 +12653,11 @@
       <c r="H197" s="14" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="198" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J197" s="17" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="198" spans="1:104" ht="34">
       <c r="A198" t="s">
         <v>589</v>
       </c>
@@ -10559,8 +12673,11 @@
       <c r="H198" s="14" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="199" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J198" s="17" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="199" spans="1:104" ht="68">
       <c r="A199" t="s">
         <v>589</v>
       </c>
@@ -10576,8 +12693,11 @@
       <c r="H199" s="14" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="200" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J199" s="17" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="200" spans="1:104" ht="51">
       <c r="A200" t="s">
         <v>589</v>
       </c>
@@ -10593,8 +12713,11 @@
       <c r="H200" s="14" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="201" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J200" s="17" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="201" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B201" s="10">
         <v>2</v>
       </c>
@@ -10612,8 +12735,10 @@
         <v>1084</v>
       </c>
       <c r="H201" s="14"/>
-      <c r="I201"/>
-      <c r="J201"/>
+      <c r="I201" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J201" s="17"/>
       <c r="K201"/>
       <c r="L201"/>
       <c r="M201"/>
@@ -10708,9 +12833,8 @@
       <c r="CX201"/>
       <c r="CY201"/>
       <c r="CZ201"/>
-      <c r="DA201"/>
-    </row>
-    <row r="202" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:104" ht="68">
       <c r="A202" t="s">
         <v>589</v>
       </c>
@@ -10726,8 +12850,11 @@
       <c r="H202" s="14" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="203" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J202" s="17" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="203" spans="1:104" ht="102">
       <c r="A203" t="s">
         <v>589</v>
       </c>
@@ -10746,8 +12873,11 @@
       <c r="H203" s="14" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="204" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J203" s="17" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="204" spans="1:104" ht="51">
       <c r="A204" t="s">
         <v>589</v>
       </c>
@@ -10763,8 +12893,11 @@
       <c r="H204" s="14" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="205" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J204" s="17" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="205" spans="1:104" ht="51">
       <c r="A205" t="s">
         <v>589</v>
       </c>
@@ -10780,8 +12913,11 @@
       <c r="H205" s="14" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="206" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J205" s="17" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="206" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B206" s="10">
         <v>2</v>
       </c>
@@ -10799,8 +12935,10 @@
         <v>1094</v>
       </c>
       <c r="H206" s="14"/>
-      <c r="I206"/>
-      <c r="J206"/>
+      <c r="I206" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J206" s="17"/>
       <c r="K206"/>
       <c r="L206"/>
       <c r="M206"/>
@@ -10895,9 +13033,8 @@
       <c r="CX206"/>
       <c r="CY206"/>
       <c r="CZ206"/>
-      <c r="DA206"/>
-    </row>
-    <row r="207" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:104" ht="34">
       <c r="A207" t="s">
         <v>589</v>
       </c>
@@ -10913,8 +13050,11 @@
       <c r="H207" s="14" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="208" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J207" s="17" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="208" spans="1:104" ht="17">
       <c r="B208">
         <v>3</v>
       </c>
@@ -10927,8 +13067,11 @@
       <c r="H208" s="14" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="209" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J208" s="17" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="209" spans="1:104" ht="51">
       <c r="A209" t="s">
         <v>589</v>
       </c>
@@ -10947,8 +13090,11 @@
       <c r="H209" s="14" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="210" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J209" s="17" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="210" spans="1:104" ht="51">
       <c r="A210" t="s">
         <v>589</v>
       </c>
@@ -10964,8 +13110,11 @@
       <c r="H210" s="14" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="211" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J210" s="17" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="211" spans="1:104" ht="51">
       <c r="A211" t="s">
         <v>589</v>
       </c>
@@ -10981,8 +13130,11 @@
       <c r="H211" s="14" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="212" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J211" s="17" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="212" spans="1:104" ht="34">
       <c r="A212" t="s">
         <v>589</v>
       </c>
@@ -10998,8 +13150,11 @@
       <c r="H212" s="14" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="213" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J212" s="17" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="213" spans="1:104" ht="34">
       <c r="A213" t="s">
         <v>589</v>
       </c>
@@ -11015,8 +13170,11 @@
       <c r="H213" s="14" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="214" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J213" s="17" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="214" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B214" s="10">
         <v>2</v>
       </c>
@@ -11034,8 +13192,10 @@
         <v>1095</v>
       </c>
       <c r="H214" s="14"/>
-      <c r="I214"/>
-      <c r="J214"/>
+      <c r="I214" s="19" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J214" s="17"/>
       <c r="K214"/>
       <c r="L214"/>
       <c r="M214"/>
@@ -11130,9 +13290,8 @@
       <c r="CX214"/>
       <c r="CY214"/>
       <c r="CZ214"/>
-      <c r="DA214"/>
-    </row>
-    <row r="215" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:104" ht="68">
       <c r="A215" t="s">
         <v>589</v>
       </c>
@@ -11151,8 +13310,11 @@
       <c r="H215" s="14" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="216" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J215" s="17" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="216" spans="1:104" ht="34">
       <c r="A216" t="s">
         <v>589</v>
       </c>
@@ -11168,8 +13330,11 @@
       <c r="H216" s="14" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="217" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J216" s="17" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="217" spans="1:104" ht="34">
       <c r="A217" t="s">
         <v>589</v>
       </c>
@@ -11185,8 +13350,11 @@
       <c r="H217" s="14" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="218" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J217" s="17" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="218" spans="1:104" ht="34">
       <c r="A218" t="s">
         <v>589</v>
       </c>
@@ -11202,8 +13370,11 @@
       <c r="H218" s="14" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="219" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J218" s="17" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="219" spans="1:104" ht="51">
       <c r="A219" t="s">
         <v>589</v>
       </c>
@@ -11222,8 +13393,11 @@
       <c r="H219" s="14" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="220" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J219" s="17" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="220" spans="1:104" ht="68">
       <c r="A220" t="s">
         <v>589</v>
       </c>
@@ -11242,8 +13416,11 @@
       <c r="H220" s="14" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="221" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J220" s="17" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="221" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B221" s="10">
         <v>2</v>
       </c>
@@ -11261,8 +13438,10 @@
         <v>1096</v>
       </c>
       <c r="H221" s="14"/>
-      <c r="I221"/>
-      <c r="J221"/>
+      <c r="I221" s="19" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J221" s="17"/>
       <c r="K221"/>
       <c r="L221"/>
       <c r="M221"/>
@@ -11357,9 +13536,8 @@
       <c r="CX221"/>
       <c r="CY221"/>
       <c r="CZ221"/>
-      <c r="DA221"/>
-    </row>
-    <row r="222" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:104" ht="34">
       <c r="A222" t="s">
         <v>589</v>
       </c>
@@ -11375,8 +13553,11 @@
       <c r="H222" s="14" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="223" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J222" s="17" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="223" spans="1:104" ht="17">
       <c r="B223">
         <v>3</v>
       </c>
@@ -11392,8 +13573,11 @@
       <c r="H223" s="14" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="224" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J223" s="17" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="224" spans="1:104" ht="34">
       <c r="A224" t="s">
         <v>589</v>
       </c>
@@ -11409,8 +13593,11 @@
       <c r="H224" s="14" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="225" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J224" s="17" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="225" spans="1:104" ht="51">
       <c r="A225" t="s">
         <v>589</v>
       </c>
@@ -11426,8 +13613,11 @@
       <c r="H225" s="14" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="226" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J225" s="17" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="226" spans="1:104" ht="51">
       <c r="A226" t="s">
         <v>589</v>
       </c>
@@ -11443,8 +13633,11 @@
       <c r="H226" s="14" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="227" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J226" s="17" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="227" spans="1:104" ht="51">
       <c r="A227" t="s">
         <v>589</v>
       </c>
@@ -11460,8 +13653,11 @@
       <c r="H227" s="14" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="228" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J227" s="17" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="228" spans="1:104" ht="34">
       <c r="A228" t="s">
         <v>589</v>
       </c>
@@ -11477,8 +13673,11 @@
       <c r="H228" s="14" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="229" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J228" s="17" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="229" spans="1:104" ht="34">
       <c r="A229" t="s">
         <v>589</v>
       </c>
@@ -11494,8 +13693,11 @@
       <c r="H229" s="14" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="230" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J229" s="17" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="230" spans="1:104" ht="51">
       <c r="A230" t="s">
         <v>589</v>
       </c>
@@ -11511,8 +13713,11 @@
       <c r="H230" s="14" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="231" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J230" s="17" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="231" spans="1:104" ht="51">
       <c r="A231" t="s">
         <v>589</v>
       </c>
@@ -11528,8 +13733,11 @@
       <c r="H231" s="14" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="232" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J231" s="17" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="232" spans="1:104" ht="85">
       <c r="A232" t="s">
         <v>589</v>
       </c>
@@ -11545,8 +13753,11 @@
       <c r="H232" s="14" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="233" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J232" s="17" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="233" spans="1:104" ht="68">
       <c r="A233" t="s">
         <v>589</v>
       </c>
@@ -11562,8 +13773,11 @@
       <c r="H233" s="14" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="234" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J233" s="17" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="234" spans="1:104" ht="85">
       <c r="A234" t="s">
         <v>589</v>
       </c>
@@ -11579,8 +13793,11 @@
       <c r="H234" s="14" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="235" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J234" s="17" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="235" spans="1:104" ht="51">
       <c r="A235" t="s">
         <v>589</v>
       </c>
@@ -11596,8 +13813,11 @@
       <c r="H235" s="14" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="236" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J235" s="17" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="236" spans="1:104" ht="51">
       <c r="A236" t="s">
         <v>589</v>
       </c>
@@ -11613,8 +13833,11 @@
       <c r="H236" s="14" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="237" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J236" s="17" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="237" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B237" s="10">
         <v>2</v>
       </c>
@@ -11632,8 +13855,10 @@
         <v>1125</v>
       </c>
       <c r="H237" s="14"/>
-      <c r="I237"/>
-      <c r="J237"/>
+      <c r="I237" s="19" t="s">
+        <v>1569</v>
+      </c>
+      <c r="J237" s="17"/>
       <c r="K237"/>
       <c r="L237"/>
       <c r="M237"/>
@@ -11728,9 +13953,8 @@
       <c r="CX237"/>
       <c r="CY237"/>
       <c r="CZ237"/>
-      <c r="DA237"/>
-    </row>
-    <row r="238" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:104" ht="51">
       <c r="A238" t="s">
         <v>589</v>
       </c>
@@ -11749,8 +13973,11 @@
       <c r="H238" s="14" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="239" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J238" s="17" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="239" spans="1:104" ht="17">
       <c r="B239">
         <v>3</v>
       </c>
@@ -11763,8 +13990,11 @@
       <c r="H239" s="14" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="240" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J239" s="17" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="240" spans="1:104" ht="51">
       <c r="A240" t="s">
         <v>589</v>
       </c>
@@ -11780,8 +14010,11 @@
       <c r="H240" s="14" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="241" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J240" s="17" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="241" spans="1:104" ht="34">
       <c r="A241" t="s">
         <v>589</v>
       </c>
@@ -11797,8 +14030,11 @@
       <c r="H241" s="14" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="242" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J241" s="17" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="242" spans="1:104" ht="51">
       <c r="A242" t="s">
         <v>589</v>
       </c>
@@ -11814,8 +14050,11 @@
       <c r="H242" s="14" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="243" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J242" s="17" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="243" spans="1:104" ht="51">
       <c r="A243" t="s">
         <v>589</v>
       </c>
@@ -11831,8 +14070,11 @@
       <c r="H243" s="14" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="244" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J243" s="17" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="244" spans="1:104" ht="51">
       <c r="A244" t="s">
         <v>589</v>
       </c>
@@ -11848,8 +14090,11 @@
       <c r="H244" s="14" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="245" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J244" s="17" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="245" spans="1:104" ht="51">
       <c r="A245" t="s">
         <v>589</v>
       </c>
@@ -11865,8 +14110,11 @@
       <c r="H245" s="14" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="246" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J245" s="17" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="246" spans="1:104" ht="34">
       <c r="A246" t="s">
         <v>589</v>
       </c>
@@ -11882,8 +14130,11 @@
       <c r="H246" s="14" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="247" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J246" s="17" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="247" spans="1:104" ht="51">
       <c r="A247" t="s">
         <v>589</v>
       </c>
@@ -11899,8 +14150,11 @@
       <c r="H247" s="14" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="248" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J247" s="17" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="248" spans="1:104" ht="51">
       <c r="A248" t="s">
         <v>589</v>
       </c>
@@ -11916,8 +14170,11 @@
       <c r="H248" s="14" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="249" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J248" s="17" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="249" spans="1:104" ht="34">
       <c r="A249" s="10"/>
       <c r="B249" s="10">
         <v>2</v>
@@ -11931,8 +14188,11 @@
       <c r="G249" s="11" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="250" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I249" s="19" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="250" spans="1:104" ht="34">
       <c r="A250" t="s">
         <v>589</v>
       </c>
@@ -11948,8 +14208,11 @@
       <c r="H250" s="14" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="251" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J250" s="17" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="251" spans="1:104" ht="102">
       <c r="A251" t="s">
         <v>589</v>
       </c>
@@ -11968,8 +14231,11 @@
       <c r="H251" s="14" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="252" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J251" s="17" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="252" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B252" s="10">
         <v>2</v>
       </c>
@@ -11987,8 +14253,10 @@
         <v>1140</v>
       </c>
       <c r="H252" s="14"/>
-      <c r="I252"/>
-      <c r="J252"/>
+      <c r="I252" s="19" t="s">
+        <v>1584</v>
+      </c>
+      <c r="J252" s="17"/>
       <c r="K252"/>
       <c r="L252"/>
       <c r="M252"/>
@@ -12083,9 +14351,8 @@
       <c r="CX252"/>
       <c r="CY252"/>
       <c r="CZ252"/>
-      <c r="DA252"/>
-    </row>
-    <row r="253" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:104" ht="51">
       <c r="A253" t="s">
         <v>589</v>
       </c>
@@ -12101,8 +14368,11 @@
       <c r="H253" s="14" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="254" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J253" s="17" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="254" spans="1:104" ht="17">
       <c r="B254">
         <v>3</v>
       </c>
@@ -12118,8 +14388,11 @@
       <c r="H254" s="14" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="255" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J254" s="17" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="255" spans="1:104" ht="51">
       <c r="A255" t="s">
         <v>589</v>
       </c>
@@ -12135,8 +14408,11 @@
       <c r="H255" s="14" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="256" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J255" s="17" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="256" spans="1:104" ht="51">
       <c r="A256" t="s">
         <v>589</v>
       </c>
@@ -12152,8 +14428,11 @@
       <c r="H256" s="14" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="257" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J256" s="17" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="257" spans="1:104" ht="51">
       <c r="A257" t="s">
         <v>589</v>
       </c>
@@ -12169,8 +14448,11 @@
       <c r="H257" s="14" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="258" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J257" s="17" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="258" spans="1:104" ht="51">
       <c r="A258" t="s">
         <v>589</v>
       </c>
@@ -12186,8 +14468,11 @@
       <c r="H258" s="14" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="259" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J258" s="17" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="259" spans="1:104" ht="51">
       <c r="A259" t="s">
         <v>589</v>
       </c>
@@ -12203,8 +14488,11 @@
       <c r="H259" s="14" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="260" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J259" s="17" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="260" spans="1:104" ht="68">
       <c r="A260" t="s">
         <v>589</v>
       </c>
@@ -12220,8 +14508,11 @@
       <c r="H260" s="14" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="261" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J260" s="17" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="261" spans="1:104" ht="51">
       <c r="A261" t="s">
         <v>589</v>
       </c>
@@ -12237,8 +14528,11 @@
       <c r="H261" s="14" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="262" spans="1:105" s="8" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="J261" s="17" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="262" spans="1:104" s="8" customFormat="1" ht="68">
       <c r="B262" s="8">
         <v>1</v>
       </c>
@@ -12256,8 +14550,10 @@
         <v>1325</v>
       </c>
       <c r="H262" s="14"/>
-      <c r="I262"/>
-      <c r="J262"/>
+      <c r="I262" s="20" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J262" s="17"/>
       <c r="K262"/>
       <c r="L262"/>
       <c r="M262"/>
@@ -12352,9 +14648,8 @@
       <c r="CX262"/>
       <c r="CY262"/>
       <c r="CZ262"/>
-      <c r="DA262"/>
-    </row>
-    <row r="263" spans="1:105" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:104" s="10" customFormat="1" ht="68">
       <c r="A263" s="10" t="s">
         <v>589</v>
       </c>
@@ -12371,8 +14666,10 @@
       <c r="H263" s="14" t="s">
         <v>1150</v>
       </c>
-      <c r="I263"/>
-      <c r="J263"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="17" t="s">
+        <v>1595</v>
+      </c>
       <c r="K263"/>
       <c r="L263"/>
       <c r="M263"/>
@@ -12467,9 +14764,8 @@
       <c r="CX263"/>
       <c r="CY263"/>
       <c r="CZ263"/>
-      <c r="DA263"/>
-    </row>
-    <row r="264" spans="1:105" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:104" s="10" customFormat="1" ht="51">
       <c r="A264" s="10" t="s">
         <v>589</v>
       </c>
@@ -12488,8 +14784,10 @@
       <c r="H264" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="I264"/>
-      <c r="J264"/>
+      <c r="I264" s="19"/>
+      <c r="J264" s="17" t="s">
+        <v>1596</v>
+      </c>
       <c r="K264"/>
       <c r="L264"/>
       <c r="M264"/>
@@ -12584,9 +14882,8 @@
       <c r="CX264"/>
       <c r="CY264"/>
       <c r="CZ264"/>
-      <c r="DA264"/>
-    </row>
-    <row r="265" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:104" ht="51">
       <c r="A265" t="s">
         <v>589</v>
       </c>
@@ -12602,8 +14899,11 @@
       <c r="H265" s="14" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="266" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J265" s="17" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="266" spans="1:104" ht="51">
       <c r="A266" t="s">
         <v>589</v>
       </c>
@@ -12619,8 +14919,11 @@
       <c r="H266" s="14" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="267" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J266" s="17" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="267" spans="1:104" ht="34">
       <c r="A267" t="s">
         <v>589</v>
       </c>
@@ -12636,8 +14939,11 @@
       <c r="H267" s="14" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="268" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J267" s="17" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="268" spans="1:104" ht="51">
       <c r="A268" t="s">
         <v>589</v>
       </c>
@@ -12653,8 +14959,11 @@
       <c r="H268" s="14" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="269" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J268" s="17" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="269" spans="1:104" ht="34">
       <c r="A269" t="s">
         <v>589</v>
       </c>
@@ -12670,8 +14979,11 @@
       <c r="H269" s="14" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="270" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J269" s="17" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="270" spans="1:104" ht="34">
       <c r="A270" t="s">
         <v>589</v>
       </c>
@@ -12687,8 +14999,11 @@
       <c r="H270" s="14" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="271" spans="1:105" s="10" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J270" s="17" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="271" spans="1:104" s="10" customFormat="1" ht="51">
       <c r="A271" s="10" t="s">
         <v>589</v>
       </c>
@@ -12705,8 +15020,10 @@
       <c r="H271" s="14" t="s">
         <v>1158</v>
       </c>
-      <c r="I271"/>
-      <c r="J271"/>
+      <c r="I271" s="19"/>
+      <c r="J271" s="17" t="s">
+        <v>1603</v>
+      </c>
       <c r="K271"/>
       <c r="L271"/>
       <c r="M271"/>
@@ -12801,9 +15118,8 @@
       <c r="CX271"/>
       <c r="CY271"/>
       <c r="CZ271"/>
-      <c r="DA271"/>
-    </row>
-    <row r="272" spans="1:105" s="8" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:104" s="8" customFormat="1" ht="51">
       <c r="B272" s="8">
         <v>1</v>
       </c>
@@ -12821,8 +15137,10 @@
         <v>1326</v>
       </c>
       <c r="H272" s="14"/>
-      <c r="I272"/>
-      <c r="J272"/>
+      <c r="I272" s="20" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J272" s="17"/>
       <c r="K272"/>
       <c r="L272"/>
       <c r="M272"/>
@@ -12917,9 +15235,8 @@
       <c r="CX272"/>
       <c r="CY272"/>
       <c r="CZ272"/>
-      <c r="DA272"/>
-    </row>
-    <row r="273" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:104" s="10" customFormat="1" ht="34">
       <c r="B273" s="10">
         <v>2</v>
       </c>
@@ -12935,8 +15252,10 @@
         <v>1159</v>
       </c>
       <c r="H273" s="14"/>
-      <c r="I273"/>
-      <c r="J273"/>
+      <c r="I273" s="19" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J273" s="17"/>
       <c r="K273"/>
       <c r="L273"/>
       <c r="M273"/>
@@ -13031,9 +15350,8 @@
       <c r="CX273"/>
       <c r="CY273"/>
       <c r="CZ273"/>
-      <c r="DA273"/>
-    </row>
-    <row r="274" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:104" ht="85">
       <c r="A274" t="s">
         <v>589</v>
       </c>
@@ -13049,8 +15367,11 @@
       <c r="H274" s="14" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="275" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J274" s="17" t="s">
+        <v>1606</v>
+      </c>
+    </row>
+    <row r="275" spans="1:104" ht="68">
       <c r="A275" t="s">
         <v>589</v>
       </c>
@@ -13069,8 +15390,11 @@
       <c r="H275" s="14" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="276" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J275" s="17" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="276" spans="1:104" ht="34">
       <c r="A276" t="s">
         <v>589</v>
       </c>
@@ -13086,8 +15410,11 @@
       <c r="H276" s="14" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="277" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J276" s="17" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="277" spans="1:104" ht="51">
       <c r="A277" t="s">
         <v>589</v>
       </c>
@@ -13103,8 +15430,11 @@
       <c r="H277" s="14" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="278" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J277" s="17" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="278" spans="1:104" ht="68">
       <c r="A278" t="s">
         <v>589</v>
       </c>
@@ -13120,8 +15450,11 @@
       <c r="H278" s="14" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="279" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J278" s="17" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="279" spans="1:104" ht="68">
       <c r="A279" t="s">
         <v>589</v>
       </c>
@@ -13137,8 +15470,11 @@
       <c r="H279" s="14" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="280" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J279" s="17" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="280" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B280" s="10">
         <v>2</v>
       </c>
@@ -13156,8 +15492,10 @@
         <v>1166</v>
       </c>
       <c r="H280" s="14"/>
-      <c r="I280"/>
-      <c r="J280"/>
+      <c r="I280" s="19" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J280" s="17"/>
       <c r="K280"/>
       <c r="L280"/>
       <c r="M280"/>
@@ -13252,9 +15590,8 @@
       <c r="CX280"/>
       <c r="CY280"/>
       <c r="CZ280"/>
-      <c r="DA280"/>
-    </row>
-    <row r="281" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:104" ht="51">
       <c r="A281" t="s">
         <v>589</v>
       </c>
@@ -13270,8 +15607,11 @@
       <c r="H281" s="14" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="282" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="J281" s="17" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="282" spans="1:104" ht="85">
       <c r="A282" t="s">
         <v>589</v>
       </c>
@@ -13287,8 +15627,11 @@
       <c r="H282" s="14" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="283" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J282" s="17" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="283" spans="1:104" ht="51">
       <c r="A283" t="s">
         <v>589</v>
       </c>
@@ -13307,8 +15650,11 @@
       <c r="H283" s="14" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="284" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J283" s="17" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="284" spans="1:104" ht="51">
       <c r="A284" t="s">
         <v>589</v>
       </c>
@@ -13324,8 +15670,11 @@
       <c r="H284" s="14" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="285" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J284" s="17" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="285" spans="1:104" ht="34">
       <c r="A285" t="s">
         <v>589</v>
       </c>
@@ -13341,8 +15690,11 @@
       <c r="H285" s="14" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="286" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J285" s="17" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="286" spans="1:104" ht="34">
       <c r="A286" t="s">
         <v>589</v>
       </c>
@@ -13358,8 +15710,11 @@
       <c r="H286" s="14" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="287" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J286" s="17" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="287" spans="1:104" ht="51">
       <c r="A287" t="s">
         <v>589</v>
       </c>
@@ -13375,8 +15730,11 @@
       <c r="H287" s="14" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="288" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J287" s="17" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="288" spans="1:104" ht="51">
       <c r="A288" t="s">
         <v>589</v>
       </c>
@@ -13392,8 +15750,11 @@
       <c r="H288" s="14" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="289" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J288" s="17" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="289" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B289" s="8">
         <v>1</v>
       </c>
@@ -13411,8 +15772,10 @@
         <v>1327</v>
       </c>
       <c r="H289" s="14"/>
-      <c r="I289"/>
-      <c r="J289"/>
+      <c r="I289" s="20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="J289" s="17"/>
       <c r="K289"/>
       <c r="L289"/>
       <c r="M289"/>
@@ -13507,9 +15870,8 @@
       <c r="CX289"/>
       <c r="CY289"/>
       <c r="CZ289"/>
-      <c r="DA289"/>
-    </row>
-    <row r="290" spans="1:105" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:104" s="10" customFormat="1" ht="102">
       <c r="A290" s="10" t="s">
         <v>589</v>
       </c>
@@ -13528,8 +15890,10 @@
       <c r="H290" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="I290"/>
-      <c r="J290"/>
+      <c r="I290" s="19"/>
+      <c r="J290" s="17" t="s">
+        <v>1622</v>
+      </c>
       <c r="K290"/>
       <c r="L290"/>
       <c r="M290"/>
@@ -13624,9 +15988,8 @@
       <c r="CX290"/>
       <c r="CY290"/>
       <c r="CZ290"/>
-      <c r="DA290"/>
-    </row>
-    <row r="291" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="A291"/>
       <c r="B291" s="10">
         <v>2</v>
@@ -13643,8 +16006,10 @@
       <c r="H291" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="I291"/>
-      <c r="J291"/>
+      <c r="I291" s="19"/>
+      <c r="J291" s="17" t="s">
+        <v>1623</v>
+      </c>
       <c r="K291"/>
       <c r="L291"/>
       <c r="M291"/>
@@ -13739,9 +16104,8 @@
       <c r="CX291"/>
       <c r="CY291"/>
       <c r="CZ291"/>
-      <c r="DA291"/>
-    </row>
-    <row r="292" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:104" ht="68">
       <c r="A292" t="s">
         <v>589</v>
       </c>
@@ -13757,8 +16121,11 @@
       <c r="H292" s="14" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="293" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J292" s="17" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="293" spans="1:104" ht="85">
       <c r="A293" t="s">
         <v>589</v>
       </c>
@@ -13774,8 +16141,11 @@
       <c r="H293" s="14" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="294" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J293" s="17" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="294" spans="1:104" ht="34">
       <c r="A294" t="s">
         <v>589</v>
       </c>
@@ -13791,8 +16161,11 @@
       <c r="H294" s="14" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="295" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J294" s="17" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="295" spans="1:104" ht="34">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -13808,8 +16181,11 @@
       <c r="H295" s="14" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="296" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J295" s="17" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="296" spans="1:104" ht="34">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -13825,8 +16201,11 @@
       <c r="H296" s="14" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="297" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J296" s="17" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="297" spans="1:104" ht="34">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -13842,8 +16221,11 @@
       <c r="H297" s="14" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="298" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J297" s="17" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="298" spans="1:104" ht="34">
       <c r="A298" t="s">
         <v>589</v>
       </c>
@@ -13859,8 +16241,11 @@
       <c r="H298" s="14" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="299" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J298" s="17" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="299" spans="1:104" ht="34">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -13876,8 +16261,11 @@
       <c r="H299" s="14" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="300" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J299" s="17" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="300" spans="1:104" ht="34">
       <c r="A300" t="s">
         <v>589</v>
       </c>
@@ -13893,8 +16281,11 @@
       <c r="H300" s="14" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="301" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J300" s="17" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="301" spans="1:104" ht="34">
       <c r="A301" t="s">
         <v>589</v>
       </c>
@@ -13910,8 +16301,11 @@
       <c r="H301" s="14" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="302" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J301" s="17" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="302" spans="1:104" ht="34">
       <c r="A302" t="s">
         <v>589</v>
       </c>
@@ -13927,8 +16321,11 @@
       <c r="H302" s="14" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="303" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J302" s="17" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="303" spans="1:104" ht="34">
       <c r="A303" t="s">
         <v>589</v>
       </c>
@@ -13944,8 +16341,11 @@
       <c r="H303" s="14" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="304" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J303" s="17" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="304" spans="1:104" ht="34">
       <c r="A304" t="s">
         <v>589</v>
       </c>
@@ -13961,8 +16361,11 @@
       <c r="H304" s="14" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="305" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J304" s="17" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="305" spans="1:104" ht="34">
       <c r="A305" t="s">
         <v>589</v>
       </c>
@@ -13978,8 +16381,11 @@
       <c r="H305" s="14" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="306" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J305" s="17" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="306" spans="1:104" ht="51">
       <c r="A306" t="s">
         <v>589</v>
       </c>
@@ -13995,8 +16401,11 @@
       <c r="H306" s="14" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="307" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J306" s="17" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="307" spans="1:104" ht="51">
       <c r="A307" t="s">
         <v>589</v>
       </c>
@@ -14012,8 +16421,11 @@
       <c r="H307" s="14" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="308" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J307" s="17" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="308" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B308" s="8">
         <v>1</v>
       </c>
@@ -14031,8 +16443,10 @@
         <v>1328</v>
       </c>
       <c r="H308"/>
-      <c r="I308"/>
-      <c r="J308"/>
+      <c r="I308" s="20" t="s">
+        <v>1640</v>
+      </c>
+      <c r="J308" s="17"/>
       <c r="K308"/>
       <c r="L308"/>
       <c r="M308"/>
@@ -14127,9 +16541,8 @@
       <c r="CX308"/>
       <c r="CY308"/>
       <c r="CZ308"/>
-      <c r="DA308"/>
-    </row>
-    <row r="309" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B309" s="10">
         <v>2</v>
       </c>
@@ -14147,8 +16560,10 @@
         <v>1193</v>
       </c>
       <c r="H309"/>
-      <c r="I309"/>
-      <c r="J309"/>
+      <c r="I309" s="19" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J309" s="17"/>
       <c r="K309"/>
       <c r="L309"/>
       <c r="M309"/>
@@ -14243,9 +16658,8 @@
       <c r="CX309"/>
       <c r="CY309"/>
       <c r="CZ309"/>
-      <c r="DA309"/>
-    </row>
-    <row r="310" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:104" ht="102">
       <c r="A310" t="s">
         <v>589</v>
       </c>
@@ -14261,8 +16675,11 @@
       <c r="H310" s="14" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="311" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J310" s="17" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="311" spans="1:104" ht="17">
       <c r="B311">
         <v>3</v>
       </c>
@@ -14278,8 +16695,11 @@
       <c r="H311" s="14" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="312" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J311" s="17" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="312" spans="1:104" ht="68">
       <c r="A312" t="s">
         <v>589</v>
       </c>
@@ -14298,8 +16718,11 @@
       <c r="H312" s="14" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="313" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J312" s="17" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="313" spans="1:104" ht="51">
       <c r="A313" t="s">
         <v>589</v>
       </c>
@@ -14315,8 +16738,11 @@
       <c r="H313" s="14" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="314" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J313" s="17" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="314" spans="1:104" ht="68">
       <c r="A314" t="s">
         <v>589</v>
       </c>
@@ -14332,8 +16758,11 @@
       <c r="H314" s="14" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="315" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J314" s="17" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="315" spans="1:104" ht="51">
       <c r="A315" t="s">
         <v>589</v>
       </c>
@@ -14349,8 +16778,11 @@
       <c r="H315" s="14" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="316" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J315" s="17" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="316" spans="1:104" ht="68">
       <c r="A316" t="s">
         <v>589</v>
       </c>
@@ -14369,8 +16801,11 @@
       <c r="H316" s="14" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="317" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J316" s="17" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="317" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B317" s="10">
         <v>2</v>
       </c>
@@ -14388,8 +16823,10 @@
         <v>1201</v>
       </c>
       <c r="H317" s="14"/>
-      <c r="I317"/>
-      <c r="J317"/>
+      <c r="I317" s="19" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J317" s="17"/>
       <c r="K317"/>
       <c r="L317"/>
       <c r="M317"/>
@@ -14484,9 +16921,8 @@
       <c r="CX317"/>
       <c r="CY317"/>
       <c r="CZ317"/>
-      <c r="DA317"/>
-    </row>
-    <row r="318" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:104" ht="68">
       <c r="A318" t="s">
         <v>589</v>
       </c>
@@ -14505,8 +16941,11 @@
       <c r="H318" s="14" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="319" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J318" s="17" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="319" spans="1:104" ht="17">
       <c r="B319">
         <v>3</v>
       </c>
@@ -14522,8 +16961,11 @@
       <c r="H319" s="14" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="320" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J319" s="17" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="320" spans="1:104" ht="51">
       <c r="A320" t="s">
         <v>589</v>
       </c>
@@ -14539,8 +16981,11 @@
       <c r="H320" s="14" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="321" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J320" s="17" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="321" spans="1:104" ht="102">
       <c r="A321" t="s">
         <v>589</v>
       </c>
@@ -14559,8 +17004,11 @@
       <c r="H321" s="14" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="322" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J321" s="17" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="322" spans="1:104" ht="34">
       <c r="A322" t="s">
         <v>589</v>
       </c>
@@ -14576,8 +17024,11 @@
       <c r="H322" s="14" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="323" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J322" s="17" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="323" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B323" s="10">
         <v>2</v>
       </c>
@@ -14595,8 +17046,10 @@
         <v>1207</v>
       </c>
       <c r="H323" s="14"/>
-      <c r="I323"/>
-      <c r="J323"/>
+      <c r="I323" s="19" t="s">
+        <v>1655</v>
+      </c>
+      <c r="J323" s="17"/>
       <c r="K323"/>
       <c r="L323"/>
       <c r="M323"/>
@@ -14691,9 +17144,8 @@
       <c r="CX323"/>
       <c r="CY323"/>
       <c r="CZ323"/>
-      <c r="DA323"/>
-    </row>
-    <row r="324" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:104" ht="51">
       <c r="A324" t="s">
         <v>589</v>
       </c>
@@ -14709,8 +17161,11 @@
       <c r="H324" s="14" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="325" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J324" s="17" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="325" spans="1:104" ht="68">
       <c r="A325" t="s">
         <v>589</v>
       </c>
@@ -14729,8 +17184,11 @@
       <c r="H325" s="14" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="326" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J325" s="17" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="326" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B326" s="10">
         <v>2</v>
       </c>
@@ -14748,8 +17206,10 @@
         <v>1208</v>
       </c>
       <c r="H326" s="14"/>
-      <c r="I326"/>
-      <c r="J326"/>
+      <c r="I326" s="19" t="s">
+        <v>1658</v>
+      </c>
+      <c r="J326" s="17"/>
       <c r="K326"/>
       <c r="L326"/>
       <c r="M326"/>
@@ -14844,9 +17304,8 @@
       <c r="CX326"/>
       <c r="CY326"/>
       <c r="CZ326"/>
-      <c r="DA326"/>
-    </row>
-    <row r="327" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:104" ht="68">
       <c r="A327" t="s">
         <v>589</v>
       </c>
@@ -14862,8 +17321,11 @@
       <c r="H327" s="14" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="328" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J327" s="17" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="328" spans="1:104" ht="51">
       <c r="A328" t="s">
         <v>589</v>
       </c>
@@ -14879,8 +17341,11 @@
       <c r="H328" s="14" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="329" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J328" s="17" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="329" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B329" s="8">
         <v>1</v>
       </c>
@@ -14898,8 +17363,10 @@
         <v>1332</v>
       </c>
       <c r="H329" s="14"/>
-      <c r="I329"/>
-      <c r="J329"/>
+      <c r="I329" s="20" t="s">
+        <v>1661</v>
+      </c>
+      <c r="J329" s="17"/>
       <c r="K329"/>
       <c r="L329"/>
       <c r="M329"/>
@@ -14994,9 +17461,8 @@
       <c r="CX329"/>
       <c r="CY329"/>
       <c r="CZ329"/>
-      <c r="DA329"/>
-    </row>
-    <row r="330" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B330" s="10">
         <v>2</v>
       </c>
@@ -15014,8 +17480,10 @@
         <v>1213</v>
       </c>
       <c r="H330" s="14"/>
-      <c r="I330"/>
-      <c r="J330"/>
+      <c r="I330" s="19" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J330" s="17"/>
       <c r="K330"/>
       <c r="L330"/>
       <c r="M330"/>
@@ -15110,9 +17578,8 @@
       <c r="CX330"/>
       <c r="CY330"/>
       <c r="CZ330"/>
-      <c r="DA330"/>
-    </row>
-    <row r="331" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:104" ht="85">
       <c r="A331" t="s">
         <v>589</v>
       </c>
@@ -15128,8 +17595,11 @@
       <c r="H331" s="14" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="332" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J331" s="17" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="332" spans="1:104" ht="17">
       <c r="B332">
         <v>3</v>
       </c>
@@ -15145,8 +17615,11 @@
       <c r="H332" s="14" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="333" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J332" s="17" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="333" spans="1:104" ht="51">
       <c r="A333" t="s">
         <v>589</v>
       </c>
@@ -15162,8 +17635,11 @@
       <c r="H333" s="14" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="334" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J333" s="17" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="334" spans="1:104" ht="34">
       <c r="A334" t="s">
         <v>589</v>
       </c>
@@ -15179,8 +17655,11 @@
       <c r="H334" s="14" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="335" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J334" s="17" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="335" spans="1:104" ht="34">
       <c r="A335" t="s">
         <v>589</v>
       </c>
@@ -15196,8 +17675,11 @@
       <c r="H335" s="14" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="336" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J335" s="17" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="336" spans="1:104" ht="51">
       <c r="A336" t="s">
         <v>589</v>
       </c>
@@ -15213,8 +17695,11 @@
       <c r="H336" s="14" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="337" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J336" s="17" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="337" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B337" s="10">
         <v>2</v>
       </c>
@@ -15232,8 +17717,10 @@
         <v>1220</v>
       </c>
       <c r="H337" s="14"/>
-      <c r="I337"/>
-      <c r="J337"/>
+      <c r="I337" s="19" t="s">
+        <v>1669</v>
+      </c>
+      <c r="J337" s="17"/>
       <c r="K337"/>
       <c r="L337"/>
       <c r="M337"/>
@@ -15328,9 +17815,8 @@
       <c r="CX337"/>
       <c r="CY337"/>
       <c r="CZ337"/>
-      <c r="DA337"/>
-    </row>
-    <row r="338" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:104" ht="51">
       <c r="A338" t="s">
         <v>589</v>
       </c>
@@ -15349,8 +17835,11 @@
       <c r="H338" s="14" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="339" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J338" s="17" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="339" spans="1:104" ht="17">
       <c r="B339">
         <v>3</v>
       </c>
@@ -15363,8 +17852,11 @@
       <c r="H339" s="14" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="340" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J339" s="17" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="340" spans="1:104" ht="51">
       <c r="A340" t="s">
         <v>589</v>
       </c>
@@ -15380,8 +17872,11 @@
       <c r="H340" s="14" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="341" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J340" s="17" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="341" spans="1:104" ht="51">
       <c r="A341" t="s">
         <v>589</v>
       </c>
@@ -15397,8 +17892,11 @@
       <c r="H341" s="14" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="342" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J341" s="17" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="342" spans="1:104" ht="34">
       <c r="A342" t="s">
         <v>589</v>
       </c>
@@ -15414,8 +17912,11 @@
       <c r="H342" s="14" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="343" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J342" s="17" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="343" spans="1:104" ht="68">
       <c r="A343" t="s">
         <v>589</v>
       </c>
@@ -15431,8 +17932,11 @@
       <c r="H343" s="14" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="344" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J343" s="17" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="344" spans="1:104" ht="34">
       <c r="A344" t="s">
         <v>589</v>
       </c>
@@ -15448,8 +17952,11 @@
       <c r="H344" s="14" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="345" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J344" s="17" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="345" spans="1:104" ht="34">
       <c r="A345" t="s">
         <v>589</v>
       </c>
@@ -15465,8 +17972,11 @@
       <c r="H345" s="14" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="346" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J345" s="17" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="346" spans="1:104" ht="68">
       <c r="A346" t="s">
         <v>589</v>
       </c>
@@ -15482,8 +17992,11 @@
       <c r="H346" s="14" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="347" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J346" s="17" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="347" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B347" s="10">
         <v>2</v>
       </c>
@@ -15501,8 +18014,10 @@
         <v>1229</v>
       </c>
       <c r="H347" s="14"/>
-      <c r="I347"/>
-      <c r="J347"/>
+      <c r="I347" s="19" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J347" s="17"/>
       <c r="K347"/>
       <c r="L347"/>
       <c r="M347"/>
@@ -15597,9 +18112,8 @@
       <c r="CX347"/>
       <c r="CY347"/>
       <c r="CZ347"/>
-      <c r="DA347"/>
-    </row>
-    <row r="348" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:104" ht="51">
       <c r="A348" t="s">
         <v>589</v>
       </c>
@@ -15618,8 +18132,11 @@
       <c r="H348" s="14" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="349" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J348" s="17" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="349" spans="1:104" ht="17">
       <c r="B349">
         <v>3</v>
       </c>
@@ -15635,8 +18152,11 @@
       <c r="H349" s="14" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="350" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J349" s="17" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="350" spans="1:104" ht="51">
       <c r="A350" t="s">
         <v>589</v>
       </c>
@@ -15652,8 +18172,11 @@
       <c r="H350" s="14" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="351" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J350" s="17" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="351" spans="1:104" ht="51">
       <c r="A351" t="s">
         <v>589</v>
       </c>
@@ -15669,8 +18192,11 @@
       <c r="H351" s="14" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="352" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J351" s="17" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="352" spans="1:104" ht="34">
       <c r="A352" t="s">
         <v>589</v>
       </c>
@@ -15686,8 +18212,11 @@
       <c r="H352" s="14" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="353" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J352" s="17" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="353" spans="1:104" ht="51">
       <c r="A353" t="s">
         <v>589</v>
       </c>
@@ -15703,8 +18232,11 @@
       <c r="H353" s="14" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="354" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J353" s="17" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="354" spans="1:104" ht="68">
       <c r="A354" t="s">
         <v>589</v>
       </c>
@@ -15720,8 +18252,11 @@
       <c r="H354" s="14" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="355" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J354" s="17" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="355" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B355" s="10">
         <v>2</v>
       </c>
@@ -15739,8 +18274,10 @@
         <v>1237</v>
       </c>
       <c r="H355" s="14"/>
-      <c r="I355"/>
-      <c r="J355"/>
+      <c r="I355" s="19" t="s">
+        <v>1686</v>
+      </c>
+      <c r="J355" s="17"/>
       <c r="K355"/>
       <c r="L355"/>
       <c r="M355"/>
@@ -15835,9 +18372,8 @@
       <c r="CX355"/>
       <c r="CY355"/>
       <c r="CZ355"/>
-      <c r="DA355"/>
-    </row>
-    <row r="356" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="356" spans="1:104" ht="34">
       <c r="A356" t="s">
         <v>589</v>
       </c>
@@ -15856,8 +18392,11 @@
       <c r="H356" s="14" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="357" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J356" s="17" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="357" spans="1:104" ht="17">
       <c r="B357">
         <v>3</v>
       </c>
@@ -15870,8 +18409,11 @@
       <c r="H357" s="14" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="358" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J357" s="17" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="358" spans="1:104" ht="51">
       <c r="A358" t="s">
         <v>589</v>
       </c>
@@ -15887,8 +18429,11 @@
       <c r="H358" s="14" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="359" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J358" s="17" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="359" spans="1:104" ht="51">
       <c r="A359" t="s">
         <v>589</v>
       </c>
@@ -15904,8 +18449,11 @@
       <c r="H359" s="14" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="360" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J359" s="17" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="360" spans="1:104" ht="34">
       <c r="A360" t="s">
         <v>589</v>
       </c>
@@ -15921,8 +18469,11 @@
       <c r="H360" s="14" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="361" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J360" s="17" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="361" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B361" s="10">
         <v>2</v>
       </c>
@@ -15940,8 +18491,10 @@
         <v>1242</v>
       </c>
       <c r="H361"/>
-      <c r="I361"/>
-      <c r="J361"/>
+      <c r="I361" s="19" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J361" s="17"/>
       <c r="K361"/>
       <c r="L361"/>
       <c r="M361"/>
@@ -16036,9 +18589,8 @@
       <c r="CX361"/>
       <c r="CY361"/>
       <c r="CZ361"/>
-      <c r="DA361"/>
-    </row>
-    <row r="362" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="362" spans="1:104" ht="34">
       <c r="A362" t="s">
         <v>589</v>
       </c>
@@ -16054,8 +18606,11 @@
       <c r="H362" s="14" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="363" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J362" s="17" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="363" spans="1:104" ht="17">
       <c r="B363">
         <v>3</v>
       </c>
@@ -16068,8 +18623,11 @@
       <c r="H363" s="14" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="364" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J363" s="17" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="364" spans="1:104" ht="34">
       <c r="A364" t="s">
         <v>589</v>
       </c>
@@ -16085,8 +18643,11 @@
       <c r="H364" s="14" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="365" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J364" s="17" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="365" spans="1:104" ht="34">
       <c r="A365" t="s">
         <v>589</v>
       </c>
@@ -16102,8 +18663,11 @@
       <c r="H365" s="14" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="366" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J365" s="17" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="366" spans="1:104" ht="34">
       <c r="A366" t="s">
         <v>589</v>
       </c>
@@ -16119,8 +18683,11 @@
       <c r="H366" s="14" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="367" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J366" s="17" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="367" spans="1:104" ht="34">
       <c r="A367" t="s">
         <v>589</v>
       </c>
@@ -16136,8 +18703,11 @@
       <c r="H367" s="14" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="368" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="J367" s="17" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="368" spans="1:104" ht="102">
       <c r="A368" t="s">
         <v>589</v>
       </c>
@@ -16156,8 +18726,11 @@
       <c r="H368" s="14" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="369" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J368" s="17" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="369" spans="1:104" ht="51">
       <c r="A369" t="s">
         <v>589</v>
       </c>
@@ -16173,8 +18746,11 @@
       <c r="H369" s="14" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="370" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J369" s="17" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="370" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B370" s="10">
         <v>2</v>
       </c>
@@ -16192,8 +18768,10 @@
         <v>1250</v>
       </c>
       <c r="H370"/>
-      <c r="I370"/>
-      <c r="J370"/>
+      <c r="I370" s="19" t="s">
+        <v>1699</v>
+      </c>
+      <c r="J370" s="17"/>
       <c r="K370"/>
       <c r="L370"/>
       <c r="M370"/>
@@ -16288,9 +18866,8 @@
       <c r="CX370"/>
       <c r="CY370"/>
       <c r="CZ370"/>
-      <c r="DA370"/>
-    </row>
-    <row r="371" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="371" spans="1:104" ht="51">
       <c r="A371" t="s">
         <v>589</v>
       </c>
@@ -16306,8 +18883,11 @@
       <c r="H371" s="14" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="372" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J371" s="17" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="372" spans="1:104" ht="17">
       <c r="B372">
         <v>3</v>
       </c>
@@ -16320,8 +18900,11 @@
       <c r="H372" s="14" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="373" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J372" s="17" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="373" spans="1:104" ht="34">
       <c r="A373" t="s">
         <v>589</v>
       </c>
@@ -16337,8 +18920,11 @@
       <c r="H373" s="14" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="374" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J373" s="17" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="374" spans="1:104" ht="68">
       <c r="A374" t="s">
         <v>589</v>
       </c>
@@ -16354,8 +18940,11 @@
       <c r="H374" s="14" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="375" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J374" s="17" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="375" spans="1:104" ht="51">
       <c r="A375" t="s">
         <v>589</v>
       </c>
@@ -16371,8 +18960,11 @@
       <c r="H375" s="14" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="376" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J375" s="17" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="376" spans="1:104" ht="51">
       <c r="A376" t="s">
         <v>589</v>
       </c>
@@ -16388,8 +18980,11 @@
       <c r="H376" s="14" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="377" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J376" s="17" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="377" spans="1:104" ht="34">
       <c r="A377" t="s">
         <v>589</v>
       </c>
@@ -16405,8 +19000,11 @@
       <c r="H377" s="14" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="378" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J377" s="17" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="378" spans="1:104" ht="51">
       <c r="A378" t="s">
         <v>589</v>
       </c>
@@ -16422,8 +19020,11 @@
       <c r="H378" s="14" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="379" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J378" s="17" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="379" spans="1:104" ht="68">
       <c r="A379" t="s">
         <v>589</v>
       </c>
@@ -16439,8 +19040,11 @@
       <c r="H379" s="14" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="380" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J379" s="17" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="380" spans="1:104" ht="34">
       <c r="A380" t="s">
         <v>589</v>
       </c>
@@ -16456,8 +19060,11 @@
       <c r="H380" s="14" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="381" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J380" s="17" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="381" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B381" s="10">
         <v>2</v>
       </c>
@@ -16475,8 +19082,10 @@
         <v>1260</v>
       </c>
       <c r="H381" s="14"/>
-      <c r="I381"/>
-      <c r="J381"/>
+      <c r="I381" s="19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="J381" s="17"/>
       <c r="K381"/>
       <c r="L381"/>
       <c r="M381"/>
@@ -16571,9 +19180,8 @@
       <c r="CX381"/>
       <c r="CY381"/>
       <c r="CZ381"/>
-      <c r="DA381"/>
-    </row>
-    <row r="382" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="382" spans="1:104" ht="68">
       <c r="A382" t="s">
         <v>589</v>
       </c>
@@ -16589,8 +19197,11 @@
       <c r="H382" s="14" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="383" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J382" s="17" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="383" spans="1:104" ht="34">
       <c r="A383" t="s">
         <v>589</v>
       </c>
@@ -16606,8 +19217,11 @@
       <c r="H383" s="14" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="384" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J383" s="17" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="384" spans="1:104" s="8" customFormat="1" ht="34">
       <c r="B384" s="8">
         <v>1</v>
       </c>
@@ -16625,8 +19239,10 @@
         <v>1329</v>
       </c>
       <c r="H384" s="14"/>
-      <c r="I384"/>
-      <c r="J384"/>
+      <c r="I384" s="20" t="s">
+        <v>1712</v>
+      </c>
+      <c r="J384" s="17"/>
       <c r="K384"/>
       <c r="L384"/>
       <c r="M384"/>
@@ -16721,9 +19337,8 @@
       <c r="CX384"/>
       <c r="CY384"/>
       <c r="CZ384"/>
-      <c r="DA384"/>
-    </row>
-    <row r="385" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="385" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B385" s="10">
         <v>2</v>
       </c>
@@ -16741,8 +19356,10 @@
         <v>1265</v>
       </c>
       <c r="H385" s="14"/>
-      <c r="I385"/>
-      <c r="J385"/>
+      <c r="I385" s="19" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J385" s="17"/>
       <c r="K385"/>
       <c r="L385"/>
       <c r="M385"/>
@@ -16837,9 +19454,8 @@
       <c r="CX385"/>
       <c r="CY385"/>
       <c r="CZ385"/>
-      <c r="DA385"/>
-    </row>
-    <row r="386" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="386" spans="1:104" ht="68">
       <c r="A386" t="s">
         <v>589</v>
       </c>
@@ -16855,8 +19471,11 @@
       <c r="H386" s="14" t="s">
         <v>1266</v>
       </c>
-    </row>
-    <row r="387" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J386" s="17" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="387" spans="1:104" ht="17">
       <c r="B387">
         <v>3</v>
       </c>
@@ -16872,8 +19491,11 @@
       <c r="H387" s="14" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="388" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J387" s="17" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="388" spans="1:104" ht="34">
       <c r="A388" t="s">
         <v>589</v>
       </c>
@@ -16889,8 +19511,11 @@
       <c r="H388" s="14" t="s">
         <v>1268</v>
       </c>
-    </row>
-    <row r="389" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J388" s="17" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="389" spans="1:104" ht="68">
       <c r="A389" t="s">
         <v>589</v>
       </c>
@@ -16906,8 +19531,11 @@
       <c r="H389" s="14" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="390" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J389" s="17" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="390" spans="1:104" ht="51">
       <c r="A390" t="s">
         <v>589</v>
       </c>
@@ -16923,8 +19551,11 @@
       <c r="H390" s="14" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="391" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J390" s="17" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="391" spans="1:104" ht="34">
       <c r="A391" t="s">
         <v>589</v>
       </c>
@@ -16940,8 +19571,11 @@
       <c r="H391" s="14" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="392" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J391" s="17" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="392" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B392" s="10">
         <v>2</v>
       </c>
@@ -16959,8 +19593,10 @@
         <v>1272</v>
       </c>
       <c r="H392" s="14"/>
-      <c r="I392"/>
-      <c r="J392"/>
+      <c r="I392" s="19" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J392" s="17"/>
       <c r="K392"/>
       <c r="L392"/>
       <c r="M392"/>
@@ -17055,9 +19691,8 @@
       <c r="CX392"/>
       <c r="CY392"/>
       <c r="CZ392"/>
-      <c r="DA392"/>
-    </row>
-    <row r="393" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="393" spans="1:104" ht="68">
       <c r="A393" t="s">
         <v>589</v>
       </c>
@@ -17073,8 +19708,11 @@
       <c r="H393" s="14" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="394" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J393" s="17" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="394" spans="1:104" ht="17">
       <c r="B394">
         <v>3</v>
       </c>
@@ -17087,8 +19725,11 @@
       <c r="H394" s="14" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="395" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J394" s="17" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="395" spans="1:104" ht="51">
       <c r="A395" t="s">
         <v>589</v>
       </c>
@@ -17104,8 +19745,11 @@
       <c r="H395" s="14" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="396" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J395" s="17" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="396" spans="1:104" ht="51">
       <c r="A396" t="s">
         <v>589</v>
       </c>
@@ -17121,8 +19765,11 @@
       <c r="H396" s="14" t="s">
         <v>1276</v>
       </c>
-    </row>
-    <row r="397" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J396" s="17" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="397" spans="1:104" ht="34">
       <c r="A397" t="s">
         <v>589</v>
       </c>
@@ -17138,8 +19785,11 @@
       <c r="H397" s="14" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="398" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J397" s="17" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="398" spans="1:104" ht="51">
       <c r="A398" t="s">
         <v>589</v>
       </c>
@@ -17155,8 +19805,11 @@
       <c r="H398" s="14" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="399" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J398" s="21" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="399" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B399" s="10">
         <v>2</v>
       </c>
@@ -17174,8 +19827,10 @@
         <v>1279</v>
       </c>
       <c r="H399" s="14"/>
-      <c r="I399"/>
-      <c r="J399"/>
+      <c r="I399" s="19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="J399" s="17"/>
       <c r="K399"/>
       <c r="L399"/>
       <c r="M399"/>
@@ -17270,9 +19925,8 @@
       <c r="CX399"/>
       <c r="CY399"/>
       <c r="CZ399"/>
-      <c r="DA399"/>
-    </row>
-    <row r="400" spans="1:105" ht="94.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="400" spans="1:104" ht="102">
       <c r="A400" t="s">
         <v>589</v>
       </c>
@@ -17288,8 +19942,11 @@
       <c r="H400" s="14" t="s">
         <v>1280</v>
       </c>
-    </row>
-    <row r="401" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J400" s="17" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="401" spans="1:104" ht="17">
       <c r="B401">
         <v>3</v>
       </c>
@@ -17302,8 +19959,11 @@
       <c r="H401" s="14" t="s">
         <v>1274</v>
       </c>
-    </row>
-    <row r="402" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J401" s="17" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="402" spans="1:104" ht="51">
       <c r="A402" t="s">
         <v>589</v>
       </c>
@@ -17319,8 +19979,11 @@
       <c r="H402" s="14" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="403" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J402" s="17" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="403" spans="1:104" ht="51">
       <c r="A403" t="s">
         <v>589</v>
       </c>
@@ -17336,8 +19999,11 @@
       <c r="H403" s="14" t="s">
         <v>1282</v>
       </c>
-    </row>
-    <row r="404" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J403" s="17" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="404" spans="1:104" ht="51">
       <c r="A404" t="s">
         <v>589</v>
       </c>
@@ -17353,8 +20019,11 @@
       <c r="H404" s="14" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="405" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J404" s="17" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="405" spans="1:104" ht="51">
       <c r="A405" t="s">
         <v>589</v>
       </c>
@@ -17370,8 +20039,11 @@
       <c r="H405" s="14" t="s">
         <v>1284</v>
       </c>
-    </row>
-    <row r="406" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J405" s="17" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="406" spans="1:104" ht="51">
       <c r="A406" t="s">
         <v>589</v>
       </c>
@@ -17387,8 +20059,11 @@
       <c r="H406" s="14" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="407" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J406" s="17" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="407" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B407" s="10">
         <v>2</v>
       </c>
@@ -17406,8 +20081,10 @@
         <v>1285</v>
       </c>
       <c r="H407" s="14"/>
-      <c r="I407"/>
-      <c r="J407"/>
+      <c r="I407" s="19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J407" s="17"/>
       <c r="K407"/>
       <c r="L407"/>
       <c r="M407"/>
@@ -17502,9 +20179,8 @@
       <c r="CX407"/>
       <c r="CY407"/>
       <c r="CZ407"/>
-      <c r="DA407"/>
-    </row>
-    <row r="408" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="408" spans="1:104" ht="51">
       <c r="A408" t="s">
         <v>589</v>
       </c>
@@ -17520,8 +20196,11 @@
       <c r="H408" s="14" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="409" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J408" s="17" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="409" spans="1:104" ht="34">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -17537,8 +20216,11 @@
       <c r="H409" s="14" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="410" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J409" s="17" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="410" spans="1:104" ht="34">
       <c r="A410" t="s">
         <v>589</v>
       </c>
@@ -17554,8 +20236,11 @@
       <c r="H410" s="14" t="s">
         <v>1288</v>
       </c>
-    </row>
-    <row r="411" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J410" s="17" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="411" spans="1:104" ht="51">
       <c r="A411" t="s">
         <v>589</v>
       </c>
@@ -17571,8 +20256,11 @@
       <c r="H411" s="14" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="412" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J411" s="17" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="412" spans="1:104" ht="34">
       <c r="A412" t="s">
         <v>589</v>
       </c>
@@ -17588,8 +20276,11 @@
       <c r="H412" s="14" t="s">
         <v>1290</v>
       </c>
-    </row>
-    <row r="413" spans="1:105" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J412" s="17" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="413" spans="1:104" s="10" customFormat="1" ht="34">
       <c r="B413" s="10">
         <v>2</v>
       </c>
@@ -17607,8 +20298,10 @@
         <v>1263</v>
       </c>
       <c r="H413" s="14"/>
-      <c r="I413"/>
-      <c r="J413"/>
+      <c r="I413" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J413" s="17"/>
       <c r="K413"/>
       <c r="L413"/>
       <c r="M413"/>
@@ -17703,9 +20396,8 @@
       <c r="CX413"/>
       <c r="CY413"/>
       <c r="CZ413"/>
-      <c r="DA413"/>
-    </row>
-    <row r="414" spans="1:105" ht="126" x14ac:dyDescent="0.25">
+    </row>
+    <row r="414" spans="1:104" ht="136">
       <c r="A414" t="s">
         <v>589</v>
       </c>
@@ -17721,8 +20413,11 @@
       <c r="H414" s="16" t="s">
         <v>1264</v>
       </c>
-    </row>
-    <row r="415" spans="1:105" s="8" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J414" s="17" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="415" spans="1:104" s="8" customFormat="1" ht="51">
       <c r="B415" s="8">
         <v>1</v>
       </c>
@@ -17740,8 +20435,10 @@
         <v>1333</v>
       </c>
       <c r="H415" s="14"/>
-      <c r="I415"/>
-      <c r="J415"/>
+      <c r="I415" s="20" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J415" s="17"/>
       <c r="K415"/>
       <c r="L415"/>
       <c r="M415"/>
@@ -17836,9 +20533,8 @@
       <c r="CX415"/>
       <c r="CY415"/>
       <c r="CZ415"/>
-      <c r="DA415"/>
-    </row>
-    <row r="416" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="416" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B416" s="10">
         <v>2</v>
       </c>
@@ -17856,8 +20552,10 @@
         <v>1291</v>
       </c>
       <c r="H416" s="14"/>
-      <c r="I416"/>
-      <c r="J416"/>
+      <c r="I416" s="19" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J416" s="17"/>
       <c r="K416"/>
       <c r="L416"/>
       <c r="M416"/>
@@ -17952,9 +20650,8 @@
       <c r="CX416"/>
       <c r="CY416"/>
       <c r="CZ416"/>
-      <c r="DA416"/>
-    </row>
-    <row r="417" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="417" spans="1:104" ht="68">
       <c r="A417" t="s">
         <v>589</v>
       </c>
@@ -17970,8 +20667,11 @@
       <c r="H417" s="14" t="s">
         <v>1292</v>
       </c>
-    </row>
-    <row r="418" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J417" s="17" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="418" spans="1:104" ht="17">
       <c r="B418">
         <v>3</v>
       </c>
@@ -17984,8 +20684,11 @@
       <c r="H418" s="14" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="419" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J418" s="17" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="419" spans="1:104" ht="68">
       <c r="A419" t="s">
         <v>589</v>
       </c>
@@ -18001,8 +20704,11 @@
       <c r="H419" s="14" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="420" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J419" s="17" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="420" spans="1:104" ht="34">
       <c r="A420" t="s">
         <v>589</v>
       </c>
@@ -18018,8 +20724,11 @@
       <c r="H420" s="14" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="421" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J420" s="17" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="421" spans="1:104" ht="51">
       <c r="A421" t="s">
         <v>589</v>
       </c>
@@ -18035,8 +20744,11 @@
       <c r="H421" s="14" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="422" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J421" s="17" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="422" spans="1:104" ht="68">
       <c r="A422" t="s">
         <v>589</v>
       </c>
@@ -18055,8 +20767,11 @@
       <c r="H422" s="14" t="s">
         <v>1297</v>
       </c>
-    </row>
-    <row r="423" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J422" s="17" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="423" spans="1:104" ht="51">
       <c r="B423">
         <v>4</v>
       </c>
@@ -18069,8 +20784,11 @@
       <c r="H423" s="14" t="s">
         <v>1298</v>
       </c>
-    </row>
-    <row r="424" spans="1:105" ht="63" x14ac:dyDescent="0.25">
+      <c r="J423" s="17" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="424" spans="1:104" ht="68">
       <c r="A424" t="s">
         <v>589</v>
       </c>
@@ -18086,8 +20804,11 @@
       <c r="H424" s="14" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="425" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J424" s="17" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="425" spans="1:104" ht="51">
       <c r="A425" t="s">
         <v>589</v>
       </c>
@@ -18103,8 +20824,11 @@
       <c r="H425" s="14" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="426" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J425" s="17" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="426" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B426" s="10">
         <v>2</v>
       </c>
@@ -18122,8 +20846,10 @@
         <v>1301</v>
       </c>
       <c r="H426" s="14"/>
-      <c r="I426"/>
-      <c r="J426"/>
+      <c r="I426" s="19" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J426" s="17"/>
       <c r="K426"/>
       <c r="L426"/>
       <c r="M426"/>
@@ -18218,9 +20944,8 @@
       <c r="CX426"/>
       <c r="CY426"/>
       <c r="CZ426"/>
-      <c r="DA426"/>
-    </row>
-    <row r="427" spans="1:105" ht="78.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="427" spans="1:104" ht="85">
       <c r="A427" t="s">
         <v>589</v>
       </c>
@@ -18239,8 +20964,11 @@
       <c r="H427" s="14" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="428" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J427" s="17" t="s">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="428" spans="1:104" ht="17">
       <c r="B428">
         <v>3</v>
       </c>
@@ -18253,8 +20981,11 @@
       <c r="H428" s="14" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="429" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J428" s="17" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="429" spans="1:104" ht="34">
       <c r="A429" t="s">
         <v>589</v>
       </c>
@@ -18270,8 +21001,11 @@
       <c r="H429" s="14" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="430" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J429" s="17" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="430" spans="1:104" ht="51">
       <c r="A430" t="s">
         <v>589</v>
       </c>
@@ -18287,8 +21021,11 @@
       <c r="H430" s="14" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="431" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J430" s="17" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="431" spans="1:104" ht="68">
       <c r="A431" t="s">
         <v>589</v>
       </c>
@@ -18304,8 +21041,11 @@
       <c r="H431" s="14" t="s">
         <v>1305</v>
       </c>
-    </row>
-    <row r="432" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J431" s="17" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="432" spans="1:104" ht="51">
       <c r="A432" t="s">
         <v>589</v>
       </c>
@@ -18321,8 +21061,11 @@
       <c r="H432" s="14" t="s">
         <v>1300</v>
       </c>
-    </row>
-    <row r="433" spans="1:105" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J432" s="17" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="433" spans="1:104" s="10" customFormat="1" ht="17">
       <c r="B433" s="10">
         <v>2</v>
       </c>
@@ -18340,8 +21083,10 @@
         <v>1306</v>
       </c>
       <c r="H433" s="14"/>
-      <c r="I433"/>
-      <c r="J433"/>
+      <c r="I433" s="19" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J433" s="17"/>
       <c r="K433"/>
       <c r="L433"/>
       <c r="M433"/>
@@ -18436,9 +21181,8 @@
       <c r="CX433"/>
       <c r="CY433"/>
       <c r="CZ433"/>
-      <c r="DA433"/>
-    </row>
-    <row r="434" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="434" spans="1:104" ht="51">
       <c r="A434" t="s">
         <v>589</v>
       </c>
@@ -18454,8 +21198,11 @@
       <c r="H434" s="14" t="s">
         <v>1307</v>
       </c>
-    </row>
-    <row r="435" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J434" s="17" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="435" spans="1:104" ht="17">
       <c r="B435">
         <v>3</v>
       </c>
@@ -18468,8 +21215,11 @@
       <c r="H435" s="14" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="436" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J435" s="17" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="436" spans="1:104" ht="68">
       <c r="A436" t="s">
         <v>589</v>
       </c>
@@ -18488,8 +21238,11 @@
       <c r="H436" s="14" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="437" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J436" s="17" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="437" spans="1:104" ht="34">
       <c r="A437" t="s">
         <v>589</v>
       </c>
@@ -18505,8 +21258,11 @@
       <c r="H437" s="14" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="438" spans="1:105" x14ac:dyDescent="0.25">
+      <c r="J437" s="17" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="438" spans="1:104" ht="34">
       <c r="A438" t="s">
         <v>589</v>
       </c>
@@ -18522,8 +21278,11 @@
       <c r="H438" s="14" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="439" spans="1:105" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J438" s="17" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="439" spans="1:104" ht="51">
       <c r="A439" t="s">
         <v>589</v>
       </c>
@@ -18539,8 +21298,11 @@
       <c r="H439" s="14" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="440" spans="1:105" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J439" s="17" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="440" spans="1:104" ht="51">
       <c r="A440" t="s">
         <v>589</v>
       </c>
@@ -18555,6 +21317,9 @@
       </c>
       <c r="H440" s="14" t="s">
         <v>1312</v>
+      </c>
+      <c r="J440" s="17" t="s">
+        <v>1765</v>
       </c>
     </row>
   </sheetData>

--- a/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
+++ b/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/NIS2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F55472-C932-E54F-82C0-0CDB0E16B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D2D95-778A-AA48-8270-24AFA85117F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33360" windowHeight="21580" activeTab="1" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'A-Techn-and-metho'!$A$1:$F$440</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2217">
   <si>
     <t>assessable</t>
   </si>
@@ -5510,13 +5521,1333 @@
   </si>
   <si>
     <t>library_publication_date</t>
+  </si>
+  <si>
+    <t>library_name[it]</t>
+  </si>
+  <si>
+    <t>NIS2: Requisiti tecnici e metodologici - ALLEGATO REGOLAMENTO DI ESECUZIONE (UE) 2024/2690</t>
+  </si>
+  <si>
+    <t>library_description[it]</t>
+  </si>
+  <si>
+    <t>ALLEGATO del Regolamento di Esecuzione della Commissione che stabilisce - ai sensi dell’articolo 2 - le disposizioni di attuazione della Direttiva (UE) 2022/2555 per quanto riguarda i requisiti tecnici e metodologici delle misure per la gestione dei rischi di cybersicurezza. Link: https://eur-lex.europa.eu/legal-content/ES/TXT/HTML/?uri=OJ:L_202402690</t>
+  </si>
+  <si>
+    <t>library_copyright[it]</t>
+  </si>
+  <si>
+    <t>COMMISSIONE EUROPEA</t>
+  </si>
+  <si>
+    <t>framework_name[it]</t>
+  </si>
+  <si>
+    <t>framework_description[it]</t>
+  </si>
+  <si>
+    <t>POLITICA IN MATERIA DI SICUREZZA DELLE RETI E DEI SISTEMI INFORMATIVI [ARTICOLO 21, PARAGRAFO 2, LETTERA A), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Politica in materia di sicurezza delle reti e dei sistemi informativi</t>
+  </si>
+  <si>
+    <t>Ruoli, responsabilità e poteri</t>
+  </si>
+  <si>
+    <t>POLITICA DI GESTIONE DEI RISCHI (ARTICOLO 21, PARAGRAFO 2, LETTERA A), DELLA DIRETTIVA (UE) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Quadro di riferimento per la gestione dei rischi</t>
+  </si>
+  <si>
+    <t>Monitoraggio della conformità</t>
+  </si>
+  <si>
+    <t>Revisione indipendente della sicurezza delle informazioni e delle reti</t>
+  </si>
+  <si>
+    <t>GESTIONE DEGLI INCIDENTI [ARTICOLO 21, PARAGRAFO 2, LETTERA B), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Criteri di gestione degli incidenti</t>
+  </si>
+  <si>
+    <t>Monitoraggio e registrazione</t>
+  </si>
+  <si>
+    <t>Segnalazione di eventi</t>
+  </si>
+  <si>
+    <t>Valutazione e classificazione degli eventi</t>
+  </si>
+  <si>
+    <t>Risposta agli incidenti</t>
+  </si>
+  <si>
+    <t>Revisioni post-incidente</t>
+  </si>
+  <si>
+    <t>CONTINUITÀ OPERATIVA E GESTIONE DELLE CRISI [ARTICOLO 21, PARAGRAFO 2, LETTERA C), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Piano di continuità operativa e disaster recovery</t>
+  </si>
+  <si>
+    <t>Gestione del backup e della ridondanza</t>
+  </si>
+  <si>
+    <t>Gestione delle crisi</t>
+  </si>
+  <si>
+    <t>SICUREZZA DELLA CATENA DI APPROVVIGIONAMENTO [ARTICOLO 21, PARAGRAFO 2, LETTERA D), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Politica di sicurezza della supply chain</t>
+  </si>
+  <si>
+    <t>Elenco dei fornitori e dei prestatori di servizi</t>
+  </si>
+  <si>
+    <t>SICUREZZA NELL'ACQUISIZIONE, NELLO SVILUPPO E NELLA MANUTENZIONE DELLE RETI E DEI SISTEMI INFORMATIVI [ARTICOLO 21, PARAGRAFO 2, LETTERA E), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Sicurezza nell'acquisizione di servizi o prodotti TIC</t>
+  </si>
+  <si>
+    <t>Ciclo di vita dello sviluppo sicuro</t>
+  </si>
+  <si>
+    <t>Gestione della configurazione</t>
+  </si>
+  <si>
+    <t>Gestione delle modifiche, riparazioni e manutenzione</t>
+  </si>
+  <si>
+    <t>Test di sicurezza</t>
+  </si>
+  <si>
+    <t>Gestione delle patch di sicurezza</t>
+  </si>
+  <si>
+    <t>Sicurezza della rete</t>
+  </si>
+  <si>
+    <t>Segmentazione della rete</t>
+  </si>
+  <si>
+    <t>Protezione contro software dannoso e non autorizzato</t>
+  </si>
+  <si>
+    <t>Gestione e divulgazione delle vulnerabilità</t>
+  </si>
+  <si>
+    <t>POLITICHE E PROCEDURE PER VALUTARE L'EFFICACIA DELLE MISURE DI GESTIONE DEI RISCHI DI CIBERSICUREZZA [ARTICOLO 21, PARAGRAFO 2, LETTERA F), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>PRATICHE INFORMATICHE DI BASE E FORMAZIONE IN MATERIA DI SICUREZZA [ARTICOLO 21, PARAGRAFO 2, LETTERA G), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Sensibilizzazione e pratiche di igiene informatica di base</t>
+  </si>
+  <si>
+    <t>Formazione sulla sicurezza</t>
+  </si>
+  <si>
+    <t>CRITTOGRAFIA [ARTICOLO 21, PARAGRAFO 2, LETTERA H), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>SICUREZZA DELLE RISORSE UMANE [ARTICOLO 21, PARAGRAFO 2, LETTERA I), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Sicurezza delle risorse umane</t>
+  </si>
+  <si>
+    <t>Procedure di cessazione o cambiamento di rapporto di lavoro</t>
+  </si>
+  <si>
+    <t>Processo disciplinare</t>
+  </si>
+  <si>
+    <t>CONTROLLO DELL'ACCESSO [ARTICOLO 21, PARAGRAFO 2, LETTERE I) E J), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Criteri di controllo degli accessi</t>
+  </si>
+  <si>
+    <t>Gestione dei diritti di accesso</t>
+  </si>
+  <si>
+    <t>Account con privilegi e account di amministrazione del sistema</t>
+  </si>
+  <si>
+    <t>Sistemi di amministrazione</t>
+  </si>
+  <si>
+    <t>Identificazione</t>
+  </si>
+  <si>
+    <t>Autenticazione</t>
+  </si>
+  <si>
+    <t>Autenticazione a più fattori</t>
+  </si>
+  <si>
+    <t>GESTIONE PATRIMONIALE [ARTICOLO 21, PARAGRAFO 2, LETTERA I), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Classificazione degli asset</t>
+  </si>
+  <si>
+    <t>Gestione dei beni</t>
+  </si>
+  <si>
+    <t>Criteri relativi ai supporti rimovibili</t>
+  </si>
+  <si>
+    <t>Inventario delle risorse</t>
+  </si>
+  <si>
+    <t>Deposito, restituzione o cancellazione di beni in caso di cessazione del rapporto di lavoro</t>
+  </si>
+  <si>
+    <t>SICUREZZA FISICA E AMBIENTALE [ARTICOLO 21, PARAGRAFO 2, LETTERE C), E) E I), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Utilità di supporto</t>
+  </si>
+  <si>
+    <t>Protezione contro le minacce fisiche e ambientali</t>
+  </si>
+  <si>
+    <t>Controllo degli accessi fisici e perimetrali</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera a), della direttiva (UE) 2022/2555, la politica in materia di sicurezza delle reti e dei sistemi informativi:</t>
+  </si>
+  <si>
+    <t>definire l'approccio dei soggetti pertinenti alla gestione della sicurezza della loro rete e dei loro sistemi informativi;</t>
+  </si>
+  <si>
+    <t>essere adeguati e complementari alla strategia e agli obiettivi aziendali dei soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>definire gli obiettivi di sicurezza delle reti e dell'informazione;</t>
+  </si>
+  <si>
+    <t>includere l'impegno per il miglioramento continuo della sicurezza delle reti e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>includere l'impegno a fornire le risorse adeguate necessarie per la sua attuazione, compresi il personale, le risorse finanziarie, i processi, gli strumenti e le tecnologie necessari;</t>
+  </si>
+  <si>
+    <t>essere comunicati e riconosciuti dai dipendenti interessati e dalle parti esterne interessate;</t>
+  </si>
+  <si>
+    <t>stabilire i ruoli e le responsabilità di cui al punto 1.2;</t>
+  </si>
+  <si>
+    <t>elencare la documentazione da conservare e la durata di conservazione della documentazione;</t>
+  </si>
+  <si>
+    <t>elencare le politiche specifiche per argomento;</t>
+  </si>
+  <si>
+    <t>stabilisce indicatori e misure per monitorarne l'attuazione e lo stato attuale del livello di maturità della sicurezza delle reti e dell'informazione dei soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>indicare la data dell'approvazione formale da parte degli organi di gestione delle entità pertinenti (gli «organi di gestione»).</t>
+  </si>
+  <si>
+    <t>La politica di sicurezza delle reti e dei sistemi informativi è riesaminata e, se del caso, aggiornata dagli organi di gestione almeno una volta all'anno e ogniqualvolta si verifichino incidenti significativi o modifiche significative delle operazioni o dei rischi. L'esito delle revisioni è documentato.</t>
+  </si>
+  <si>
+    <t>Nell'ambito della loro politica in materia di sicurezza delle reti e dei sistemi informativi di cui al punto 1.1, i soggetti pertinenti stabiliscono le responsabilità e le autorità in materia di sicurezza delle reti e dei sistemi informativi e assegnano loro i ruoli, li assegnano in base alle esigenze dei soggetti pertinenti e li comunicano agli organi di gestione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti impongono a tutto il personale e ai terzi di applicare la sicurezza delle reti e dei sistemi informativi conformemente alla politica di sicurezza delle reti e dell'informazione stabilita, alle politiche e alle procedure specifiche per argomento dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>Almeno una persona riferisce direttamente agli organi di gestione su questioni relative alla sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>A seconda delle dimensioni dei soggetti pertinenti, la sicurezza delle reti e dei sistemi informativi è coperta da ruoli o mansioni specifici svolti in aggiunta ai ruoli esistenti.</t>
+  </si>
+  <si>
+    <t>I doveri e le competenze contrastanti sono segregati, se del caso.</t>
+  </si>
+  <si>
+    <t>I ruoli, le responsabilità e le autorità sono riesaminati e, se del caso, aggiornati dagli organi di gestione a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera a), della direttiva (UE) 2022/2555, i soggetti pertinenti istituiscono e mantengono un quadro adeguato per la gestione dei rischi per individuare e affrontare i rischi posti alla sicurezza delle reti e dei sistemi informativi. I soggetti pertinenti effettuano e documentano le valutazioni dei rischi e, sulla base dei risultati, stabiliscono, attuano e monitorano un piano di trattamento dei rischi. I risultati della valutazione del rischio e i rischi residui sono accettati dagli organi di gestione o, se del caso, dalle persone che sono responsabili e hanno l'autorità di gestire i rischi, a condizione che i soggetti pertinenti garantiscano un'adeguata comunicazione agli organi di gestione.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 2.1.1, i soggetti pertinenti stabiliscono procedure per l'individuazione, l'analisi, la valutazione e il trattamento dei rischi («processo di gestione dei rischi di cibersicurezza»). Il processo di gestione dei rischi di cibersicurezza è parte integrante del processo generale di gestione dei rischi dei soggetti pertinenti, se del caso. Nell'ambito del processo di gestione dei rischi di cibersicurezza, i soggetti pertinenti:</t>
+  </si>
+  <si>
+    <t>seguire una metodologia di gestione del rischio;</t>
+  </si>
+  <si>
+    <t>stabilire il livello di tolleranza al rischio in base alla propensione al rischio dei soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>stabilire e mantenere criteri di rischio pertinenti;</t>
+  </si>
+  <si>
+    <t>in linea con un approccio multirischio, individuare e documentare i rischi posti alla sicurezza delle reti e dei sistemi informativi, in particolare in relazione a terzi, e i rischi che potrebbero comportare perturbazioni della disponibilità, dell'integrità, dell'autenticità e della riservatezza della rete e dei sistemi informativi, compresa l'individuazione di un unico punto di guasto;</t>
+  </si>
+  <si>
+    <t>analizzare i rischi posti alla sicurezza delle reti e dei sistemi informativi, compresi la minaccia, la probabilità, l'impatto e il livello di rischio, tenendo conto dell'intelligence sulle minacce informatiche e delle vulnerabilità;</t>
+  </si>
+  <si>
+    <t>valutare i rischi identificati in base ai criteri di rischio;</t>
+  </si>
+  <si>
+    <t>individuare e dare priorità alle opzioni e alle misure appropriate per il trattamento dei rischi;</t>
+  </si>
+  <si>
+    <t>monitorare costantemente l'attuazione delle misure di trattamento dei rischi;</t>
+  </si>
+  <si>
+    <t>identificare chi è responsabile dell'attuazione delle misure di trattamento dei rischi e quando dovrebbero essere attuate;</t>
+  </si>
+  <si>
+    <t>Documentare in modo comprensibile le misure di trattamento dei rischi scelte in un piano di trattamento dei rischi e i motivi che giustificano l'accettazione dei rischi residui.</t>
+  </si>
+  <si>
+    <t>Nell'individuare e stabilire le priorità delle opzioni e delle misure adeguate per il trattamento dei rischi, i soggetti pertinenti tengono conto dei risultati della valutazione dei rischi, dei risultati della procedura per valutare l'efficacia delle misure di gestione dei rischi di cibersicurezza, dei costi di attuazione in relazione al beneficio atteso, della classificazione delle attività di cui al punto 12.1 e dell'analisi dell'impatto sulle imprese di cui al punto 4.1.3.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano i risultati della valutazione dei rischi e il piano di trattamento dei rischi a intervalli pianificati e almeno una volta all'anno e quando si verificano modifiche significative delle operazioni o dei rischi o incidenti significativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano periodicamente la conformità alle loro politiche in materia di sicurezza delle reti e dei sistemi informativi, alle politiche, alle regole e agli standard specifici per argomento. Gli organi di gestione sono informati dello stato della sicurezza delle reti e dell'informazione sulla base delle verifiche di conformità mediante relazioni periodiche.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono un sistema efficace di segnalazione della conformità che sia adeguato alle loro strutture, ai loro ambienti operativi e ai loro scenari di minacce. Il sistema di segnalazione di conformità è in grado di fornire agli organi di gestione una visione informata dello stato attuale della gestione dei rischi da parte dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano il monitoraggio della conformità a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano in modo indipendente il loro approccio alla gestione della sicurezza delle reti e dei sistemi informativi e alla sua attuazione, comprese le persone, i processi e le tecnologie.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti sviluppano e mantengono processi per condurre revisioni indipendenti, che devono essere effettuate da persone con adeguate competenze di revisione. Se l'esame indipendente è condotto da membri del personale dell'ente interessato, le persone che effettuano gli esami non devono essere nella linea di autorità del personale dell'area oggetto di esame. Se le dimensioni dei soggetti pertinenti non consentono tale separazione dei poteri di competenza, i soggetti pertinenti mettono in atto misure alternative per garantire l'imparzialità dei ricorsi.</t>
+  </si>
+  <si>
+    <t>I risultati delle revisioni indipendenti, compresi i risultati del monitoraggio della conformità di cui al punto 2.2. e il monitoraggio e la misurazione di cui al punto 7 sono comunicati agli organi di gestione. Devono essere adottate azioni correttive o deve essere accettato il rischio residuo in base ai criteri di accettazione del rischio dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>Le revisioni indipendenti si svolgono a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera b), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono e attuano una politica di gestione degli incidenti che stabilisce i ruoli, le responsabilità e le procedure per l'individuazione, l'analisi, il contenimento o la risposta, il recupero, la documentazione e la segnalazione tempestiva degli incidenti.</t>
+  </si>
+  <si>
+    <t>La politica di cui al punto 3.1.1 deve essere coerente con il piano di continuità operativa e di ripristino in caso di disastro di cui al punto 4.1. La politica comprende:</t>
+  </si>
+  <si>
+    <t>un sistema di categorizzazione degli incidenti coerente con la valutazione e la classificazione degli eventi effettuate a norma del punto 3.4.1;</t>
+  </si>
+  <si>
+    <t>piani di comunicazione efficaci, anche per l'escalation e la segnalazione;</t>
+  </si>
+  <si>
+    <t>assegnazione di ruoli per rilevare e rispondere in modo appropriato agli incidenti a dipendenti competenti;</t>
+  </si>
+  <si>
+    <t>Documenti da utilizzare nel corso del rilevamento e della risposta agli incidenti, come manuali di risposta agli incidenti, grafici di escalation, elenchi di contatti e modelli.</t>
+  </si>
+  <si>
+    <t>I ruoli, le responsabilità e le procedure stabiliti nella politica sono verificati e riesaminati e, se del caso, aggiornati a intervalli pianificati e dopo incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono procedure e utilizzano strumenti per monitorare e registrare le attività sulla loro rete e sui loro sistemi informativi al fine di individuare eventi che potrebbero essere considerati incidenti e rispondere di conseguenza per attenuarne l'impatto.</t>
+  </si>
+  <si>
+    <t>Per quanto possibile, il monitoraggio è automatizzato ed effettuato in modo continuo o a intervalli periodici, compatibilmente con le capacità aziendali. I soggetti pertinenti svolgono le loro attività di monitoraggio in modo da ridurre al minimo i falsi positivi e i falsi negativi.</t>
+  </si>
+  <si>
+    <t>Sulla base delle procedure di cui al punto 3.2.1, i soggetti pertinenti conservano, documentano e rivedono i registri. I soggetti pertinenti redigono un elenco delle attività da sottoporre a registrazione sulla base dei risultati della valutazione del rischio effettuata a norma del punto 2.1. Se del caso, i registri devono includere:</t>
+  </si>
+  <si>
+    <t>traffico di rete in uscita e in entrata pertinente;</t>
+  </si>
+  <si>
+    <t>creazione, modifica o cancellazione di utenti della rete e dei sistemi informativi delle entità pertinenti ed estensione delle autorizzazioni;</t>
+  </si>
+  <si>
+    <t>accesso a sistemi e applicazioni;</t>
+  </si>
+  <si>
+    <t>eventi relativi all'autenticazione;</t>
+  </si>
+  <si>
+    <t>tutti gli accessi privilegiati ai sistemi e alle applicazioni e le attività svolte dagli account amministrativi;</t>
+  </si>
+  <si>
+    <t>accesso o modifiche ai file critici di configurazione e backup;</t>
+  </si>
+  <si>
+    <t>registri degli eventi e registri di strumenti di sicurezza, come antivirus, sistemi di rilevamento delle intrusioni o firewall;</t>
+  </si>
+  <si>
+    <t>utilizzo delle risorse di sistema, nonché delle loro prestazioni;</t>
+  </si>
+  <si>
+    <t>l'accesso fisico alle strutture;</t>
+  </si>
+  <si>
+    <t>l'accesso e l'utilizzo delle loro apparecchiature e dispositivi di rete;</t>
+  </si>
+  <si>
+    <t>attivazione, arresto e pausa dei vari log;</t>
+  </si>
+  <si>
+    <t>eventi ambientali.</t>
+  </si>
+  <si>
+    <t>I registri devono essere regolarmente esaminati per individuare eventuali tendenze insolite o indesiderate. Se del caso, i soggetti pertinenti stabiliscono valori appropriati per le soglie di allarme. Se i valori stabiliti per la soglia di allarme sono superati, deve essere attivato automaticamente un allarme, se del caso. I soggetti pertinenti provvedono affinché, in caso di allarme, sia avviata tempestivamente una risposta qualificata e adeguata.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati conservano ed eseguono il backup delle registrazioni per un periodo predefinito e le proteggono da accessi o modifiche non autorizzate.</t>
+  </si>
+  <si>
+    <t>Per quanto possibile, i soggetti pertinenti garantiscono che tutti i sistemi dispongano di fonti temporali sincronizzate per essere in grado di correlare i log tra i sistemi per la valutazione degli eventi. I soggetti pertinenti redigono e tengono un elenco di tutti i beni che vengono registrati e garantiscono che i sistemi di monitoraggio e registrazione siano ridondanti. La disponibilità dei sistemi di monitoraggio e di registrazione è monitorata indipendentemente dai sistemi che controllano.</t>
+  </si>
+  <si>
+    <t>Le procedure e l'elenco delle attività registrate sono riesaminate e, se del caso, aggiornate a intervalli regolari e dopo incidenti significativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti devono mettere in atto un meccanismo semplice che consenta ai propri dipendenti, fornitori e clienti di segnalare eventi sospetti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti comunicano, se del caso, il meccanismo di segnalazione degli eventi ai loro fornitori e clienti e formano regolarmente i loro dipendenti su come utilizzare il meccanismo.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti valutano gli eventi sospetti per determinare se costituiscano incidenti e, in caso affermativo, ne determinano la natura e la gravità.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 3.4.1, i soggetti pertinenti agiscono nel modo seguente:</t>
+  </si>
+  <si>
+    <t>effettuare la valutazione sulla base di criteri predefiniti stabiliti in anticipo e su un triage per determinare le priorità di contenimento ed eliminazione degli incidenti;</t>
+  </si>
+  <si>
+    <t>valuta l'esistenza di incidenti ricorrenti di cui all'articolo 4 del presente regolamento su base trimestrale;</t>
+  </si>
+  <si>
+    <t>esaminare i registri appropriati ai fini della valutazione e della classificazione degli eventi;</t>
+  </si>
+  <si>
+    <t>mettere in atto un processo per la correlazione e l'analisi dei log, e</t>
+  </si>
+  <si>
+    <t>rivalutare e riclassificare gli eventi nel caso in cui si rendano disponibili nuove informazioni o dopo l'analisi di informazioni precedentemente disponibili.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti rispondono agli incidenti secondo procedure documentate e in modo tempestivo.</t>
+  </si>
+  <si>
+    <t>Le procedure di risposta agli incidenti comprendono le seguenti fasi:</t>
+  </si>
+  <si>
+    <t>contenimento dell'incidente, per prevenire la propagazione delle conseguenze dell'incidente;</t>
+  </si>
+  <si>
+    <t>eradicazione, per evitare che l'incidente prosegua o si ripresenti,</t>
+  </si>
+  <si>
+    <t>recupero dall'incidente, se necessario.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono piani e procedure di comunicazione:</t>
+  </si>
+  <si>
+    <t>con i gruppi di intervento per la sicurezza informatica in caso di incidente (CSIRT) o, se del caso, con le autorità competenti, in relazione alla notifica degli incidenti;</t>
+  </si>
+  <si>
+    <t>per la comunicazione tra i membri del personale dell'entità pertinente e per la comunicazione con le parti interessate esterne all'entità pertinente.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti registrano le attività di risposta agli incidenti conformemente alle procedure di cui al punto 3.2.1 e registrano le prove.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano a intervalli programmati le loro procedure di risposta agli incidenti.</t>
+  </si>
+  <si>
+    <t>Se del caso, i soggetti pertinenti effettuano revisioni successive all'incidente dopo il ripristino dagli incidenti. Le revisioni successive all'incidente devono individuare, ove possibile, la causa principale dell'incidente e tradursi in insegnamenti documentati tratti per ridurre il verificarsi e le conseguenze di incidenti futuri.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono che le revisioni successive all'incidente contribuiscano a migliorare il loro approccio alla sicurezza delle reti e dell'informazione, alle misure di trattamento dei rischi e alle procedure di gestione, individuazione e risposta agli incidenti.</t>
+  </si>
+  <si>
+    <t>Gli enti pertinenti esaminano, a intervalli pianificati, se gli incidenti hanno portato a revisioni successive all'incidente.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera c), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono e mantengono un piano di continuità operativa e di ripristino in caso di disastro da applicare in caso di incidenti.</t>
+  </si>
+  <si>
+    <t>Le operazioni dei soggetti interessati devono essere ripristinate secondo il piano di continuità operativa e di ripristino in caso di disastro. Il piano si basa sui risultati della valutazione dei rischi effettuata a norma del punto 2.1 e comprende, se del caso, i seguenti elementi:</t>
+  </si>
+  <si>
+    <t>scopo, ambito e pubblico;</t>
+  </si>
+  <si>
+    <t>ruoli e responsabilità;</t>
+  </si>
+  <si>
+    <t>i contatti chiave e i canali di comunicazione (interni ed esterni);</t>
+  </si>
+  <si>
+    <t>condizioni per l'attivazione e la disattivazione del piano;</t>
+  </si>
+  <si>
+    <t>ordine di recupero delle operazioni;</t>
+  </si>
+  <si>
+    <t>piani di risanamento per operazioni specifiche, compresi gli obiettivi di risanamento;</t>
+  </si>
+  <si>
+    <t>risorse necessarie, inclusi backup e ridondanze;</t>
+  </si>
+  <si>
+    <t>ripristino e ripresa delle attività da misure temporanee.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano un'analisi dell'impatto sulle attività per valutare l'impatto potenziale di gravi perturbazioni delle loro operazioni commerciali e, sulla base dei risultati dell'analisi dell'impatto sulle attività, stabiliscono i requisiti di continuità per la rete e i sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Il piano di continuità operativa e il piano di ripristino in caso di disastro sono testati, riesaminati e, se del caso, aggiornati a intervalli pianificati e a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi. I soggetti pertinenti garantiscono che i piani includano gli insegnamenti tratti da tali test.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti conservano copie di backup dei dati e mettono a disposizione risorse sufficienti, comprese le strutture, la rete e i sistemi informativi e il personale, per garantire un livello adeguato di ridondanza.</t>
+  </si>
+  <si>
+    <t>Sulla base dei risultati della valutazione dei rischi effettuata a norma del punto 2.1 e del piano di continuità operativa, i soggetti pertinenti stabiliscono piani di backup che comprendono:</t>
+  </si>
+  <si>
+    <t>tempi di recupero;</t>
+  </si>
+  <si>
+    <t>garanzia che le copie di backup siano complete e accurate, compresi i dati di configurazione e i dati archiviati nell'ambiente del servizio di cloud computing;</t>
+  </si>
+  <si>
+    <t>conservare copie di backup (online o offline) in una o più posizioni sicure, che non si trovino nella stessa rete del sistema e che si trovino a una distanza sufficiente per evitare eventuali danni derivanti da un disastro nel sito principale;</t>
+  </si>
+  <si>
+    <t>adeguati controlli di accesso fisici e logici alle copie di backup, in conformità con il livello di classificazione degli asset;</t>
+  </si>
+  <si>
+    <t>ripristino dei dati dalle copie di backup;</t>
+  </si>
+  <si>
+    <t>Periodi di conservazione in base ai requisiti aziendali e normativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano controlli periodici dell'integrità delle copie di backup.</t>
+  </si>
+  <si>
+    <t>Sulla base dei risultati della valutazione dei rischi effettuata a norma del punto 2.1 e del piano di continuità operativa, i soggetti pertinenti garantiscono una sufficiente disponibilità di risorse mediante la ridondanza almeno parziale dei seguenti elementi:</t>
+  </si>
+  <si>
+    <t>reti e sistemi informativi;</t>
+  </si>
+  <si>
+    <t>beni, compresi impianti, attrezzature e forniture;</t>
+  </si>
+  <si>
+    <t>personale dotato della responsabilità, dell'autorità e della competenza necessarie;</t>
+  </si>
+  <si>
+    <t>canali di comunicazione adeguati.</t>
+  </si>
+  <si>
+    <t>Se del caso, i soggetti pertinenti garantiscono che il monitoraggio e l'adeguamento delle risorse, compresi gli impianti, i sistemi e il personale, siano debitamente informati dai requisiti di backup e di ridondanza.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano verifiche periodiche del ripristino delle copie di backup e delle ridondanze per garantire che, in condizioni di ripristino, si possa fare affidamento su di esse e coprano le copie, i processi e le conoscenze necessarie per eseguire un ripristino efficace. Gli enti pertinenti documentano i risultati delle prove e, se necessario, adottano misure correttive.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono un processo per la gestione delle crisi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti provvedono affinché il processo di gestione della crisi riguardi almeno i seguenti elementi:</t>
+  </si>
+  <si>
+    <t>ruoli e responsabilità del personale e, se del caso, dei fornitori e dei prestatori di servizi, specificando l'assegnazione dei ruoli in situazioni di crisi, comprese le misure specifiche da seguire;</t>
+  </si>
+  <si>
+    <t>adeguati mezzi di comunicazione tra i soggetti interessati e le autorità competenti pertinenti;</t>
+  </si>
+  <si>
+    <t>l'applicazione di misure adeguate per garantire il mantenimento della sicurezza delle reti e dei sistemi informativi in situazioni di crisi.</t>
+  </si>
+  <si>
+    <t>Ai fini della lettera b), il flusso di informazioni tra i soggetti pertinenti e le autorità competenti pertinenti comprende sia le comunicazioni obbligatorie, quali le segnalazioni di incidenti e le relative tempistiche, sia le comunicazioni non obbligatorie.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti attuano un processo per la gestione e l'utilizzo delle informazioni ricevute dai CSIRT o, se del caso, dalle autorità competenti, in merito a incidenti, vulnerabilità, minacce o possibili misure di mitigazione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano il piano di gestione delle crisi su base periodica o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera d), della direttiva (UE) 2022/2555, i soggetti pertinenti istituiscono, attuano e applicano una politica di sicurezza della catena di approvvigionamento che disciplina le relazioni con i loro fornitori diretti e prestatori di servizi al fine di attenuare i rischi individuati per la sicurezza delle reti e dei sistemi informativi. Nella politica di sicurezza della catena di approvvigionamento, i soggetti pertinenti identificano il loro ruolo nella catena di approvvigionamento e lo comunicano ai loro fornitori diretti e prestatori di servizi.</t>
+  </si>
+  <si>
+    <t>Nell'ambito della politica di sicurezza della catena logistica di cui al punto 5.1.1, i soggetti pertinenti stabiliscono i criteri per la selezione e la stipula di contratti con i fornitori e i prestatori di servizi. Tali criteri comprendono i seguenti:</t>
+  </si>
+  <si>
+    <t>le pratiche di cibersicurezza dei fornitori e dei prestatori di servizi, comprese le loro procedure di sviluppo sicuro;</t>
+  </si>
+  <si>
+    <t>la capacità dei fornitori e dei prestatori di servizi di soddisfare le specifiche in materia di cibersicurezza stabilite dai soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>la qualità e la resilienza complessive dei prodotti e dei servizi TIC e le misure di gestione dei rischi di cibersicurezza in essi integrate, compresi i rischi e il livello di classificazione dei prodotti e dei servizi TIC;</t>
+  </si>
+  <si>
+    <t>la capacità dei soggetti pertinenti di diversificare le fonti di approvvigionamento e di limitare la dipendenza dal fornitore, se del caso.</t>
+  </si>
+  <si>
+    <t>Nell'elaborare la loro politica di sicurezza della catena di approvvigionamento, i soggetti pertinenti tengono conto dei risultati delle valutazioni coordinate dei rischi per la sicurezza delle catene di approvvigionamento critiche effettuate conformemente all'articolo 22, paragrafo 1, della direttiva (UE) 2022/2555, se del caso.</t>
+  </si>
+  <si>
+    <t>Sulla base della politica di sicurezza della catena di approvvigionamento e tenendo conto dei risultati della valutazione dei rischi effettuata conformemente al punto 2.1. del presente allegato, i soggetti pertinenti provvedono affinché i loro contratti con i fornitori e i prestatori di servizi specifichino, se del caso mediante accordi sul livello dei servizi, quanto segue:</t>
+  </si>
+  <si>
+    <t>i requisiti di cibersicurezza per i fornitori o i prestatori di servizi, compresi i requisiti relativi alla sicurezza nell'acquisto di servizi o prodotti TIC di cui al punto 6.1;</t>
+  </si>
+  <si>
+    <t>requisiti in materia di consapevolezza, competenze e formazione e, se del caso, certificazioni richieste ai dipendenti dei fornitori o dei prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>requisiti relativi alla verifica del background dei dipendenti dei fornitori e dei prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>l'obbligo per i fornitori e i prestatori di servizi di notificare, senza indebito ritardo, ai soggetti interessati gli incidenti che presentano un rischio per la sicurezza della rete e dei sistemi informativi di tali soggetti;</t>
+  </si>
+  <si>
+    <t>il diritto di revisione contabile o il diritto di ricevere relazioni di revisione;</t>
+  </si>
+  <si>
+    <t>l'obbligo per i fornitori e i prestatori di servizi di gestire le vulnerabilità che presentano un rischio per la sicurezza della rete e dei sistemi informativi dei soggetti interessati;</t>
+  </si>
+  <si>
+    <t>requisiti relativi al subappalto e, qualora i soggetti pertinenti consentano il subappalto, requisiti di cibersicurezza per i subappaltatori conformemente ai requisiti di cibersicurezza di cui alla lettera a);</t>
+  </si>
+  <si>
+    <t>obblighi dei fornitori e dei prestatori di servizi alla risoluzione del contratto, quali il reperimento e l'eliminazione delle informazioni ottenute dai fornitori e dai prestatori di servizi nell'esercizio dei loro compiti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti tengono conto degli elementi di cui ai punti 5.1.2 e 5.1.3. nell'ambito del processo di selezione di nuovi fornitori e prestatori di servizi, nonché nell'ambito del processo di approvvigionamento di cui al punto 6.1.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano la politica di sicurezza della catena di approvvigionamento e monitorano, valutano e, se necessario, agiscono in seguito alle modifiche delle pratiche di cibersicurezza dei fornitori e dei prestatori di servizi, a intervalli pianificati e quando si verificano modifiche significative delle operazioni o dei rischi o incidenti significativi connessi alla fornitura di servizi di TIC o che hanno un impatto sulla sicurezza dei prodotti di TIC da parte di fornitori e prestatori di servizi.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 5.1.6, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>monitorare regolarmente le relazioni sull'attuazione degli accordi sul livello dei servizi, se del caso;</t>
+  </si>
+  <si>
+    <t>esaminare gli incidenti relativi ai prodotti e ai servizi TIC da fornitori e prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>valutare la necessità di revisioni non programmate e documentare i risultati in modo comprensibile;</t>
+  </si>
+  <si>
+    <t>analizzare i rischi presentati dalle modifiche relative ai prodotti e ai servizi TIC da parte dei fornitori e dei prestatori di servizi e, se del caso, adottare tempestivamente misure di mitigazione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti tengono e tengono aggiornato un registro dei loro fornitori diretti e prestatori di servizi, tra cui:</t>
+  </si>
+  <si>
+    <t>punti di contatto per ciascun fornitore diretto e fornitore di servizi;</t>
+  </si>
+  <si>
+    <t>un elenco dei prodotti TIC, dei servizi TIC e dei processi TIC forniti dal fornitore diretto o dal prestatore di servizi ai soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera e), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono e attuano processi per gestire i rischi derivanti dall'acquisizione di servizi TIC o prodotti TIC per componenti critici per la sicurezza delle reti e dei sistemi informativi dei soggetti pertinenti, sulla base della valutazione dei rischi effettuata a norma del punto 2.1,  da fornitori o prestatori di servizi durante tutto il loro ciclo di vita.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.1.1., i processi di cui al punto 6.1.1. comprende:</t>
+  </si>
+  <si>
+    <t>requisiti di sicurezza da applicare ai servizi o ai prodotti TIC da acquistare;</t>
+  </si>
+  <si>
+    <t>requisiti relativi agli aggiornamenti di sicurezza per l'intero ciclo di vita dei servizi TIC o dei prodotti TIC, o alla sostituzione dopo la fine del periodo di supporto;</t>
+  </si>
+  <si>
+    <t>informazioni che descrivano i componenti hardware e software utilizzati nei servizi TIC o nei prodotti TIC;</t>
+  </si>
+  <si>
+    <t>informazioni che descrivano le funzioni di cibersicurezza implementate dei servizi TIC o dei prodotti TIC e la configurazione necessaria per il loro funzionamento sicuro;</t>
+  </si>
+  <si>
+    <t>la garanzia che i servizi TIC o i prodotti TIC siano conformi ai requisiti di sicurezza di cui alla lettera a);</t>
+  </si>
+  <si>
+    <t>metodi per convalidare che i servizi TIC o i prodotti TIC forniti siano conformi ai requisiti di sicurezza dichiarati, nonché la documentazione dei risultati della convalida.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le procedure a intervalli pianificati e quando si verificano incidenti significativi.</t>
+  </si>
+  <si>
+    <t>Prima di sviluppare una rete e un sistema informativo, compreso il software, i soggetti pertinenti stabiliscono norme per lo sviluppo sicuro delle reti e dei sistemi informativi e le applicano quando sviluppano internamente le reti e i sistemi informativi o quando esternalizzano lo sviluppo delle reti e dei sistemi informativi. Le norme riguardano tutte le fasi di sviluppo, comprese le specifiche, la progettazione, lo sviluppo, l'attuazione e il collaudo.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.2.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>effettuare un'analisi dei requisiti di sicurezza nelle fasi di specificazione e progettazione di qualsiasi progetto di sviluppo o acquisizione intrapreso dai soggetti pertinenti o per conto di tali soggetti;</t>
+  </si>
+  <si>
+    <t>applicare i principi per l'ingegnerizzazione di sistemi sicuri e i principi di codifica sicura a qualsiasi attività di sviluppo dei sistemi informativi, come la promozione di architetture zero-trust basate sulla sicurezza informatica fin dalla progettazione;</t>
+  </si>
+  <si>
+    <t>stabilire i requisiti di sicurezza relativi agli ambienti di sviluppo;</t>
+  </si>
+  <si>
+    <t>stabilire e implementare processi di test di sicurezza nel ciclo di vita dello sviluppo;</t>
+  </si>
+  <si>
+    <t>selezionare, proteggere e gestire in modo appropriato i dati dei test di sicurezza;</t>
+  </si>
+  <si>
+    <t>sanificare e anonimizzare i dati dei test in base alla valutazione dei rischi effettuata ai sensi del punto 2.1.</t>
+  </si>
+  <si>
+    <t>Per lo sviluppo esternalizzato di reti e sistemi informativi, i soggetti pertinenti applicano anche le politiche e le procedure di cui ai punti 5 e 6.1.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se necessario, aggiornano le loro norme in materia di sviluppo sicuro a intervalli programmati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti adottano le misure appropriate per stabilire, documentare, attuare e monitorare le configurazioni, comprese le configurazioni di sicurezza di hardware, software, servizi e reti.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.3.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>stabilire e garantire la sicurezza delle configurazioni dell'hardware, del software, dei servizi e delle reti;</t>
+  </si>
+  <si>
+    <t>stabilire e attuare processi e strumenti per far rispettare le configurazioni sicure stabilite per l'hardware, il software, i servizi e le reti, per i sistemi di nuova installazione e per i sistemi in funzione nel corso del loro ciclo di vita.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le configurazioni a intervalli pianificati o quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti applicano procedure di gestione delle modifiche per controllare le modifiche della rete e dei sistemi informativi. Se del caso, le procedure devono essere coerenti con le politiche generali dei soggetti pertinenti in materia di gestione del cambiamento.</t>
+  </si>
+  <si>
+    <t>Le procedure di cui al punto 6.4.1. si applica alle versioni, alle modifiche e ai cambiamenti di emergenza di qualsiasi software e hardware in funzione e alle modifiche alla configurazione. Le procedure garantiscono che tali modifiche siano documentate e, sulla base della valutazione dei rischi effettuata a norma del punto 2.1, testate e valutate in vista del potenziale impatto prima di essere attuate.</t>
+  </si>
+  <si>
+    <t>Nel caso in cui non sia stato possibile seguire le normali procedure di gestione delle modifiche a causa di un'emergenza, gli enti competenti documenteranno il risultato della modifica e la spiegazione del motivo per cui non è stato possibile seguire le procedure.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le procedure a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono, attuano e applicano una politica e procedure per i test di sicurezza.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati:</t>
+  </si>
+  <si>
+    <t>stabilire, sulla base della valutazione dei rischi effettuata a norma del punto 2.1, la necessità, la portata, la frequenza e il tipo di prove di sicurezza;</t>
+  </si>
+  <si>
+    <t>effettuare prove di sicurezza secondo una metodologia di prova documentata, che copra i componenti identificati come pertinenti per il funzionamento sicuro in un'analisi dei rischi;</t>
+  </si>
+  <si>
+    <t>documentare il tipo, l'ambito, il tempo e i risultati delle prove, compresa la valutazione della criticità e le azioni di mitigazione per ciascun reperto;</t>
+  </si>
+  <si>
+    <t>applicare azioni di mitigazione in caso di rilievi critici.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le loro politiche in materia di prove di sicurezza a intervalli programmati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti specificano e applicano procedure coerenti con le procedure di gestione delle modifiche di cui al punto 6.4.1. nonché con la gestione delle vulnerabilità, la gestione dei rischi e altre procedure di gestione pertinenti, per garantire che:</t>
+  </si>
+  <si>
+    <t>le patch di sicurezza siano applicate entro un termine ragionevole dal momento in cui sono disponibili;</t>
+  </si>
+  <si>
+    <t>le patch di sicurezza vengono testate prima di essere applicate nei sistemi di produzione;</t>
+  </si>
+  <si>
+    <t>le patch di sicurezza provengono da fonti attendibili e ne vengono controllate l'integrità;</t>
+  </si>
+  <si>
+    <t>Sono attuate misure supplementari e sono accettati i rischi residui nei casi in cui non sia disponibile una patch o non sia applicata ai sensi del punto 6.6.2.</t>
+  </si>
+  <si>
+    <t>In deroga al punto 6.6.1. a), i soggetti pertinenti possono scegliere di non applicare le patch di sicurezza quando gli svantaggi derivanti dall'applicazione delle patch di sicurezza superano i benefici della cibersicurezza. I soggetti pertinenti documentano e motivano debitamente i motivi di tale decisione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti adottano le misure appropriate per proteggere la loro rete e i loro sistemi informativi dalle minacce informatiche.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.7.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>documentare l'architettura della rete in modo comprensibile e aggiornato;</t>
+  </si>
+  <si>
+    <t>determinare e applicare controlli per proteggere i domini di rete interni dei soggetti interessati dall'accesso non autorizzato;</t>
+  </si>
+  <si>
+    <t>configurare controlli per impedire accessi e comunicazioni di rete non necessari per il funzionamento dei soggetti interessati;</t>
+  </si>
+  <si>
+    <t>determinare e applicare controlli per l'accesso remoto alla rete e ai sistemi informativi, compreso l'accesso da parte dei fornitori di servizi;</t>
+  </si>
+  <si>
+    <t>non utilizzare i sistemi utilizzati per la gestione dell'attuazione della politica di sicurezza per altri scopi;</t>
+  </si>
+  <si>
+    <t>vietare o disattivare esplicitamente connessioni e servizi non necessari;</t>
+  </si>
+  <si>
+    <t>se del caso, consentire esclusivamente l'accesso alla rete e ai sistemi informativi dei soggetti pertinenti da parte di dispositivi autorizzati da tali soggetti;</t>
+  </si>
+  <si>
+    <t>consentire le connessioni dei fornitori di servizi solo dopo una richiesta di autorizzazione e per un determinato periodo di tempo, ad esempio la durata di un'operazione di manutenzione;</t>
+  </si>
+  <si>
+    <t>stabilire la comunicazione tra sistemi distinti solo attraverso canali affidabili che sono isolati utilizzando la separazione logica, crittografica o fisica da altri canali di comunicazione e forniscono un'identificazione sicura dei loro punti finali e la protezione dei dati del canale da modifiche o divulgazioni;</t>
+  </si>
+  <si>
+    <t>adottare un piano di attuazione per la transizione completa verso protocolli di comunicazione a livello di rete di ultima generazione in modo sicuro, appropriato e graduale e stabilire misure per accelerare tale transizione;</t>
+  </si>
+  <si>
+    <t>adottare un piano di attuazione per l'introduzione di norme moderne e interoperabili per le comunicazioni di posta elettronica concordate a livello internazionale per rendere sicure le comunicazioni di posta elettronica al fine di attenuare le vulnerabilità legate alle minacce connesse alla posta elettronica e stabilire misure per accelerare tale diffusione;</t>
+  </si>
+  <si>
+    <t>applicare le migliori pratiche per la sicurezza del DNS, e per la sicurezza del routing Internet e l'igiene del routing del traffico proveniente da e destinato alla rete.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano tali misure a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati segmentano i sistemi in reti o zone in base ai risultati della valutazione del rischio di cui al punto 2.1. Essi segmentano i loro sistemi e le loro reti dai sistemi e dalle reti di terzi.</t>
+  </si>
+  <si>
+    <t>A tal fine, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>considerare la relazione funzionale, logica e fisica, compresa l'ubicazione, tra sistemi e servizi affidabili;</t>
+  </si>
+  <si>
+    <t>concedere l'accesso a una rete o a una zona sulla base di una valutazione dei suoi requisiti di sicurezza;</t>
+  </si>
+  <si>
+    <t>mantenere i sistemi critici per il funzionamento dei soggetti interessati o per la sicurezza in zone protette;</t>
+  </si>
+  <si>
+    <t>dispiegare una zona demilitarizzata all'interno delle loro reti di comunicazione per garantire la sicurezza delle comunicazioni provenienti dalle loro reti o ad esse destinate;</t>
+  </si>
+  <si>
+    <t>limitare l'accesso e le comunicazioni tra le zone e all'interno delle zone a quelli necessari per il funzionamento dei soggetti pertinenti o per la sicurezza;</t>
+  </si>
+  <si>
+    <t>separare la rete dedicata per l'amministrazione delle reti e dei sistemi informativi dalla rete operativa dei soggetti interessati;</t>
+  </si>
+  <si>
+    <t>separare i canali di amministrazione della rete dal resto del traffico di rete;</t>
+  </si>
+  <si>
+    <t>separare i sistemi di produzione per i servizi dei soggetti interessati dai sistemi utilizzati nello sviluppo e nei test, compresi i backup.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la segmentazione della rete a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati proteggono la loro rete e i loro sistemi informativi da software dannosi e non autorizzati.</t>
+  </si>
+  <si>
+    <t>A tal fine, i soggetti pertinenti attuano in particolare misure che rilevino o impediscano l'uso di software dannoso o non autorizzato. I soggetti pertinenti garantiscono, se del caso, che la loro rete e i loro sistemi informativi siano dotati di software di rilevamento e risposta, aggiornati regolarmente in conformità della valutazione del rischio effettuata a norma del punto 2.1 e degli accordi contrattuali con i fornitori.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti ottengono informazioni sulle vulnerabilità tecniche della loro rete e dei loro sistemi informativi, valutano la loro esposizione a tali vulnerabilità e adottano misure adeguate per gestire tali vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.10.1, i soggetti pertinenti:</t>
+  </si>
+  <si>
+    <t>monitorare le informazioni sulle vulnerabilità attraverso canali appropriati, quali gli annunci dei CSIRT, delle autorità competenti o le informazioni fornite dai fornitori o dai prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>effettuare, se del caso, scansioni delle vulnerabilità e registrare le prove dei risultati delle scansioni, a intervalli pianificati;</t>
+  </si>
+  <si>
+    <t>affrontare, senza indebito ritardo, le vulnerabilità individuate dai soggetti pertinenti come critiche per le loro operazioni;</t>
+  </si>
+  <si>
+    <t>garantire che la gestione delle vulnerabilità sia compatibile con le procedure di gestione delle modifiche, di gestione delle patch di sicurezza, di gestione dei rischi e di gestione degli incidenti;</t>
+  </si>
+  <si>
+    <t>stabilire una procedura per la comunicazione delle vulnerabilità conformemente alla politica nazionale coordinata applicabile in materia di divulgazione delle vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Se giustificato dal potenziale impatto della vulnerabilità, i soggetti pertinenti elaborano e attuano un piano per attenuare la vulnerabilità. In altri casi, i soggetti pertinenti documentano e comprovano il motivo per cui la vulnerabilità non richiede rimedio.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano a intervalli pianificati i canali utilizzati per monitorare le informazioni sulle vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera f), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono, attuano e applicano una politica e procedure per valutare se le misure di gestione dei rischi di cibersicurezza adottate dal soggetto pertinente siano attuate e mantenute in modo efficace.</t>
+  </si>
+  <si>
+    <t>La politica e le procedure di cui al punto 7.1. tiene conto dei risultati della valutazione del rischio di cui al punto 2.1. e incidenti significativi passati. Gli enti pertinenti determinano:</t>
+  </si>
+  <si>
+    <t>quali misure di gestione dei rischi di cibersicurezza devono essere monitorate e misurate, compresi i processi e i controlli;</t>
+  </si>
+  <si>
+    <t>i metodi di monitoraggio, misurazione, analisi e valutazione, a seconda dei casi, per garantire risultati validi;</t>
+  </si>
+  <si>
+    <t>quando devono essere effettuati il monitoraggio e la misurazione;</t>
+  </si>
+  <si>
+    <t>chi è responsabile del monitoraggio e della misurazione dell'efficacia delle misure di gestione dei rischi di cibersicurezza;</t>
+  </si>
+  <si>
+    <t>quando i risultati del monitoraggio e della misurazione devono essere analizzati e valutati;</t>
+  </si>
+  <si>
+    <t>che deve analizzare e valutare questi risultati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la politica e le procedure a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera g), della direttiva (UE) 2022/2555, i soggetti pertinenti assicurano che i loro dipendenti, compresi i membri degli organi di gestione, nonché i fornitori diretti e i prestatori di servizi, siano consapevoli dei rischi, siano informati dell'importanza della cibersicurezza e applichino pratiche di igiene informatica.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 8.1.1, i soggetti pertinenti offrono ai loro dipendenti, compresi i membri degli organi di gestione, nonché, se del caso, ai fornitori diretti e ai prestatori di servizi, conformemente al punto 5.1.4, un programma di sensibilizzazione che:</t>
+  </si>
+  <si>
+    <t>essere programmate nel tempo, in modo che le attività siano ripetute e coprano i nuovi dipendenti;</t>
+  </si>
+  <si>
+    <t>essere stabiliti in linea con la politica in materia di sicurezza delle reti e dell'informazione, con le politiche specifiche per argomento e con le procedure pertinenti in materia di sicurezza delle reti e dell'informazione;</t>
+  </si>
+  <si>
+    <t>coprire le minacce informatiche pertinenti, le misure di gestione dei rischi di cibersicurezza in vigore, i punti di contatto e le risorse per ulteriori informazioni e consigli su questioni di cibersicurezza, nonché le pratiche di igiene informatica per gli utenti.</t>
+  </si>
+  <si>
+    <t>Il programma di sensibilizzazione è verificato, se del caso, in termini di efficacia. Il programma di sensibilizzazione è aggiornato e offerto a intervalli pianificati, tenendo conto dei cambiamenti nelle pratiche di igiene informatica, dell'attuale panorama delle minacce e dei rischi posti ai soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti individuano i dipendenti i cui ruoli richiedono competenze e competenze pertinenti in materia di sicurezza e garantiscono che ricevano una formazione periodica sulla sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono, attuano e applicano un programma di formazione in linea con la politica in materia di sicurezza delle reti e dell'informazione, con le politiche specifiche per argomento e con altre procedure pertinenti in materia di sicurezza delle reti e dell'informazione, che stabilisca le esigenze di formazione per determinati ruoli e posizioni sulla base di criteri.</t>
+  </si>
+  <si>
+    <t>La formazione di cui al punto 8.2.1. deve essere pertinente alla funzione lavorativa del dipendente e la sua efficacia deve essere valutata. La formazione deve prendere in considerazione le misure di sicurezza in atto e riguardare quanto segue:</t>
+  </si>
+  <si>
+    <t>istruzioni relative alla configurazione e al funzionamento sicuri della rete e dei sistemi informativi, compresi i dispositivi mobili;</t>
+  </si>
+  <si>
+    <t>briefing sulle minacce informatiche note;</t>
+  </si>
+  <si>
+    <t>formazione del comportamento quando si verificano eventi rilevanti per la sicurezza.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti applicano la formazione ai membri del personale che si trasferiscono a nuove posizioni o ruoli che richiedono competenze e competenze pertinenti in materia di sicurezza.</t>
+  </si>
+  <si>
+    <t>Il programma deve essere aggiornato ed eseguito periodicamente tenendo conto delle politiche e delle regole applicabili, dei ruoli assegnati, delle responsabilità, nonché delle minacce informatiche note e degli sviluppi tecnologici.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera h), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono, attuano e applicano una politica e procedure relative alla crittografia, al fine di garantire un uso adeguato ed efficace della crittografia per proteggere la riservatezza, l'autenticità e l'integrità dei dati in linea con la classificazione delle attività dei soggetti pertinenti e con i risultati della valutazione del rischio effettuata a norma del punto 2.1.</t>
+  </si>
+  <si>
+    <t>La politica e le procedure di cui al punto 9.1 stabiliscono:</t>
+  </si>
+  <si>
+    <t>conformemente alla classificazione delle attività dei soggetti pertinenti, il tipo, la forza e la qualità delle misure crittografiche necessarie per proteggere i beni dei soggetti pertinenti, compresi i dati a riposo e i dati in transito;</t>
+  </si>
+  <si>
+    <t>sulla base della lettera a), i protocolli o le famiglie di protocolli da adottare, nonché gli algoritmi crittografici, la forza di cifratura, le soluzioni crittografiche e le pratiche di utilizzo da approvare e richiedere per l'uso nelle entità pertinenti, seguendo, se del caso, un approccio di agilità crittografica;</t>
+  </si>
+  <si>
+    <t>l'approccio dei soggetti pertinenti alla gestione con responsabilità strategiche, compresi, se del caso, i metodi per:</t>
+  </si>
+  <si>
+    <t>generazione di chiavi diverse per sistemi e applicazioni crittografiche;</t>
+  </si>
+  <si>
+    <t>emissione e ottenimento di certificati a chiave pubblica;</t>
+  </si>
+  <si>
+    <t>distribuzione delle chiavi alle entità previste, comprese le modalità di attivazione delle chiavi quando ricevute;</t>
+  </si>
+  <si>
+    <t>conservazione delle chiavi, compreso il modo in cui gli utenti autorizzati ottengono l'accesso alle chiavi;</t>
+  </si>
+  <si>
+    <t>modifica o aggiornamento delle chiavi, comprese le regole su quando e come cambiare le chiavi;</t>
+  </si>
+  <si>
+    <t>gestione delle chiavi compromesse;</t>
+  </si>
+  <si>
+    <t>revoca delle chiavi, comprese le modalità di prelievo o disattivazione delle chiavi;</t>
+  </si>
+  <si>
+    <t>recupero di chiavi perse o danneggiate;</t>
+  </si>
+  <si>
+    <t>backup o archiviazione delle chiavi;</t>
+  </si>
+  <si>
+    <t>distruggere le chiavi;</t>
+  </si>
+  <si>
+    <t>registrazione e verifica delle attività chiave relative alla gestione;</t>
+  </si>
+  <si>
+    <t>Impostazione delle date di attivazione e disattivazione delle chiavi, garantendo che le chiavi possano essere utilizzate solo per il periodo di tempo specificato in base alle regole dell'organizzazione sulla gestione delle chiavi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la loro politica e le loro procedure a intervalli pianificati, tenendo conto dello stato dell'arte della crittografia.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti garantiscono che i loro dipendenti e fornitori diretti e prestatori di servizi, ove applicabile, comprendano e si impegnino ad assumersi le loro responsabilità in materia di sicurezza, come appropriato per i servizi offerti e il lavoro e in linea con la politica dei soggetti pertinenti in materia di sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Il requisito di cui al punto 10.1.1. comprendono quanto segue:</t>
+  </si>
+  <si>
+    <t>meccanismi per garantire che tutti i dipendenti, i fornitori diretti e i fornitori di servizi, ove applicabile, comprendano e seguano le pratiche standard di igiene informatica che i soggetti pertinenti applicano ai sensi del punto 8.1.;</t>
+  </si>
+  <si>
+    <t>meccanismi per garantire che tutti gli utenti con accesso amministrativo o privilegiato siano consapevoli dei loro ruoli, responsabilità e autorità e agiscano in conformità con essi;</t>
+  </si>
+  <si>
+    <t>meccanismi per garantire che i membri degli organi di gestione comprendano e agiscano in conformità con il loro ruolo, le loro responsabilità e le loro autorità in materia di sicurezza delle reti e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>meccanismi per l'assunzione di personale qualificato per i rispettivi ruoli, come controlli delle referenze, procedure di controllo, convalida delle certificazioni o prove scritte.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano l'assegnazione del personale a ruoli specifici di cui al punto 1.2, nonché l'impegno delle risorse umane al riguardo, a intervalli programmati e almeno una volta all'anno. Essi aggiornano l'incarico ove necessario.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono, per quanto possibile, la verifica dei precedenti dei loro dipendenti e, se del caso, dei fornitori diretti e dei prestatori di servizi conformemente al punto 5.1.4, se necessario in funzione del loro ruolo, delle loro responsabilità e delle loro autorizzazioni.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 10.2.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>mettere in atto criteri che stabiliscano quali ruoli, responsabilità e autorità devono essere esercitati solo da persone di cui è stato accertato il background;</t>
+  </si>
+  <si>
+    <t>assicurare che la verifica di cui al punto 10.2.1 sia effettuata su tali soggetti prima che inizino ad esercitare tali ruoli, responsabilità e autorità, che devono tenere in considerazione le leggi, i regolamenti e l'etica applicabili in proporzione ai requisiti aziendali, alla classificazione degli asset di cui al punto 12.1. e la rete e i sistemi informativi a cui accedere, nonché i rischi percepiti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la politica a intervalli pianificati e la aggiornano ove necessario.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti provvedono affinché le responsabilità e i doveri in materia di sicurezza delle reti e dei sistemi informativi che rimangono validi dopo la cessazione o il cambiamento di rapporto di lavoro dei loro dipendenti siano definiti e applicati contrattualmente.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 10.3.1, i soggetti pertinenti devono includere nei termini e nelle condizioni di impiego, nel contratto o nell'accordo della persona le responsabilità e i doveri che sono ancora validi dopo la cessazione del rapporto di lavoro o del contratto, come le clausole di riservatezza.</t>
+  </si>
+  <si>
+    <t>Gli enti pertinenti istituiscono, comunicano e mantengono un processo disciplinare per la gestione delle violazioni delle politiche di sicurezza delle reti e dei sistemi informativi. Il processo deve prendere in considerazione i pertinenti requisiti legali, statutari, contrattuali e commerciali.</t>
+  </si>
+  <si>
+    <t>Gli enti pertinenti riesaminano e, se del caso, aggiornano il processo disciplinare a intervalli pianificati e, se necessario, a causa di modifiche giuridiche o di modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono, documentano e attuano politiche di controllo dell'accesso logico e fisico per l'accesso alle loro reti e ai loro sistemi informativi, sulla base di requisiti aziendali e di sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Le politiche di cui al punto 11.1.1. dovere:</t>
+  </si>
+  <si>
+    <t>gestire l'accesso da parte di persone, inclusi personale, visitatori ed entità esterne come fornitori e fornitori di servizi;</t>
+  </si>
+  <si>
+    <t>indirizzare l'accesso da parte della rete e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>Assicurarsi che l'accesso sia concesso solo agli utenti che sono stati adeguatamente autenticati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le politiche a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati forniscono, modificano, rimuovono e documentano i diritti di accesso alla rete e ai sistemi informativi conformemente alla politica di controllo dell'accesso di cui al punto 11.1.</t>
+  </si>
+  <si>
+    <t>assegnare e revocare i diritti di accesso in base ai principi della necessità di sapere, del privilegio minimo e della separazione dei compiti;</t>
+  </si>
+  <si>
+    <t>garantire che i diritti di accesso siano modificati di conseguenza in caso di cessazione o cambio di rapporto di lavoro;</t>
+  </si>
+  <si>
+    <t>garantire che l'accesso alla rete e ai sistemi informativi sia autorizzato dai soggetti interessati;</t>
+  </si>
+  <si>
+    <t>garantire che i diritti di accesso si riferiscano in modo adeguato all'accesso di terzi, quali visitatori, fornitori e prestatori di servizi, in particolare limitando i diritti di accesso in termini di portata e durata;</t>
+  </si>
+  <si>
+    <t>tenere un registro dei diritti di accesso concessi;</t>
+  </si>
+  <si>
+    <t>Applicare la registrazione alla gestione dei diritti di accesso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano i diritti di accesso a intervalli pianificati e li modificano in base alle modifiche organizzative. I soggetti pertinenti documentano i risultati del riesame, comprese le necessarie modifiche dei diritti di accesso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti devono mantenere politiche per la gestione degli account privilegiati e degli account di amministrazione del sistema nell'ambito della politica di controllo dell'accesso di cui al punto 11.1.</t>
+  </si>
+  <si>
+    <t>Le politiche di cui al punto 11.3.1. dovere:</t>
+  </si>
+  <si>
+    <t>stabilire procedure di identificazione forte, autenticazione, come l'autenticazione a più fattori, e procedure di autorizzazione per gli account privilegiati e gli account di amministrazione del sistema;</t>
+  </si>
+  <si>
+    <t>impostare account specifici da utilizzare esclusivamente per le operazioni di amministrazione del sistema, quali l'installazione, la configurazione, la gestione o la manutenzione;</t>
+  </si>
+  <si>
+    <t>individualizzare e limitare il più possibile i privilegi di amministrazione del sistema,</t>
+  </si>
+  <si>
+    <t>Specificare che gli account di amministrazione del sistema vengano utilizzati solo per connettersi ai sistemi di amministrazione del sistema.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano i diritti di accesso degli account privilegiati e degli account di amministrazione del sistema a intervalli pianificati e sono modificati in base alle modifiche organizzative, e documentano i risultati del riesame, comprese le necessarie modifiche dei diritti di accesso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti limitano e controllano l'uso dei sistemi di amministrazione del sistema conformemente alla politica di controllo dell'accesso di cui al punto 11.1.</t>
+  </si>
+  <si>
+    <t>utilizzare i sistemi di amministrazione del sistema solo per scopi di amministrazione del sistema e non per altre operazioni;</t>
+  </si>
+  <si>
+    <t>separare logicamente tali sistemi dal software applicativo non utilizzato per scopi amministrativi del sistema,</t>
+  </si>
+  <si>
+    <t>Proteggi l'accesso ai sistemi di amministrazione del sistema attraverso l'autenticazione e la crittografia.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti gestiscono l'intero ciclo di vita delle identità delle reti e dei sistemi informativi e dei loro utenti.</t>
+  </si>
+  <si>
+    <t>istituire identità univoche per le reti e i sistemi informativi e per i loro utenti;</t>
+  </si>
+  <si>
+    <t>collegare l'identità degli utenti a una singola persona;</t>
+  </si>
+  <si>
+    <t>garantire la supervisione delle identità delle reti e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>Applicare la registrazione alla gestione delle identità.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti autorizzano l'assegnazione di identità a più persone, come le identità condivise, solo se necessarie per motivi commerciali o operativi e se sono soggette a una procedura di approvazione e a una documentazione esplicite. I soggetti pertinenti tengono conto delle identità assegnate a più persone nel quadro di gestione dei rischi di cibersicurezza di cui al punto 2.1.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano periodicamente l'identità delle reti e dei sistemi informativi e dei relativi utenti e, se non sono più necessari, le disattivano senza indugio.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti attuano procedure e tecnologie di autenticazione sicure basate sulle restrizioni di accesso e sulla politica di controllo degli accessi.</t>
+  </si>
+  <si>
+    <t>garantire che la forza dell'autenticazione sia adeguata alla classificazione dell'asset a cui accedere;</t>
+  </si>
+  <si>
+    <t>controllare l'assegnazione agli utenti e la gestione delle informazioni segrete di autenticazione mediante un processo che garantisca la riservatezza delle informazioni, compresa la consulenza al personale sulla gestione appropriata delle informazioni di autenticazione;</t>
+  </si>
+  <si>
+    <t>richiedere la modifica delle credenziali di autenticazione inizialmente, a intervalli predefiniti e in caso di sospetto che le credenziali siano state compromesse;</t>
+  </si>
+  <si>
+    <t>richiedere il reset delle credenziali di autenticazione e il blocco degli utenti dopo un numero predefinito di tentativi di accesso non andati a buon fine;</t>
+  </si>
+  <si>
+    <t>terminare le sessioni inattive dopo un periodo di inattività predefinito; e</t>
+  </si>
+  <si>
+    <t>Richiedono credenziali separate per accedere agli account amministrativi o di accesso con privilegi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti utilizzano, per quanto possibile, metodi di autenticazione all'avanguardia, in funzione del rischio valutato associato e della classificazione dell'attività a cui accedere, nonché di informazioni di autenticazione univoche.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano le procedure e le tecnologie di autenticazione a intervalli pianificati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono che gli utenti siano autenticati mediante più fattori di autenticazione o meccanismi di autenticazione continua per l'accesso alla rete e ai sistemi informativi dei soggetti pertinenti, se del caso, conformemente alla classificazione del bene a cui accedere.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono che il livello di autenticazione sia adeguato per la classificazione dell'attività a cui accedere.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono i livelli di classificazione di tutte le attività, comprese le informazioni, nell'ambito della loro rete e dei loro sistemi informativi per il livello di protezione richiesto.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 12.1.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>stabilire un sistema di livelli di classificazione delle attività;</t>
+  </si>
+  <si>
+    <t>associare a tutti gli asset un livello di classificazione, basato su requisiti di riservatezza, integrità, autenticità e disponibilità, per indicare la protezione richiesta in base alla loro sensibilità, criticità, rischio e valore aziendale;</t>
+  </si>
+  <si>
+    <t>allineare i requisiti di disponibilità degli asset con gli obiettivi di consegna e ripristino stabiliti nei piani di continuità aziendale e ripristino di emergenza.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano revisioni periodiche dei livelli di classificazione delle attività e li aggiornano, se del caso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono, attuano e applicano una politica per la corretta gestione delle risorse, comprese le informazioni, conformemente alla loro politica in materia di sicurezza delle reti e delle informazioni, e comunicano la politica per la corretta gestione delle risorse a chiunque utilizzi o gestisca le risorse.</t>
+  </si>
+  <si>
+    <t>La politica deve:</t>
+  </si>
+  <si>
+    <t>coprire l'intero ciclo di vita dei beni, compresi l'acquisizione, l'uso, lo stoccaggio, il trasporto e la cessione;</t>
+  </si>
+  <si>
+    <t>fornire norme sull'uso sicuro, la conservazione sicura, il trasporto sicuro e la cancellazione e la distruzione irrimediabili dei beni;</t>
+  </si>
+  <si>
+    <t>prevedere che il trasferimento avvenga in modo sicuro, in funzione del tipo di attività da trasferire.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la politica a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono, attuano e applicano una politica in materia di gestione dei supporti di archiviazione rimovibili e la comunicano ai loro dipendenti e ai terzi che gestiscono i supporti di archiviazione rimovibili presso i locali dei soggetti interessati o in altri luoghi in cui i supporti rimovibili sono collegati alla rete e ai sistemi informativi dei soggetti interessati.</t>
+  </si>
+  <si>
+    <t>prevedere un divieto tecnico del collegamento di supporti amovibili, a meno che non vi sia un motivo organizzativo per il loro utilizzo;</t>
+  </si>
+  <si>
+    <t>provvedere alla disabilitazione dell'autoesecuzione da tali supporti e alla scansione dei supporti alla ricerca di codice dannoso prima che siano utilizzati sui sistemi delle entità pertinenti;</t>
+  </si>
+  <si>
+    <t>fornire misure per il controllo e la protezione dei dispositivi di archiviazione portatili contenenti dati durante il transito e l'archiviazione;</t>
+  </si>
+  <si>
+    <t>se del caso, prevedere misure per l'uso di tecniche crittografiche per proteggere i dati su supporti di archiviazione rimovibili.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti elaborano e mantengono un inventario completo, accurato, aggiornato e coerente delle loro attività. Essi registrano le modifiche apportate alle voci dell'inventario in modo tracciabile.</t>
+  </si>
+  <si>
+    <t>La granularità dell'inventario delle attività è a un livello adeguato alle esigenze dei soggetti interessati. L'inventario comprende i seguenti elementi:</t>
+  </si>
+  <si>
+    <t>l'elenco delle operazioni e dei servizi e la loro descrizione,</t>
+  </si>
+  <si>
+    <t>l'elenco delle reti e dei sistemi informativi e di altri beni associati a sostegno delle operazioni e dei servizi dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e aggiornano periodicamente l'inventario e le loro attività e documentano la cronologia delle modifiche.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono, attuano e applicano procedure atte a garantire che i loro beni che sono sotto la custodia del personale siano depositati, restituiti o cancellati al momento della cessazione del rapporto di lavoro e documentano il deposito, la restituzione e la cancellazione di tali beni. Qualora il deposito, la restituzione o la cancellazione delle attività non siano possibili, i soggetti pertinenti provvedono affinché le attività non possano più accedere alla rete e ai sistemi informativi dei soggetti pertinenti conformemente al punto 12.2.2.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera c), della direttiva (UE) 2022/2555, i soggetti pertinenti prevengono la perdita, il danneggiamento o la compromissione della rete e dei sistemi informativi o l'interruzione delle loro operazioni a causa di guasti e perturbazioni delle utenze di supporto.</t>
+  </si>
+  <si>
+    <t>A tal fine, i soggetti interessati, se del caso:</t>
+  </si>
+  <si>
+    <t>proteggere le strutture da interruzioni di corrente e altre interruzioni causate da guasti nelle utenze di supporto come elettricità, telecomunicazioni, approvvigionamento idrico, gas, fognature, ventilazione e aria condizionata;</t>
+  </si>
+  <si>
+    <t>prendere in considerazione l'uso della ridondanza nei servizi di pubblica utilità;</t>
+  </si>
+  <si>
+    <t>proteggere i servizi di pubblica utilità per l'energia elettrica e le telecomunicazioni, che trasportano dati o alimentano reti e sistemi informativi, da intercettazioni e danni;</t>
+  </si>
+  <si>
+    <t>monitorare i servizi di pubblica utilità di cui alla lettera c) e segnalare al personale interno o esterno competente eventi al di fuori delle soglie minime e massime di controllo di cui al punto 13.2.2, lettera b), che interessano i servizi di pubblica utilità;</t>
+  </si>
+  <si>
+    <t>concludere contratti per l'alimentazione di emergenza con i servizi corrispondenti, ad esempio per il combustibile per l'alimentazione di emergenza;</t>
+  </si>
+  <si>
+    <t>garantire l'efficacia continua, monitorare, mantenere e testare l'alimentazione della rete e dei sistemi informativi necessari per il funzionamento del servizio offerto, in particolare l'elettricità, il controllo della temperatura e dell'umidità, le telecomunicazioni e la connessione a Internet.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano le misure di protezione su base periodica o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera e), della direttiva (UE) 2022/2555, i soggetti pertinenti prevengono o riducono le conseguenze di eventi derivanti da minacce fisiche e ambientali, quali calamità naturali e altre minacce intenzionali o non intenzionali, sulla base dei risultati della valutazione del rischio effettuata a norma del punto 2.1.</t>
+  </si>
+  <si>
+    <t>progettare e attuare misure di protezione contro le minacce fisiche e ambientali;</t>
+  </si>
+  <si>
+    <t>determinare le soglie minime e massime di controllo per le minacce fisiche e ambientali;</t>
+  </si>
+  <si>
+    <t>monitorare i parametri ambientali e segnalare al personale interno o esterno competente gli eventi al di fuori delle soglie minime e massime di controllo di cui alla lettera b).</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano le misure di protezione contro le minacce fisiche e ambientali su base regolare o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti prevengono e monitorano l'accesso fisico non autorizzato, i danni e le interferenze alle loro reti e ai loro sistemi informativi.</t>
+  </si>
+  <si>
+    <t>sulla base della valutazione dei rischi effettuata a norma del punto 2.1, predisporre e utilizzare perimetri di sicurezza per proteggere le aree in cui sono ubicate le reti e i sistemi informativi e altri beni associati;</t>
+  </si>
+  <si>
+    <t>proteggere le aree di cui alla lettera a) mediante adeguati controlli all'ingresso e punti di accesso;</t>
+  </si>
+  <si>
+    <t>progettare e realizzare la sicurezza fisica di uffici, locali e strutture,</t>
+  </si>
+  <si>
+    <t>monitorare costantemente i propri locali per verificare la presenza di accessi fisici non autorizzati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano le misure di controllo dell'accesso fisico su base periodica o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>name[it]</t>
+  </si>
+  <si>
+    <t>description[it]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5566,6 +6897,27 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5602,10 +6954,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5669,9 +7022,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5687,7 +7043,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6003,10 +7359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBB3CEB-58CF-7A4E-B0B7-D78CC9ABFCD0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6219,17 +7575,61 @@
         <v>1768</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>1780</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" display="https://eur-lex.europa.eu/legal-content/ES/TXT/HTML/?uri=OJ:L_202402690" xr:uid="{D1563217-847D-4D4A-BA31-C18CFAAD7D1B}"/>
+    <hyperlink ref="B30" r:id="rId2" display="https://eur-lex.europa.eu/legal-content/ES/TXT/HTML/?uri=OJ:L_202402690" xr:uid="{CF1E473B-5741-0547-BA74-3137563E9E7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018D80E-CD86-A646-A799-4CD19C4C2182}">
-  <dimension ref="A1:CZ440"/>
+  <dimension ref="A1:CX440"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6241,9 +7641,11 @@
     <col min="8" max="8" width="73" style="14" customWidth="1"/>
     <col min="9" max="9" width="56.6640625" style="14" customWidth="1"/>
     <col min="10" max="10" width="76.6640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="56.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="76.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" ht="17">
+    <row r="1" spans="1:102" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6274,8 +7676,14 @@
       <c r="J1" s="22" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="2" spans="1:104" s="8" customFormat="1" ht="51">
+      <c r="K1" s="22" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -6295,8 +7703,12 @@
         <v>1334</v>
       </c>
       <c r="J2" s="17"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="K2" s="20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -6387,10 +7799,8 @@
       <c r="CV2"/>
       <c r="CW2"/>
       <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-    </row>
-    <row r="3" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="3" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -6410,8 +7820,12 @@
         <v>1335</v>
       </c>
       <c r="J3" s="17"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K3" s="19" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -6502,10 +7916,8 @@
       <c r="CV3"/>
       <c r="CW3"/>
       <c r="CX3"/>
-      <c r="CY3"/>
-      <c r="CZ3"/>
-    </row>
-    <row r="4" spans="1:104" ht="34">
+    </row>
+    <row r="4" spans="1:102" ht="34">
       <c r="B4">
         <v>3</v>
       </c>
@@ -6521,8 +7933,14 @@
       <c r="J4" s="17" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="5" spans="1:104" ht="34">
+      <c r="K4" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" ht="34">
       <c r="A5" t="s">
         <v>589</v>
       </c>
@@ -6541,8 +7959,14 @@
       <c r="J5" s="17" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="6" spans="1:104" ht="34">
+      <c r="K5" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" ht="34">
       <c r="A6" t="s">
         <v>589</v>
       </c>
@@ -6561,8 +7985,14 @@
       <c r="J6" s="17" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="7" spans="1:104" ht="17">
+      <c r="K6" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" ht="17">
       <c r="A7" t="s">
         <v>589</v>
       </c>
@@ -6581,8 +8011,14 @@
       <c r="J7" s="17" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="8" spans="1:104" ht="34">
+      <c r="K7" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" ht="34">
       <c r="A8" t="s">
         <v>589</v>
       </c>
@@ -6601,8 +8037,14 @@
       <c r="J8" s="17" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="9" spans="1:104" ht="51">
+      <c r="K8" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" ht="51">
       <c r="A9" t="s">
         <v>589</v>
       </c>
@@ -6621,8 +8063,14 @@
       <c r="J9" s="17" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="10" spans="1:104" ht="34">
+      <c r="K9" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" ht="34">
       <c r="A10" t="s">
         <v>589</v>
       </c>
@@ -6641,8 +8089,14 @@
       <c r="J10" s="17" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="11" spans="1:104" ht="17">
+      <c r="K10" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" ht="17">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -6664,8 +8118,14 @@
       <c r="J11" s="17" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="12" spans="1:104" ht="34">
+      <c r="K11" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" ht="34">
       <c r="A12" t="s">
         <v>589</v>
       </c>
@@ -6685,8 +8145,14 @@
       <c r="J12" s="17" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="13" spans="1:104" ht="17">
+      <c r="K12" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" ht="17">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -6705,8 +8171,14 @@
       <c r="J13" s="17" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="14" spans="1:104" ht="34">
+      <c r="K13" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" ht="34">
       <c r="A14" t="s">
         <v>589</v>
       </c>
@@ -6725,8 +8197,14 @@
       <c r="J14" s="17" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="15" spans="1:104" ht="34">
+      <c r="K14" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" ht="34">
       <c r="A15" t="s">
         <v>589</v>
       </c>
@@ -6745,8 +8223,14 @@
       <c r="J15" s="17" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="16" spans="1:104" ht="67.5" customHeight="1">
+      <c r="K15" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" ht="67.5" customHeight="1">
       <c r="A16" t="s">
         <v>589</v>
       </c>
@@ -6765,8 +8249,14 @@
       <c r="J16" s="17" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="17" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K16" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B17" s="10">
         <v>2</v>
       </c>
@@ -6788,8 +8278,12 @@
         <v>1349</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" s="19" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -6880,10 +8374,8 @@
       <c r="CV17"/>
       <c r="CW17"/>
       <c r="CX17"/>
-      <c r="CY17"/>
-      <c r="CZ17"/>
-    </row>
-    <row r="18" spans="1:104" ht="85">
+    </row>
+    <row r="18" spans="1:102" ht="85">
       <c r="A18" t="s">
         <v>589</v>
       </c>
@@ -6905,8 +8397,14 @@
       <c r="J18" s="17" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="19" spans="1:104" ht="68">
+      <c r="K18" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:102" ht="68">
       <c r="A19" t="s">
         <v>589</v>
       </c>
@@ -6925,8 +8423,14 @@
       <c r="J19" s="17" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="20" spans="1:104" ht="34">
+      <c r="K19" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:102" ht="34">
       <c r="A20" t="s">
         <v>589</v>
       </c>
@@ -6945,8 +8449,14 @@
       <c r="J20" s="17" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="21" spans="1:104" ht="51">
+      <c r="K20" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:102" ht="51">
       <c r="A21" t="s">
         <v>589</v>
       </c>
@@ -6965,8 +8475,14 @@
       <c r="J21" s="17" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="22" spans="1:104" ht="34">
+      <c r="K21" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:102" ht="34">
       <c r="A22" t="s">
         <v>589</v>
       </c>
@@ -6985,8 +8501,14 @@
       <c r="J22" s="17" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="23" spans="1:104" ht="68">
+      <c r="K22" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:102" ht="68">
       <c r="A23" t="s">
         <v>589</v>
       </c>
@@ -7005,8 +8527,14 @@
       <c r="J23" s="17" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="24" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K23" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -7028,8 +8556,12 @@
         <v>1356</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="K24" s="20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -7120,10 +8652,8 @@
       <c r="CV24"/>
       <c r="CW24"/>
       <c r="CX24"/>
-      <c r="CY24"/>
-      <c r="CZ24"/>
-    </row>
-    <row r="25" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="25" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B25" s="10">
         <v>2</v>
       </c>
@@ -7145,8 +8675,12 @@
         <v>1357</v>
       </c>
       <c r="J25" s="17"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" s="19" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
@@ -7237,10 +8771,8 @@
       <c r="CV25"/>
       <c r="CW25"/>
       <c r="CX25"/>
-      <c r="CY25"/>
-      <c r="CZ25"/>
-    </row>
-    <row r="26" spans="1:104" ht="170">
+    </row>
+    <row r="26" spans="1:102" ht="170">
       <c r="A26" t="s">
         <v>589</v>
       </c>
@@ -7259,8 +8791,14 @@
       <c r="J26" s="17" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="27" spans="1:104" ht="102">
+      <c r="K26" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:102" ht="102">
       <c r="A27" t="s">
         <v>589</v>
       </c>
@@ -7282,8 +8820,14 @@
       <c r="J27" s="17" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="28" spans="1:104" ht="17">
+      <c r="K27" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:102" ht="17">
       <c r="A28" t="s">
         <v>589</v>
       </c>
@@ -7302,8 +8846,14 @@
       <c r="J28" s="17" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="29" spans="1:104" ht="34">
+      <c r="K28" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:102" ht="34">
       <c r="A29" t="s">
         <v>589</v>
       </c>
@@ -7322,8 +8872,14 @@
       <c r="J29" s="17" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="30" spans="1:104" ht="17">
+      <c r="K29" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:102" ht="17">
       <c r="A30" t="s">
         <v>589</v>
       </c>
@@ -7342,8 +8898,14 @@
       <c r="J30" s="17" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="31" spans="1:104" ht="85">
+      <c r="K30" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:102" ht="85">
       <c r="A31" t="s">
         <v>589</v>
       </c>
@@ -7362,8 +8924,14 @@
       <c r="J31" s="17" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="32" spans="1:104" ht="68">
+      <c r="K31" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:102" ht="68">
       <c r="A32" t="s">
         <v>589</v>
       </c>
@@ -7382,8 +8950,14 @@
       <c r="J32" s="17" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="33" spans="1:104" ht="34">
+      <c r="K32" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:102" ht="34">
       <c r="A33" t="s">
         <v>589</v>
       </c>
@@ -7402,8 +8976,14 @@
       <c r="J33" s="17" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="34" spans="1:104" ht="34">
+      <c r="K33" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:102" ht="34">
       <c r="A34" t="s">
         <v>589</v>
       </c>
@@ -7422,8 +9002,14 @@
       <c r="J34" s="17" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="35" spans="1:104" ht="34">
+      <c r="K34" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:102" ht="34">
       <c r="A35" t="s">
         <v>589</v>
       </c>
@@ -7442,8 +9028,14 @@
       <c r="J35" s="17" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="36" spans="1:104" ht="51">
+      <c r="K35" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:102" ht="51">
       <c r="A36" t="s">
         <v>589</v>
       </c>
@@ -7462,8 +9054,14 @@
       <c r="J36" s="17" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="37" spans="1:104" ht="51">
+      <c r="K36" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:102" ht="51">
       <c r="A37" t="s">
         <v>589</v>
       </c>
@@ -7482,8 +9080,14 @@
       <c r="J37" s="17" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="38" spans="1:104" ht="102">
+      <c r="K37" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:102" ht="102">
       <c r="A38" t="s">
         <v>589</v>
       </c>
@@ -7505,8 +9109,14 @@
       <c r="J38" s="17" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="39" spans="1:104" ht="68">
+      <c r="K38" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:102" ht="68">
       <c r="A39" t="s">
         <v>589</v>
       </c>
@@ -7525,8 +9135,14 @@
       <c r="J39" s="17" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="40" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K39" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B40" s="10">
         <v>2</v>
       </c>
@@ -7548,8 +9164,12 @@
         <v>1372</v>
       </c>
       <c r="J40" s="17"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="K40" s="19" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
@@ -7640,10 +9260,8 @@
       <c r="CV40"/>
       <c r="CW40"/>
       <c r="CX40"/>
-      <c r="CY40"/>
-      <c r="CZ40"/>
-    </row>
-    <row r="41" spans="1:104" ht="85">
+    </row>
+    <row r="41" spans="1:102" ht="85">
       <c r="A41" t="s">
         <v>589</v>
       </c>
@@ -7662,8 +9280,14 @@
       <c r="J41" s="17" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="42" spans="1:104" ht="85">
+      <c r="K41" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:102" ht="85">
       <c r="A42" t="s">
         <v>589</v>
       </c>
@@ -7682,8 +9306,14 @@
       <c r="J42" s="17" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="43" spans="1:104" ht="51">
+      <c r="K42" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:102" ht="51">
       <c r="A43" t="s">
         <v>589</v>
       </c>
@@ -7702,8 +9332,14 @@
       <c r="J43" s="17" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="44" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K43" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B44" s="10">
         <v>2</v>
       </c>
@@ -7725,8 +9361,12 @@
         <v>1376</v>
       </c>
       <c r="J44" s="17"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="K44" s="19" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
@@ -7817,10 +9457,8 @@
       <c r="CV44"/>
       <c r="CW44"/>
       <c r="CX44"/>
-      <c r="CY44"/>
-      <c r="CZ44"/>
-    </row>
-    <row r="45" spans="1:104" ht="51">
+    </row>
+    <row r="45" spans="1:102" ht="51">
       <c r="A45" t="s">
         <v>589</v>
       </c>
@@ -7839,8 +9477,14 @@
       <c r="J45" s="17" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="46" spans="1:104" ht="136">
+      <c r="K45" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:102" ht="136">
       <c r="A46" t="s">
         <v>589</v>
       </c>
@@ -7859,8 +9503,14 @@
       <c r="J46" s="17" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="47" spans="1:104" ht="85">
+      <c r="K46" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:102" ht="85">
       <c r="A47" t="s">
         <v>589</v>
       </c>
@@ -7882,8 +9532,14 @@
       <c r="J47" s="17" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="48" spans="1:104" ht="51">
+      <c r="K47" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:102" ht="51">
       <c r="A48" t="s">
         <v>589</v>
       </c>
@@ -7902,8 +9558,14 @@
       <c r="J48" s="17" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="49" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K48" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B49" s="8">
         <v>1</v>
       </c>
@@ -7925,8 +9587,12 @@
         <v>1381</v>
       </c>
       <c r="J49" s="17"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -8017,10 +9683,8 @@
       <c r="CV49"/>
       <c r="CW49"/>
       <c r="CX49"/>
-      <c r="CY49"/>
-      <c r="CZ49"/>
-    </row>
-    <row r="50" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="50" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B50" s="10">
         <v>2</v>
       </c>
@@ -8042,8 +9706,12 @@
         <v>1382</v>
       </c>
       <c r="J50" s="17"/>
-      <c r="K50"/>
-      <c r="L50"/>
+      <c r="K50" s="19" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
@@ -8134,10 +9802,8 @@
       <c r="CV50"/>
       <c r="CW50"/>
       <c r="CX50"/>
-      <c r="CY50"/>
-      <c r="CZ50"/>
-    </row>
-    <row r="51" spans="1:104" ht="102">
+    </row>
+    <row r="51" spans="1:102" ht="102">
       <c r="A51" t="s">
         <v>589</v>
       </c>
@@ -8156,8 +9822,14 @@
       <c r="J51" s="17" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="52" spans="1:104" ht="51">
+      <c r="K51" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:102" ht="51">
       <c r="A52" t="s">
         <v>589</v>
       </c>
@@ -8179,8 +9851,14 @@
       <c r="J52" s="17" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="53" spans="1:104" ht="34">
+      <c r="K52" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:102" ht="34">
       <c r="A53" t="s">
         <v>589</v>
       </c>
@@ -8202,8 +9880,14 @@
       <c r="J53" s="17" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="54" spans="1:104" ht="34">
+      <c r="K53" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:102" ht="34">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -8222,8 +9906,14 @@
       <c r="J54" s="17" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="55" spans="1:104" ht="34">
+      <c r="K54" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:102" ht="34">
       <c r="A55" t="s">
         <v>589</v>
       </c>
@@ -8242,8 +9932,14 @@
       <c r="J55" s="17" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="56" spans="1:104" ht="51">
+      <c r="K55" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:102" ht="51">
       <c r="A56" t="s">
         <v>589</v>
       </c>
@@ -8262,8 +9958,14 @@
       <c r="J56" s="17" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="57" spans="1:104" ht="68">
+      <c r="K56" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:102" ht="68">
       <c r="A57" t="s">
         <v>589</v>
       </c>
@@ -8282,8 +9984,14 @@
       <c r="J57" s="17" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="58" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K57" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B58" s="10">
         <v>2</v>
       </c>
@@ -8305,8 +10013,12 @@
         <v>1390</v>
       </c>
       <c r="J58" s="17"/>
-      <c r="K58"/>
-      <c r="L58"/>
+      <c r="K58" s="19" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
@@ -8397,10 +10109,8 @@
       <c r="CV58"/>
       <c r="CW58"/>
       <c r="CX58"/>
-      <c r="CY58"/>
-      <c r="CZ58"/>
-    </row>
-    <row r="59" spans="1:104" ht="68">
+    </row>
+    <row r="59" spans="1:102" ht="68">
       <c r="A59" t="s">
         <v>589</v>
       </c>
@@ -8419,8 +10129,14 @@
       <c r="J59" s="17" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="60" spans="1:104" ht="68">
+      <c r="K59" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:102" ht="68">
       <c r="A60" t="s">
         <v>589</v>
       </c>
@@ -8439,8 +10155,14 @@
       <c r="J60" s="17" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="61" spans="1:104" ht="85">
+      <c r="K60" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:102" ht="85">
       <c r="A61" t="s">
         <v>589</v>
       </c>
@@ -8462,8 +10184,14 @@
       <c r="J61" s="17" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="62" spans="1:104" ht="17">
+      <c r="K61" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:102" ht="17">
       <c r="A62" t="s">
         <v>589</v>
       </c>
@@ -8482,8 +10210,14 @@
       <c r="J62" s="17" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="63" spans="1:104" ht="34">
+      <c r="K62" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="63" spans="1:102" ht="34">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -8502,8 +10236,14 @@
       <c r="J63" s="17" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="64" spans="1:104" ht="17">
+      <c r="K63" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:102" ht="17">
       <c r="A64" t="s">
         <v>589</v>
       </c>
@@ -8522,8 +10262,14 @@
       <c r="J64" s="17" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="65" spans="1:104" ht="17">
+      <c r="K64" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:102" ht="17">
       <c r="A65" t="s">
         <v>589</v>
       </c>
@@ -8542,8 +10288,14 @@
       <c r="J65" s="17" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="66" spans="1:104" ht="34">
+      <c r="K65" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:102" ht="34">
       <c r="A66" t="s">
         <v>589</v>
       </c>
@@ -8562,8 +10314,14 @@
       <c r="J66" s="17" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="67" spans="1:104" ht="34">
+      <c r="K66" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L66" s="17" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:102" ht="34">
       <c r="A67" t="s">
         <v>589</v>
       </c>
@@ -8582,8 +10340,14 @@
       <c r="J67" s="17" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="68" spans="1:104" ht="34">
+      <c r="K67" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:102" ht="34">
       <c r="A68" t="s">
         <v>589</v>
       </c>
@@ -8602,8 +10366,14 @@
       <c r="J68" s="17" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="69" spans="1:104" ht="17">
+      <c r="K68" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:102" ht="17">
       <c r="A69" t="s">
         <v>589</v>
       </c>
@@ -8622,8 +10392,14 @@
       <c r="J69" s="17" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="70" spans="1:104" ht="17">
+      <c r="K69" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:102" ht="17">
       <c r="A70" t="s">
         <v>589</v>
       </c>
@@ -8642,8 +10418,14 @@
       <c r="J70" s="17" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="71" spans="1:104" ht="17">
+      <c r="K70" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:102" ht="17">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -8662,8 +10444,14 @@
       <c r="J71" s="17" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="72" spans="1:104" ht="17">
+      <c r="K71" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:102" ht="17">
       <c r="A72" t="s">
         <v>589</v>
       </c>
@@ -8682,8 +10470,14 @@
       <c r="J72" s="17" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="73" spans="1:104" ht="17">
+      <c r="K72" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:102" ht="17">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -8702,8 +10496,14 @@
       <c r="J73" s="17" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="74" spans="1:104" ht="102">
+      <c r="K73" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:102" ht="102">
       <c r="A74" t="s">
         <v>589</v>
       </c>
@@ -8722,8 +10522,14 @@
       <c r="J74" s="17" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="75" spans="1:104" ht="51">
+      <c r="K74" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:102" ht="51">
       <c r="A75" t="s">
         <v>589</v>
       </c>
@@ -8742,8 +10548,14 @@
       <c r="J75" s="17" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="76" spans="1:104" ht="119">
+      <c r="K75" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:102" ht="119">
       <c r="A76" t="s">
         <v>589</v>
       </c>
@@ -8762,8 +10574,14 @@
       <c r="J76" s="17" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="77" spans="1:104" ht="51">
+      <c r="K76" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:102" ht="51">
       <c r="A77" t="s">
         <v>589</v>
       </c>
@@ -8782,8 +10600,14 @@
       <c r="J77" s="17" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="78" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K77" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B78" s="10">
         <v>2</v>
       </c>
@@ -8805,8 +10629,12 @@
         <v>1410</v>
       </c>
       <c r="J78" s="17"/>
-      <c r="K78"/>
-      <c r="L78"/>
+      <c r="K78" s="19" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
@@ -8897,10 +10725,8 @@
       <c r="CV78"/>
       <c r="CW78"/>
       <c r="CX78"/>
-      <c r="CY78"/>
-      <c r="CZ78"/>
-    </row>
-    <row r="79" spans="1:104" ht="34">
+    </row>
+    <row r="79" spans="1:102" ht="34">
       <c r="A79" t="s">
         <v>589</v>
       </c>
@@ -8919,8 +10745,14 @@
       <c r="J79" s="17" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="80" spans="1:104" ht="51">
+      <c r="K79" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:102" ht="51">
       <c r="A80" t="s">
         <v>589</v>
       </c>
@@ -8939,8 +10771,14 @@
       <c r="J80" s="17" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="81" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K80" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B81" s="10">
         <v>2</v>
       </c>
@@ -8962,8 +10800,12 @@
         <v>1413</v>
       </c>
       <c r="J81" s="17"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="K81" s="19" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
@@ -9054,10 +10896,8 @@
       <c r="CV81"/>
       <c r="CW81"/>
       <c r="CX81"/>
-      <c r="CY81"/>
-      <c r="CZ81"/>
-    </row>
-    <row r="82" spans="1:104" ht="34">
+    </row>
+    <row r="82" spans="1:102" ht="34">
       <c r="A82" t="s">
         <v>589</v>
       </c>
@@ -9076,8 +10916,14 @@
       <c r="J82" s="17" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="83" spans="1:104" ht="34">
+      <c r="K82" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="83" spans="1:102" ht="34">
       <c r="B83">
         <v>3</v>
       </c>
@@ -9096,8 +10942,14 @@
       <c r="J83" s="17" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="84" spans="1:104" ht="51">
+      <c r="K83" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:102" ht="51">
       <c r="A84" t="s">
         <v>589</v>
       </c>
@@ -9116,8 +10968,14 @@
       <c r="J84" s="17" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="85" spans="1:104" ht="34">
+      <c r="K84" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:102" ht="34">
       <c r="A85" t="s">
         <v>589</v>
       </c>
@@ -9136,8 +10994,14 @@
       <c r="J85" s="17" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="86" spans="1:104" ht="34">
+      <c r="K85" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="86" spans="1:102" ht="34">
       <c r="A86" t="s">
         <v>589</v>
       </c>
@@ -9156,8 +11020,14 @@
       <c r="J86" s="17" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="87" spans="1:104" ht="17">
+      <c r="K86" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:102" ht="17">
       <c r="A87" t="s">
         <v>589</v>
       </c>
@@ -9176,8 +11046,14 @@
       <c r="J87" s="17" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="88" spans="1:104" ht="34">
+      <c r="K87" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="88" spans="1:102" ht="34">
       <c r="A88" t="s">
         <v>589</v>
       </c>
@@ -9196,8 +11072,14 @@
       <c r="J88" s="17" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="89" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K88" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="89" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B89" s="10">
         <v>2</v>
       </c>
@@ -9219,8 +11101,12 @@
         <v>1421</v>
       </c>
       <c r="J89" s="17"/>
-      <c r="K89"/>
-      <c r="L89"/>
+      <c r="K89" s="19" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89"/>
@@ -9311,10 +11197,8 @@
       <c r="CV89"/>
       <c r="CW89"/>
       <c r="CX89"/>
-      <c r="CY89"/>
-      <c r="CZ89"/>
-    </row>
-    <row r="90" spans="1:104" ht="34">
+    </row>
+    <row r="90" spans="1:102" ht="34">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -9333,8 +11217,14 @@
       <c r="J90" s="17" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="91" spans="1:104" ht="17">
+      <c r="K90" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:102" ht="17">
       <c r="B91">
         <v>3</v>
       </c>
@@ -9350,8 +11240,14 @@
       <c r="J91" s="17" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="92" spans="1:104" ht="34">
+      <c r="K91" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:102" ht="34">
       <c r="A92" t="s">
         <v>589</v>
       </c>
@@ -9370,8 +11266,14 @@
       <c r="J92" s="17" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="93" spans="1:104" ht="17">
+      <c r="K92" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:102" ht="17">
       <c r="A93" t="s">
         <v>589</v>
       </c>
@@ -9390,8 +11292,14 @@
       <c r="J93" s="17" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="94" spans="1:104" ht="17">
+      <c r="K93" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:102" ht="17">
       <c r="A94" t="s">
         <v>589</v>
       </c>
@@ -9410,8 +11318,14 @@
       <c r="J94" s="17" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="95" spans="1:104" ht="17">
+      <c r="K94" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L94" s="17" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:102" ht="17">
       <c r="A95" t="s">
         <v>589</v>
       </c>
@@ -9430,8 +11344,14 @@
       <c r="J95" s="17" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="96" spans="1:104" ht="51">
+      <c r="K95" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:102" ht="51">
       <c r="A96" t="s">
         <v>589</v>
       </c>
@@ -9450,8 +11370,14 @@
       <c r="J96" s="17" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="97" spans="1:104" ht="34">
+      <c r="K96" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:102" ht="34">
       <c r="A97" t="s">
         <v>589</v>
       </c>
@@ -9470,8 +11396,14 @@
       <c r="J97" s="17" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="98" spans="1:104" ht="51">
+      <c r="K97" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:102" ht="51">
       <c r="A98" t="s">
         <v>589</v>
       </c>
@@ -9493,8 +11425,14 @@
       <c r="J98" s="17" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="99" spans="1:104" ht="34">
+      <c r="K98" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="99" spans="1:102" ht="34">
       <c r="A99" t="s">
         <v>589</v>
       </c>
@@ -9513,8 +11451,14 @@
       <c r="J99" s="17" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="100" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K99" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B100" s="10">
         <v>2</v>
       </c>
@@ -9536,8 +11480,12 @@
         <v>1432</v>
       </c>
       <c r="J100" s="17"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="K100" s="19" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
@@ -9628,10 +11576,8 @@
       <c r="CV100"/>
       <c r="CW100"/>
       <c r="CX100"/>
-      <c r="CY100"/>
-      <c r="CZ100"/>
-    </row>
-    <row r="101" spans="1:104" ht="85">
+    </row>
+    <row r="101" spans="1:102" ht="85">
       <c r="A101" t="s">
         <v>589</v>
       </c>
@@ -9650,8 +11596,14 @@
       <c r="J101" s="17" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="102" spans="1:104" ht="68">
+      <c r="K101" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:102" ht="68">
       <c r="A102" t="s">
         <v>589</v>
       </c>
@@ -9670,8 +11622,14 @@
       <c r="J102" s="17" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="103" spans="1:104" ht="34">
+      <c r="K102" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L102" s="17" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="103" spans="1:102" ht="34">
       <c r="B103">
         <v>3</v>
       </c>
@@ -9687,8 +11645,14 @@
       <c r="J103" s="17" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="104" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K103" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L103" s="17" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="104" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B104" s="8">
         <v>1</v>
       </c>
@@ -9710,8 +11674,12 @@
         <v>1436</v>
       </c>
       <c r="J104" s="17"/>
-      <c r="K104"/>
-      <c r="L104"/>
+      <c r="K104" s="20" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
@@ -9802,10 +11770,8 @@
       <c r="CV104"/>
       <c r="CW104"/>
       <c r="CX104"/>
-      <c r="CY104"/>
-      <c r="CZ104"/>
-    </row>
-    <row r="105" spans="1:104" s="10" customFormat="1" ht="34">
+    </row>
+    <row r="105" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B105" s="10">
         <v>2</v>
       </c>
@@ -9827,8 +11793,12 @@
         <v>1437</v>
       </c>
       <c r="J105" s="17"/>
-      <c r="K105"/>
-      <c r="L105"/>
+      <c r="K105" s="19" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105"/>
@@ -9919,10 +11889,8 @@
       <c r="CV105"/>
       <c r="CW105"/>
       <c r="CX105"/>
-      <c r="CY105"/>
-      <c r="CZ105"/>
-    </row>
-    <row r="106" spans="1:104" ht="68">
+    </row>
+    <row r="106" spans="1:102" ht="68">
       <c r="A106" t="s">
         <v>589</v>
       </c>
@@ -9941,8 +11909,14 @@
       <c r="J106" s="17" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="107" spans="1:104" ht="68">
+      <c r="K106" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L106" s="17" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="107" spans="1:102" ht="68">
       <c r="A107" t="s">
         <v>589</v>
       </c>
@@ -9964,8 +11938,14 @@
       <c r="J107" s="17" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="108" spans="1:104" ht="17">
+      <c r="K107" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="108" spans="1:102" ht="17">
       <c r="A108" t="s">
         <v>589</v>
       </c>
@@ -9984,8 +11964,14 @@
       <c r="J108" s="17" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="109" spans="1:104" ht="17">
+      <c r="K108" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="109" spans="1:102" ht="17">
       <c r="A109" t="s">
         <v>589</v>
       </c>
@@ -10004,8 +11990,14 @@
       <c r="J109" s="17" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="110" spans="1:104" ht="17">
+      <c r="K109" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:102" ht="17">
       <c r="A110" t="s">
         <v>589</v>
       </c>
@@ -10024,8 +12016,14 @@
       <c r="J110" s="17" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="111" spans="1:104" ht="17">
+      <c r="K110" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:102" ht="17">
       <c r="A111" t="s">
         <v>589</v>
       </c>
@@ -10044,8 +12042,14 @@
       <c r="J111" s="17" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="112" spans="1:104" ht="17">
+      <c r="K111" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="112" spans="1:102" ht="17">
       <c r="A112" t="s">
         <v>589</v>
       </c>
@@ -10064,8 +12068,14 @@
       <c r="J112" s="17" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="113" spans="1:104" ht="34">
+      <c r="K112" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="113" spans="1:102" ht="34">
       <c r="A113" t="s">
         <v>589</v>
       </c>
@@ -10084,8 +12094,14 @@
       <c r="J113" s="17" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="114" spans="1:104" ht="17">
+      <c r="K113" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:102" ht="17">
       <c r="A114" t="s">
         <v>589</v>
       </c>
@@ -10104,8 +12120,14 @@
       <c r="J114" s="17" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="115" spans="1:104" ht="17">
+      <c r="K114" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="115" spans="1:102" ht="17">
       <c r="A115" t="s">
         <v>589</v>
       </c>
@@ -10124,8 +12146,14 @@
       <c r="J115" s="17" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="116" spans="1:104" ht="68">
+      <c r="K115" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:102" ht="68">
       <c r="A116" t="s">
         <v>589</v>
       </c>
@@ -10144,8 +12172,14 @@
       <c r="J116" s="17" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="117" spans="1:104" ht="85">
+      <c r="K116" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:102" ht="85">
       <c r="A117" t="s">
         <v>589</v>
       </c>
@@ -10164,8 +12198,14 @@
       <c r="J117" s="17" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="118" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K117" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="118" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B118" s="10">
         <v>2</v>
       </c>
@@ -10187,8 +12227,12 @@
         <v>1450</v>
       </c>
       <c r="J118" s="17"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="K118" s="19" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
@@ -10279,10 +12323,8 @@
       <c r="CV118"/>
       <c r="CW118"/>
       <c r="CX118"/>
-      <c r="CY118"/>
-      <c r="CZ118"/>
-    </row>
-    <row r="119" spans="1:104" ht="51">
+    </row>
+    <row r="119" spans="1:102" ht="51">
       <c r="A119" t="s">
         <v>589</v>
       </c>
@@ -10301,8 +12343,14 @@
       <c r="J119" s="17" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="120" spans="1:104" ht="51">
+      <c r="K119" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L119" s="17" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="120" spans="1:102" ht="51">
       <c r="A120" t="s">
         <v>589</v>
       </c>
@@ -10324,8 +12372,14 @@
       <c r="J120" s="17" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="121" spans="1:104" ht="17">
+      <c r="K120" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:102" ht="17">
       <c r="A121" t="s">
         <v>589</v>
       </c>
@@ -10344,8 +12398,14 @@
       <c r="J121" s="17" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="122" spans="1:104" ht="51">
+      <c r="K121" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="122" spans="1:102" ht="51">
       <c r="A122" t="s">
         <v>589</v>
       </c>
@@ -10364,8 +12424,14 @@
       <c r="J122" s="17" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="123" spans="1:104" ht="68">
+      <c r="K122" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:102" ht="68">
       <c r="A123" t="s">
         <v>589</v>
       </c>
@@ -10384,8 +12450,14 @@
       <c r="J123" s="17" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="124" spans="1:104" ht="34">
+      <c r="K123" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="124" spans="1:102" ht="34">
       <c r="A124" t="s">
         <v>589</v>
       </c>
@@ -10404,8 +12476,14 @@
       <c r="J124" s="17" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="125" spans="1:104" ht="17">
+      <c r="K124" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="125" spans="1:102" ht="17">
       <c r="A125" t="s">
         <v>589</v>
       </c>
@@ -10424,8 +12502,14 @@
       <c r="J125" s="17" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="126" spans="1:104" ht="17">
+      <c r="K125" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:102" ht="17">
       <c r="A126" t="s">
         <v>589</v>
       </c>
@@ -10444,8 +12528,14 @@
       <c r="J126" s="17" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="127" spans="1:104" ht="34">
+      <c r="K126" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="127" spans="1:102" ht="34">
       <c r="A127" t="s">
         <v>589</v>
       </c>
@@ -10464,8 +12554,14 @@
       <c r="J127" s="17" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="128" spans="1:104" ht="68">
+      <c r="K127" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L127" s="17" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="128" spans="1:102" ht="68">
       <c r="A128" t="s">
         <v>589</v>
       </c>
@@ -10487,8 +12583,14 @@
       <c r="J128" s="17" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="129" spans="1:104" ht="17">
+      <c r="K128" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L128" s="17" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="129" spans="1:102" ht="17">
       <c r="A129" t="s">
         <v>589</v>
       </c>
@@ -10507,8 +12609,14 @@
       <c r="J129" s="17" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="130" spans="1:104" ht="17">
+      <c r="K129" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L129" s="17" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="130" spans="1:102" ht="17">
       <c r="A130" t="s">
         <v>589</v>
       </c>
@@ -10527,8 +12635,14 @@
       <c r="J130" s="17" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="131" spans="1:104" ht="17">
+      <c r="K130" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L130" s="17" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="131" spans="1:102" ht="17">
       <c r="A131" t="s">
         <v>589</v>
       </c>
@@ -10547,8 +12661,14 @@
       <c r="J131" s="17" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="132" spans="1:104" ht="17">
+      <c r="K131" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L131" s="17" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="132" spans="1:102" ht="17">
       <c r="A132" t="s">
         <v>589</v>
       </c>
@@ -10567,8 +12687,14 @@
       <c r="J132" s="17" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="133" spans="1:104" ht="51">
+      <c r="K132" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L132" s="17" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="133" spans="1:102" ht="51">
       <c r="A133" t="s">
         <v>589</v>
       </c>
@@ -10587,8 +12713,14 @@
       <c r="J133" s="17" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="134" spans="1:104" ht="102">
+      <c r="K133" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L133" s="17" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="134" spans="1:102" ht="102">
       <c r="A134" t="s">
         <v>589</v>
       </c>
@@ -10607,8 +12739,14 @@
       <c r="J134" s="17" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="135" spans="1:104" s="8" customFormat="1" ht="17">
+      <c r="K134" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L134" s="17" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="135" spans="1:102" s="8" customFormat="1" ht="17">
       <c r="A135" s="10"/>
       <c r="B135" s="10">
         <v>2</v>
@@ -10631,8 +12769,12 @@
         <v>1467</v>
       </c>
       <c r="J135" s="17"/>
-      <c r="K135"/>
-      <c r="L135"/>
+      <c r="K135" s="19" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M135"/>
       <c r="N135"/>
       <c r="O135"/>
@@ -10723,10 +12865,8 @@
       <c r="CV135"/>
       <c r="CW135"/>
       <c r="CX135"/>
-      <c r="CY135"/>
-      <c r="CZ135"/>
-    </row>
-    <row r="136" spans="1:104" ht="17">
+    </row>
+    <row r="136" spans="1:102" ht="17">
       <c r="A136" t="s">
         <v>589</v>
       </c>
@@ -10745,8 +12885,14 @@
       <c r="J136" s="17" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="137" spans="1:104" ht="34">
+      <c r="K136" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L136" s="17" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="137" spans="1:102" ht="34">
       <c r="A137" t="s">
         <v>589</v>
       </c>
@@ -10765,8 +12911,14 @@
       <c r="J137" s="17" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="138" spans="1:104" ht="51">
+      <c r="K137" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L137" s="17" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="138" spans="1:102" ht="51">
       <c r="A138" t="s">
         <v>589</v>
       </c>
@@ -10785,8 +12937,14 @@
       <c r="J138" s="17" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="139" spans="1:104" ht="34">
+      <c r="K138" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L138" s="17" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="139" spans="1:102" ht="34">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -10805,8 +12963,14 @@
       <c r="J139" s="17" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="140" spans="1:104" ht="34">
+      <c r="K139" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L139" s="17" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="140" spans="1:102" ht="34">
       <c r="A140" t="s">
         <v>589</v>
       </c>
@@ -10825,8 +12989,14 @@
       <c r="J140" s="17" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="141" spans="1:104" ht="68">
+      <c r="K140" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="141" spans="1:102" ht="68">
       <c r="A141" t="s">
         <v>589</v>
       </c>
@@ -10842,8 +13012,14 @@
       <c r="J141" s="17" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="142" spans="1:104" ht="68">
+      <c r="K141" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L141" s="17" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="142" spans="1:102" ht="68">
       <c r="A142" t="s">
         <v>589</v>
       </c>
@@ -10862,8 +13038,14 @@
       <c r="J142" s="17" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="143" spans="1:104" ht="51">
+      <c r="K142" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L142" s="17" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="143" spans="1:102" ht="51">
       <c r="A143" t="s">
         <v>589</v>
       </c>
@@ -10882,8 +13064,14 @@
       <c r="J143" s="17" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="144" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K143" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L143" s="17" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B144" s="8">
         <v>1</v>
       </c>
@@ -10905,8 +13093,12 @@
         <v>1476</v>
       </c>
       <c r="J144" s="17"/>
-      <c r="K144"/>
-      <c r="L144"/>
+      <c r="K144" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144"/>
@@ -10997,10 +13189,8 @@
       <c r="CV144"/>
       <c r="CW144"/>
       <c r="CX144"/>
-      <c r="CY144"/>
-      <c r="CZ144"/>
-    </row>
-    <row r="145" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="145" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B145" s="10">
         <v>2</v>
       </c>
@@ -11022,8 +13212,12 @@
         <v>1477</v>
       </c>
       <c r="J145" s="17"/>
-      <c r="K145"/>
-      <c r="L145"/>
+      <c r="K145" s="19" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L145" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M145"/>
       <c r="N145"/>
       <c r="O145"/>
@@ -11114,10 +13308,8 @@
       <c r="CV145"/>
       <c r="CW145"/>
       <c r="CX145"/>
-      <c r="CY145"/>
-      <c r="CZ145"/>
-    </row>
-    <row r="146" spans="1:104" ht="136">
+    </row>
+    <row r="146" spans="1:102" ht="136">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -11136,8 +13328,14 @@
       <c r="J146" s="17" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="147" spans="1:104" ht="51">
+      <c r="K146" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L146" s="17" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="147" spans="1:102" ht="51">
       <c r="A147" t="s">
         <v>589</v>
       </c>
@@ -11159,8 +13357,14 @@
       <c r="J147" s="17" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="148" spans="1:104" ht="34">
+      <c r="K147" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L147" s="17" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="148" spans="1:102" ht="34">
       <c r="A148" t="s">
         <v>589</v>
       </c>
@@ -11179,8 +13383,14 @@
       <c r="J148" s="17" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="149" spans="1:104" ht="34">
+      <c r="K148" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L148" s="17" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="149" spans="1:102" ht="34">
       <c r="A149" t="s">
         <v>589</v>
       </c>
@@ -11199,8 +13409,14 @@
       <c r="J149" s="17" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="150" spans="1:104" ht="51">
+      <c r="K149" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L149" s="17" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="150" spans="1:102" ht="51">
       <c r="A150" t="s">
         <v>589</v>
       </c>
@@ -11219,8 +13435,14 @@
       <c r="J150" s="17" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="151" spans="1:104" ht="34">
+      <c r="K150" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L150" s="17" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="151" spans="1:102" ht="34">
       <c r="A151" t="s">
         <v>589</v>
       </c>
@@ -11239,8 +13461,14 @@
       <c r="J151" s="17" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="152" spans="1:104" ht="85">
+      <c r="K151" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L151" s="17" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="152" spans="1:102" ht="85">
       <c r="A152" t="s">
         <v>589</v>
       </c>
@@ -11259,8 +13487,14 @@
       <c r="J152" s="17" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="153" spans="1:104" ht="85">
+      <c r="K152" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L152" s="17" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="153" spans="1:102" ht="85">
       <c r="A153" t="s">
         <v>589</v>
       </c>
@@ -11282,8 +13516,14 @@
       <c r="J153" s="17" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="154" spans="1:104" ht="51">
+      <c r="K153" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L153" s="17" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="154" spans="1:102" ht="51">
       <c r="A154" t="s">
         <v>589</v>
       </c>
@@ -11305,8 +13545,14 @@
       <c r="J154" s="17" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="155" spans="1:104" ht="51">
+      <c r="K154" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L154" s="17" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="155" spans="1:102" ht="51">
       <c r="A155" t="s">
         <v>589</v>
       </c>
@@ -11325,8 +13571,14 @@
       <c r="J155" s="17" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="156" spans="1:104" ht="34">
+      <c r="K155" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L155" s="17" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="156" spans="1:102" ht="34">
       <c r="A156" t="s">
         <v>589</v>
       </c>
@@ -11345,8 +13597,14 @@
       <c r="J156" s="17" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="157" spans="1:104" ht="68">
+      <c r="K156" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L156" s="17" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="157" spans="1:102" ht="68">
       <c r="A157" t="s">
         <v>589</v>
       </c>
@@ -11365,8 +13623,14 @@
       <c r="J157" s="17" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="158" spans="1:104" ht="34">
+      <c r="K157" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L157" s="17" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="158" spans="1:102" ht="34">
       <c r="A158" t="s">
         <v>589</v>
       </c>
@@ -11385,8 +13649,14 @@
       <c r="J158" s="17" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="159" spans="1:104" ht="51">
+      <c r="K158" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L158" s="17" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="159" spans="1:102" ht="51">
       <c r="A159" t="s">
         <v>589</v>
       </c>
@@ -11405,8 +13675,14 @@
       <c r="J159" s="17" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="160" spans="1:104" ht="51">
+      <c r="K159" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L159" s="17" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="160" spans="1:102" ht="51">
       <c r="A160" t="s">
         <v>589</v>
       </c>
@@ -11425,8 +13701,14 @@
       <c r="J160" s="17" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="161" spans="1:104" ht="51">
+      <c r="K160" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L160" s="17" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="161" spans="1:102" ht="51">
       <c r="A161" t="s">
         <v>589</v>
       </c>
@@ -11445,8 +13727,14 @@
       <c r="J161" s="17" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="162" spans="1:104" ht="51">
+      <c r="K161" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L161" s="17" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="162" spans="1:102" ht="51">
       <c r="A162" t="s">
         <v>589</v>
       </c>
@@ -11468,8 +13756,14 @@
       <c r="J162" s="17" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="163" spans="1:104" ht="119">
+      <c r="K162" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L162" s="17" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="163" spans="1:102" ht="119">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -11488,8 +13782,14 @@
       <c r="J163" s="17" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="164" spans="1:104" ht="17">
+      <c r="K163" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L163" s="17" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="164" spans="1:102" ht="17">
       <c r="B164">
         <v>3</v>
       </c>
@@ -11508,8 +13808,14 @@
       <c r="J164" s="17" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="165" spans="1:104" ht="34">
+      <c r="K164" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="165" spans="1:102" ht="34">
       <c r="A165" t="s">
         <v>589</v>
       </c>
@@ -11528,8 +13834,14 @@
       <c r="J165" s="17" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="166" spans="1:104" ht="51">
+      <c r="K165" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L165" s="17" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="166" spans="1:102" ht="51">
       <c r="A166" t="s">
         <v>589</v>
       </c>
@@ -11548,8 +13860,14 @@
       <c r="J166" s="17" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="167" spans="1:104" ht="34">
+      <c r="K166" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L166" s="17" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="167" spans="1:102" ht="34">
       <c r="A167" t="s">
         <v>589</v>
       </c>
@@ -11568,8 +13886,14 @@
       <c r="J167" s="17" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="168" spans="1:104" ht="51">
+      <c r="K167" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L167" s="17" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="168" spans="1:102" ht="51">
       <c r="A168" t="s">
         <v>589</v>
       </c>
@@ -11588,8 +13912,14 @@
       <c r="J168" s="17" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="169" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K168" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L168" s="17" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="169" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B169" s="10">
         <v>2</v>
       </c>
@@ -11611,8 +13941,12 @@
         <v>1501</v>
       </c>
       <c r="J169" s="17"/>
-      <c r="K169"/>
-      <c r="L169"/>
+      <c r="K169" s="19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="L169" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M169"/>
       <c r="N169"/>
       <c r="O169"/>
@@ -11703,10 +14037,8 @@
       <c r="CV169"/>
       <c r="CW169"/>
       <c r="CX169"/>
-      <c r="CY169"/>
-      <c r="CZ169"/>
-    </row>
-    <row r="170" spans="1:104" ht="51">
+    </row>
+    <row r="170" spans="1:102" ht="51">
       <c r="A170" t="s">
         <v>589</v>
       </c>
@@ -11722,8 +14054,14 @@
       <c r="J170" s="17" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="171" spans="1:104" ht="34">
+      <c r="K170" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L170" s="17" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="171" spans="1:102" ht="34">
       <c r="A171" t="s">
         <v>589</v>
       </c>
@@ -11742,8 +14080,14 @@
       <c r="J171" s="17" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="172" spans="1:104" ht="51">
+      <c r="K171" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L171" s="17" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="172" spans="1:102" ht="51">
       <c r="A172" t="s">
         <v>589</v>
       </c>
@@ -11762,8 +14106,14 @@
       <c r="J172" s="17" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="173" spans="1:104" s="8" customFormat="1" ht="51">
+      <c r="K172" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L172" s="17" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="173" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B173" s="8">
         <v>1</v>
       </c>
@@ -11785,8 +14135,12 @@
         <v>1505</v>
       </c>
       <c r="J173" s="17"/>
-      <c r="K173"/>
-      <c r="L173"/>
+      <c r="K173" s="20" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L173" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M173"/>
       <c r="N173"/>
       <c r="O173"/>
@@ -11877,10 +14231,8 @@
       <c r="CV173"/>
       <c r="CW173"/>
       <c r="CX173"/>
-      <c r="CY173"/>
-      <c r="CZ173"/>
-    </row>
-    <row r="174" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="174" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B174" s="10">
         <v>2</v>
       </c>
@@ -11902,8 +14254,12 @@
         <v>1506</v>
       </c>
       <c r="J174" s="17"/>
-      <c r="K174"/>
-      <c r="L174"/>
+      <c r="K174" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="L174" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M174"/>
       <c r="N174"/>
       <c r="O174"/>
@@ -11994,10 +14350,8 @@
       <c r="CV174"/>
       <c r="CW174"/>
       <c r="CX174"/>
-      <c r="CY174"/>
-      <c r="CZ174"/>
-    </row>
-    <row r="175" spans="1:104" ht="119">
+    </row>
+    <row r="175" spans="1:102" ht="119">
       <c r="A175" t="s">
         <v>589</v>
       </c>
@@ -12019,8 +14373,14 @@
       <c r="J175" s="17" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="176" spans="1:104" ht="17">
+      <c r="K175" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L175" s="17" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:102" ht="17">
       <c r="B176">
         <v>3</v>
       </c>
@@ -12039,8 +14399,14 @@
       <c r="J176" s="17" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="177" spans="1:104" ht="34">
+      <c r="K176" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L176" s="17" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:102" ht="34">
       <c r="A177" t="s">
         <v>589</v>
       </c>
@@ -12059,8 +14425,14 @@
       <c r="J177" s="17" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="178" spans="1:104" ht="51">
+      <c r="K177" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L177" s="17" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:102" ht="51">
       <c r="A178" t="s">
         <v>589</v>
       </c>
@@ -12079,8 +14451,14 @@
       <c r="J178" s="17" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="179" spans="1:104" ht="51">
+      <c r="K178" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L178" s="17" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:102" ht="51">
       <c r="A179" t="s">
         <v>589</v>
       </c>
@@ -12099,8 +14477,14 @@
       <c r="J179" s="17" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="180" spans="1:104" ht="51">
+      <c r="K179" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L179" s="17" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:102" ht="51">
       <c r="A180" t="s">
         <v>589</v>
       </c>
@@ -12119,8 +14503,14 @@
       <c r="J180" s="17" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="181" spans="1:104" ht="34">
+      <c r="K180" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L180" s="17" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:102" ht="34">
       <c r="A181" t="s">
         <v>589</v>
       </c>
@@ -12139,8 +14529,14 @@
       <c r="J181" s="17" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="182" spans="1:104" ht="51">
+      <c r="K181" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L181" s="17" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:102" ht="51">
       <c r="A182" t="s">
         <v>589</v>
       </c>
@@ -12159,8 +14555,14 @@
       <c r="J182" s="17" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="183" spans="1:104" ht="51">
+      <c r="K182" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L182" s="17" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:102" ht="51">
       <c r="A183" t="s">
         <v>589</v>
       </c>
@@ -12179,8 +14581,14 @@
       <c r="J183" s="17" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="184" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K183" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L183" s="17" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B184" s="10">
         <v>2</v>
       </c>
@@ -12199,8 +14607,12 @@
         <v>1516</v>
       </c>
       <c r="J184" s="17"/>
-      <c r="K184"/>
-      <c r="L184"/>
+      <c r="K184" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="L184" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M184"/>
       <c r="N184"/>
       <c r="O184"/>
@@ -12291,10 +14703,8 @@
       <c r="CV184"/>
       <c r="CW184"/>
       <c r="CX184"/>
-      <c r="CY184"/>
-      <c r="CZ184"/>
-    </row>
-    <row r="185" spans="1:104" ht="102">
+    </row>
+    <row r="185" spans="1:102" ht="102">
       <c r="A185" t="s">
         <v>589</v>
       </c>
@@ -12313,8 +14723,14 @@
       <c r="J185" s="17" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="186" spans="1:104" ht="17">
+      <c r="K185" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L185" s="17" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:102" ht="17">
       <c r="B186">
         <v>3</v>
       </c>
@@ -12333,8 +14749,14 @@
       <c r="J186" s="17" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="187" spans="1:104" ht="51">
+      <c r="K186" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L186" s="17" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:102" ht="51">
       <c r="A187" t="s">
         <v>589</v>
       </c>
@@ -12353,8 +14775,14 @@
       <c r="J187" s="17" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="188" spans="1:104" ht="68">
+      <c r="K187" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L187" s="17" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:102" ht="68">
       <c r="A188" t="s">
         <v>589</v>
       </c>
@@ -12373,8 +14801,14 @@
       <c r="J188" s="17" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="189" spans="1:104" ht="34">
+      <c r="K188" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L188" s="17" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:102" ht="34">
       <c r="A189" t="s">
         <v>589</v>
       </c>
@@ -12393,8 +14827,14 @@
       <c r="J189" s="17" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="190" spans="1:104" ht="34">
+      <c r="K189" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L189" s="17" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:102" ht="34">
       <c r="A190" t="s">
         <v>589</v>
       </c>
@@ -12413,8 +14853,14 @@
       <c r="J190" s="17" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="191" spans="1:104" ht="34">
+      <c r="K190" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L190" s="17" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:102" ht="34">
       <c r="A191" t="s">
         <v>589</v>
       </c>
@@ -12433,8 +14879,14 @@
       <c r="J191" s="17" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="192" spans="1:104" ht="34">
+      <c r="K191" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L191" s="17" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:102" ht="34">
       <c r="A192" t="s">
         <v>589</v>
       </c>
@@ -12456,8 +14908,14 @@
       <c r="J192" s="17" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="193" spans="1:104" ht="51">
+      <c r="K192" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L192" s="17" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:102" ht="51">
       <c r="A193" t="s">
         <v>589</v>
       </c>
@@ -12479,8 +14937,14 @@
       <c r="J193" s="17" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="194" spans="1:104" ht="34">
+      <c r="K193" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L193" s="17" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="194" spans="1:102" ht="34">
       <c r="A194" t="s">
         <v>589</v>
       </c>
@@ -12499,8 +14963,14 @@
       <c r="J194" s="17" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="195" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K194" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L194" s="17" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="195" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B195" s="10">
         <v>2</v>
       </c>
@@ -12522,8 +14992,12 @@
         <v>1528</v>
       </c>
       <c r="J195" s="17"/>
-      <c r="K195"/>
-      <c r="L195"/>
+      <c r="K195" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="L195" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M195"/>
       <c r="N195"/>
       <c r="O195"/>
@@ -12614,10 +15088,8 @@
       <c r="CV195"/>
       <c r="CW195"/>
       <c r="CX195"/>
-      <c r="CY195"/>
-      <c r="CZ195"/>
-    </row>
-    <row r="196" spans="1:104" ht="68">
+    </row>
+    <row r="196" spans="1:102" ht="68">
       <c r="A196" t="s">
         <v>589</v>
       </c>
@@ -12636,8 +15108,14 @@
       <c r="J196" s="17" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="197" spans="1:104" ht="17">
+      <c r="K196" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L196" s="17" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="197" spans="1:102" ht="17">
       <c r="B197">
         <v>3</v>
       </c>
@@ -12656,8 +15134,14 @@
       <c r="J197" s="17" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="198" spans="1:104" ht="34">
+      <c r="K197" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L197" s="17" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198" spans="1:102" ht="34">
       <c r="A198" t="s">
         <v>589</v>
       </c>
@@ -12676,8 +15160,14 @@
       <c r="J198" s="17" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="199" spans="1:104" ht="68">
+      <c r="K198" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L198" s="17" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="199" spans="1:102" ht="68">
       <c r="A199" t="s">
         <v>589</v>
       </c>
@@ -12696,8 +15186,14 @@
       <c r="J199" s="17" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="200" spans="1:104" ht="51">
+      <c r="K199" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L199" s="17" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="200" spans="1:102" ht="51">
       <c r="A200" t="s">
         <v>589</v>
       </c>
@@ -12716,8 +15212,14 @@
       <c r="J200" s="17" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="201" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K200" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L200" s="17" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="201" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B201" s="10">
         <v>2</v>
       </c>
@@ -12739,8 +15241,12 @@
         <v>1533</v>
       </c>
       <c r="J201" s="17"/>
-      <c r="K201"/>
-      <c r="L201"/>
+      <c r="K201" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L201" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M201"/>
       <c r="N201"/>
       <c r="O201"/>
@@ -12831,10 +15337,8 @@
       <c r="CV201"/>
       <c r="CW201"/>
       <c r="CX201"/>
-      <c r="CY201"/>
-      <c r="CZ201"/>
-    </row>
-    <row r="202" spans="1:104" ht="68">
+    </row>
+    <row r="202" spans="1:102" ht="68">
       <c r="A202" t="s">
         <v>589</v>
       </c>
@@ -12853,8 +15357,14 @@
       <c r="J202" s="17" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="203" spans="1:104" ht="102">
+      <c r="K202" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L202" s="17" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="203" spans="1:102" ht="102">
       <c r="A203" t="s">
         <v>589</v>
       </c>
@@ -12876,8 +15386,14 @@
       <c r="J203" s="17" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="204" spans="1:104" ht="51">
+      <c r="K203" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L203" s="17" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="204" spans="1:102" ht="51">
       <c r="A204" t="s">
         <v>589</v>
       </c>
@@ -12896,8 +15412,14 @@
       <c r="J204" s="17" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="205" spans="1:104" ht="51">
+      <c r="K204" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L204" s="17" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="205" spans="1:102" ht="51">
       <c r="A205" t="s">
         <v>589</v>
       </c>
@@ -12916,8 +15438,14 @@
       <c r="J205" s="17" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="206" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K205" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L205" s="17" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="206" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B206" s="10">
         <v>2</v>
       </c>
@@ -12939,8 +15467,12 @@
         <v>1538</v>
       </c>
       <c r="J206" s="17"/>
-      <c r="K206"/>
-      <c r="L206"/>
+      <c r="K206" s="19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="L206" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M206"/>
       <c r="N206"/>
       <c r="O206"/>
@@ -13031,10 +15563,8 @@
       <c r="CV206"/>
       <c r="CW206"/>
       <c r="CX206"/>
-      <c r="CY206"/>
-      <c r="CZ206"/>
-    </row>
-    <row r="207" spans="1:104" ht="34">
+    </row>
+    <row r="207" spans="1:102" ht="34">
       <c r="A207" t="s">
         <v>589</v>
       </c>
@@ -13053,8 +15583,14 @@
       <c r="J207" s="17" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="208" spans="1:104" ht="17">
+      <c r="K207" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L207" s="17" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="208" spans="1:102" ht="17">
       <c r="B208">
         <v>3</v>
       </c>
@@ -13070,8 +15606,14 @@
       <c r="J208" s="17" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="209" spans="1:104" ht="51">
+      <c r="K208" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L208" s="17" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="209" spans="1:102" ht="51">
       <c r="A209" t="s">
         <v>589</v>
       </c>
@@ -13093,8 +15635,14 @@
       <c r="J209" s="17" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="210" spans="1:104" ht="51">
+      <c r="K209" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L209" s="17" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="210" spans="1:102" ht="51">
       <c r="A210" t="s">
         <v>589</v>
       </c>
@@ -13113,8 +15661,14 @@
       <c r="J210" s="17" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="211" spans="1:104" ht="51">
+      <c r="K210" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L210" s="17" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="211" spans="1:102" ht="51">
       <c r="A211" t="s">
         <v>589</v>
       </c>
@@ -13133,8 +15687,14 @@
       <c r="J211" s="17" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="212" spans="1:104" ht="34">
+      <c r="K211" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L211" s="17" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="212" spans="1:102" ht="34">
       <c r="A212" t="s">
         <v>589</v>
       </c>
@@ -13153,8 +15713,14 @@
       <c r="J212" s="17" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="213" spans="1:104" ht="34">
+      <c r="K212" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L212" s="17" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="213" spans="1:102" ht="34">
       <c r="A213" t="s">
         <v>589</v>
       </c>
@@ -13173,8 +15739,14 @@
       <c r="J213" s="17" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="214" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K213" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L213" s="17" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="214" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B214" s="10">
         <v>2</v>
       </c>
@@ -13196,8 +15768,12 @@
         <v>1546</v>
       </c>
       <c r="J214" s="17"/>
-      <c r="K214"/>
-      <c r="L214"/>
+      <c r="K214" s="19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="L214" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M214"/>
       <c r="N214"/>
       <c r="O214"/>
@@ -13288,10 +15864,8 @@
       <c r="CV214"/>
       <c r="CW214"/>
       <c r="CX214"/>
-      <c r="CY214"/>
-      <c r="CZ214"/>
-    </row>
-    <row r="215" spans="1:104" ht="68">
+    </row>
+    <row r="215" spans="1:102" ht="68">
       <c r="A215" t="s">
         <v>589</v>
       </c>
@@ -13313,8 +15887,14 @@
       <c r="J215" s="17" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="216" spans="1:104" ht="34">
+      <c r="K215" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L215" s="17" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="216" spans="1:102" ht="34">
       <c r="A216" t="s">
         <v>589</v>
       </c>
@@ -13333,8 +15913,14 @@
       <c r="J216" s="17" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="217" spans="1:104" ht="34">
+      <c r="K216" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L216" s="17" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="217" spans="1:102" ht="34">
       <c r="A217" t="s">
         <v>589</v>
       </c>
@@ -13353,8 +15939,14 @@
       <c r="J217" s="17" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="218" spans="1:104" ht="34">
+      <c r="K217" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L217" s="17" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="218" spans="1:102" ht="34">
       <c r="A218" t="s">
         <v>589</v>
       </c>
@@ -13373,8 +15965,14 @@
       <c r="J218" s="17" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="219" spans="1:104" ht="51">
+      <c r="K218" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L218" s="17" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="219" spans="1:102" ht="51">
       <c r="A219" t="s">
         <v>589</v>
       </c>
@@ -13396,8 +15994,14 @@
       <c r="J219" s="17" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="220" spans="1:104" ht="68">
+      <c r="K219" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L219" s="17" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="220" spans="1:102" ht="68">
       <c r="A220" t="s">
         <v>589</v>
       </c>
@@ -13419,8 +16023,14 @@
       <c r="J220" s="17" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="221" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K220" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L220" s="17" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="221" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B221" s="10">
         <v>2</v>
       </c>
@@ -13442,8 +16052,12 @@
         <v>1553</v>
       </c>
       <c r="J221" s="17"/>
-      <c r="K221"/>
-      <c r="L221"/>
+      <c r="K221" s="19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L221" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M221"/>
       <c r="N221"/>
       <c r="O221"/>
@@ -13534,10 +16148,8 @@
       <c r="CV221"/>
       <c r="CW221"/>
       <c r="CX221"/>
-      <c r="CY221"/>
-      <c r="CZ221"/>
-    </row>
-    <row r="222" spans="1:104" ht="34">
+    </row>
+    <row r="222" spans="1:102" ht="34">
       <c r="A222" t="s">
         <v>589</v>
       </c>
@@ -13556,8 +16168,14 @@
       <c r="J222" s="17" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="223" spans="1:104" ht="17">
+      <c r="K222" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L222" s="17" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="223" spans="1:102" ht="17">
       <c r="B223">
         <v>3</v>
       </c>
@@ -13576,8 +16194,14 @@
       <c r="J223" s="17" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="224" spans="1:104" ht="34">
+      <c r="K223" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L223" s="17" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="224" spans="1:102" ht="34">
       <c r="A224" t="s">
         <v>589</v>
       </c>
@@ -13596,8 +16220,14 @@
       <c r="J224" s="17" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="225" spans="1:104" ht="51">
+      <c r="K224" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L224" s="17" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="225" spans="1:102" ht="51">
       <c r="A225" t="s">
         <v>589</v>
       </c>
@@ -13616,8 +16246,14 @@
       <c r="J225" s="17" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="226" spans="1:104" ht="51">
+      <c r="K225" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L225" s="17" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="226" spans="1:102" ht="51">
       <c r="A226" t="s">
         <v>589</v>
       </c>
@@ -13636,8 +16272,14 @@
       <c r="J226" s="17" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="227" spans="1:104" ht="51">
+      <c r="K226" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L226" s="17" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="227" spans="1:102" ht="51">
       <c r="A227" t="s">
         <v>589</v>
       </c>
@@ -13656,8 +16298,14 @@
       <c r="J227" s="17" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="228" spans="1:104" ht="34">
+      <c r="K227" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L227" s="17" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="228" spans="1:102" ht="34">
       <c r="A228" t="s">
         <v>589</v>
       </c>
@@ -13676,8 +16324,14 @@
       <c r="J228" s="17" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="229" spans="1:104" ht="34">
+      <c r="K228" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L228" s="17" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="229" spans="1:102" ht="34">
       <c r="A229" t="s">
         <v>589</v>
       </c>
@@ -13696,8 +16350,14 @@
       <c r="J229" s="17" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="230" spans="1:104" ht="51">
+      <c r="K229" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L229" s="17" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="230" spans="1:102" ht="51">
       <c r="A230" t="s">
         <v>589</v>
       </c>
@@ -13716,8 +16376,14 @@
       <c r="J230" s="17" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="231" spans="1:104" ht="51">
+      <c r="K230" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L230" s="17" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="231" spans="1:102" ht="51">
       <c r="A231" t="s">
         <v>589</v>
       </c>
@@ -13736,8 +16402,14 @@
       <c r="J231" s="17" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="232" spans="1:104" ht="85">
+      <c r="K231" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L231" s="17" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="232" spans="1:102" ht="85">
       <c r="A232" t="s">
         <v>589</v>
       </c>
@@ -13756,8 +16428,14 @@
       <c r="J232" s="17" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="233" spans="1:104" ht="68">
+      <c r="K232" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L232" s="17" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="233" spans="1:102" ht="68">
       <c r="A233" t="s">
         <v>589</v>
       </c>
@@ -13776,8 +16454,14 @@
       <c r="J233" s="17" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="234" spans="1:104" ht="85">
+      <c r="K233" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L233" s="17" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="234" spans="1:102" ht="85">
       <c r="A234" t="s">
         <v>589</v>
       </c>
@@ -13796,8 +16480,14 @@
       <c r="J234" s="17" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="235" spans="1:104" ht="51">
+      <c r="K234" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L234" s="17" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="235" spans="1:102" ht="51">
       <c r="A235" t="s">
         <v>589</v>
       </c>
@@ -13816,8 +16506,14 @@
       <c r="J235" s="17" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="236" spans="1:104" ht="51">
+      <c r="K235" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L235" s="17" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="236" spans="1:102" ht="51">
       <c r="A236" t="s">
         <v>589</v>
       </c>
@@ -13836,8 +16532,14 @@
       <c r="J236" s="17" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="237" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K236" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L236" s="17" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="237" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B237" s="10">
         <v>2</v>
       </c>
@@ -13859,8 +16561,12 @@
         <v>1569</v>
       </c>
       <c r="J237" s="17"/>
-      <c r="K237"/>
-      <c r="L237"/>
+      <c r="K237" s="19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L237" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M237"/>
       <c r="N237"/>
       <c r="O237"/>
@@ -13951,10 +16657,8 @@
       <c r="CV237"/>
       <c r="CW237"/>
       <c r="CX237"/>
-      <c r="CY237"/>
-      <c r="CZ237"/>
-    </row>
-    <row r="238" spans="1:104" ht="51">
+    </row>
+    <row r="238" spans="1:102" ht="51">
       <c r="A238" t="s">
         <v>589</v>
       </c>
@@ -13976,8 +16680,14 @@
       <c r="J238" s="17" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="239" spans="1:104" ht="17">
+      <c r="K238" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L238" s="17" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="239" spans="1:102" ht="17">
       <c r="B239">
         <v>3</v>
       </c>
@@ -13993,8 +16703,14 @@
       <c r="J239" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="240" spans="1:104" ht="51">
+      <c r="K239" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L239" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="240" spans="1:102" ht="51">
       <c r="A240" t="s">
         <v>589</v>
       </c>
@@ -14013,8 +16729,14 @@
       <c r="J240" s="17" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="241" spans="1:104" ht="34">
+      <c r="K240" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L240" s="17" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="241" spans="1:102" ht="34">
       <c r="A241" t="s">
         <v>589</v>
       </c>
@@ -14033,8 +16755,14 @@
       <c r="J241" s="17" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="242" spans="1:104" ht="51">
+      <c r="K241" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L241" s="17" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="242" spans="1:102" ht="51">
       <c r="A242" t="s">
         <v>589</v>
       </c>
@@ -14053,8 +16781,14 @@
       <c r="J242" s="17" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="243" spans="1:104" ht="51">
+      <c r="K242" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L242" s="17" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="243" spans="1:102" ht="51">
       <c r="A243" t="s">
         <v>589</v>
       </c>
@@ -14073,8 +16807,14 @@
       <c r="J243" s="17" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="244" spans="1:104" ht="51">
+      <c r="K243" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L243" s="17" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="244" spans="1:102" ht="51">
       <c r="A244" t="s">
         <v>589</v>
       </c>
@@ -14093,8 +16833,14 @@
       <c r="J244" s="17" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="245" spans="1:104" ht="51">
+      <c r="K244" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L244" s="17" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="245" spans="1:102" ht="51">
       <c r="A245" t="s">
         <v>589</v>
       </c>
@@ -14113,8 +16859,14 @@
       <c r="J245" s="17" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="246" spans="1:104" ht="34">
+      <c r="K245" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L245" s="17" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="246" spans="1:102" ht="34">
       <c r="A246" t="s">
         <v>589</v>
       </c>
@@ -14133,8 +16885,14 @@
       <c r="J246" s="17" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="247" spans="1:104" ht="51">
+      <c r="K246" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L246" s="17" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="247" spans="1:102" ht="51">
       <c r="A247" t="s">
         <v>589</v>
       </c>
@@ -14153,8 +16911,14 @@
       <c r="J247" s="17" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="248" spans="1:104" ht="51">
+      <c r="K247" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L247" s="17" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="248" spans="1:102" ht="51">
       <c r="A248" t="s">
         <v>589</v>
       </c>
@@ -14173,8 +16937,14 @@
       <c r="J248" s="17" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="249" spans="1:104" ht="34">
+      <c r="K248" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L248" s="17" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="249" spans="1:102" ht="34">
       <c r="A249" s="10"/>
       <c r="B249" s="10">
         <v>2</v>
@@ -14191,8 +16961,14 @@
       <c r="I249" s="19" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="250" spans="1:104" ht="34">
+      <c r="K249" s="19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="L249" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="250" spans="1:102" ht="34">
       <c r="A250" t="s">
         <v>589</v>
       </c>
@@ -14211,8 +16987,14 @@
       <c r="J250" s="17" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="251" spans="1:104" ht="102">
+      <c r="K250" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L250" s="17" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="251" spans="1:102" ht="102">
       <c r="A251" t="s">
         <v>589</v>
       </c>
@@ -14234,8 +17016,14 @@
       <c r="J251" s="17" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="252" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K251" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L251" s="17" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="252" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B252" s="10">
         <v>2</v>
       </c>
@@ -14257,8 +17045,12 @@
         <v>1584</v>
       </c>
       <c r="J252" s="17"/>
-      <c r="K252"/>
-      <c r="L252"/>
+      <c r="K252" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L252" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M252"/>
       <c r="N252"/>
       <c r="O252"/>
@@ -14349,10 +17141,8 @@
       <c r="CV252"/>
       <c r="CW252"/>
       <c r="CX252"/>
-      <c r="CY252"/>
-      <c r="CZ252"/>
-    </row>
-    <row r="253" spans="1:104" ht="51">
+    </row>
+    <row r="253" spans="1:102" ht="51">
       <c r="A253" t="s">
         <v>589</v>
       </c>
@@ -14371,8 +17161,14 @@
       <c r="J253" s="17" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="254" spans="1:104" ht="17">
+      <c r="K253" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L253" s="17" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="254" spans="1:102" ht="17">
       <c r="B254">
         <v>3</v>
       </c>
@@ -14391,8 +17187,14 @@
       <c r="J254" s="17" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="255" spans="1:104" ht="51">
+      <c r="K254" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L254" s="17" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="255" spans="1:102" ht="51">
       <c r="A255" t="s">
         <v>589</v>
       </c>
@@ -14411,8 +17213,14 @@
       <c r="J255" s="17" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="256" spans="1:104" ht="51">
+      <c r="K255" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L255" s="17" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="256" spans="1:102" ht="51">
       <c r="A256" t="s">
         <v>589</v>
       </c>
@@ -14431,8 +17239,14 @@
       <c r="J256" s="17" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="257" spans="1:104" ht="51">
+      <c r="K256" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L256" s="17" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="257" spans="1:102" ht="51">
       <c r="A257" t="s">
         <v>589</v>
       </c>
@@ -14451,8 +17265,14 @@
       <c r="J257" s="17" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="258" spans="1:104" ht="51">
+      <c r="K257" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L257" s="17" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="258" spans="1:102" ht="51">
       <c r="A258" t="s">
         <v>589</v>
       </c>
@@ -14471,8 +17291,14 @@
       <c r="J258" s="17" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="259" spans="1:104" ht="51">
+      <c r="K258" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L258" s="17" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="259" spans="1:102" ht="51">
       <c r="A259" t="s">
         <v>589</v>
       </c>
@@ -14491,8 +17317,14 @@
       <c r="J259" s="17" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="260" spans="1:104" ht="68">
+      <c r="K259" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L259" s="17" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="260" spans="1:102" ht="68">
       <c r="A260" t="s">
         <v>589</v>
       </c>
@@ -14511,8 +17343,14 @@
       <c r="J260" s="17" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="261" spans="1:104" ht="51">
+      <c r="K260" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L260" s="17" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="261" spans="1:102" ht="51">
       <c r="A261" t="s">
         <v>589</v>
       </c>
@@ -14531,8 +17369,14 @@
       <c r="J261" s="17" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="262" spans="1:104" s="8" customFormat="1" ht="68">
+      <c r="K261" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L261" s="17" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="262" spans="1:102" s="8" customFormat="1" ht="68">
       <c r="B262" s="8">
         <v>1</v>
       </c>
@@ -14554,8 +17398,12 @@
         <v>1594</v>
       </c>
       <c r="J262" s="17"/>
-      <c r="K262"/>
-      <c r="L262"/>
+      <c r="K262" s="20" t="s">
+        <v>1817</v>
+      </c>
+      <c r="L262" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M262"/>
       <c r="N262"/>
       <c r="O262"/>
@@ -14646,10 +17494,8 @@
       <c r="CV262"/>
       <c r="CW262"/>
       <c r="CX262"/>
-      <c r="CY262"/>
-      <c r="CZ262"/>
-    </row>
-    <row r="263" spans="1:104" s="10" customFormat="1" ht="68">
+    </row>
+    <row r="263" spans="1:102" s="10" customFormat="1" ht="68">
       <c r="A263" s="10" t="s">
         <v>589</v>
       </c>
@@ -14670,8 +17516,12 @@
       <c r="J263" s="17" t="s">
         <v>1595</v>
       </c>
-      <c r="K263"/>
-      <c r="L263"/>
+      <c r="K263" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L263" s="17" t="s">
+        <v>2072</v>
+      </c>
       <c r="M263"/>
       <c r="N263"/>
       <c r="O263"/>
@@ -14762,10 +17612,8 @@
       <c r="CV263"/>
       <c r="CW263"/>
       <c r="CX263"/>
-      <c r="CY263"/>
-      <c r="CZ263"/>
-    </row>
-    <row r="264" spans="1:104" s="10" customFormat="1" ht="51">
+    </row>
+    <row r="264" spans="1:102" s="10" customFormat="1" ht="51">
       <c r="A264" s="10" t="s">
         <v>589</v>
       </c>
@@ -14788,8 +17636,12 @@
       <c r="J264" s="17" t="s">
         <v>1596</v>
       </c>
-      <c r="K264"/>
-      <c r="L264"/>
+      <c r="K264" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L264" s="17" t="s">
+        <v>2073</v>
+      </c>
       <c r="M264"/>
       <c r="N264"/>
       <c r="O264"/>
@@ -14880,10 +17732,8 @@
       <c r="CV264"/>
       <c r="CW264"/>
       <c r="CX264"/>
-      <c r="CY264"/>
-      <c r="CZ264"/>
-    </row>
-    <row r="265" spans="1:104" ht="51">
+    </row>
+    <row r="265" spans="1:102" ht="51">
       <c r="A265" t="s">
         <v>589</v>
       </c>
@@ -14902,8 +17752,14 @@
       <c r="J265" s="17" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="266" spans="1:104" ht="51">
+      <c r="K265" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L265" s="17" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="266" spans="1:102" ht="51">
       <c r="A266" t="s">
         <v>589</v>
       </c>
@@ -14922,8 +17778,14 @@
       <c r="J266" s="17" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="267" spans="1:104" ht="34">
+      <c r="K266" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L266" s="17" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="267" spans="1:102" ht="34">
       <c r="A267" t="s">
         <v>589</v>
       </c>
@@ -14942,8 +17804,14 @@
       <c r="J267" s="17" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="268" spans="1:104" ht="51">
+      <c r="K267" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L267" s="17" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="268" spans="1:102" ht="51">
       <c r="A268" t="s">
         <v>589</v>
       </c>
@@ -14962,8 +17830,14 @@
       <c r="J268" s="17" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="269" spans="1:104" ht="34">
+      <c r="K268" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L268" s="17" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="269" spans="1:102" ht="34">
       <c r="A269" t="s">
         <v>589</v>
       </c>
@@ -14982,8 +17856,14 @@
       <c r="J269" s="17" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="270" spans="1:104" ht="34">
+      <c r="K269" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L269" s="17" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="270" spans="1:102" ht="34">
       <c r="A270" t="s">
         <v>589</v>
       </c>
@@ -15002,8 +17882,14 @@
       <c r="J270" s="17" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="271" spans="1:104" s="10" customFormat="1" ht="51">
+      <c r="K270" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="271" spans="1:102" s="10" customFormat="1" ht="51">
       <c r="A271" s="10" t="s">
         <v>589</v>
       </c>
@@ -15024,8 +17910,12 @@
       <c r="J271" s="17" t="s">
         <v>1603</v>
       </c>
-      <c r="K271"/>
-      <c r="L271"/>
+      <c r="K271" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L271" s="17" t="s">
+        <v>2080</v>
+      </c>
       <c r="M271"/>
       <c r="N271"/>
       <c r="O271"/>
@@ -15116,10 +18006,8 @@
       <c r="CV271"/>
       <c r="CW271"/>
       <c r="CX271"/>
-      <c r="CY271"/>
-      <c r="CZ271"/>
-    </row>
-    <row r="272" spans="1:104" s="8" customFormat="1" ht="51">
+    </row>
+    <row r="272" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B272" s="8">
         <v>1</v>
       </c>
@@ -15141,8 +18029,12 @@
         <v>1604</v>
       </c>
       <c r="J272" s="17"/>
-      <c r="K272"/>
-      <c r="L272"/>
+      <c r="K272" s="20" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M272"/>
       <c r="N272"/>
       <c r="O272"/>
@@ -15233,10 +18125,8 @@
       <c r="CV272"/>
       <c r="CW272"/>
       <c r="CX272"/>
-      <c r="CY272"/>
-      <c r="CZ272"/>
-    </row>
-    <row r="273" spans="1:104" s="10" customFormat="1" ht="34">
+    </row>
+    <row r="273" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B273" s="10">
         <v>2</v>
       </c>
@@ -15256,8 +18146,12 @@
         <v>1605</v>
       </c>
       <c r="J273" s="17"/>
-      <c r="K273"/>
-      <c r="L273"/>
+      <c r="K273" s="19" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L273" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M273"/>
       <c r="N273"/>
       <c r="O273"/>
@@ -15348,10 +18242,8 @@
       <c r="CV273"/>
       <c r="CW273"/>
       <c r="CX273"/>
-      <c r="CY273"/>
-      <c r="CZ273"/>
-    </row>
-    <row r="274" spans="1:104" ht="85">
+    </row>
+    <row r="274" spans="1:102" ht="85">
       <c r="A274" t="s">
         <v>589</v>
       </c>
@@ -15370,8 +18262,14 @@
       <c r="J274" s="17" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="275" spans="1:104" ht="68">
+      <c r="K274" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L274" s="17" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="275" spans="1:102" ht="68">
       <c r="A275" t="s">
         <v>589</v>
       </c>
@@ -15393,8 +18291,14 @@
       <c r="J275" s="17" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="276" spans="1:104" ht="34">
+      <c r="K275" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L275" s="17" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="276" spans="1:102" ht="34">
       <c r="A276" t="s">
         <v>589</v>
       </c>
@@ -15413,8 +18317,14 @@
       <c r="J276" s="17" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="277" spans="1:104" ht="51">
+      <c r="K276" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L276" s="17" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="277" spans="1:102" ht="51">
       <c r="A277" t="s">
         <v>589</v>
       </c>
@@ -15433,8 +18343,14 @@
       <c r="J277" s="17" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="278" spans="1:104" ht="68">
+      <c r="K277" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L277" s="17" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="278" spans="1:102" ht="68">
       <c r="A278" t="s">
         <v>589</v>
       </c>
@@ -15453,8 +18369,14 @@
       <c r="J278" s="17" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="279" spans="1:104" ht="68">
+      <c r="K278" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L278" s="17" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="279" spans="1:102" ht="68">
       <c r="A279" t="s">
         <v>589</v>
       </c>
@@ -15473,8 +18395,14 @@
       <c r="J279" s="17" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="280" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K279" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L279" s="17" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="280" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B280" s="10">
         <v>2</v>
       </c>
@@ -15496,8 +18424,12 @@
         <v>1612</v>
       </c>
       <c r="J280" s="17"/>
-      <c r="K280"/>
-      <c r="L280"/>
+      <c r="K280" s="19" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L280" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M280"/>
       <c r="N280"/>
       <c r="O280"/>
@@ -15588,10 +18520,8 @@
       <c r="CV280"/>
       <c r="CW280"/>
       <c r="CX280"/>
-      <c r="CY280"/>
-      <c r="CZ280"/>
-    </row>
-    <row r="281" spans="1:104" ht="51">
+    </row>
+    <row r="281" spans="1:102" ht="51">
       <c r="A281" t="s">
         <v>589</v>
       </c>
@@ -15610,8 +18540,14 @@
       <c r="J281" s="17" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="282" spans="1:104" ht="85">
+      <c r="K281" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L281" s="17" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="282" spans="1:102" ht="85">
       <c r="A282" t="s">
         <v>589</v>
       </c>
@@ -15630,8 +18566,14 @@
       <c r="J282" s="17" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="283" spans="1:104" ht="51">
+      <c r="K282" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L282" s="17" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="283" spans="1:102" ht="51">
       <c r="A283" t="s">
         <v>589</v>
       </c>
@@ -15653,8 +18595,14 @@
       <c r="J283" s="17" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="284" spans="1:104" ht="51">
+      <c r="K283" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L283" s="17" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="284" spans="1:102" ht="51">
       <c r="A284" t="s">
         <v>589</v>
       </c>
@@ -15673,8 +18621,14 @@
       <c r="J284" s="17" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="285" spans="1:104" ht="34">
+      <c r="K284" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L284" s="17" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="285" spans="1:102" ht="34">
       <c r="A285" t="s">
         <v>589</v>
       </c>
@@ -15693,8 +18647,14 @@
       <c r="J285" s="17" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="286" spans="1:104" ht="34">
+      <c r="K285" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L285" s="17" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="286" spans="1:102" ht="34">
       <c r="A286" t="s">
         <v>589</v>
       </c>
@@ -15713,8 +18673,14 @@
       <c r="J286" s="17" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="287" spans="1:104" ht="51">
+      <c r="K286" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L286" s="17" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="287" spans="1:102" ht="51">
       <c r="A287" t="s">
         <v>589</v>
       </c>
@@ -15733,8 +18699,14 @@
       <c r="J287" s="17" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="288" spans="1:104" ht="51">
+      <c r="K287" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L287" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="288" spans="1:102" ht="51">
       <c r="A288" t="s">
         <v>589</v>
       </c>
@@ -15753,8 +18725,14 @@
       <c r="J288" s="17" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="289" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K288" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L288" s="17" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="289" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B289" s="8">
         <v>1</v>
       </c>
@@ -15776,8 +18754,12 @@
         <v>1621</v>
       </c>
       <c r="J289" s="17"/>
-      <c r="K289"/>
-      <c r="L289"/>
+      <c r="K289" s="20" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L289" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M289"/>
       <c r="N289"/>
       <c r="O289"/>
@@ -15868,10 +18850,8 @@
       <c r="CV289"/>
       <c r="CW289"/>
       <c r="CX289"/>
-      <c r="CY289"/>
-      <c r="CZ289"/>
-    </row>
-    <row r="290" spans="1:104" s="10" customFormat="1" ht="102">
+    </row>
+    <row r="290" spans="1:102" s="10" customFormat="1" ht="102">
       <c r="A290" s="10" t="s">
         <v>589</v>
       </c>
@@ -15894,8 +18874,12 @@
       <c r="J290" s="17" t="s">
         <v>1622</v>
       </c>
-      <c r="K290"/>
-      <c r="L290"/>
+      <c r="K290" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L290" s="17" t="s">
+        <v>2095</v>
+      </c>
       <c r="M290"/>
       <c r="N290"/>
       <c r="O290"/>
@@ -15986,10 +18970,8 @@
       <c r="CV290"/>
       <c r="CW290"/>
       <c r="CX290"/>
-      <c r="CY290"/>
-      <c r="CZ290"/>
-    </row>
-    <row r="291" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="291" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="A291"/>
       <c r="B291" s="10">
         <v>2</v>
@@ -16010,8 +18992,12 @@
       <c r="J291" s="17" t="s">
         <v>1623</v>
       </c>
-      <c r="K291"/>
-      <c r="L291"/>
+      <c r="K291" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L291" s="17" t="s">
+        <v>2096</v>
+      </c>
       <c r="M291"/>
       <c r="N291"/>
       <c r="O291"/>
@@ -16102,10 +19088,8 @@
       <c r="CV291"/>
       <c r="CW291"/>
       <c r="CX291"/>
-      <c r="CY291"/>
-      <c r="CZ291"/>
-    </row>
-    <row r="292" spans="1:104" ht="68">
+    </row>
+    <row r="292" spans="1:102" ht="68">
       <c r="A292" t="s">
         <v>589</v>
       </c>
@@ -16124,8 +19108,14 @@
       <c r="J292" s="17" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="293" spans="1:104" ht="85">
+      <c r="K292" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L292" s="17" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="293" spans="1:102" ht="85">
       <c r="A293" t="s">
         <v>589</v>
       </c>
@@ -16144,8 +19134,14 @@
       <c r="J293" s="17" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="294" spans="1:104" ht="34">
+      <c r="K293" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L293" s="17" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="294" spans="1:102" ht="34">
       <c r="A294" t="s">
         <v>589</v>
       </c>
@@ -16164,8 +19160,14 @@
       <c r="J294" s="17" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="295" spans="1:104" ht="34">
+      <c r="K294" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L294" s="17" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="295" spans="1:102" ht="34">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -16184,8 +19186,14 @@
       <c r="J295" s="17" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="296" spans="1:104" ht="34">
+      <c r="K295" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L295" s="17" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:102" ht="34">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -16204,8 +19212,14 @@
       <c r="J296" s="17" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="297" spans="1:104" ht="34">
+      <c r="K296" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L296" s="17" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:102" ht="34">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -16224,8 +19238,14 @@
       <c r="J297" s="17" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="298" spans="1:104" ht="34">
+      <c r="K297" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L297" s="17" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:102" ht="34">
       <c r="A298" t="s">
         <v>589</v>
       </c>
@@ -16244,8 +19264,14 @@
       <c r="J298" s="17" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="299" spans="1:104" ht="34">
+      <c r="K298" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L298" s="17" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:102" ht="34">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -16264,8 +19290,14 @@
       <c r="J299" s="17" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="300" spans="1:104" ht="34">
+      <c r="K299" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L299" s="17" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:102" ht="34">
       <c r="A300" t="s">
         <v>589</v>
       </c>
@@ -16284,8 +19316,14 @@
       <c r="J300" s="17" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="301" spans="1:104" ht="34">
+      <c r="K300" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L300" s="17" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="301" spans="1:102" ht="34">
       <c r="A301" t="s">
         <v>589</v>
       </c>
@@ -16304,8 +19342,14 @@
       <c r="J301" s="17" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="302" spans="1:104" ht="34">
+      <c r="K301" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L301" s="17" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="302" spans="1:102" ht="34">
       <c r="A302" t="s">
         <v>589</v>
       </c>
@@ -16324,8 +19368,14 @@
       <c r="J302" s="17" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="303" spans="1:104" ht="34">
+      <c r="K302" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L302" s="17" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="303" spans="1:102" ht="34">
       <c r="A303" t="s">
         <v>589</v>
       </c>
@@ -16344,8 +19394,14 @@
       <c r="J303" s="17" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="304" spans="1:104" ht="34">
+      <c r="K303" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L303" s="17" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="304" spans="1:102" ht="34">
       <c r="A304" t="s">
         <v>589</v>
       </c>
@@ -16364,8 +19420,14 @@
       <c r="J304" s="17" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="305" spans="1:104" ht="34">
+      <c r="K304" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L304" s="17" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="305" spans="1:102" ht="34">
       <c r="A305" t="s">
         <v>589</v>
       </c>
@@ -16384,8 +19446,14 @@
       <c r="J305" s="17" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="306" spans="1:104" ht="51">
+      <c r="K305" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L305" s="17" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:102" ht="51">
       <c r="A306" t="s">
         <v>589</v>
       </c>
@@ -16404,8 +19472,14 @@
       <c r="J306" s="17" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="307" spans="1:104" ht="51">
+      <c r="K306" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L306" s="17" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="307" spans="1:102" ht="51">
       <c r="A307" t="s">
         <v>589</v>
       </c>
@@ -16424,8 +19498,14 @@
       <c r="J307" s="17" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="308" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K307" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L307" s="17" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="308" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B308" s="8">
         <v>1</v>
       </c>
@@ -16447,8 +19527,12 @@
         <v>1640</v>
       </c>
       <c r="J308" s="17"/>
-      <c r="K308"/>
-      <c r="L308"/>
+      <c r="K308" s="20" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L308" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M308"/>
       <c r="N308"/>
       <c r="O308"/>
@@ -16539,10 +19623,8 @@
       <c r="CV308"/>
       <c r="CW308"/>
       <c r="CX308"/>
-      <c r="CY308"/>
-      <c r="CZ308"/>
-    </row>
-    <row r="309" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="309" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B309" s="10">
         <v>2</v>
       </c>
@@ -16564,8 +19646,12 @@
         <v>1641</v>
       </c>
       <c r="J309" s="17"/>
-      <c r="K309"/>
-      <c r="L309"/>
+      <c r="K309" s="19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L309" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M309"/>
       <c r="N309"/>
       <c r="O309"/>
@@ -16656,10 +19742,8 @@
       <c r="CV309"/>
       <c r="CW309"/>
       <c r="CX309"/>
-      <c r="CY309"/>
-      <c r="CZ309"/>
-    </row>
-    <row r="310" spans="1:104" ht="102">
+    </row>
+    <row r="310" spans="1:102" ht="102">
       <c r="A310" t="s">
         <v>589</v>
       </c>
@@ -16678,8 +19762,14 @@
       <c r="J310" s="17" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="311" spans="1:104" ht="17">
+      <c r="K310" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L310" s="17" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="311" spans="1:102" ht="17">
       <c r="B311">
         <v>3</v>
       </c>
@@ -16698,8 +19788,14 @@
       <c r="J311" s="17" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="312" spans="1:104" ht="68">
+      <c r="K311" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L311" s="17" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:102" ht="68">
       <c r="A312" t="s">
         <v>589</v>
       </c>
@@ -16721,8 +19817,14 @@
       <c r="J312" s="17" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="313" spans="1:104" ht="51">
+      <c r="K312" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L312" s="17" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="313" spans="1:102" ht="51">
       <c r="A313" t="s">
         <v>589</v>
       </c>
@@ -16741,8 +19843,14 @@
       <c r="J313" s="17" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="314" spans="1:104" ht="68">
+      <c r="K313" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L313" s="17" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="314" spans="1:102" ht="68">
       <c r="A314" t="s">
         <v>589</v>
       </c>
@@ -16761,8 +19869,14 @@
       <c r="J314" s="17" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="315" spans="1:104" ht="51">
+      <c r="K314" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L314" s="17" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="315" spans="1:102" ht="51">
       <c r="A315" t="s">
         <v>589</v>
       </c>
@@ -16781,8 +19895,14 @@
       <c r="J315" s="17" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="316" spans="1:104" ht="68">
+      <c r="K315" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L315" s="17" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="316" spans="1:102" ht="68">
       <c r="A316" t="s">
         <v>589</v>
       </c>
@@ -16804,8 +19924,14 @@
       <c r="J316" s="17" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="317" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K316" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L316" s="17" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="317" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B317" s="10">
         <v>2</v>
       </c>
@@ -16827,8 +19953,12 @@
         <v>1649</v>
       </c>
       <c r="J317" s="17"/>
-      <c r="K317"/>
-      <c r="L317"/>
+      <c r="K317" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L317" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M317"/>
       <c r="N317"/>
       <c r="O317"/>
@@ -16919,10 +20049,8 @@
       <c r="CV317"/>
       <c r="CW317"/>
       <c r="CX317"/>
-      <c r="CY317"/>
-      <c r="CZ317"/>
-    </row>
-    <row r="318" spans="1:104" ht="68">
+    </row>
+    <row r="318" spans="1:102" ht="68">
       <c r="A318" t="s">
         <v>589</v>
       </c>
@@ -16944,8 +20072,14 @@
       <c r="J318" s="17" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="319" spans="1:104" ht="17">
+      <c r="K318" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L318" s="17" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="319" spans="1:102" ht="17">
       <c r="B319">
         <v>3</v>
       </c>
@@ -16964,8 +20098,14 @@
       <c r="J319" s="17" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="320" spans="1:104" ht="51">
+      <c r="K319" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L319" s="17" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="320" spans="1:102" ht="51">
       <c r="A320" t="s">
         <v>589</v>
       </c>
@@ -16984,8 +20124,14 @@
       <c r="J320" s="17" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="321" spans="1:104" ht="102">
+      <c r="K320" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L320" s="17" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:102" ht="102">
       <c r="A321" t="s">
         <v>589</v>
       </c>
@@ -17007,8 +20153,14 @@
       <c r="J321" s="17" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="322" spans="1:104" ht="34">
+      <c r="K321" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L321" s="17" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="322" spans="1:102" ht="34">
       <c r="A322" t="s">
         <v>589</v>
       </c>
@@ -17027,8 +20179,14 @@
       <c r="J322" s="17" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="323" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K322" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L322" s="17" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="323" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B323" s="10">
         <v>2</v>
       </c>
@@ -17050,8 +20208,12 @@
         <v>1655</v>
       </c>
       <c r="J323" s="17"/>
-      <c r="K323"/>
-      <c r="L323"/>
+      <c r="K323" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="L323" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M323"/>
       <c r="N323"/>
       <c r="O323"/>
@@ -17142,10 +20304,8 @@
       <c r="CV323"/>
       <c r="CW323"/>
       <c r="CX323"/>
-      <c r="CY323"/>
-      <c r="CZ323"/>
-    </row>
-    <row r="324" spans="1:104" ht="51">
+    </row>
+    <row r="324" spans="1:102" ht="51">
       <c r="A324" t="s">
         <v>589</v>
       </c>
@@ -17164,8 +20324,14 @@
       <c r="J324" s="17" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="325" spans="1:104" ht="68">
+      <c r="K324" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L324" s="17" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:102" ht="68">
       <c r="A325" t="s">
         <v>589</v>
       </c>
@@ -17187,8 +20353,14 @@
       <c r="J325" s="17" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="326" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K325" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L325" s="17" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="326" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B326" s="10">
         <v>2</v>
       </c>
@@ -17210,8 +20382,12 @@
         <v>1658</v>
       </c>
       <c r="J326" s="17"/>
-      <c r="K326"/>
-      <c r="L326"/>
+      <c r="K326" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L326" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M326"/>
       <c r="N326"/>
       <c r="O326"/>
@@ -17302,10 +20478,8 @@
       <c r="CV326"/>
       <c r="CW326"/>
       <c r="CX326"/>
-      <c r="CY326"/>
-      <c r="CZ326"/>
-    </row>
-    <row r="327" spans="1:104" ht="68">
+    </row>
+    <row r="327" spans="1:102" ht="68">
       <c r="A327" t="s">
         <v>589</v>
       </c>
@@ -17324,8 +20498,14 @@
       <c r="J327" s="17" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="328" spans="1:104" ht="51">
+      <c r="K327" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L327" s="17" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:102" ht="51">
       <c r="A328" t="s">
         <v>589</v>
       </c>
@@ -17344,8 +20524,14 @@
       <c r="J328" s="17" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="329" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K328" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L328" s="17" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="329" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B329" s="8">
         <v>1</v>
       </c>
@@ -17367,8 +20553,12 @@
         <v>1661</v>
       </c>
       <c r="J329" s="17"/>
-      <c r="K329"/>
-      <c r="L329"/>
+      <c r="K329" s="20" t="s">
+        <v>1826</v>
+      </c>
+      <c r="L329" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M329"/>
       <c r="N329"/>
       <c r="O329"/>
@@ -17459,10 +20649,8 @@
       <c r="CV329"/>
       <c r="CW329"/>
       <c r="CX329"/>
-      <c r="CY329"/>
-      <c r="CZ329"/>
-    </row>
-    <row r="330" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="330" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B330" s="10">
         <v>2</v>
       </c>
@@ -17484,8 +20672,12 @@
         <v>1662</v>
       </c>
       <c r="J330" s="17"/>
-      <c r="K330"/>
-      <c r="L330"/>
+      <c r="K330" s="19" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L330" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M330"/>
       <c r="N330"/>
       <c r="O330"/>
@@ -17576,10 +20768,8 @@
       <c r="CV330"/>
       <c r="CW330"/>
       <c r="CX330"/>
-      <c r="CY330"/>
-      <c r="CZ330"/>
-    </row>
-    <row r="331" spans="1:104" ht="85">
+    </row>
+    <row r="331" spans="1:102" ht="85">
       <c r="A331" t="s">
         <v>589</v>
       </c>
@@ -17598,8 +20788,14 @@
       <c r="J331" s="17" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="332" spans="1:104" ht="17">
+      <c r="K331" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L331" s="17" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:102" ht="17">
       <c r="B332">
         <v>3</v>
       </c>
@@ -17618,8 +20814,14 @@
       <c r="J332" s="17" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="333" spans="1:104" ht="51">
+      <c r="K332" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L332" s="17" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="333" spans="1:102" ht="51">
       <c r="A333" t="s">
         <v>589</v>
       </c>
@@ -17638,8 +20840,14 @@
       <c r="J333" s="17" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="334" spans="1:104" ht="34">
+      <c r="K333" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L333" s="17" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="334" spans="1:102" ht="34">
       <c r="A334" t="s">
         <v>589</v>
       </c>
@@ -17658,8 +20866,14 @@
       <c r="J334" s="17" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="335" spans="1:104" ht="34">
+      <c r="K334" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L334" s="17" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:102" ht="34">
       <c r="A335" t="s">
         <v>589</v>
       </c>
@@ -17678,8 +20892,14 @@
       <c r="J335" s="17" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="336" spans="1:104" ht="51">
+      <c r="K335" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L335" s="17" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="336" spans="1:102" ht="51">
       <c r="A336" t="s">
         <v>589</v>
       </c>
@@ -17698,8 +20918,14 @@
       <c r="J336" s="17" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="337" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K336" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L336" s="17" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="337" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B337" s="10">
         <v>2</v>
       </c>
@@ -17721,8 +20947,12 @@
         <v>1669</v>
       </c>
       <c r="J337" s="17"/>
-      <c r="K337"/>
-      <c r="L337"/>
+      <c r="K337" s="19" t="s">
+        <v>1828</v>
+      </c>
+      <c r="L337" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M337"/>
       <c r="N337"/>
       <c r="O337"/>
@@ -17813,10 +21043,8 @@
       <c r="CV337"/>
       <c r="CW337"/>
       <c r="CX337"/>
-      <c r="CY337"/>
-      <c r="CZ337"/>
-    </row>
-    <row r="338" spans="1:104" ht="51">
+    </row>
+    <row r="338" spans="1:102" ht="51">
       <c r="A338" t="s">
         <v>589</v>
       </c>
@@ -17838,8 +21066,14 @@
       <c r="J338" s="17" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="339" spans="1:104" ht="17">
+      <c r="K338" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L338" s="17" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="339" spans="1:102" ht="17">
       <c r="B339">
         <v>3</v>
       </c>
@@ -17855,8 +21089,14 @@
       <c r="J339" s="17" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="340" spans="1:104" ht="51">
+      <c r="K339" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L339" s="17" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="340" spans="1:102" ht="51">
       <c r="A340" t="s">
         <v>589</v>
       </c>
@@ -17875,8 +21115,14 @@
       <c r="J340" s="17" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="341" spans="1:104" ht="51">
+      <c r="K340" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L340" s="17" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="341" spans="1:102" ht="51">
       <c r="A341" t="s">
         <v>589</v>
       </c>
@@ -17895,8 +21141,14 @@
       <c r="J341" s="17" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="342" spans="1:104" ht="34">
+      <c r="K341" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L341" s="17" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="342" spans="1:102" ht="34">
       <c r="A342" t="s">
         <v>589</v>
       </c>
@@ -17915,8 +21167,14 @@
       <c r="J342" s="17" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="343" spans="1:104" ht="68">
+      <c r="K342" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L342" s="17" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="343" spans="1:102" ht="68">
       <c r="A343" t="s">
         <v>589</v>
       </c>
@@ -17935,8 +21193,14 @@
       <c r="J343" s="17" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="344" spans="1:104" ht="34">
+      <c r="K343" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L343" s="17" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="344" spans="1:102" ht="34">
       <c r="A344" t="s">
         <v>589</v>
       </c>
@@ -17955,8 +21219,14 @@
       <c r="J344" s="17" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="345" spans="1:104" ht="34">
+      <c r="K344" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L344" s="17" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:102" ht="34">
       <c r="A345" t="s">
         <v>589</v>
       </c>
@@ -17975,8 +21245,14 @@
       <c r="J345" s="17" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="346" spans="1:104" ht="68">
+      <c r="K345" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L345" s="17" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:102" ht="68">
       <c r="A346" t="s">
         <v>589</v>
       </c>
@@ -17995,8 +21271,14 @@
       <c r="J346" s="17" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="347" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K346" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L346" s="17" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="347" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B347" s="10">
         <v>2</v>
       </c>
@@ -18018,8 +21300,12 @@
         <v>1678</v>
       </c>
       <c r="J347" s="17"/>
-      <c r="K347"/>
-      <c r="L347"/>
+      <c r="K347" s="19" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L347" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M347"/>
       <c r="N347"/>
       <c r="O347"/>
@@ -18110,10 +21396,8 @@
       <c r="CV347"/>
       <c r="CW347"/>
       <c r="CX347"/>
-      <c r="CY347"/>
-      <c r="CZ347"/>
-    </row>
-    <row r="348" spans="1:104" ht="51">
+    </row>
+    <row r="348" spans="1:102" ht="51">
       <c r="A348" t="s">
         <v>589</v>
       </c>
@@ -18135,8 +21419,14 @@
       <c r="J348" s="17" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="349" spans="1:104" ht="17">
+      <c r="K348" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L348" s="17" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="349" spans="1:102" ht="17">
       <c r="B349">
         <v>3</v>
       </c>
@@ -18155,8 +21445,14 @@
       <c r="J349" s="17" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="350" spans="1:104" ht="51">
+      <c r="K349" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L349" s="17" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="350" spans="1:102" ht="51">
       <c r="A350" t="s">
         <v>589</v>
       </c>
@@ -18175,8 +21471,14 @@
       <c r="J350" s="17" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="351" spans="1:104" ht="51">
+      <c r="K350" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L350" s="17" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="351" spans="1:102" ht="51">
       <c r="A351" t="s">
         <v>589</v>
       </c>
@@ -18195,8 +21497,14 @@
       <c r="J351" s="17" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="352" spans="1:104" ht="34">
+      <c r="K351" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L351" s="17" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="352" spans="1:102" ht="34">
       <c r="A352" t="s">
         <v>589</v>
       </c>
@@ -18215,8 +21523,14 @@
       <c r="J352" s="17" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="353" spans="1:104" ht="51">
+      <c r="K352" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L352" s="17" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="353" spans="1:102" ht="51">
       <c r="A353" t="s">
         <v>589</v>
       </c>
@@ -18235,8 +21549,14 @@
       <c r="J353" s="17" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="354" spans="1:104" ht="68">
+      <c r="K353" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L353" s="17" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:102" ht="68">
       <c r="A354" t="s">
         <v>589</v>
       </c>
@@ -18255,8 +21575,14 @@
       <c r="J354" s="17" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="355" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K354" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L354" s="17" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="355" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B355" s="10">
         <v>2</v>
       </c>
@@ -18278,8 +21604,12 @@
         <v>1686</v>
       </c>
       <c r="J355" s="17"/>
-      <c r="K355"/>
-      <c r="L355"/>
+      <c r="K355" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L355" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M355"/>
       <c r="N355"/>
       <c r="O355"/>
@@ -18370,10 +21700,8 @@
       <c r="CV355"/>
       <c r="CW355"/>
       <c r="CX355"/>
-      <c r="CY355"/>
-      <c r="CZ355"/>
-    </row>
-    <row r="356" spans="1:104" ht="34">
+    </row>
+    <row r="356" spans="1:102" ht="34">
       <c r="A356" t="s">
         <v>589</v>
       </c>
@@ -18395,8 +21723,14 @@
       <c r="J356" s="17" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="357" spans="1:104" ht="17">
+      <c r="K356" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L356" s="17" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:102" ht="17">
       <c r="B357">
         <v>3</v>
       </c>
@@ -18412,8 +21746,14 @@
       <c r="J357" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="358" spans="1:104" ht="51">
+      <c r="K357" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L357" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="358" spans="1:102" ht="51">
       <c r="A358" t="s">
         <v>589</v>
       </c>
@@ -18432,8 +21772,14 @@
       <c r="J358" s="17" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="359" spans="1:104" ht="51">
+      <c r="K358" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L358" s="17" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="359" spans="1:102" ht="51">
       <c r="A359" t="s">
         <v>589</v>
       </c>
@@ -18452,8 +21798,14 @@
       <c r="J359" s="17" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="360" spans="1:104" ht="34">
+      <c r="K359" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L359" s="17" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="360" spans="1:102" ht="34">
       <c r="A360" t="s">
         <v>589</v>
       </c>
@@ -18472,8 +21824,14 @@
       <c r="J360" s="17" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="361" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K360" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L360" s="17" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="361" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B361" s="10">
         <v>2</v>
       </c>
@@ -18495,8 +21853,12 @@
         <v>1691</v>
       </c>
       <c r="J361" s="17"/>
-      <c r="K361"/>
-      <c r="L361"/>
+      <c r="K361" s="19" t="s">
+        <v>1831</v>
+      </c>
+      <c r="L361" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M361"/>
       <c r="N361"/>
       <c r="O361"/>
@@ -18587,10 +21949,8 @@
       <c r="CV361"/>
       <c r="CW361"/>
       <c r="CX361"/>
-      <c r="CY361"/>
-      <c r="CZ361"/>
-    </row>
-    <row r="362" spans="1:104" ht="34">
+    </row>
+    <row r="362" spans="1:102" ht="34">
       <c r="A362" t="s">
         <v>589</v>
       </c>
@@ -18609,8 +21969,14 @@
       <c r="J362" s="17" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="363" spans="1:104" ht="17">
+      <c r="K362" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L362" s="17" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="363" spans="1:102" ht="17">
       <c r="B363">
         <v>3</v>
       </c>
@@ -18626,8 +21992,14 @@
       <c r="J363" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="364" spans="1:104" ht="34">
+      <c r="K363" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L363" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="364" spans="1:102" ht="34">
       <c r="A364" t="s">
         <v>589</v>
       </c>
@@ -18646,8 +22018,14 @@
       <c r="J364" s="17" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="365" spans="1:104" ht="34">
+      <c r="K364" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L364" s="17" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="365" spans="1:102" ht="34">
       <c r="A365" t="s">
         <v>589</v>
       </c>
@@ -18666,8 +22044,14 @@
       <c r="J365" s="17" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="366" spans="1:104" ht="34">
+      <c r="K365" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L365" s="17" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="366" spans="1:102" ht="34">
       <c r="A366" t="s">
         <v>589</v>
       </c>
@@ -18686,8 +22070,14 @@
       <c r="J366" s="17" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="367" spans="1:104" ht="34">
+      <c r="K366" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L366" s="17" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:102" ht="34">
       <c r="A367" t="s">
         <v>589</v>
       </c>
@@ -18706,8 +22096,14 @@
       <c r="J367" s="17" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="368" spans="1:104" ht="102">
+      <c r="K367" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L367" s="17" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="368" spans="1:102" ht="102">
       <c r="A368" t="s">
         <v>589</v>
       </c>
@@ -18729,8 +22125,14 @@
       <c r="J368" s="17" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="369" spans="1:104" ht="51">
+      <c r="K368" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L368" s="17" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="369" spans="1:102" ht="51">
       <c r="A369" t="s">
         <v>589</v>
       </c>
@@ -18749,8 +22151,14 @@
       <c r="J369" s="17" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="370" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K369" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L369" s="17" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="370" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B370" s="10">
         <v>2</v>
       </c>
@@ -18772,8 +22180,12 @@
         <v>1699</v>
       </c>
       <c r="J370" s="17"/>
-      <c r="K370"/>
-      <c r="L370"/>
+      <c r="K370" s="19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L370" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M370"/>
       <c r="N370"/>
       <c r="O370"/>
@@ -18864,10 +22276,8 @@
       <c r="CV370"/>
       <c r="CW370"/>
       <c r="CX370"/>
-      <c r="CY370"/>
-      <c r="CZ370"/>
-    </row>
-    <row r="371" spans="1:104" ht="51">
+    </row>
+    <row r="371" spans="1:102" ht="51">
       <c r="A371" t="s">
         <v>589</v>
       </c>
@@ -18886,8 +22296,14 @@
       <c r="J371" s="17" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="372" spans="1:104" ht="17">
+      <c r="K371" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L371" s="17" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="372" spans="1:102" ht="17">
       <c r="B372">
         <v>3</v>
       </c>
@@ -18903,8 +22319,14 @@
       <c r="J372" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="373" spans="1:104" ht="34">
+      <c r="K372" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L372" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="373" spans="1:102" ht="34">
       <c r="A373" t="s">
         <v>589</v>
       </c>
@@ -18923,8 +22345,14 @@
       <c r="J373" s="17" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="374" spans="1:104" ht="68">
+      <c r="K373" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L373" s="17" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:102" ht="68">
       <c r="A374" t="s">
         <v>589</v>
       </c>
@@ -18943,8 +22371,14 @@
       <c r="J374" s="17" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="375" spans="1:104" ht="51">
+      <c r="K374" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L374" s="17" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="375" spans="1:102" ht="51">
       <c r="A375" t="s">
         <v>589</v>
       </c>
@@ -18963,8 +22397,14 @@
       <c r="J375" s="17" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="376" spans="1:104" ht="51">
+      <c r="K375" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L375" s="17" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="376" spans="1:102" ht="51">
       <c r="A376" t="s">
         <v>589</v>
       </c>
@@ -18983,8 +22423,14 @@
       <c r="J376" s="17" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="377" spans="1:104" ht="34">
+      <c r="K376" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L376" s="17" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="377" spans="1:102" ht="34">
       <c r="A377" t="s">
         <v>589</v>
       </c>
@@ -19003,8 +22449,14 @@
       <c r="J377" s="17" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="378" spans="1:104" ht="51">
+      <c r="K377" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L377" s="17" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="378" spans="1:102" ht="51">
       <c r="A378" t="s">
         <v>589</v>
       </c>
@@ -19023,8 +22475,14 @@
       <c r="J378" s="17" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="379" spans="1:104" ht="68">
+      <c r="K378" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L378" s="17" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="379" spans="1:102" ht="68">
       <c r="A379" t="s">
         <v>589</v>
       </c>
@@ -19043,8 +22501,14 @@
       <c r="J379" s="17" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="380" spans="1:104" ht="34">
+      <c r="K379" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L379" s="17" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="380" spans="1:102" ht="34">
       <c r="A380" t="s">
         <v>589</v>
       </c>
@@ -19063,8 +22527,14 @@
       <c r="J380" s="17" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="381" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K380" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L380" s="17" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="381" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B381" s="10">
         <v>2</v>
       </c>
@@ -19086,8 +22556,12 @@
         <v>1709</v>
       </c>
       <c r="J381" s="17"/>
-      <c r="K381"/>
-      <c r="L381"/>
+      <c r="K381" s="19" t="s">
+        <v>1833</v>
+      </c>
+      <c r="L381" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M381"/>
       <c r="N381"/>
       <c r="O381"/>
@@ -19178,10 +22652,8 @@
       <c r="CV381"/>
       <c r="CW381"/>
       <c r="CX381"/>
-      <c r="CY381"/>
-      <c r="CZ381"/>
-    </row>
-    <row r="382" spans="1:104" ht="68">
+    </row>
+    <row r="382" spans="1:102" ht="68">
       <c r="A382" t="s">
         <v>589</v>
       </c>
@@ -19200,8 +22672,14 @@
       <c r="J382" s="17" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="383" spans="1:104" ht="34">
+      <c r="K382" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L382" s="17" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="383" spans="1:102" ht="34">
       <c r="A383" t="s">
         <v>589</v>
       </c>
@@ -19220,8 +22698,14 @@
       <c r="J383" s="17" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="384" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K383" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L383" s="17" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="384" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B384" s="8">
         <v>1</v>
       </c>
@@ -19243,8 +22727,12 @@
         <v>1712</v>
       </c>
       <c r="J384" s="17"/>
-      <c r="K384"/>
-      <c r="L384"/>
+      <c r="K384" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="L384" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M384"/>
       <c r="N384"/>
       <c r="O384"/>
@@ -19335,10 +22823,8 @@
       <c r="CV384"/>
       <c r="CW384"/>
       <c r="CX384"/>
-      <c r="CY384"/>
-      <c r="CZ384"/>
-    </row>
-    <row r="385" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="385" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B385" s="10">
         <v>2</v>
       </c>
@@ -19360,8 +22846,12 @@
         <v>1713</v>
       </c>
       <c r="J385" s="17"/>
-      <c r="K385"/>
-      <c r="L385"/>
+      <c r="K385" s="19" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L385" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M385"/>
       <c r="N385"/>
       <c r="O385"/>
@@ -19452,10 +22942,8 @@
       <c r="CV385"/>
       <c r="CW385"/>
       <c r="CX385"/>
-      <c r="CY385"/>
-      <c r="CZ385"/>
-    </row>
-    <row r="386" spans="1:104" ht="68">
+    </row>
+    <row r="386" spans="1:102" ht="68">
       <c r="A386" t="s">
         <v>589</v>
       </c>
@@ -19474,8 +22962,14 @@
       <c r="J386" s="17" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="387" spans="1:104" ht="17">
+      <c r="K386" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L386" s="17" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="387" spans="1:102" ht="17">
       <c r="B387">
         <v>3</v>
       </c>
@@ -19494,8 +22988,14 @@
       <c r="J387" s="17" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="388" spans="1:104" ht="34">
+      <c r="K387" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L387" s="17" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="388" spans="1:102" ht="34">
       <c r="A388" t="s">
         <v>589</v>
       </c>
@@ -19514,8 +23014,14 @@
       <c r="J388" s="17" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="389" spans="1:104" ht="68">
+      <c r="K388" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L388" s="17" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="389" spans="1:102" ht="68">
       <c r="A389" t="s">
         <v>589</v>
       </c>
@@ -19534,8 +23040,14 @@
       <c r="J389" s="17" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="390" spans="1:104" ht="51">
+      <c r="K389" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L389" s="17" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="390" spans="1:102" ht="51">
       <c r="A390" t="s">
         <v>589</v>
       </c>
@@ -19554,8 +23066,14 @@
       <c r="J390" s="17" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="391" spans="1:104" ht="34">
+      <c r="K390" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L390" s="17" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="391" spans="1:102" ht="34">
       <c r="A391" t="s">
         <v>589</v>
       </c>
@@ -19574,8 +23092,14 @@
       <c r="J391" s="17" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="392" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K391" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L391" s="17" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="392" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B392" s="10">
         <v>2</v>
       </c>
@@ -19597,8 +23121,12 @@
         <v>1720</v>
       </c>
       <c r="J392" s="17"/>
-      <c r="K392"/>
-      <c r="L392"/>
+      <c r="K392" s="19" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L392" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M392"/>
       <c r="N392"/>
       <c r="O392"/>
@@ -19689,10 +23217,8 @@
       <c r="CV392"/>
       <c r="CW392"/>
       <c r="CX392"/>
-      <c r="CY392"/>
-      <c r="CZ392"/>
-    </row>
-    <row r="393" spans="1:104" ht="68">
+    </row>
+    <row r="393" spans="1:102" ht="68">
       <c r="A393" t="s">
         <v>589</v>
       </c>
@@ -19711,8 +23237,14 @@
       <c r="J393" s="17" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="394" spans="1:104" ht="17">
+      <c r="K393" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L393" s="17" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="394" spans="1:102" ht="17">
       <c r="B394">
         <v>3</v>
       </c>
@@ -19728,8 +23260,14 @@
       <c r="J394" s="17" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="395" spans="1:104" ht="51">
+      <c r="K394" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L394" s="17" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="395" spans="1:102" ht="51">
       <c r="A395" t="s">
         <v>589</v>
       </c>
@@ -19748,8 +23286,14 @@
       <c r="J395" s="17" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="396" spans="1:104" ht="51">
+      <c r="K395" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L395" s="17" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="396" spans="1:102" ht="51">
       <c r="A396" t="s">
         <v>589</v>
       </c>
@@ -19768,8 +23312,14 @@
       <c r="J396" s="17" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="397" spans="1:104" ht="34">
+      <c r="K396" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L396" s="17" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="397" spans="1:102" ht="34">
       <c r="A397" t="s">
         <v>589</v>
       </c>
@@ -19788,8 +23338,14 @@
       <c r="J397" s="17" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="398" spans="1:104" ht="51">
+      <c r="K397" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L397" s="17" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="398" spans="1:102" ht="51">
       <c r="A398" t="s">
         <v>589</v>
       </c>
@@ -19808,8 +23364,14 @@
       <c r="J398" s="21" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="399" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K398" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L398" s="21" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="399" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B399" s="10">
         <v>2</v>
       </c>
@@ -19831,8 +23393,12 @@
         <v>1727</v>
       </c>
       <c r="J399" s="17"/>
-      <c r="K399"/>
-      <c r="L399"/>
+      <c r="K399" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="L399" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M399"/>
       <c r="N399"/>
       <c r="O399"/>
@@ -19923,10 +23489,8 @@
       <c r="CV399"/>
       <c r="CW399"/>
       <c r="CX399"/>
-      <c r="CY399"/>
-      <c r="CZ399"/>
-    </row>
-    <row r="400" spans="1:104" ht="102">
+    </row>
+    <row r="400" spans="1:102" ht="102">
       <c r="A400" t="s">
         <v>589</v>
       </c>
@@ -19945,8 +23509,14 @@
       <c r="J400" s="17" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="401" spans="1:104" ht="17">
+      <c r="K400" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L400" s="17" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="401" spans="1:102" ht="17">
       <c r="B401">
         <v>3</v>
       </c>
@@ -19962,8 +23532,14 @@
       <c r="J401" s="17" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="402" spans="1:104" ht="51">
+      <c r="K401" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L401" s="17" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="402" spans="1:102" ht="51">
       <c r="A402" t="s">
         <v>589</v>
       </c>
@@ -19982,8 +23558,14 @@
       <c r="J402" s="17" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="403" spans="1:104" ht="51">
+      <c r="K402" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L402" s="17" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="403" spans="1:102" ht="51">
       <c r="A403" t="s">
         <v>589</v>
       </c>
@@ -20002,8 +23584,14 @@
       <c r="J403" s="17" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="404" spans="1:104" ht="51">
+      <c r="K403" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L403" s="17" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="404" spans="1:102" ht="51">
       <c r="A404" t="s">
         <v>589</v>
       </c>
@@ -20022,8 +23610,14 @@
       <c r="J404" s="17" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="405" spans="1:104" ht="51">
+      <c r="K404" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L404" s="17" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="405" spans="1:102" ht="51">
       <c r="A405" t="s">
         <v>589</v>
       </c>
@@ -20042,8 +23636,14 @@
       <c r="J405" s="17" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="406" spans="1:104" ht="51">
+      <c r="K405" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L405" s="17" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="406" spans="1:102" ht="51">
       <c r="A406" t="s">
         <v>589</v>
       </c>
@@ -20062,8 +23662,14 @@
       <c r="J406" s="17" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="407" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K406" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L406" s="17" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="407" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B407" s="10">
         <v>2</v>
       </c>
@@ -20085,8 +23691,12 @@
         <v>1734</v>
       </c>
       <c r="J407" s="17"/>
-      <c r="K407"/>
-      <c r="L407"/>
+      <c r="K407" s="19" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L407" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M407"/>
       <c r="N407"/>
       <c r="O407"/>
@@ -20177,10 +23787,8 @@
       <c r="CV407"/>
       <c r="CW407"/>
       <c r="CX407"/>
-      <c r="CY407"/>
-      <c r="CZ407"/>
-    </row>
-    <row r="408" spans="1:104" ht="51">
+    </row>
+    <row r="408" spans="1:102" ht="51">
       <c r="A408" t="s">
         <v>589</v>
       </c>
@@ -20199,8 +23807,14 @@
       <c r="J408" s="17" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="409" spans="1:104" ht="34">
+      <c r="K408" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L408" s="17" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="409" spans="1:102" ht="34">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -20219,8 +23833,14 @@
       <c r="J409" s="17" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="410" spans="1:104" ht="34">
+      <c r="K409" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L409" s="17" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="410" spans="1:102" ht="34">
       <c r="A410" t="s">
         <v>589</v>
       </c>
@@ -20239,8 +23859,14 @@
       <c r="J410" s="17" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="411" spans="1:104" ht="51">
+      <c r="K410" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L410" s="17" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="411" spans="1:102" ht="51">
       <c r="A411" t="s">
         <v>589</v>
       </c>
@@ -20259,8 +23885,14 @@
       <c r="J411" s="17" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="412" spans="1:104" ht="34">
+      <c r="K411" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L411" s="17" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="412" spans="1:102" ht="34">
       <c r="A412" t="s">
         <v>589</v>
       </c>
@@ -20279,8 +23911,14 @@
       <c r="J412" s="17" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="413" spans="1:104" s="10" customFormat="1" ht="34">
+      <c r="K412" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L412" s="17" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="413" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B413" s="10">
         <v>2</v>
       </c>
@@ -20302,8 +23940,12 @@
         <v>1740</v>
       </c>
       <c r="J413" s="17"/>
-      <c r="K413"/>
-      <c r="L413"/>
+      <c r="K413" s="19" t="s">
+        <v>1839</v>
+      </c>
+      <c r="L413" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M413"/>
       <c r="N413"/>
       <c r="O413"/>
@@ -20394,10 +24036,8 @@
       <c r="CV413"/>
       <c r="CW413"/>
       <c r="CX413"/>
-      <c r="CY413"/>
-      <c r="CZ413"/>
-    </row>
-    <row r="414" spans="1:104" ht="136">
+    </row>
+    <row r="414" spans="1:102" ht="136">
       <c r="A414" t="s">
         <v>589</v>
       </c>
@@ -20416,8 +24056,14 @@
       <c r="J414" s="17" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="415" spans="1:104" s="8" customFormat="1" ht="51">
+      <c r="K414" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L414" s="17" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="415" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B415" s="8">
         <v>1</v>
       </c>
@@ -20439,8 +24085,12 @@
         <v>1742</v>
       </c>
       <c r="J415" s="17"/>
-      <c r="K415"/>
-      <c r="L415"/>
+      <c r="K415" s="20" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L415" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M415"/>
       <c r="N415"/>
       <c r="O415"/>
@@ -20531,10 +24181,8 @@
       <c r="CV415"/>
       <c r="CW415"/>
       <c r="CX415"/>
-      <c r="CY415"/>
-      <c r="CZ415"/>
-    </row>
-    <row r="416" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="416" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B416" s="10">
         <v>2</v>
       </c>
@@ -20556,8 +24204,12 @@
         <v>1743</v>
       </c>
       <c r="J416" s="17"/>
-      <c r="K416"/>
-      <c r="L416"/>
+      <c r="K416" s="19" t="s">
+        <v>1841</v>
+      </c>
+      <c r="L416" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M416"/>
       <c r="N416"/>
       <c r="O416"/>
@@ -20648,10 +24300,8 @@
       <c r="CV416"/>
       <c r="CW416"/>
       <c r="CX416"/>
-      <c r="CY416"/>
-      <c r="CZ416"/>
-    </row>
-    <row r="417" spans="1:104" ht="68">
+    </row>
+    <row r="417" spans="1:102" ht="68">
       <c r="A417" t="s">
         <v>589</v>
       </c>
@@ -20670,8 +24320,14 @@
       <c r="J417" s="17" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="418" spans="1:104" ht="17">
+      <c r="K417" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L417" s="17" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="418" spans="1:102" ht="17">
       <c r="B418">
         <v>3</v>
       </c>
@@ -20687,8 +24343,14 @@
       <c r="J418" s="17" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="419" spans="1:104" ht="68">
+      <c r="K418" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L418" s="17" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="419" spans="1:102" ht="68">
       <c r="A419" t="s">
         <v>589</v>
       </c>
@@ -20707,8 +24369,14 @@
       <c r="J419" s="17" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="420" spans="1:104" ht="34">
+      <c r="K419" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L419" s="17" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="420" spans="1:102" ht="34">
       <c r="A420" t="s">
         <v>589</v>
       </c>
@@ -20727,8 +24395,14 @@
       <c r="J420" s="17" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="421" spans="1:104" ht="51">
+      <c r="K420" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L420" s="17" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="421" spans="1:102" ht="51">
       <c r="A421" t="s">
         <v>589</v>
       </c>
@@ -20747,8 +24421,14 @@
       <c r="J421" s="17" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="422" spans="1:104" ht="68">
+      <c r="K421" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L421" s="17" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="422" spans="1:102" ht="68">
       <c r="A422" t="s">
         <v>589</v>
       </c>
@@ -20770,8 +24450,14 @@
       <c r="J422" s="17" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="423" spans="1:104" ht="51">
+      <c r="K422" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L422" s="17" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="423" spans="1:102" ht="51">
       <c r="B423">
         <v>4</v>
       </c>
@@ -20787,8 +24473,14 @@
       <c r="J423" s="17" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="424" spans="1:104" ht="68">
+      <c r="K423" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L423" s="17" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="424" spans="1:102" ht="68">
       <c r="A424" t="s">
         <v>589</v>
       </c>
@@ -20807,8 +24499,14 @@
       <c r="J424" s="17" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="425" spans="1:104" ht="51">
+      <c r="K424" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L424" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="425" spans="1:102" ht="51">
       <c r="A425" t="s">
         <v>589</v>
       </c>
@@ -20827,8 +24525,14 @@
       <c r="J425" s="17" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="426" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K425" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L425" s="17" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="426" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B426" s="10">
         <v>2</v>
       </c>
@@ -20850,8 +24554,12 @@
         <v>1753</v>
       </c>
       <c r="J426" s="17"/>
-      <c r="K426"/>
-      <c r="L426"/>
+      <c r="K426" s="19" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L426" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M426"/>
       <c r="N426"/>
       <c r="O426"/>
@@ -20942,10 +24650,8 @@
       <c r="CV426"/>
       <c r="CW426"/>
       <c r="CX426"/>
-      <c r="CY426"/>
-      <c r="CZ426"/>
-    </row>
-    <row r="427" spans="1:104" ht="85">
+    </row>
+    <row r="427" spans="1:102" ht="85">
       <c r="A427" t="s">
         <v>589</v>
       </c>
@@ -20967,8 +24673,14 @@
       <c r="J427" s="17" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="428" spans="1:104" ht="17">
+      <c r="K427" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L427" s="17" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="428" spans="1:102" ht="17">
       <c r="B428">
         <v>3</v>
       </c>
@@ -20984,8 +24696,14 @@
       <c r="J428" s="17" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="429" spans="1:104" ht="34">
+      <c r="K428" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L428" s="17" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="429" spans="1:102" ht="34">
       <c r="A429" t="s">
         <v>589</v>
       </c>
@@ -21004,8 +24722,14 @@
       <c r="J429" s="17" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="430" spans="1:104" ht="51">
+      <c r="K429" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L429" s="17" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="430" spans="1:102" ht="51">
       <c r="A430" t="s">
         <v>589</v>
       </c>
@@ -21024,8 +24748,14 @@
       <c r="J430" s="17" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="431" spans="1:104" ht="68">
+      <c r="K430" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L430" s="17" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="431" spans="1:102" ht="68">
       <c r="A431" t="s">
         <v>589</v>
       </c>
@@ -21044,8 +24774,14 @@
       <c r="J431" s="17" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="432" spans="1:104" ht="51">
+      <c r="K431" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L431" s="17" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="432" spans="1:102" ht="51">
       <c r="A432" t="s">
         <v>589</v>
       </c>
@@ -21064,8 +24800,14 @@
       <c r="J432" s="17" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="433" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K432" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L432" s="17" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="433" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B433" s="10">
         <v>2</v>
       </c>
@@ -21087,8 +24829,12 @@
         <v>1759</v>
       </c>
       <c r="J433" s="17"/>
-      <c r="K433"/>
-      <c r="L433"/>
+      <c r="K433" s="19" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L433" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M433"/>
       <c r="N433"/>
       <c r="O433"/>
@@ -21179,10 +24925,8 @@
       <c r="CV433"/>
       <c r="CW433"/>
       <c r="CX433"/>
-      <c r="CY433"/>
-      <c r="CZ433"/>
-    </row>
-    <row r="434" spans="1:104" ht="51">
+    </row>
+    <row r="434" spans="1:102" ht="51">
       <c r="A434" t="s">
         <v>589</v>
       </c>
@@ -21201,8 +24945,14 @@
       <c r="J434" s="17" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="435" spans="1:104" ht="17">
+      <c r="K434" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L434" s="17" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="435" spans="1:102" ht="17">
       <c r="B435">
         <v>3</v>
       </c>
@@ -21218,8 +24968,14 @@
       <c r="J435" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="436" spans="1:104" ht="68">
+      <c r="K435" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L435" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="436" spans="1:102" ht="68">
       <c r="A436" t="s">
         <v>589</v>
       </c>
@@ -21241,8 +24997,14 @@
       <c r="J436" s="17" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="437" spans="1:104" ht="34">
+      <c r="K436" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L436" s="17" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="437" spans="1:102" ht="34">
       <c r="A437" t="s">
         <v>589</v>
       </c>
@@ -21261,8 +25023,14 @@
       <c r="J437" s="17" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="438" spans="1:104" ht="34">
+      <c r="K437" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L437" s="17" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="438" spans="1:102" ht="34">
       <c r="A438" t="s">
         <v>589</v>
       </c>
@@ -21281,8 +25049,14 @@
       <c r="J438" s="17" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="439" spans="1:104" ht="51">
+      <c r="K438" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L438" s="17" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="439" spans="1:102" ht="51">
       <c r="A439" t="s">
         <v>589</v>
       </c>
@@ -21301,8 +25075,14 @@
       <c r="J439" s="17" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="440" spans="1:104" ht="51">
+      <c r="K439" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L439" s="17" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="440" spans="1:102" ht="51">
       <c r="A440" t="s">
         <v>589</v>
       </c>
@@ -21320,6 +25100,12 @@
       </c>
       <c r="J440" s="17" t="s">
         <v>1765</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L440" s="17" t="s">
+        <v>2214</v>
       </c>
     </row>
   </sheetData>

--- a/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
+++ b/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D2D95-778A-AA48-8270-24AFA85117F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACC73A-F772-7F4D-9CEF-B97005D637BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33360" windowHeight="21580" activeTab="1" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33360" windowHeight="21580" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -7361,8 +7361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBB3CEB-58CF-7A4E-B0B7-D78CC9ABFCD0}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:B30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -7385,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7628,7 +7628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018D80E-CD86-A646-A799-4CD19C4C2182}">
   <dimension ref="A1:CX440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A154" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
+++ b/tools/NIS2/Annex-Implementing-Regulation-of-NIS2-on-T-M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericlaubacher/Documents/GitHub/ciso-assistant-community/tools/NIS2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F55472-C932-E54F-82C0-0CDB0E16B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACC73A-F772-7F4D-9CEF-B97005D637BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="17640" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="33360" windowHeight="21580" xr2:uid="{9B1CC0E7-3315-034F-9C03-0EA36D269167}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="2" r:id="rId1"/>
@@ -19,17 +19,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'A-Techn-and-metho'!$A$1:$F$440</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="2217">
   <si>
     <t>assessable</t>
   </si>
@@ -5510,13 +5521,1333 @@
   </si>
   <si>
     <t>library_publication_date</t>
+  </si>
+  <si>
+    <t>library_name[it]</t>
+  </si>
+  <si>
+    <t>NIS2: Requisiti tecnici e metodologici - ALLEGATO REGOLAMENTO DI ESECUZIONE (UE) 2024/2690</t>
+  </si>
+  <si>
+    <t>library_description[it]</t>
+  </si>
+  <si>
+    <t>ALLEGATO del Regolamento di Esecuzione della Commissione che stabilisce - ai sensi dell’articolo 2 - le disposizioni di attuazione della Direttiva (UE) 2022/2555 per quanto riguarda i requisiti tecnici e metodologici delle misure per la gestione dei rischi di cybersicurezza. Link: https://eur-lex.europa.eu/legal-content/ES/TXT/HTML/?uri=OJ:L_202402690</t>
+  </si>
+  <si>
+    <t>library_copyright[it]</t>
+  </si>
+  <si>
+    <t>COMMISSIONE EUROPEA</t>
+  </si>
+  <si>
+    <t>framework_name[it]</t>
+  </si>
+  <si>
+    <t>framework_description[it]</t>
+  </si>
+  <si>
+    <t>POLITICA IN MATERIA DI SICUREZZA DELLE RETI E DEI SISTEMI INFORMATIVI [ARTICOLO 21, PARAGRAFO 2, LETTERA A), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Politica in materia di sicurezza delle reti e dei sistemi informativi</t>
+  </si>
+  <si>
+    <t>Ruoli, responsabilità e poteri</t>
+  </si>
+  <si>
+    <t>POLITICA DI GESTIONE DEI RISCHI (ARTICOLO 21, PARAGRAFO 2, LETTERA A), DELLA DIRETTIVA (UE) 2022/2555)</t>
+  </si>
+  <si>
+    <t>Quadro di riferimento per la gestione dei rischi</t>
+  </si>
+  <si>
+    <t>Monitoraggio della conformità</t>
+  </si>
+  <si>
+    <t>Revisione indipendente della sicurezza delle informazioni e delle reti</t>
+  </si>
+  <si>
+    <t>GESTIONE DEGLI INCIDENTI [ARTICOLO 21, PARAGRAFO 2, LETTERA B), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Criteri di gestione degli incidenti</t>
+  </si>
+  <si>
+    <t>Monitoraggio e registrazione</t>
+  </si>
+  <si>
+    <t>Segnalazione di eventi</t>
+  </si>
+  <si>
+    <t>Valutazione e classificazione degli eventi</t>
+  </si>
+  <si>
+    <t>Risposta agli incidenti</t>
+  </si>
+  <si>
+    <t>Revisioni post-incidente</t>
+  </si>
+  <si>
+    <t>CONTINUITÀ OPERATIVA E GESTIONE DELLE CRISI [ARTICOLO 21, PARAGRAFO 2, LETTERA C), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Piano di continuità operativa e disaster recovery</t>
+  </si>
+  <si>
+    <t>Gestione del backup e della ridondanza</t>
+  </si>
+  <si>
+    <t>Gestione delle crisi</t>
+  </si>
+  <si>
+    <t>SICUREZZA DELLA CATENA DI APPROVVIGIONAMENTO [ARTICOLO 21, PARAGRAFO 2, LETTERA D), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Politica di sicurezza della supply chain</t>
+  </si>
+  <si>
+    <t>Elenco dei fornitori e dei prestatori di servizi</t>
+  </si>
+  <si>
+    <t>SICUREZZA NELL'ACQUISIZIONE, NELLO SVILUPPO E NELLA MANUTENZIONE DELLE RETI E DEI SISTEMI INFORMATIVI [ARTICOLO 21, PARAGRAFO 2, LETTERA E), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Sicurezza nell'acquisizione di servizi o prodotti TIC</t>
+  </si>
+  <si>
+    <t>Ciclo di vita dello sviluppo sicuro</t>
+  </si>
+  <si>
+    <t>Gestione della configurazione</t>
+  </si>
+  <si>
+    <t>Gestione delle modifiche, riparazioni e manutenzione</t>
+  </si>
+  <si>
+    <t>Test di sicurezza</t>
+  </si>
+  <si>
+    <t>Gestione delle patch di sicurezza</t>
+  </si>
+  <si>
+    <t>Sicurezza della rete</t>
+  </si>
+  <si>
+    <t>Segmentazione della rete</t>
+  </si>
+  <si>
+    <t>Protezione contro software dannoso e non autorizzato</t>
+  </si>
+  <si>
+    <t>Gestione e divulgazione delle vulnerabilità</t>
+  </si>
+  <si>
+    <t>POLITICHE E PROCEDURE PER VALUTARE L'EFFICACIA DELLE MISURE DI GESTIONE DEI RISCHI DI CIBERSICUREZZA [ARTICOLO 21, PARAGRAFO 2, LETTERA F), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>PRATICHE INFORMATICHE DI BASE E FORMAZIONE IN MATERIA DI SICUREZZA [ARTICOLO 21, PARAGRAFO 2, LETTERA G), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Sensibilizzazione e pratiche di igiene informatica di base</t>
+  </si>
+  <si>
+    <t>Formazione sulla sicurezza</t>
+  </si>
+  <si>
+    <t>CRITTOGRAFIA [ARTICOLO 21, PARAGRAFO 2, LETTERA H), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>SICUREZZA DELLE RISORSE UMANE [ARTICOLO 21, PARAGRAFO 2, LETTERA I), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Sicurezza delle risorse umane</t>
+  </si>
+  <si>
+    <t>Procedure di cessazione o cambiamento di rapporto di lavoro</t>
+  </si>
+  <si>
+    <t>Processo disciplinare</t>
+  </si>
+  <si>
+    <t>CONTROLLO DELL'ACCESSO [ARTICOLO 21, PARAGRAFO 2, LETTERE I) E J), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Criteri di controllo degli accessi</t>
+  </si>
+  <si>
+    <t>Gestione dei diritti di accesso</t>
+  </si>
+  <si>
+    <t>Account con privilegi e account di amministrazione del sistema</t>
+  </si>
+  <si>
+    <t>Sistemi di amministrazione</t>
+  </si>
+  <si>
+    <t>Identificazione</t>
+  </si>
+  <si>
+    <t>Autenticazione</t>
+  </si>
+  <si>
+    <t>Autenticazione a più fattori</t>
+  </si>
+  <si>
+    <t>GESTIONE PATRIMONIALE [ARTICOLO 21, PARAGRAFO 2, LETTERA I), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Classificazione degli asset</t>
+  </si>
+  <si>
+    <t>Gestione dei beni</t>
+  </si>
+  <si>
+    <t>Criteri relativi ai supporti rimovibili</t>
+  </si>
+  <si>
+    <t>Inventario delle risorse</t>
+  </si>
+  <si>
+    <t>Deposito, restituzione o cancellazione di beni in caso di cessazione del rapporto di lavoro</t>
+  </si>
+  <si>
+    <t>SICUREZZA FISICA E AMBIENTALE [ARTICOLO 21, PARAGRAFO 2, LETTERE C), E) E I), DELLA DIRETTIVA (UE) 2022/2555]</t>
+  </si>
+  <si>
+    <t>Utilità di supporto</t>
+  </si>
+  <si>
+    <t>Protezione contro le minacce fisiche e ambientali</t>
+  </si>
+  <si>
+    <t>Controllo degli accessi fisici e perimetrali</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera a), della direttiva (UE) 2022/2555, la politica in materia di sicurezza delle reti e dei sistemi informativi:</t>
+  </si>
+  <si>
+    <t>definire l'approccio dei soggetti pertinenti alla gestione della sicurezza della loro rete e dei loro sistemi informativi;</t>
+  </si>
+  <si>
+    <t>essere adeguati e complementari alla strategia e agli obiettivi aziendali dei soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>definire gli obiettivi di sicurezza delle reti e dell'informazione;</t>
+  </si>
+  <si>
+    <t>includere l'impegno per il miglioramento continuo della sicurezza delle reti e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>includere l'impegno a fornire le risorse adeguate necessarie per la sua attuazione, compresi il personale, le risorse finanziarie, i processi, gli strumenti e le tecnologie necessari;</t>
+  </si>
+  <si>
+    <t>essere comunicati e riconosciuti dai dipendenti interessati e dalle parti esterne interessate;</t>
+  </si>
+  <si>
+    <t>stabilire i ruoli e le responsabilità di cui al punto 1.2;</t>
+  </si>
+  <si>
+    <t>elencare la documentazione da conservare e la durata di conservazione della documentazione;</t>
+  </si>
+  <si>
+    <t>elencare le politiche specifiche per argomento;</t>
+  </si>
+  <si>
+    <t>stabilisce indicatori e misure per monitorarne l'attuazione e lo stato attuale del livello di maturità della sicurezza delle reti e dell'informazione dei soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>indicare la data dell'approvazione formale da parte degli organi di gestione delle entità pertinenti (gli «organi di gestione»).</t>
+  </si>
+  <si>
+    <t>La politica di sicurezza delle reti e dei sistemi informativi è riesaminata e, se del caso, aggiornata dagli organi di gestione almeno una volta all'anno e ogniqualvolta si verifichino incidenti significativi o modifiche significative delle operazioni o dei rischi. L'esito delle revisioni è documentato.</t>
+  </si>
+  <si>
+    <t>Nell'ambito della loro politica in materia di sicurezza delle reti e dei sistemi informativi di cui al punto 1.1, i soggetti pertinenti stabiliscono le responsabilità e le autorità in materia di sicurezza delle reti e dei sistemi informativi e assegnano loro i ruoli, li assegnano in base alle esigenze dei soggetti pertinenti e li comunicano agli organi di gestione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti impongono a tutto il personale e ai terzi di applicare la sicurezza delle reti e dei sistemi informativi conformemente alla politica di sicurezza delle reti e dell'informazione stabilita, alle politiche e alle procedure specifiche per argomento dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>Almeno una persona riferisce direttamente agli organi di gestione su questioni relative alla sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>A seconda delle dimensioni dei soggetti pertinenti, la sicurezza delle reti e dei sistemi informativi è coperta da ruoli o mansioni specifici svolti in aggiunta ai ruoli esistenti.</t>
+  </si>
+  <si>
+    <t>I doveri e le competenze contrastanti sono segregati, se del caso.</t>
+  </si>
+  <si>
+    <t>I ruoli, le responsabilità e le autorità sono riesaminati e, se del caso, aggiornati dagli organi di gestione a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera a), della direttiva (UE) 2022/2555, i soggetti pertinenti istituiscono e mantengono un quadro adeguato per la gestione dei rischi per individuare e affrontare i rischi posti alla sicurezza delle reti e dei sistemi informativi. I soggetti pertinenti effettuano e documentano le valutazioni dei rischi e, sulla base dei risultati, stabiliscono, attuano e monitorano un piano di trattamento dei rischi. I risultati della valutazione del rischio e i rischi residui sono accettati dagli organi di gestione o, se del caso, dalle persone che sono responsabili e hanno l'autorità di gestire i rischi, a condizione che i soggetti pertinenti garantiscano un'adeguata comunicazione agli organi di gestione.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 2.1.1, i soggetti pertinenti stabiliscono procedure per l'individuazione, l'analisi, la valutazione e il trattamento dei rischi («processo di gestione dei rischi di cibersicurezza»). Il processo di gestione dei rischi di cibersicurezza è parte integrante del processo generale di gestione dei rischi dei soggetti pertinenti, se del caso. Nell'ambito del processo di gestione dei rischi di cibersicurezza, i soggetti pertinenti:</t>
+  </si>
+  <si>
+    <t>seguire una metodologia di gestione del rischio;</t>
+  </si>
+  <si>
+    <t>stabilire il livello di tolleranza al rischio in base alla propensione al rischio dei soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>stabilire e mantenere criteri di rischio pertinenti;</t>
+  </si>
+  <si>
+    <t>in linea con un approccio multirischio, individuare e documentare i rischi posti alla sicurezza delle reti e dei sistemi informativi, in particolare in relazione a terzi, e i rischi che potrebbero comportare perturbazioni della disponibilità, dell'integrità, dell'autenticità e della riservatezza della rete e dei sistemi informativi, compresa l'individuazione di un unico punto di guasto;</t>
+  </si>
+  <si>
+    <t>analizzare i rischi posti alla sicurezza delle reti e dei sistemi informativi, compresi la minaccia, la probabilità, l'impatto e il livello di rischio, tenendo conto dell'intelligence sulle minacce informatiche e delle vulnerabilità;</t>
+  </si>
+  <si>
+    <t>valutare i rischi identificati in base ai criteri di rischio;</t>
+  </si>
+  <si>
+    <t>individuare e dare priorità alle opzioni e alle misure appropriate per il trattamento dei rischi;</t>
+  </si>
+  <si>
+    <t>monitorare costantemente l'attuazione delle misure di trattamento dei rischi;</t>
+  </si>
+  <si>
+    <t>identificare chi è responsabile dell'attuazione delle misure di trattamento dei rischi e quando dovrebbero essere attuate;</t>
+  </si>
+  <si>
+    <t>Documentare in modo comprensibile le misure di trattamento dei rischi scelte in un piano di trattamento dei rischi e i motivi che giustificano l'accettazione dei rischi residui.</t>
+  </si>
+  <si>
+    <t>Nell'individuare e stabilire le priorità delle opzioni e delle misure adeguate per il trattamento dei rischi, i soggetti pertinenti tengono conto dei risultati della valutazione dei rischi, dei risultati della procedura per valutare l'efficacia delle misure di gestione dei rischi di cibersicurezza, dei costi di attuazione in relazione al beneficio atteso, della classificazione delle attività di cui al punto 12.1 e dell'analisi dell'impatto sulle imprese di cui al punto 4.1.3.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano i risultati della valutazione dei rischi e il piano di trattamento dei rischi a intervalli pianificati e almeno una volta all'anno e quando si verificano modifiche significative delle operazioni o dei rischi o incidenti significativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano periodicamente la conformità alle loro politiche in materia di sicurezza delle reti e dei sistemi informativi, alle politiche, alle regole e agli standard specifici per argomento. Gli organi di gestione sono informati dello stato della sicurezza delle reti e dell'informazione sulla base delle verifiche di conformità mediante relazioni periodiche.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono un sistema efficace di segnalazione della conformità che sia adeguato alle loro strutture, ai loro ambienti operativi e ai loro scenari di minacce. Il sistema di segnalazione di conformità è in grado di fornire agli organi di gestione una visione informata dello stato attuale della gestione dei rischi da parte dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano il monitoraggio della conformità a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano in modo indipendente il loro approccio alla gestione della sicurezza delle reti e dei sistemi informativi e alla sua attuazione, comprese le persone, i processi e le tecnologie.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti sviluppano e mantengono processi per condurre revisioni indipendenti, che devono essere effettuate da persone con adeguate competenze di revisione. Se l'esame indipendente è condotto da membri del personale dell'ente interessato, le persone che effettuano gli esami non devono essere nella linea di autorità del personale dell'area oggetto di esame. Se le dimensioni dei soggetti pertinenti non consentono tale separazione dei poteri di competenza, i soggetti pertinenti mettono in atto misure alternative per garantire l'imparzialità dei ricorsi.</t>
+  </si>
+  <si>
+    <t>I risultati delle revisioni indipendenti, compresi i risultati del monitoraggio della conformità di cui al punto 2.2. e il monitoraggio e la misurazione di cui al punto 7 sono comunicati agli organi di gestione. Devono essere adottate azioni correttive o deve essere accettato il rischio residuo in base ai criteri di accettazione del rischio dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>Le revisioni indipendenti si svolgono a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera b), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono e attuano una politica di gestione degli incidenti che stabilisce i ruoli, le responsabilità e le procedure per l'individuazione, l'analisi, il contenimento o la risposta, il recupero, la documentazione e la segnalazione tempestiva degli incidenti.</t>
+  </si>
+  <si>
+    <t>La politica di cui al punto 3.1.1 deve essere coerente con il piano di continuità operativa e di ripristino in caso di disastro di cui al punto 4.1. La politica comprende:</t>
+  </si>
+  <si>
+    <t>un sistema di categorizzazione degli incidenti coerente con la valutazione e la classificazione degli eventi effettuate a norma del punto 3.4.1;</t>
+  </si>
+  <si>
+    <t>piani di comunicazione efficaci, anche per l'escalation e la segnalazione;</t>
+  </si>
+  <si>
+    <t>assegnazione di ruoli per rilevare e rispondere in modo appropriato agli incidenti a dipendenti competenti;</t>
+  </si>
+  <si>
+    <t>Documenti da utilizzare nel corso del rilevamento e della risposta agli incidenti, come manuali di risposta agli incidenti, grafici di escalation, elenchi di contatti e modelli.</t>
+  </si>
+  <si>
+    <t>I ruoli, le responsabilità e le procedure stabiliti nella politica sono verificati e riesaminati e, se del caso, aggiornati a intervalli pianificati e dopo incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono procedure e utilizzano strumenti per monitorare e registrare le attività sulla loro rete e sui loro sistemi informativi al fine di individuare eventi che potrebbero essere considerati incidenti e rispondere di conseguenza per attenuarne l'impatto.</t>
+  </si>
+  <si>
+    <t>Per quanto possibile, il monitoraggio è automatizzato ed effettuato in modo continuo o a intervalli periodici, compatibilmente con le capacità aziendali. I soggetti pertinenti svolgono le loro attività di monitoraggio in modo da ridurre al minimo i falsi positivi e i falsi negativi.</t>
+  </si>
+  <si>
+    <t>Sulla base delle procedure di cui al punto 3.2.1, i soggetti pertinenti conservano, documentano e rivedono i registri. I soggetti pertinenti redigono un elenco delle attività da sottoporre a registrazione sulla base dei risultati della valutazione del rischio effettuata a norma del punto 2.1. Se del caso, i registri devono includere:</t>
+  </si>
+  <si>
+    <t>traffico di rete in uscita e in entrata pertinente;</t>
+  </si>
+  <si>
+    <t>creazione, modifica o cancellazione di utenti della rete e dei sistemi informativi delle entità pertinenti ed estensione delle autorizzazioni;</t>
+  </si>
+  <si>
+    <t>accesso a sistemi e applicazioni;</t>
+  </si>
+  <si>
+    <t>eventi relativi all'autenticazione;</t>
+  </si>
+  <si>
+    <t>tutti gli accessi privilegiati ai sistemi e alle applicazioni e le attività svolte dagli account amministrativi;</t>
+  </si>
+  <si>
+    <t>accesso o modifiche ai file critici di configurazione e backup;</t>
+  </si>
+  <si>
+    <t>registri degli eventi e registri di strumenti di sicurezza, come antivirus, sistemi di rilevamento delle intrusioni o firewall;</t>
+  </si>
+  <si>
+    <t>utilizzo delle risorse di sistema, nonché delle loro prestazioni;</t>
+  </si>
+  <si>
+    <t>l'accesso fisico alle strutture;</t>
+  </si>
+  <si>
+    <t>l'accesso e l'utilizzo delle loro apparecchiature e dispositivi di rete;</t>
+  </si>
+  <si>
+    <t>attivazione, arresto e pausa dei vari log;</t>
+  </si>
+  <si>
+    <t>eventi ambientali.</t>
+  </si>
+  <si>
+    <t>I registri devono essere regolarmente esaminati per individuare eventuali tendenze insolite o indesiderate. Se del caso, i soggetti pertinenti stabiliscono valori appropriati per le soglie di allarme. Se i valori stabiliti per la soglia di allarme sono superati, deve essere attivato automaticamente un allarme, se del caso. I soggetti pertinenti provvedono affinché, in caso di allarme, sia avviata tempestivamente una risposta qualificata e adeguata.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati conservano ed eseguono il backup delle registrazioni per un periodo predefinito e le proteggono da accessi o modifiche non autorizzate.</t>
+  </si>
+  <si>
+    <t>Per quanto possibile, i soggetti pertinenti garantiscono che tutti i sistemi dispongano di fonti temporali sincronizzate per essere in grado di correlare i log tra i sistemi per la valutazione degli eventi. I soggetti pertinenti redigono e tengono un elenco di tutti i beni che vengono registrati e garantiscono che i sistemi di monitoraggio e registrazione siano ridondanti. La disponibilità dei sistemi di monitoraggio e di registrazione è monitorata indipendentemente dai sistemi che controllano.</t>
+  </si>
+  <si>
+    <t>Le procedure e l'elenco delle attività registrate sono riesaminate e, se del caso, aggiornate a intervalli regolari e dopo incidenti significativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti devono mettere in atto un meccanismo semplice che consenta ai propri dipendenti, fornitori e clienti di segnalare eventi sospetti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti comunicano, se del caso, il meccanismo di segnalazione degli eventi ai loro fornitori e clienti e formano regolarmente i loro dipendenti su come utilizzare il meccanismo.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti valutano gli eventi sospetti per determinare se costituiscano incidenti e, in caso affermativo, ne determinano la natura e la gravità.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 3.4.1, i soggetti pertinenti agiscono nel modo seguente:</t>
+  </si>
+  <si>
+    <t>effettuare la valutazione sulla base di criteri predefiniti stabiliti in anticipo e su un triage per determinare le priorità di contenimento ed eliminazione degli incidenti;</t>
+  </si>
+  <si>
+    <t>valuta l'esistenza di incidenti ricorrenti di cui all'articolo 4 del presente regolamento su base trimestrale;</t>
+  </si>
+  <si>
+    <t>esaminare i registri appropriati ai fini della valutazione e della classificazione degli eventi;</t>
+  </si>
+  <si>
+    <t>mettere in atto un processo per la correlazione e l'analisi dei log, e</t>
+  </si>
+  <si>
+    <t>rivalutare e riclassificare gli eventi nel caso in cui si rendano disponibili nuove informazioni o dopo l'analisi di informazioni precedentemente disponibili.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti rispondono agli incidenti secondo procedure documentate e in modo tempestivo.</t>
+  </si>
+  <si>
+    <t>Le procedure di risposta agli incidenti comprendono le seguenti fasi:</t>
+  </si>
+  <si>
+    <t>contenimento dell'incidente, per prevenire la propagazione delle conseguenze dell'incidente;</t>
+  </si>
+  <si>
+    <t>eradicazione, per evitare che l'incidente prosegua o si ripresenti,</t>
+  </si>
+  <si>
+    <t>recupero dall'incidente, se necessario.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono piani e procedure di comunicazione:</t>
+  </si>
+  <si>
+    <t>con i gruppi di intervento per la sicurezza informatica in caso di incidente (CSIRT) o, se del caso, con le autorità competenti, in relazione alla notifica degli incidenti;</t>
+  </si>
+  <si>
+    <t>per la comunicazione tra i membri del personale dell'entità pertinente e per la comunicazione con le parti interessate esterne all'entità pertinente.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti registrano le attività di risposta agli incidenti conformemente alle procedure di cui al punto 3.2.1 e registrano le prove.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano a intervalli programmati le loro procedure di risposta agli incidenti.</t>
+  </si>
+  <si>
+    <t>Se del caso, i soggetti pertinenti effettuano revisioni successive all'incidente dopo il ripristino dagli incidenti. Le revisioni successive all'incidente devono individuare, ove possibile, la causa principale dell'incidente e tradursi in insegnamenti documentati tratti per ridurre il verificarsi e le conseguenze di incidenti futuri.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono che le revisioni successive all'incidente contribuiscano a migliorare il loro approccio alla sicurezza delle reti e dell'informazione, alle misure di trattamento dei rischi e alle procedure di gestione, individuazione e risposta agli incidenti.</t>
+  </si>
+  <si>
+    <t>Gli enti pertinenti esaminano, a intervalli pianificati, se gli incidenti hanno portato a revisioni successive all'incidente.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera c), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono e mantengono un piano di continuità operativa e di ripristino in caso di disastro da applicare in caso di incidenti.</t>
+  </si>
+  <si>
+    <t>Le operazioni dei soggetti interessati devono essere ripristinate secondo il piano di continuità operativa e di ripristino in caso di disastro. Il piano si basa sui risultati della valutazione dei rischi effettuata a norma del punto 2.1 e comprende, se del caso, i seguenti elementi:</t>
+  </si>
+  <si>
+    <t>scopo, ambito e pubblico;</t>
+  </si>
+  <si>
+    <t>ruoli e responsabilità;</t>
+  </si>
+  <si>
+    <t>i contatti chiave e i canali di comunicazione (interni ed esterni);</t>
+  </si>
+  <si>
+    <t>condizioni per l'attivazione e la disattivazione del piano;</t>
+  </si>
+  <si>
+    <t>ordine di recupero delle operazioni;</t>
+  </si>
+  <si>
+    <t>piani di risanamento per operazioni specifiche, compresi gli obiettivi di risanamento;</t>
+  </si>
+  <si>
+    <t>risorse necessarie, inclusi backup e ridondanze;</t>
+  </si>
+  <si>
+    <t>ripristino e ripresa delle attività da misure temporanee.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano un'analisi dell'impatto sulle attività per valutare l'impatto potenziale di gravi perturbazioni delle loro operazioni commerciali e, sulla base dei risultati dell'analisi dell'impatto sulle attività, stabiliscono i requisiti di continuità per la rete e i sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Il piano di continuità operativa e il piano di ripristino in caso di disastro sono testati, riesaminati e, se del caso, aggiornati a intervalli pianificati e a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi. I soggetti pertinenti garantiscono che i piani includano gli insegnamenti tratti da tali test.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti conservano copie di backup dei dati e mettono a disposizione risorse sufficienti, comprese le strutture, la rete e i sistemi informativi e il personale, per garantire un livello adeguato di ridondanza.</t>
+  </si>
+  <si>
+    <t>Sulla base dei risultati della valutazione dei rischi effettuata a norma del punto 2.1 e del piano di continuità operativa, i soggetti pertinenti stabiliscono piani di backup che comprendono:</t>
+  </si>
+  <si>
+    <t>tempi di recupero;</t>
+  </si>
+  <si>
+    <t>garanzia che le copie di backup siano complete e accurate, compresi i dati di configurazione e i dati archiviati nell'ambiente del servizio di cloud computing;</t>
+  </si>
+  <si>
+    <t>conservare copie di backup (online o offline) in una o più posizioni sicure, che non si trovino nella stessa rete del sistema e che si trovino a una distanza sufficiente per evitare eventuali danni derivanti da un disastro nel sito principale;</t>
+  </si>
+  <si>
+    <t>adeguati controlli di accesso fisici e logici alle copie di backup, in conformità con il livello di classificazione degli asset;</t>
+  </si>
+  <si>
+    <t>ripristino dei dati dalle copie di backup;</t>
+  </si>
+  <si>
+    <t>Periodi di conservazione in base ai requisiti aziendali e normativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano controlli periodici dell'integrità delle copie di backup.</t>
+  </si>
+  <si>
+    <t>Sulla base dei risultati della valutazione dei rischi effettuata a norma del punto 2.1 e del piano di continuità operativa, i soggetti pertinenti garantiscono una sufficiente disponibilità di risorse mediante la ridondanza almeno parziale dei seguenti elementi:</t>
+  </si>
+  <si>
+    <t>reti e sistemi informativi;</t>
+  </si>
+  <si>
+    <t>beni, compresi impianti, attrezzature e forniture;</t>
+  </si>
+  <si>
+    <t>personale dotato della responsabilità, dell'autorità e della competenza necessarie;</t>
+  </si>
+  <si>
+    <t>canali di comunicazione adeguati.</t>
+  </si>
+  <si>
+    <t>Se del caso, i soggetti pertinenti garantiscono che il monitoraggio e l'adeguamento delle risorse, compresi gli impianti, i sistemi e il personale, siano debitamente informati dai requisiti di backup e di ridondanza.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano verifiche periodiche del ripristino delle copie di backup e delle ridondanze per garantire che, in condizioni di ripristino, si possa fare affidamento su di esse e coprano le copie, i processi e le conoscenze necessarie per eseguire un ripristino efficace. Gli enti pertinenti documentano i risultati delle prove e, se necessario, adottano misure correttive.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono un processo per la gestione delle crisi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti provvedono affinché il processo di gestione della crisi riguardi almeno i seguenti elementi:</t>
+  </si>
+  <si>
+    <t>ruoli e responsabilità del personale e, se del caso, dei fornitori e dei prestatori di servizi, specificando l'assegnazione dei ruoli in situazioni di crisi, comprese le misure specifiche da seguire;</t>
+  </si>
+  <si>
+    <t>adeguati mezzi di comunicazione tra i soggetti interessati e le autorità competenti pertinenti;</t>
+  </si>
+  <si>
+    <t>l'applicazione di misure adeguate per garantire il mantenimento della sicurezza delle reti e dei sistemi informativi in situazioni di crisi.</t>
+  </si>
+  <si>
+    <t>Ai fini della lettera b), il flusso di informazioni tra i soggetti pertinenti e le autorità competenti pertinenti comprende sia le comunicazioni obbligatorie, quali le segnalazioni di incidenti e le relative tempistiche, sia le comunicazioni non obbligatorie.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti attuano un processo per la gestione e l'utilizzo delle informazioni ricevute dai CSIRT o, se del caso, dalle autorità competenti, in merito a incidenti, vulnerabilità, minacce o possibili misure di mitigazione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano il piano di gestione delle crisi su base periodica o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera d), della direttiva (UE) 2022/2555, i soggetti pertinenti istituiscono, attuano e applicano una politica di sicurezza della catena di approvvigionamento che disciplina le relazioni con i loro fornitori diretti e prestatori di servizi al fine di attenuare i rischi individuati per la sicurezza delle reti e dei sistemi informativi. Nella politica di sicurezza della catena di approvvigionamento, i soggetti pertinenti identificano il loro ruolo nella catena di approvvigionamento e lo comunicano ai loro fornitori diretti e prestatori di servizi.</t>
+  </si>
+  <si>
+    <t>Nell'ambito della politica di sicurezza della catena logistica di cui al punto 5.1.1, i soggetti pertinenti stabiliscono i criteri per la selezione e la stipula di contratti con i fornitori e i prestatori di servizi. Tali criteri comprendono i seguenti:</t>
+  </si>
+  <si>
+    <t>le pratiche di cibersicurezza dei fornitori e dei prestatori di servizi, comprese le loro procedure di sviluppo sicuro;</t>
+  </si>
+  <si>
+    <t>la capacità dei fornitori e dei prestatori di servizi di soddisfare le specifiche in materia di cibersicurezza stabilite dai soggetti pertinenti;</t>
+  </si>
+  <si>
+    <t>la qualità e la resilienza complessive dei prodotti e dei servizi TIC e le misure di gestione dei rischi di cibersicurezza in essi integrate, compresi i rischi e il livello di classificazione dei prodotti e dei servizi TIC;</t>
+  </si>
+  <si>
+    <t>la capacità dei soggetti pertinenti di diversificare le fonti di approvvigionamento e di limitare la dipendenza dal fornitore, se del caso.</t>
+  </si>
+  <si>
+    <t>Nell'elaborare la loro politica di sicurezza della catena di approvvigionamento, i soggetti pertinenti tengono conto dei risultati delle valutazioni coordinate dei rischi per la sicurezza delle catene di approvvigionamento critiche effettuate conformemente all'articolo 22, paragrafo 1, della direttiva (UE) 2022/2555, se del caso.</t>
+  </si>
+  <si>
+    <t>Sulla base della politica di sicurezza della catena di approvvigionamento e tenendo conto dei risultati della valutazione dei rischi effettuata conformemente al punto 2.1. del presente allegato, i soggetti pertinenti provvedono affinché i loro contratti con i fornitori e i prestatori di servizi specifichino, se del caso mediante accordi sul livello dei servizi, quanto segue:</t>
+  </si>
+  <si>
+    <t>i requisiti di cibersicurezza per i fornitori o i prestatori di servizi, compresi i requisiti relativi alla sicurezza nell'acquisto di servizi o prodotti TIC di cui al punto 6.1;</t>
+  </si>
+  <si>
+    <t>requisiti in materia di consapevolezza, competenze e formazione e, se del caso, certificazioni richieste ai dipendenti dei fornitori o dei prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>requisiti relativi alla verifica del background dei dipendenti dei fornitori e dei prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>l'obbligo per i fornitori e i prestatori di servizi di notificare, senza indebito ritardo, ai soggetti interessati gli incidenti che presentano un rischio per la sicurezza della rete e dei sistemi informativi di tali soggetti;</t>
+  </si>
+  <si>
+    <t>il diritto di revisione contabile o il diritto di ricevere relazioni di revisione;</t>
+  </si>
+  <si>
+    <t>l'obbligo per i fornitori e i prestatori di servizi di gestire le vulnerabilità che presentano un rischio per la sicurezza della rete e dei sistemi informativi dei soggetti interessati;</t>
+  </si>
+  <si>
+    <t>requisiti relativi al subappalto e, qualora i soggetti pertinenti consentano il subappalto, requisiti di cibersicurezza per i subappaltatori conformemente ai requisiti di cibersicurezza di cui alla lettera a);</t>
+  </si>
+  <si>
+    <t>obblighi dei fornitori e dei prestatori di servizi alla risoluzione del contratto, quali il reperimento e l'eliminazione delle informazioni ottenute dai fornitori e dai prestatori di servizi nell'esercizio dei loro compiti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti tengono conto degli elementi di cui ai punti 5.1.2 e 5.1.3. nell'ambito del processo di selezione di nuovi fornitori e prestatori di servizi, nonché nell'ambito del processo di approvvigionamento di cui al punto 6.1.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano la politica di sicurezza della catena di approvvigionamento e monitorano, valutano e, se necessario, agiscono in seguito alle modifiche delle pratiche di cibersicurezza dei fornitori e dei prestatori di servizi, a intervalli pianificati e quando si verificano modifiche significative delle operazioni o dei rischi o incidenti significativi connessi alla fornitura di servizi di TIC o che hanno un impatto sulla sicurezza dei prodotti di TIC da parte di fornitori e prestatori di servizi.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 5.1.6, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>monitorare regolarmente le relazioni sull'attuazione degli accordi sul livello dei servizi, se del caso;</t>
+  </si>
+  <si>
+    <t>esaminare gli incidenti relativi ai prodotti e ai servizi TIC da fornitori e prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>valutare la necessità di revisioni non programmate e documentare i risultati in modo comprensibile;</t>
+  </si>
+  <si>
+    <t>analizzare i rischi presentati dalle modifiche relative ai prodotti e ai servizi TIC da parte dei fornitori e dei prestatori di servizi e, se del caso, adottare tempestivamente misure di mitigazione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti tengono e tengono aggiornato un registro dei loro fornitori diretti e prestatori di servizi, tra cui:</t>
+  </si>
+  <si>
+    <t>punti di contatto per ciascun fornitore diretto e fornitore di servizi;</t>
+  </si>
+  <si>
+    <t>un elenco dei prodotti TIC, dei servizi TIC e dei processi TIC forniti dal fornitore diretto o dal prestatore di servizi ai soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera e), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono e attuano processi per gestire i rischi derivanti dall'acquisizione di servizi TIC o prodotti TIC per componenti critici per la sicurezza delle reti e dei sistemi informativi dei soggetti pertinenti, sulla base della valutazione dei rischi effettuata a norma del punto 2.1,  da fornitori o prestatori di servizi durante tutto il loro ciclo di vita.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.1.1., i processi di cui al punto 6.1.1. comprende:</t>
+  </si>
+  <si>
+    <t>requisiti di sicurezza da applicare ai servizi o ai prodotti TIC da acquistare;</t>
+  </si>
+  <si>
+    <t>requisiti relativi agli aggiornamenti di sicurezza per l'intero ciclo di vita dei servizi TIC o dei prodotti TIC, o alla sostituzione dopo la fine del periodo di supporto;</t>
+  </si>
+  <si>
+    <t>informazioni che descrivano i componenti hardware e software utilizzati nei servizi TIC o nei prodotti TIC;</t>
+  </si>
+  <si>
+    <t>informazioni che descrivano le funzioni di cibersicurezza implementate dei servizi TIC o dei prodotti TIC e la configurazione necessaria per il loro funzionamento sicuro;</t>
+  </si>
+  <si>
+    <t>la garanzia che i servizi TIC o i prodotti TIC siano conformi ai requisiti di sicurezza di cui alla lettera a);</t>
+  </si>
+  <si>
+    <t>metodi per convalidare che i servizi TIC o i prodotti TIC forniti siano conformi ai requisiti di sicurezza dichiarati, nonché la documentazione dei risultati della convalida.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le procedure a intervalli pianificati e quando si verificano incidenti significativi.</t>
+  </si>
+  <si>
+    <t>Prima di sviluppare una rete e un sistema informativo, compreso il software, i soggetti pertinenti stabiliscono norme per lo sviluppo sicuro delle reti e dei sistemi informativi e le applicano quando sviluppano internamente le reti e i sistemi informativi o quando esternalizzano lo sviluppo delle reti e dei sistemi informativi. Le norme riguardano tutte le fasi di sviluppo, comprese le specifiche, la progettazione, lo sviluppo, l'attuazione e il collaudo.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.2.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>effettuare un'analisi dei requisiti di sicurezza nelle fasi di specificazione e progettazione di qualsiasi progetto di sviluppo o acquisizione intrapreso dai soggetti pertinenti o per conto di tali soggetti;</t>
+  </si>
+  <si>
+    <t>applicare i principi per l'ingegnerizzazione di sistemi sicuri e i principi di codifica sicura a qualsiasi attività di sviluppo dei sistemi informativi, come la promozione di architetture zero-trust basate sulla sicurezza informatica fin dalla progettazione;</t>
+  </si>
+  <si>
+    <t>stabilire i requisiti di sicurezza relativi agli ambienti di sviluppo;</t>
+  </si>
+  <si>
+    <t>stabilire e implementare processi di test di sicurezza nel ciclo di vita dello sviluppo;</t>
+  </si>
+  <si>
+    <t>selezionare, proteggere e gestire in modo appropriato i dati dei test di sicurezza;</t>
+  </si>
+  <si>
+    <t>sanificare e anonimizzare i dati dei test in base alla valutazione dei rischi effettuata ai sensi del punto 2.1.</t>
+  </si>
+  <si>
+    <t>Per lo sviluppo esternalizzato di reti e sistemi informativi, i soggetti pertinenti applicano anche le politiche e le procedure di cui ai punti 5 e 6.1.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se necessario, aggiornano le loro norme in materia di sviluppo sicuro a intervalli programmati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti adottano le misure appropriate per stabilire, documentare, attuare e monitorare le configurazioni, comprese le configurazioni di sicurezza di hardware, software, servizi e reti.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.3.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>stabilire e garantire la sicurezza delle configurazioni dell'hardware, del software, dei servizi e delle reti;</t>
+  </si>
+  <si>
+    <t>stabilire e attuare processi e strumenti per far rispettare le configurazioni sicure stabilite per l'hardware, il software, i servizi e le reti, per i sistemi di nuova installazione e per i sistemi in funzione nel corso del loro ciclo di vita.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le configurazioni a intervalli pianificati o quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti applicano procedure di gestione delle modifiche per controllare le modifiche della rete e dei sistemi informativi. Se del caso, le procedure devono essere coerenti con le politiche generali dei soggetti pertinenti in materia di gestione del cambiamento.</t>
+  </si>
+  <si>
+    <t>Le procedure di cui al punto 6.4.1. si applica alle versioni, alle modifiche e ai cambiamenti di emergenza di qualsiasi software e hardware in funzione e alle modifiche alla configurazione. Le procedure garantiscono che tali modifiche siano documentate e, sulla base della valutazione dei rischi effettuata a norma del punto 2.1, testate e valutate in vista del potenziale impatto prima di essere attuate.</t>
+  </si>
+  <si>
+    <t>Nel caso in cui non sia stato possibile seguire le normali procedure di gestione delle modifiche a causa di un'emergenza, gli enti competenti documenteranno il risultato della modifica e la spiegazione del motivo per cui non è stato possibile seguire le procedure.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le procedure a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono, attuano e applicano una politica e procedure per i test di sicurezza.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati:</t>
+  </si>
+  <si>
+    <t>stabilire, sulla base della valutazione dei rischi effettuata a norma del punto 2.1, la necessità, la portata, la frequenza e il tipo di prove di sicurezza;</t>
+  </si>
+  <si>
+    <t>effettuare prove di sicurezza secondo una metodologia di prova documentata, che copra i componenti identificati come pertinenti per il funzionamento sicuro in un'analisi dei rischi;</t>
+  </si>
+  <si>
+    <t>documentare il tipo, l'ambito, il tempo e i risultati delle prove, compresa la valutazione della criticità e le azioni di mitigazione per ciascun reperto;</t>
+  </si>
+  <si>
+    <t>applicare azioni di mitigazione in caso di rilievi critici.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le loro politiche in materia di prove di sicurezza a intervalli programmati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti specificano e applicano procedure coerenti con le procedure di gestione delle modifiche di cui al punto 6.4.1. nonché con la gestione delle vulnerabilità, la gestione dei rischi e altre procedure di gestione pertinenti, per garantire che:</t>
+  </si>
+  <si>
+    <t>le patch di sicurezza siano applicate entro un termine ragionevole dal momento in cui sono disponibili;</t>
+  </si>
+  <si>
+    <t>le patch di sicurezza vengono testate prima di essere applicate nei sistemi di produzione;</t>
+  </si>
+  <si>
+    <t>le patch di sicurezza provengono da fonti attendibili e ne vengono controllate l'integrità;</t>
+  </si>
+  <si>
+    <t>Sono attuate misure supplementari e sono accettati i rischi residui nei casi in cui non sia disponibile una patch o non sia applicata ai sensi del punto 6.6.2.</t>
+  </si>
+  <si>
+    <t>In deroga al punto 6.6.1. a), i soggetti pertinenti possono scegliere di non applicare le patch di sicurezza quando gli svantaggi derivanti dall'applicazione delle patch di sicurezza superano i benefici della cibersicurezza. I soggetti pertinenti documentano e motivano debitamente i motivi di tale decisione.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti adottano le misure appropriate per proteggere la loro rete e i loro sistemi informativi dalle minacce informatiche.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.7.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>documentare l'architettura della rete in modo comprensibile e aggiornato;</t>
+  </si>
+  <si>
+    <t>determinare e applicare controlli per proteggere i domini di rete interni dei soggetti interessati dall'accesso non autorizzato;</t>
+  </si>
+  <si>
+    <t>configurare controlli per impedire accessi e comunicazioni di rete non necessari per il funzionamento dei soggetti interessati;</t>
+  </si>
+  <si>
+    <t>determinare e applicare controlli per l'accesso remoto alla rete e ai sistemi informativi, compreso l'accesso da parte dei fornitori di servizi;</t>
+  </si>
+  <si>
+    <t>non utilizzare i sistemi utilizzati per la gestione dell'attuazione della politica di sicurezza per altri scopi;</t>
+  </si>
+  <si>
+    <t>vietare o disattivare esplicitamente connessioni e servizi non necessari;</t>
+  </si>
+  <si>
+    <t>se del caso, consentire esclusivamente l'accesso alla rete e ai sistemi informativi dei soggetti pertinenti da parte di dispositivi autorizzati da tali soggetti;</t>
+  </si>
+  <si>
+    <t>consentire le connessioni dei fornitori di servizi solo dopo una richiesta di autorizzazione e per un determinato periodo di tempo, ad esempio la durata di un'operazione di manutenzione;</t>
+  </si>
+  <si>
+    <t>stabilire la comunicazione tra sistemi distinti solo attraverso canali affidabili che sono isolati utilizzando la separazione logica, crittografica o fisica da altri canali di comunicazione e forniscono un'identificazione sicura dei loro punti finali e la protezione dei dati del canale da modifiche o divulgazioni;</t>
+  </si>
+  <si>
+    <t>adottare un piano di attuazione per la transizione completa verso protocolli di comunicazione a livello di rete di ultima generazione in modo sicuro, appropriato e graduale e stabilire misure per accelerare tale transizione;</t>
+  </si>
+  <si>
+    <t>adottare un piano di attuazione per l'introduzione di norme moderne e interoperabili per le comunicazioni di posta elettronica concordate a livello internazionale per rendere sicure le comunicazioni di posta elettronica al fine di attenuare le vulnerabilità legate alle minacce connesse alla posta elettronica e stabilire misure per accelerare tale diffusione;</t>
+  </si>
+  <si>
+    <t>applicare le migliori pratiche per la sicurezza del DNS, e per la sicurezza del routing Internet e l'igiene del routing del traffico proveniente da e destinato alla rete.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano tali misure a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati segmentano i sistemi in reti o zone in base ai risultati della valutazione del rischio di cui al punto 2.1. Essi segmentano i loro sistemi e le loro reti dai sistemi e dalle reti di terzi.</t>
+  </si>
+  <si>
+    <t>A tal fine, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>considerare la relazione funzionale, logica e fisica, compresa l'ubicazione, tra sistemi e servizi affidabili;</t>
+  </si>
+  <si>
+    <t>concedere l'accesso a una rete o a una zona sulla base di una valutazione dei suoi requisiti di sicurezza;</t>
+  </si>
+  <si>
+    <t>mantenere i sistemi critici per il funzionamento dei soggetti interessati o per la sicurezza in zone protette;</t>
+  </si>
+  <si>
+    <t>dispiegare una zona demilitarizzata all'interno delle loro reti di comunicazione per garantire la sicurezza delle comunicazioni provenienti dalle loro reti o ad esse destinate;</t>
+  </si>
+  <si>
+    <t>limitare l'accesso e le comunicazioni tra le zone e all'interno delle zone a quelli necessari per il funzionamento dei soggetti pertinenti o per la sicurezza;</t>
+  </si>
+  <si>
+    <t>separare la rete dedicata per l'amministrazione delle reti e dei sistemi informativi dalla rete operativa dei soggetti interessati;</t>
+  </si>
+  <si>
+    <t>separare i canali di amministrazione della rete dal resto del traffico di rete;</t>
+  </si>
+  <si>
+    <t>separare i sistemi di produzione per i servizi dei soggetti interessati dai sistemi utilizzati nello sviluppo e nei test, compresi i backup.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la segmentazione della rete a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati proteggono la loro rete e i loro sistemi informativi da software dannosi e non autorizzati.</t>
+  </si>
+  <si>
+    <t>A tal fine, i soggetti pertinenti attuano in particolare misure che rilevino o impediscano l'uso di software dannoso o non autorizzato. I soggetti pertinenti garantiscono, se del caso, che la loro rete e i loro sistemi informativi siano dotati di software di rilevamento e risposta, aggiornati regolarmente in conformità della valutazione del rischio effettuata a norma del punto 2.1 e degli accordi contrattuali con i fornitori.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti ottengono informazioni sulle vulnerabilità tecniche della loro rete e dei loro sistemi informativi, valutano la loro esposizione a tali vulnerabilità e adottano misure adeguate per gestire tali vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 6.10.1, i soggetti pertinenti:</t>
+  </si>
+  <si>
+    <t>monitorare le informazioni sulle vulnerabilità attraverso canali appropriati, quali gli annunci dei CSIRT, delle autorità competenti o le informazioni fornite dai fornitori o dai prestatori di servizi;</t>
+  </si>
+  <si>
+    <t>effettuare, se del caso, scansioni delle vulnerabilità e registrare le prove dei risultati delle scansioni, a intervalli pianificati;</t>
+  </si>
+  <si>
+    <t>affrontare, senza indebito ritardo, le vulnerabilità individuate dai soggetti pertinenti come critiche per le loro operazioni;</t>
+  </si>
+  <si>
+    <t>garantire che la gestione delle vulnerabilità sia compatibile con le procedure di gestione delle modifiche, di gestione delle patch di sicurezza, di gestione dei rischi e di gestione degli incidenti;</t>
+  </si>
+  <si>
+    <t>stabilire una procedura per la comunicazione delle vulnerabilità conformemente alla politica nazionale coordinata applicabile in materia di divulgazione delle vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Se giustificato dal potenziale impatto della vulnerabilità, i soggetti pertinenti elaborano e attuano un piano per attenuare la vulnerabilità. In altri casi, i soggetti pertinenti documentano e comprovano il motivo per cui la vulnerabilità non richiede rimedio.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano a intervalli pianificati i canali utilizzati per monitorare le informazioni sulle vulnerabilità.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera f), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono, attuano e applicano una politica e procedure per valutare se le misure di gestione dei rischi di cibersicurezza adottate dal soggetto pertinente siano attuate e mantenute in modo efficace.</t>
+  </si>
+  <si>
+    <t>La politica e le procedure di cui al punto 7.1. tiene conto dei risultati della valutazione del rischio di cui al punto 2.1. e incidenti significativi passati. Gli enti pertinenti determinano:</t>
+  </si>
+  <si>
+    <t>quali misure di gestione dei rischi di cibersicurezza devono essere monitorate e misurate, compresi i processi e i controlli;</t>
+  </si>
+  <si>
+    <t>i metodi di monitoraggio, misurazione, analisi e valutazione, a seconda dei casi, per garantire risultati validi;</t>
+  </si>
+  <si>
+    <t>quando devono essere effettuati il monitoraggio e la misurazione;</t>
+  </si>
+  <si>
+    <t>chi è responsabile del monitoraggio e della misurazione dell'efficacia delle misure di gestione dei rischi di cibersicurezza;</t>
+  </si>
+  <si>
+    <t>quando i risultati del monitoraggio e della misurazione devono essere analizzati e valutati;</t>
+  </si>
+  <si>
+    <t>che deve analizzare e valutare questi risultati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la politica e le procedure a intervalli pianificati e in caso di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera g), della direttiva (UE) 2022/2555, i soggetti pertinenti assicurano che i loro dipendenti, compresi i membri degli organi di gestione, nonché i fornitori diretti e i prestatori di servizi, siano consapevoli dei rischi, siano informati dell'importanza della cibersicurezza e applichino pratiche di igiene informatica.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 8.1.1, i soggetti pertinenti offrono ai loro dipendenti, compresi i membri degli organi di gestione, nonché, se del caso, ai fornitori diretti e ai prestatori di servizi, conformemente al punto 5.1.4, un programma di sensibilizzazione che:</t>
+  </si>
+  <si>
+    <t>essere programmate nel tempo, in modo che le attività siano ripetute e coprano i nuovi dipendenti;</t>
+  </si>
+  <si>
+    <t>essere stabiliti in linea con la politica in materia di sicurezza delle reti e dell'informazione, con le politiche specifiche per argomento e con le procedure pertinenti in materia di sicurezza delle reti e dell'informazione;</t>
+  </si>
+  <si>
+    <t>coprire le minacce informatiche pertinenti, le misure di gestione dei rischi di cibersicurezza in vigore, i punti di contatto e le risorse per ulteriori informazioni e consigli su questioni di cibersicurezza, nonché le pratiche di igiene informatica per gli utenti.</t>
+  </si>
+  <si>
+    <t>Il programma di sensibilizzazione è verificato, se del caso, in termini di efficacia. Il programma di sensibilizzazione è aggiornato e offerto a intervalli pianificati, tenendo conto dei cambiamenti nelle pratiche di igiene informatica, dell'attuale panorama delle minacce e dei rischi posti ai soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti individuano i dipendenti i cui ruoli richiedono competenze e competenze pertinenti in materia di sicurezza e garantiscono che ricevano una formazione periodica sulla sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono, attuano e applicano un programma di formazione in linea con la politica in materia di sicurezza delle reti e dell'informazione, con le politiche specifiche per argomento e con altre procedure pertinenti in materia di sicurezza delle reti e dell'informazione, che stabilisca le esigenze di formazione per determinati ruoli e posizioni sulla base di criteri.</t>
+  </si>
+  <si>
+    <t>La formazione di cui al punto 8.2.1. deve essere pertinente alla funzione lavorativa del dipendente e la sua efficacia deve essere valutata. La formazione deve prendere in considerazione le misure di sicurezza in atto e riguardare quanto segue:</t>
+  </si>
+  <si>
+    <t>istruzioni relative alla configurazione e al funzionamento sicuri della rete e dei sistemi informativi, compresi i dispositivi mobili;</t>
+  </si>
+  <si>
+    <t>briefing sulle minacce informatiche note;</t>
+  </si>
+  <si>
+    <t>formazione del comportamento quando si verificano eventi rilevanti per la sicurezza.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti applicano la formazione ai membri del personale che si trasferiscono a nuove posizioni o ruoli che richiedono competenze e competenze pertinenti in materia di sicurezza.</t>
+  </si>
+  <si>
+    <t>Il programma deve essere aggiornato ed eseguito periodicamente tenendo conto delle politiche e delle regole applicabili, dei ruoli assegnati, delle responsabilità, nonché delle minacce informatiche note e degli sviluppi tecnologici.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera h), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono, attuano e applicano una politica e procedure relative alla crittografia, al fine di garantire un uso adeguato ed efficace della crittografia per proteggere la riservatezza, l'autenticità e l'integrità dei dati in linea con la classificazione delle attività dei soggetti pertinenti e con i risultati della valutazione del rischio effettuata a norma del punto 2.1.</t>
+  </si>
+  <si>
+    <t>La politica e le procedure di cui al punto 9.1 stabiliscono:</t>
+  </si>
+  <si>
+    <t>conformemente alla classificazione delle attività dei soggetti pertinenti, il tipo, la forza e la qualità delle misure crittografiche necessarie per proteggere i beni dei soggetti pertinenti, compresi i dati a riposo e i dati in transito;</t>
+  </si>
+  <si>
+    <t>sulla base della lettera a), i protocolli o le famiglie di protocolli da adottare, nonché gli algoritmi crittografici, la forza di cifratura, le soluzioni crittografiche e le pratiche di utilizzo da approvare e richiedere per l'uso nelle entità pertinenti, seguendo, se del caso, un approccio di agilità crittografica;</t>
+  </si>
+  <si>
+    <t>l'approccio dei soggetti pertinenti alla gestione con responsabilità strategiche, compresi, se del caso, i metodi per:</t>
+  </si>
+  <si>
+    <t>generazione di chiavi diverse per sistemi e applicazioni crittografiche;</t>
+  </si>
+  <si>
+    <t>emissione e ottenimento di certificati a chiave pubblica;</t>
+  </si>
+  <si>
+    <t>distribuzione delle chiavi alle entità previste, comprese le modalità di attivazione delle chiavi quando ricevute;</t>
+  </si>
+  <si>
+    <t>conservazione delle chiavi, compreso il modo in cui gli utenti autorizzati ottengono l'accesso alle chiavi;</t>
+  </si>
+  <si>
+    <t>modifica o aggiornamento delle chiavi, comprese le regole su quando e come cambiare le chiavi;</t>
+  </si>
+  <si>
+    <t>gestione delle chiavi compromesse;</t>
+  </si>
+  <si>
+    <t>revoca delle chiavi, comprese le modalità di prelievo o disattivazione delle chiavi;</t>
+  </si>
+  <si>
+    <t>recupero di chiavi perse o danneggiate;</t>
+  </si>
+  <si>
+    <t>backup o archiviazione delle chiavi;</t>
+  </si>
+  <si>
+    <t>distruggere le chiavi;</t>
+  </si>
+  <si>
+    <t>registrazione e verifica delle attività chiave relative alla gestione;</t>
+  </si>
+  <si>
+    <t>Impostazione delle date di attivazione e disattivazione delle chiavi, garantendo che le chiavi possano essere utilizzate solo per il periodo di tempo specificato in base alle regole dell'organizzazione sulla gestione delle chiavi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la loro politica e le loro procedure a intervalli pianificati, tenendo conto dello stato dell'arte della crittografia.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti garantiscono che i loro dipendenti e fornitori diretti e prestatori di servizi, ove applicabile, comprendano e si impegnino ad assumersi le loro responsabilità in materia di sicurezza, come appropriato per i servizi offerti e il lavoro e in linea con la politica dei soggetti pertinenti in materia di sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Il requisito di cui al punto 10.1.1. comprendono quanto segue:</t>
+  </si>
+  <si>
+    <t>meccanismi per garantire che tutti i dipendenti, i fornitori diretti e i fornitori di servizi, ove applicabile, comprendano e seguano le pratiche standard di igiene informatica che i soggetti pertinenti applicano ai sensi del punto 8.1.;</t>
+  </si>
+  <si>
+    <t>meccanismi per garantire che tutti gli utenti con accesso amministrativo o privilegiato siano consapevoli dei loro ruoli, responsabilità e autorità e agiscano in conformità con essi;</t>
+  </si>
+  <si>
+    <t>meccanismi per garantire che i membri degli organi di gestione comprendano e agiscano in conformità con il loro ruolo, le loro responsabilità e le loro autorità in materia di sicurezza delle reti e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>meccanismi per l'assunzione di personale qualificato per i rispettivi ruoli, come controlli delle referenze, procedure di controllo, convalida delle certificazioni o prove scritte.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano l'assegnazione del personale a ruoli specifici di cui al punto 1.2, nonché l'impegno delle risorse umane al riguardo, a intervalli programmati e almeno una volta all'anno. Essi aggiornano l'incarico ove necessario.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono, per quanto possibile, la verifica dei precedenti dei loro dipendenti e, se del caso, dei fornitori diretti e dei prestatori di servizi conformemente al punto 5.1.4, se necessario in funzione del loro ruolo, delle loro responsabilità e delle loro autorizzazioni.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 10.2.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>mettere in atto criteri che stabiliscano quali ruoli, responsabilità e autorità devono essere esercitati solo da persone di cui è stato accertato il background;</t>
+  </si>
+  <si>
+    <t>assicurare che la verifica di cui al punto 10.2.1 sia effettuata su tali soggetti prima che inizino ad esercitare tali ruoli, responsabilità e autorità, che devono tenere in considerazione le leggi, i regolamenti e l'etica applicabili in proporzione ai requisiti aziendali, alla classificazione degli asset di cui al punto 12.1. e la rete e i sistemi informativi a cui accedere, nonché i rischi percepiti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la politica a intervalli pianificati e la aggiornano ove necessario.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti provvedono affinché le responsabilità e i doveri in materia di sicurezza delle reti e dei sistemi informativi che rimangono validi dopo la cessazione o il cambiamento di rapporto di lavoro dei loro dipendenti siano definiti e applicati contrattualmente.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 10.3.1, i soggetti pertinenti devono includere nei termini e nelle condizioni di impiego, nel contratto o nell'accordo della persona le responsabilità e i doveri che sono ancora validi dopo la cessazione del rapporto di lavoro o del contratto, come le clausole di riservatezza.</t>
+  </si>
+  <si>
+    <t>Gli enti pertinenti istituiscono, comunicano e mantengono un processo disciplinare per la gestione delle violazioni delle politiche di sicurezza delle reti e dei sistemi informativi. Il processo deve prendere in considerazione i pertinenti requisiti legali, statutari, contrattuali e commerciali.</t>
+  </si>
+  <si>
+    <t>Gli enti pertinenti riesaminano e, se del caso, aggiornano il processo disciplinare a intervalli pianificati e, se necessario, a causa di modifiche giuridiche o di modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono, documentano e attuano politiche di controllo dell'accesso logico e fisico per l'accesso alle loro reti e ai loro sistemi informativi, sulla base di requisiti aziendali e di sicurezza delle reti e dei sistemi informativi.</t>
+  </si>
+  <si>
+    <t>Le politiche di cui al punto 11.1.1. dovere:</t>
+  </si>
+  <si>
+    <t>gestire l'accesso da parte di persone, inclusi personale, visitatori ed entità esterne come fornitori e fornitori di servizi;</t>
+  </si>
+  <si>
+    <t>indirizzare l'accesso da parte della rete e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>Assicurarsi che l'accesso sia concesso solo agli utenti che sono stati adeguatamente autenticati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano le politiche a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti interessati forniscono, modificano, rimuovono e documentano i diritti di accesso alla rete e ai sistemi informativi conformemente alla politica di controllo dell'accesso di cui al punto 11.1.</t>
+  </si>
+  <si>
+    <t>assegnare e revocare i diritti di accesso in base ai principi della necessità di sapere, del privilegio minimo e della separazione dei compiti;</t>
+  </si>
+  <si>
+    <t>garantire che i diritti di accesso siano modificati di conseguenza in caso di cessazione o cambio di rapporto di lavoro;</t>
+  </si>
+  <si>
+    <t>garantire che l'accesso alla rete e ai sistemi informativi sia autorizzato dai soggetti interessati;</t>
+  </si>
+  <si>
+    <t>garantire che i diritti di accesso si riferiscano in modo adeguato all'accesso di terzi, quali visitatori, fornitori e prestatori di servizi, in particolare limitando i diritti di accesso in termini di portata e durata;</t>
+  </si>
+  <si>
+    <t>tenere un registro dei diritti di accesso concessi;</t>
+  </si>
+  <si>
+    <t>Applicare la registrazione alla gestione dei diritti di accesso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano i diritti di accesso a intervalli pianificati e li modificano in base alle modifiche organizzative. I soggetti pertinenti documentano i risultati del riesame, comprese le necessarie modifiche dei diritti di accesso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti devono mantenere politiche per la gestione degli account privilegiati e degli account di amministrazione del sistema nell'ambito della politica di controllo dell'accesso di cui al punto 11.1.</t>
+  </si>
+  <si>
+    <t>Le politiche di cui al punto 11.3.1. dovere:</t>
+  </si>
+  <si>
+    <t>stabilire procedure di identificazione forte, autenticazione, come l'autenticazione a più fattori, e procedure di autorizzazione per gli account privilegiati e gli account di amministrazione del sistema;</t>
+  </si>
+  <si>
+    <t>impostare account specifici da utilizzare esclusivamente per le operazioni di amministrazione del sistema, quali l'installazione, la configurazione, la gestione o la manutenzione;</t>
+  </si>
+  <si>
+    <t>individualizzare e limitare il più possibile i privilegi di amministrazione del sistema,</t>
+  </si>
+  <si>
+    <t>Specificare che gli account di amministrazione del sistema vengano utilizzati solo per connettersi ai sistemi di amministrazione del sistema.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano i diritti di accesso degli account privilegiati e degli account di amministrazione del sistema a intervalli pianificati e sono modificati in base alle modifiche organizzative, e documentano i risultati del riesame, comprese le necessarie modifiche dei diritti di accesso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti limitano e controllano l'uso dei sistemi di amministrazione del sistema conformemente alla politica di controllo dell'accesso di cui al punto 11.1.</t>
+  </si>
+  <si>
+    <t>utilizzare i sistemi di amministrazione del sistema solo per scopi di amministrazione del sistema e non per altre operazioni;</t>
+  </si>
+  <si>
+    <t>separare logicamente tali sistemi dal software applicativo non utilizzato per scopi amministrativi del sistema,</t>
+  </si>
+  <si>
+    <t>Proteggi l'accesso ai sistemi di amministrazione del sistema attraverso l'autenticazione e la crittografia.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti gestiscono l'intero ciclo di vita delle identità delle reti e dei sistemi informativi e dei loro utenti.</t>
+  </si>
+  <si>
+    <t>istituire identità univoche per le reti e i sistemi informativi e per i loro utenti;</t>
+  </si>
+  <si>
+    <t>collegare l'identità degli utenti a una singola persona;</t>
+  </si>
+  <si>
+    <t>garantire la supervisione delle identità delle reti e dei sistemi informativi;</t>
+  </si>
+  <si>
+    <t>Applicare la registrazione alla gestione delle identità.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti autorizzano l'assegnazione di identità a più persone, come le identità condivise, solo se necessarie per motivi commerciali o operativi e se sono soggette a una procedura di approvazione e a una documentazione esplicite. I soggetti pertinenti tengono conto delle identità assegnate a più persone nel quadro di gestione dei rischi di cibersicurezza di cui al punto 2.1.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano periodicamente l'identità delle reti e dei sistemi informativi e dei relativi utenti e, se non sono più necessari, le disattivano senza indugio.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti attuano procedure e tecnologie di autenticazione sicure basate sulle restrizioni di accesso e sulla politica di controllo degli accessi.</t>
+  </si>
+  <si>
+    <t>garantire che la forza dell'autenticazione sia adeguata alla classificazione dell'asset a cui accedere;</t>
+  </si>
+  <si>
+    <t>controllare l'assegnazione agli utenti e la gestione delle informazioni segrete di autenticazione mediante un processo che garantisca la riservatezza delle informazioni, compresa la consulenza al personale sulla gestione appropriata delle informazioni di autenticazione;</t>
+  </si>
+  <si>
+    <t>richiedere la modifica delle credenziali di autenticazione inizialmente, a intervalli predefiniti e in caso di sospetto che le credenziali siano state compromesse;</t>
+  </si>
+  <si>
+    <t>richiedere il reset delle credenziali di autenticazione e il blocco degli utenti dopo un numero predefinito di tentativi di accesso non andati a buon fine;</t>
+  </si>
+  <si>
+    <t>terminare le sessioni inattive dopo un periodo di inattività predefinito; e</t>
+  </si>
+  <si>
+    <t>Richiedono credenziali separate per accedere agli account amministrativi o di accesso con privilegi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti utilizzano, per quanto possibile, metodi di autenticazione all'avanguardia, in funzione del rischio valutato associato e della classificazione dell'attività a cui accedere, nonché di informazioni di autenticazione univoche.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano le procedure e le tecnologie di autenticazione a intervalli pianificati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono che gli utenti siano autenticati mediante più fattori di autenticazione o meccanismi di autenticazione continua per l'accesso alla rete e ai sistemi informativi dei soggetti pertinenti, se del caso, conformemente alla classificazione del bene a cui accedere.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti garantiscono che il livello di autenticazione sia adeguato per la classificazione dell'attività a cui accedere.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti stabiliscono i livelli di classificazione di tutte le attività, comprese le informazioni, nell'ambito della loro rete e dei loro sistemi informativi per il livello di protezione richiesto.</t>
+  </si>
+  <si>
+    <t>Ai fini del punto 12.1.1, i soggetti interessati:</t>
+  </si>
+  <si>
+    <t>stabilire un sistema di livelli di classificazione delle attività;</t>
+  </si>
+  <si>
+    <t>associare a tutti gli asset un livello di classificazione, basato su requisiti di riservatezza, integrità, autenticità e disponibilità, per indicare la protezione richiesta in base alla loro sensibilità, criticità, rischio e valore aziendale;</t>
+  </si>
+  <si>
+    <t>allineare i requisiti di disponibilità degli asset con gli obiettivi di consegna e ripristino stabiliti nei piani di continuità aziendale e ripristino di emergenza.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti effettuano revisioni periodiche dei livelli di classificazione delle attività e li aggiornano, se del caso.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono, attuano e applicano una politica per la corretta gestione delle risorse, comprese le informazioni, conformemente alla loro politica in materia di sicurezza delle reti e delle informazioni, e comunicano la politica per la corretta gestione delle risorse a chiunque utilizzi o gestisca le risorse.</t>
+  </si>
+  <si>
+    <t>La politica deve:</t>
+  </si>
+  <si>
+    <t>coprire l'intero ciclo di vita dei beni, compresi l'acquisizione, l'uso, lo stoccaggio, il trasporto e la cessione;</t>
+  </si>
+  <si>
+    <t>fornire norme sull'uso sicuro, la conservazione sicura, il trasporto sicuro e la cancellazione e la distruzione irrimediabili dei beni;</t>
+  </si>
+  <si>
+    <t>prevedere che il trasferimento avvenga in modo sicuro, in funzione del tipo di attività da trasferire.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e, se del caso, aggiornano la politica a intervalli pianificati e quando si verificano incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti stabiliscono, attuano e applicano una politica in materia di gestione dei supporti di archiviazione rimovibili e la comunicano ai loro dipendenti e ai terzi che gestiscono i supporti di archiviazione rimovibili presso i locali dei soggetti interessati o in altri luoghi in cui i supporti rimovibili sono collegati alla rete e ai sistemi informativi dei soggetti interessati.</t>
+  </si>
+  <si>
+    <t>prevedere un divieto tecnico del collegamento di supporti amovibili, a meno che non vi sia un motivo organizzativo per il loro utilizzo;</t>
+  </si>
+  <si>
+    <t>provvedere alla disabilitazione dell'autoesecuzione da tali supporti e alla scansione dei supporti alla ricerca di codice dannoso prima che siano utilizzati sui sistemi delle entità pertinenti;</t>
+  </si>
+  <si>
+    <t>fornire misure per il controllo e la protezione dei dispositivi di archiviazione portatili contenenti dati durante il transito e l'archiviazione;</t>
+  </si>
+  <si>
+    <t>se del caso, prevedere misure per l'uso di tecniche crittografiche per proteggere i dati su supporti di archiviazione rimovibili.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti elaborano e mantengono un inventario completo, accurato, aggiornato e coerente delle loro attività. Essi registrano le modifiche apportate alle voci dell'inventario in modo tracciabile.</t>
+  </si>
+  <si>
+    <t>La granularità dell'inventario delle attività è a un livello adeguato alle esigenze dei soggetti interessati. L'inventario comprende i seguenti elementi:</t>
+  </si>
+  <si>
+    <t>l'elenco delle operazioni e dei servizi e la loro descrizione,</t>
+  </si>
+  <si>
+    <t>l'elenco delle reti e dei sistemi informativi e di altri beni associati a sostegno delle operazioni e dei servizi dei soggetti pertinenti.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti riesaminano e aggiornano periodicamente l'inventario e le loro attività e documentano la cronologia delle modifiche.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti istituiscono, attuano e applicano procedure atte a garantire che i loro beni che sono sotto la custodia del personale siano depositati, restituiti o cancellati al momento della cessazione del rapporto di lavoro e documentano il deposito, la restituzione e la cancellazione di tali beni. Qualora il deposito, la restituzione o la cancellazione delle attività non siano possibili, i soggetti pertinenti provvedono affinché le attività non possano più accedere alla rete e ai sistemi informativi dei soggetti pertinenti conformemente al punto 12.2.2.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera c), della direttiva (UE) 2022/2555, i soggetti pertinenti prevengono la perdita, il danneggiamento o la compromissione della rete e dei sistemi informativi o l'interruzione delle loro operazioni a causa di guasti e perturbazioni delle utenze di supporto.</t>
+  </si>
+  <si>
+    <t>A tal fine, i soggetti interessati, se del caso:</t>
+  </si>
+  <si>
+    <t>proteggere le strutture da interruzioni di corrente e altre interruzioni causate da guasti nelle utenze di supporto come elettricità, telecomunicazioni, approvvigionamento idrico, gas, fognature, ventilazione e aria condizionata;</t>
+  </si>
+  <si>
+    <t>prendere in considerazione l'uso della ridondanza nei servizi di pubblica utilità;</t>
+  </si>
+  <si>
+    <t>proteggere i servizi di pubblica utilità per l'energia elettrica e le telecomunicazioni, che trasportano dati o alimentano reti e sistemi informativi, da intercettazioni e danni;</t>
+  </si>
+  <si>
+    <t>monitorare i servizi di pubblica utilità di cui alla lettera c) e segnalare al personale interno o esterno competente eventi al di fuori delle soglie minime e massime di controllo di cui al punto 13.2.2, lettera b), che interessano i servizi di pubblica utilità;</t>
+  </si>
+  <si>
+    <t>concludere contratti per l'alimentazione di emergenza con i servizi corrispondenti, ad esempio per il combustibile per l'alimentazione di emergenza;</t>
+  </si>
+  <si>
+    <t>garantire l'efficacia continua, monitorare, mantenere e testare l'alimentazione della rete e dei sistemi informativi necessari per il funzionamento del servizio offerto, in particolare l'elettricità, il controllo della temperatura e dell'umidità, le telecomunicazioni e la connessione a Internet.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano le misure di protezione su base periodica o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera e), della direttiva (UE) 2022/2555, i soggetti pertinenti prevengono o riducono le conseguenze di eventi derivanti da minacce fisiche e ambientali, quali calamità naturali e altre minacce intenzionali o non intenzionali, sulla base dei risultati della valutazione del rischio effettuata a norma del punto 2.1.</t>
+  </si>
+  <si>
+    <t>progettare e attuare misure di protezione contro le minacce fisiche e ambientali;</t>
+  </si>
+  <si>
+    <t>determinare le soglie minime e massime di controllo per le minacce fisiche e ambientali;</t>
+  </si>
+  <si>
+    <t>monitorare i parametri ambientali e segnalare al personale interno o esterno competente gli eventi al di fuori delle soglie minime e massime di controllo di cui alla lettera b).</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano le misure di protezione contro le minacce fisiche e ambientali su base regolare o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>Ai fini dell'articolo 21, paragrafo 2, lettera i), della direttiva (UE) 2022/2555, i soggetti pertinenti prevengono e monitorano l'accesso fisico non autorizzato, i danni e le interferenze alle loro reti e ai loro sistemi informativi.</t>
+  </si>
+  <si>
+    <t>sulla base della valutazione dei rischi effettuata a norma del punto 2.1, predisporre e utilizzare perimetri di sicurezza per proteggere le aree in cui sono ubicate le reti e i sistemi informativi e altri beni associati;</t>
+  </si>
+  <si>
+    <t>proteggere le aree di cui alla lettera a) mediante adeguati controlli all'ingresso e punti di accesso;</t>
+  </si>
+  <si>
+    <t>progettare e realizzare la sicurezza fisica di uffici, locali e strutture,</t>
+  </si>
+  <si>
+    <t>monitorare costantemente i propri locali per verificare la presenza di accessi fisici non autorizzati.</t>
+  </si>
+  <si>
+    <t>I soggetti pertinenti testano, riesaminano e, se del caso, aggiornano le misure di controllo dell'accesso fisico su base periodica o a seguito di incidenti significativi o modifiche significative delle operazioni o dei rischi.</t>
+  </si>
+  <si>
+    <t>name[it]</t>
+  </si>
+  <si>
+    <t>description[it]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5566,6 +6897,27 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -5602,10 +6954,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5669,9 +7022,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5687,7 +7043,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6003,10 +7359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBB3CEB-58CF-7A4E-B0B7-D78CC9ABFCD0}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6029,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6219,17 +7575,61 @@
         <v>1768</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>1780</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" display="https://eur-lex.europa.eu/legal-content/ES/TXT/HTML/?uri=OJ:L_202402690" xr:uid="{D1563217-847D-4D4A-BA31-C18CFAAD7D1B}"/>
+    <hyperlink ref="B30" r:id="rId2" display="https://eur-lex.europa.eu/legal-content/ES/TXT/HTML/?uri=OJ:L_202402690" xr:uid="{CF1E473B-5741-0547-BA74-3137563E9E7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D018D80E-CD86-A646-A799-4CD19C4C2182}">
-  <dimension ref="A1:CZ440"/>
+  <dimension ref="A1:CX440"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="A154" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6241,9 +7641,11 @@
     <col min="8" max="8" width="73" style="14" customWidth="1"/>
     <col min="9" max="9" width="56.6640625" style="14" customWidth="1"/>
     <col min="10" max="10" width="76.6640625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="56.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="76.6640625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:104" ht="17">
+    <row r="1" spans="1:102" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6274,8 +7676,14 @@
       <c r="J1" s="22" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="2" spans="1:104" s="8" customFormat="1" ht="51">
+      <c r="K1" s="22" t="s">
+        <v>2215</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -6295,8 +7703,12 @@
         <v>1334</v>
       </c>
       <c r="J2" s="17"/>
-      <c r="K2"/>
-      <c r="L2"/>
+      <c r="K2" s="20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
@@ -6387,10 +7799,8 @@
       <c r="CV2"/>
       <c r="CW2"/>
       <c r="CX2"/>
-      <c r="CY2"/>
-      <c r="CZ2"/>
-    </row>
-    <row r="3" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="3" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B3" s="10">
         <v>2</v>
       </c>
@@ -6410,8 +7820,12 @@
         <v>1335</v>
       </c>
       <c r="J3" s="17"/>
-      <c r="K3"/>
-      <c r="L3"/>
+      <c r="K3" s="19" t="s">
+        <v>1786</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
@@ -6502,10 +7916,8 @@
       <c r="CV3"/>
       <c r="CW3"/>
       <c r="CX3"/>
-      <c r="CY3"/>
-      <c r="CZ3"/>
-    </row>
-    <row r="4" spans="1:104" ht="34">
+    </row>
+    <row r="4" spans="1:102" ht="34">
       <c r="B4">
         <v>3</v>
       </c>
@@ -6521,8 +7933,14 @@
       <c r="J4" s="17" t="s">
         <v>1336</v>
       </c>
-    </row>
-    <row r="5" spans="1:104" ht="34">
+      <c r="K4" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:102" ht="34">
       <c r="A5" t="s">
         <v>589</v>
       </c>
@@ -6541,8 +7959,14 @@
       <c r="J5" s="17" t="s">
         <v>1337</v>
       </c>
-    </row>
-    <row r="6" spans="1:104" ht="34">
+      <c r="K5" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:102" ht="34">
       <c r="A6" t="s">
         <v>589</v>
       </c>
@@ -6561,8 +7985,14 @@
       <c r="J6" s="17" t="s">
         <v>1338</v>
       </c>
-    </row>
-    <row r="7" spans="1:104" ht="17">
+      <c r="K6" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:102" ht="17">
       <c r="A7" t="s">
         <v>589</v>
       </c>
@@ -6581,8 +8011,14 @@
       <c r="J7" s="17" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="8" spans="1:104" ht="34">
+      <c r="K7" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:102" ht="34">
       <c r="A8" t="s">
         <v>589</v>
       </c>
@@ -6601,8 +8037,14 @@
       <c r="J8" s="17" t="s">
         <v>1340</v>
       </c>
-    </row>
-    <row r="9" spans="1:104" ht="51">
+      <c r="K8" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:102" ht="51">
       <c r="A9" t="s">
         <v>589</v>
       </c>
@@ -6621,8 +8063,14 @@
       <c r="J9" s="17" t="s">
         <v>1341</v>
       </c>
-    </row>
-    <row r="10" spans="1:104" ht="34">
+      <c r="K9" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:102" ht="34">
       <c r="A10" t="s">
         <v>589</v>
       </c>
@@ -6641,8 +8089,14 @@
       <c r="J10" s="17" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="11" spans="1:104" ht="17">
+      <c r="K10" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:102" ht="17">
       <c r="A11" t="s">
         <v>589</v>
       </c>
@@ -6664,8 +8118,14 @@
       <c r="J11" s="17" t="s">
         <v>1343</v>
       </c>
-    </row>
-    <row r="12" spans="1:104" ht="34">
+      <c r="K11" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:102" ht="34">
       <c r="A12" t="s">
         <v>589</v>
       </c>
@@ -6685,8 +8145,14 @@
       <c r="J12" s="17" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="13" spans="1:104" ht="17">
+      <c r="K12" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:102" ht="17">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -6705,8 +8171,14 @@
       <c r="J13" s="17" t="s">
         <v>1345</v>
       </c>
-    </row>
-    <row r="14" spans="1:104" ht="34">
+      <c r="K13" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:102" ht="34">
       <c r="A14" t="s">
         <v>589</v>
       </c>
@@ -6725,8 +8197,14 @@
       <c r="J14" s="17" t="s">
         <v>1346</v>
       </c>
-    </row>
-    <row r="15" spans="1:104" ht="34">
+      <c r="K14" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:102" ht="34">
       <c r="A15" t="s">
         <v>589</v>
       </c>
@@ -6745,8 +8223,14 @@
       <c r="J15" s="17" t="s">
         <v>1347</v>
       </c>
-    </row>
-    <row r="16" spans="1:104" ht="67.5" customHeight="1">
+      <c r="K15" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:102" ht="67.5" customHeight="1">
       <c r="A16" t="s">
         <v>589</v>
       </c>
@@ -6765,8 +8249,14 @@
       <c r="J16" s="17" t="s">
         <v>1348</v>
       </c>
-    </row>
-    <row r="17" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K16" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B17" s="10">
         <v>2</v>
       </c>
@@ -6788,8 +8278,12 @@
         <v>1349</v>
       </c>
       <c r="J17" s="17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="K17" s="19" t="s">
+        <v>1787</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -6880,10 +8374,8 @@
       <c r="CV17"/>
       <c r="CW17"/>
       <c r="CX17"/>
-      <c r="CY17"/>
-      <c r="CZ17"/>
-    </row>
-    <row r="18" spans="1:104" ht="85">
+    </row>
+    <row r="18" spans="1:102" ht="85">
       <c r="A18" t="s">
         <v>589</v>
       </c>
@@ -6905,8 +8397,14 @@
       <c r="J18" s="17" t="s">
         <v>1350</v>
       </c>
-    </row>
-    <row r="19" spans="1:104" ht="68">
+      <c r="K18" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:102" ht="68">
       <c r="A19" t="s">
         <v>589</v>
       </c>
@@ -6925,8 +8423,14 @@
       <c r="J19" s="17" t="s">
         <v>1351</v>
       </c>
-    </row>
-    <row r="20" spans="1:104" ht="34">
+      <c r="K19" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:102" ht="34">
       <c r="A20" t="s">
         <v>589</v>
       </c>
@@ -6945,8 +8449,14 @@
       <c r="J20" s="17" t="s">
         <v>1352</v>
       </c>
-    </row>
-    <row r="21" spans="1:104" ht="51">
+      <c r="K20" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:102" ht="51">
       <c r="A21" t="s">
         <v>589</v>
       </c>
@@ -6965,8 +8475,14 @@
       <c r="J21" s="17" t="s">
         <v>1353</v>
       </c>
-    </row>
-    <row r="22" spans="1:104" ht="34">
+      <c r="K21" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:102" ht="34">
       <c r="A22" t="s">
         <v>589</v>
       </c>
@@ -6985,8 +8501,14 @@
       <c r="J22" s="17" t="s">
         <v>1354</v>
       </c>
-    </row>
-    <row r="23" spans="1:104" ht="68">
+      <c r="K22" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:102" ht="68">
       <c r="A23" t="s">
         <v>589</v>
       </c>
@@ -7005,8 +8527,14 @@
       <c r="J23" s="17" t="s">
         <v>1355</v>
       </c>
-    </row>
-    <row r="24" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K23" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L23" s="17" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B24" s="8">
         <v>1</v>
       </c>
@@ -7028,8 +8556,12 @@
         <v>1356</v>
       </c>
       <c r="J24" s="17"/>
-      <c r="K24"/>
-      <c r="L24"/>
+      <c r="K24" s="20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
@@ -7120,10 +8652,8 @@
       <c r="CV24"/>
       <c r="CW24"/>
       <c r="CX24"/>
-      <c r="CY24"/>
-      <c r="CZ24"/>
-    </row>
-    <row r="25" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="25" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B25" s="10">
         <v>2</v>
       </c>
@@ -7145,8 +8675,12 @@
         <v>1357</v>
       </c>
       <c r="J25" s="17"/>
-      <c r="K25"/>
-      <c r="L25"/>
+      <c r="K25" s="19" t="s">
+        <v>1789</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
@@ -7237,10 +8771,8 @@
       <c r="CV25"/>
       <c r="CW25"/>
       <c r="CX25"/>
-      <c r="CY25"/>
-      <c r="CZ25"/>
-    </row>
-    <row r="26" spans="1:104" ht="170">
+    </row>
+    <row r="26" spans="1:102" ht="170">
       <c r="A26" t="s">
         <v>589</v>
       </c>
@@ -7259,8 +8791,14 @@
       <c r="J26" s="17" t="s">
         <v>1358</v>
       </c>
-    </row>
-    <row r="27" spans="1:104" ht="102">
+      <c r="K26" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:102" ht="102">
       <c r="A27" t="s">
         <v>589</v>
       </c>
@@ -7282,8 +8820,14 @@
       <c r="J27" s="17" t="s">
         <v>1359</v>
       </c>
-    </row>
-    <row r="28" spans="1:104" ht="17">
+      <c r="K27" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:102" ht="17">
       <c r="A28" t="s">
         <v>589</v>
       </c>
@@ -7302,8 +8846,14 @@
       <c r="J28" s="17" t="s">
         <v>1360</v>
       </c>
-    </row>
-    <row r="29" spans="1:104" ht="34">
+      <c r="K28" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L28" s="17" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="29" spans="1:102" ht="34">
       <c r="A29" t="s">
         <v>589</v>
       </c>
@@ -7322,8 +8872,14 @@
       <c r="J29" s="17" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="30" spans="1:104" ht="17">
+      <c r="K29" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="30" spans="1:102" ht="17">
       <c r="A30" t="s">
         <v>589</v>
       </c>
@@ -7342,8 +8898,14 @@
       <c r="J30" s="17" t="s">
         <v>1367</v>
       </c>
-    </row>
-    <row r="31" spans="1:104" ht="85">
+      <c r="K30" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:102" ht="85">
       <c r="A31" t="s">
         <v>589</v>
       </c>
@@ -7362,8 +8924,14 @@
       <c r="J31" s="17" t="s">
         <v>1361</v>
       </c>
-    </row>
-    <row r="32" spans="1:104" ht="68">
+      <c r="K31" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:102" ht="68">
       <c r="A32" t="s">
         <v>589</v>
       </c>
@@ -7382,8 +8950,14 @@
       <c r="J32" s="17" t="s">
         <v>1362</v>
       </c>
-    </row>
-    <row r="33" spans="1:104" ht="34">
+      <c r="K32" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L32" s="17" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:102" ht="34">
       <c r="A33" t="s">
         <v>589</v>
       </c>
@@ -7402,8 +8976,14 @@
       <c r="J33" s="17" t="s">
         <v>1363</v>
       </c>
-    </row>
-    <row r="34" spans="1:104" ht="34">
+      <c r="K33" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L33" s="17" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="34" spans="1:102" ht="34">
       <c r="A34" t="s">
         <v>589</v>
       </c>
@@ -7422,8 +9002,14 @@
       <c r="J34" s="17" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="35" spans="1:104" ht="34">
+      <c r="K34" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:102" ht="34">
       <c r="A35" t="s">
         <v>589</v>
       </c>
@@ -7442,8 +9028,14 @@
       <c r="J35" s="17" t="s">
         <v>1365</v>
       </c>
-    </row>
-    <row r="36" spans="1:104" ht="51">
+      <c r="K35" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L35" s="17" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:102" ht="51">
       <c r="A36" t="s">
         <v>589</v>
       </c>
@@ -7462,8 +9054,14 @@
       <c r="J36" s="17" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="37" spans="1:104" ht="51">
+      <c r="K36" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L36" s="17" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="37" spans="1:102" ht="51">
       <c r="A37" t="s">
         <v>589</v>
       </c>
@@ -7482,8 +9080,14 @@
       <c r="J37" s="17" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="38" spans="1:104" ht="102">
+      <c r="K37" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L37" s="17" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="38" spans="1:102" ht="102">
       <c r="A38" t="s">
         <v>589</v>
       </c>
@@ -7505,8 +9109,14 @@
       <c r="J38" s="17" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="39" spans="1:104" ht="68">
+      <c r="K38" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L38" s="17" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:102" ht="68">
       <c r="A39" t="s">
         <v>589</v>
       </c>
@@ -7525,8 +9135,14 @@
       <c r="J39" s="17" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="40" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K39" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L39" s="17" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="40" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B40" s="10">
         <v>2</v>
       </c>
@@ -7548,8 +9164,12 @@
         <v>1372</v>
       </c>
       <c r="J40" s="17"/>
-      <c r="K40"/>
-      <c r="L40"/>
+      <c r="K40" s="19" t="s">
+        <v>1790</v>
+      </c>
+      <c r="L40" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
@@ -7640,10 +9260,8 @@
       <c r="CV40"/>
       <c r="CW40"/>
       <c r="CX40"/>
-      <c r="CY40"/>
-      <c r="CZ40"/>
-    </row>
-    <row r="41" spans="1:104" ht="85">
+    </row>
+    <row r="41" spans="1:102" ht="85">
       <c r="A41" t="s">
         <v>589</v>
       </c>
@@ -7662,8 +9280,14 @@
       <c r="J41" s="17" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="42" spans="1:104" ht="85">
+      <c r="K41" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:102" ht="85">
       <c r="A42" t="s">
         <v>589</v>
       </c>
@@ -7682,8 +9306,14 @@
       <c r="J42" s="17" t="s">
         <v>1374</v>
       </c>
-    </row>
-    <row r="43" spans="1:104" ht="51">
+      <c r="K42" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L42" s="17" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:102" ht="51">
       <c r="A43" t="s">
         <v>589</v>
       </c>
@@ -7702,8 +9332,14 @@
       <c r="J43" s="17" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="44" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K43" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L43" s="17" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B44" s="10">
         <v>2</v>
       </c>
@@ -7725,8 +9361,12 @@
         <v>1376</v>
       </c>
       <c r="J44" s="17"/>
-      <c r="K44"/>
-      <c r="L44"/>
+      <c r="K44" s="19" t="s">
+        <v>1791</v>
+      </c>
+      <c r="L44" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
@@ -7817,10 +9457,8 @@
       <c r="CV44"/>
       <c r="CW44"/>
       <c r="CX44"/>
-      <c r="CY44"/>
-      <c r="CZ44"/>
-    </row>
-    <row r="45" spans="1:104" ht="51">
+    </row>
+    <row r="45" spans="1:102" ht="51">
       <c r="A45" t="s">
         <v>589</v>
       </c>
@@ -7839,8 +9477,14 @@
       <c r="J45" s="17" t="s">
         <v>1377</v>
       </c>
-    </row>
-    <row r="46" spans="1:104" ht="136">
+      <c r="K45" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L45" s="17" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:102" ht="136">
       <c r="A46" t="s">
         <v>589</v>
       </c>
@@ -7859,8 +9503,14 @@
       <c r="J46" s="17" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="47" spans="1:104" ht="85">
+      <c r="K46" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L46" s="17" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="47" spans="1:102" ht="85">
       <c r="A47" t="s">
         <v>589</v>
       </c>
@@ -7882,8 +9532,14 @@
       <c r="J47" s="17" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="48" spans="1:104" ht="51">
+      <c r="K47" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L47" s="17" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="48" spans="1:102" ht="51">
       <c r="A48" t="s">
         <v>589</v>
       </c>
@@ -7902,8 +9558,14 @@
       <c r="J48" s="17" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="49" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K48" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L48" s="17" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="49" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B49" s="8">
         <v>1</v>
       </c>
@@ -7925,8 +9587,12 @@
         <v>1381</v>
       </c>
       <c r="J49" s="17"/>
-      <c r="K49"/>
-      <c r="L49"/>
+      <c r="K49" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M49"/>
       <c r="N49"/>
       <c r="O49"/>
@@ -8017,10 +9683,8 @@
       <c r="CV49"/>
       <c r="CW49"/>
       <c r="CX49"/>
-      <c r="CY49"/>
-      <c r="CZ49"/>
-    </row>
-    <row r="50" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="50" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B50" s="10">
         <v>2</v>
       </c>
@@ -8042,8 +9706,12 @@
         <v>1382</v>
       </c>
       <c r="J50" s="17"/>
-      <c r="K50"/>
-      <c r="L50"/>
+      <c r="K50" s="19" t="s">
+        <v>1793</v>
+      </c>
+      <c r="L50" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M50"/>
       <c r="N50"/>
       <c r="O50"/>
@@ -8134,10 +9802,8 @@
       <c r="CV50"/>
       <c r="CW50"/>
       <c r="CX50"/>
-      <c r="CY50"/>
-      <c r="CZ50"/>
-    </row>
-    <row r="51" spans="1:104" ht="102">
+    </row>
+    <row r="51" spans="1:102" ht="102">
       <c r="A51" t="s">
         <v>589</v>
       </c>
@@ -8156,8 +9822,14 @@
       <c r="J51" s="17" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="52" spans="1:104" ht="51">
+      <c r="K51" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L51" s="17" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="52" spans="1:102" ht="51">
       <c r="A52" t="s">
         <v>589</v>
       </c>
@@ -8179,8 +9851,14 @@
       <c r="J52" s="17" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="53" spans="1:104" ht="34">
+      <c r="K52" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L52" s="17" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:102" ht="34">
       <c r="A53" t="s">
         <v>589</v>
       </c>
@@ -8202,8 +9880,14 @@
       <c r="J53" s="17" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="54" spans="1:104" ht="34">
+      <c r="K53" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L53" s="17" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="54" spans="1:102" ht="34">
       <c r="A54" t="s">
         <v>589</v>
       </c>
@@ -8222,8 +9906,14 @@
       <c r="J54" s="17" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="55" spans="1:104" ht="34">
+      <c r="K54" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L54" s="17" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="55" spans="1:102" ht="34">
       <c r="A55" t="s">
         <v>589</v>
       </c>
@@ -8242,8 +9932,14 @@
       <c r="J55" s="17" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="56" spans="1:104" ht="51">
+      <c r="K55" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="56" spans="1:102" ht="51">
       <c r="A56" t="s">
         <v>589</v>
       </c>
@@ -8262,8 +9958,14 @@
       <c r="J56" s="17" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="57" spans="1:104" ht="68">
+      <c r="K56" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:102" ht="68">
       <c r="A57" t="s">
         <v>589</v>
       </c>
@@ -8282,8 +9984,14 @@
       <c r="J57" s="17" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="58" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K57" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L57" s="17" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B58" s="10">
         <v>2</v>
       </c>
@@ -8305,8 +10013,12 @@
         <v>1390</v>
       </c>
       <c r="J58" s="17"/>
-      <c r="K58"/>
-      <c r="L58"/>
+      <c r="K58" s="19" t="s">
+        <v>1794</v>
+      </c>
+      <c r="L58" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M58"/>
       <c r="N58"/>
       <c r="O58"/>
@@ -8397,10 +10109,8 @@
       <c r="CV58"/>
       <c r="CW58"/>
       <c r="CX58"/>
-      <c r="CY58"/>
-      <c r="CZ58"/>
-    </row>
-    <row r="59" spans="1:104" ht="68">
+    </row>
+    <row r="59" spans="1:102" ht="68">
       <c r="A59" t="s">
         <v>589</v>
       </c>
@@ -8419,8 +10129,14 @@
       <c r="J59" s="17" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="60" spans="1:104" ht="68">
+      <c r="K59" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L59" s="17" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:102" ht="68">
       <c r="A60" t="s">
         <v>589</v>
       </c>
@@ -8439,8 +10155,14 @@
       <c r="J60" s="17" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="61" spans="1:104" ht="85">
+      <c r="K60" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L60" s="17" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="61" spans="1:102" ht="85">
       <c r="A61" t="s">
         <v>589</v>
       </c>
@@ -8462,8 +10184,14 @@
       <c r="J61" s="17" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="62" spans="1:104" ht="17">
+      <c r="K61" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L61" s="17" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:102" ht="17">
       <c r="A62" t="s">
         <v>589</v>
       </c>
@@ -8482,8 +10210,14 @@
       <c r="J62" s="17" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="63" spans="1:104" ht="34">
+      <c r="K62" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L62" s="17" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="63" spans="1:102" ht="34">
       <c r="A63" t="s">
         <v>589</v>
       </c>
@@ -8502,8 +10236,14 @@
       <c r="J63" s="17" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="64" spans="1:104" ht="17">
+      <c r="K63" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L63" s="17" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:102" ht="17">
       <c r="A64" t="s">
         <v>589</v>
       </c>
@@ -8522,8 +10262,14 @@
       <c r="J64" s="17" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="65" spans="1:104" ht="17">
+      <c r="K64" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L64" s="17" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="65" spans="1:102" ht="17">
       <c r="A65" t="s">
         <v>589</v>
       </c>
@@ -8542,8 +10288,14 @@
       <c r="J65" s="17" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="66" spans="1:104" ht="34">
+      <c r="K65" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L65" s="17" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:102" ht="34">
       <c r="A66" t="s">
         <v>589</v>
       </c>
@@ -8562,8 +10314,14 @@
       <c r="J66" s="17" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="67" spans="1:104" ht="34">
+      <c r="K66" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L66" s="17" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:102" ht="34">
       <c r="A67" t="s">
         <v>589</v>
       </c>
@@ -8582,8 +10340,14 @@
       <c r="J67" s="17" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="68" spans="1:104" ht="34">
+      <c r="K67" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L67" s="17" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:102" ht="34">
       <c r="A68" t="s">
         <v>589</v>
       </c>
@@ -8602,8 +10366,14 @@
       <c r="J68" s="17" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="69" spans="1:104" ht="17">
+      <c r="K68" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L68" s="17" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:102" ht="17">
       <c r="A69" t="s">
         <v>589</v>
       </c>
@@ -8622,8 +10392,14 @@
       <c r="J69" s="17" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="70" spans="1:104" ht="17">
+      <c r="K69" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L69" s="17" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:102" ht="17">
       <c r="A70" t="s">
         <v>589</v>
       </c>
@@ -8642,8 +10418,14 @@
       <c r="J70" s="17" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="71" spans="1:104" ht="17">
+      <c r="K70" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L70" s="17" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:102" ht="17">
       <c r="A71" t="s">
         <v>589</v>
       </c>
@@ -8662,8 +10444,14 @@
       <c r="J71" s="17" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="72" spans="1:104" ht="17">
+      <c r="K71" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:102" ht="17">
       <c r="A72" t="s">
         <v>589</v>
       </c>
@@ -8682,8 +10470,14 @@
       <c r="J72" s="17" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="73" spans="1:104" ht="17">
+      <c r="K72" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L72" s="17" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:102" ht="17">
       <c r="A73" t="s">
         <v>589</v>
       </c>
@@ -8702,8 +10496,14 @@
       <c r="J73" s="17" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="74" spans="1:104" ht="102">
+      <c r="K73" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L73" s="17" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="74" spans="1:102" ht="102">
       <c r="A74" t="s">
         <v>589</v>
       </c>
@@ -8722,8 +10522,14 @@
       <c r="J74" s="17" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="75" spans="1:104" ht="51">
+      <c r="K74" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L74" s="17" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="75" spans="1:102" ht="51">
       <c r="A75" t="s">
         <v>589</v>
       </c>
@@ -8742,8 +10548,14 @@
       <c r="J75" s="17" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="76" spans="1:104" ht="119">
+      <c r="K75" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L75" s="17" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:102" ht="119">
       <c r="A76" t="s">
         <v>589</v>
       </c>
@@ -8762,8 +10574,14 @@
       <c r="J76" s="17" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="77" spans="1:104" ht="51">
+      <c r="K76" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" s="17" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:102" ht="51">
       <c r="A77" t="s">
         <v>589</v>
       </c>
@@ -8782,8 +10600,14 @@
       <c r="J77" s="17" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="78" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K77" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L77" s="17" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="78" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B78" s="10">
         <v>2</v>
       </c>
@@ -8805,8 +10629,12 @@
         <v>1410</v>
       </c>
       <c r="J78" s="17"/>
-      <c r="K78"/>
-      <c r="L78"/>
+      <c r="K78" s="19" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L78" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M78"/>
       <c r="N78"/>
       <c r="O78"/>
@@ -8897,10 +10725,8 @@
       <c r="CV78"/>
       <c r="CW78"/>
       <c r="CX78"/>
-      <c r="CY78"/>
-      <c r="CZ78"/>
-    </row>
-    <row r="79" spans="1:104" ht="34">
+    </row>
+    <row r="79" spans="1:102" ht="34">
       <c r="A79" t="s">
         <v>589</v>
       </c>
@@ -8919,8 +10745,14 @@
       <c r="J79" s="17" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="80" spans="1:104" ht="51">
+      <c r="K79" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L79" s="17" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="80" spans="1:102" ht="51">
       <c r="A80" t="s">
         <v>589</v>
       </c>
@@ -8939,8 +10771,14 @@
       <c r="J80" s="17" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="81" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K80" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L80" s="17" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B81" s="10">
         <v>2</v>
       </c>
@@ -8962,8 +10800,12 @@
         <v>1413</v>
       </c>
       <c r="J81" s="17"/>
-      <c r="K81"/>
-      <c r="L81"/>
+      <c r="K81" s="19" t="s">
+        <v>1796</v>
+      </c>
+      <c r="L81" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M81"/>
       <c r="N81"/>
       <c r="O81"/>
@@ -9054,10 +10896,8 @@
       <c r="CV81"/>
       <c r="CW81"/>
       <c r="CX81"/>
-      <c r="CY81"/>
-      <c r="CZ81"/>
-    </row>
-    <row r="82" spans="1:104" ht="34">
+    </row>
+    <row r="82" spans="1:102" ht="34">
       <c r="A82" t="s">
         <v>589</v>
       </c>
@@ -9076,8 +10916,14 @@
       <c r="J82" s="17" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="83" spans="1:104" ht="34">
+      <c r="K82" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L82" s="17" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="83" spans="1:102" ht="34">
       <c r="B83">
         <v>3</v>
       </c>
@@ -9096,8 +10942,14 @@
       <c r="J83" s="17" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="84" spans="1:104" ht="51">
+      <c r="K83" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L83" s="17" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="84" spans="1:102" ht="51">
       <c r="A84" t="s">
         <v>589</v>
       </c>
@@ -9116,8 +10968,14 @@
       <c r="J84" s="17" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="85" spans="1:104" ht="34">
+      <c r="K84" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L84" s="17" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:102" ht="34">
       <c r="A85" t="s">
         <v>589</v>
       </c>
@@ -9136,8 +10994,14 @@
       <c r="J85" s="17" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="86" spans="1:104" ht="34">
+      <c r="K85" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L85" s="17" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="86" spans="1:102" ht="34">
       <c r="A86" t="s">
         <v>589</v>
       </c>
@@ -9156,8 +11020,14 @@
       <c r="J86" s="17" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="87" spans="1:104" ht="17">
+      <c r="K86" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L86" s="17" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="87" spans="1:102" ht="17">
       <c r="A87" t="s">
         <v>589</v>
       </c>
@@ -9176,8 +11046,14 @@
       <c r="J87" s="17" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="88" spans="1:104" ht="34">
+      <c r="K87" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L87" s="17" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="88" spans="1:102" ht="34">
       <c r="A88" t="s">
         <v>589</v>
       </c>
@@ -9196,8 +11072,14 @@
       <c r="J88" s="17" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="89" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K88" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L88" s="17" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="89" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B89" s="10">
         <v>2</v>
       </c>
@@ -9219,8 +11101,12 @@
         <v>1421</v>
       </c>
       <c r="J89" s="17"/>
-      <c r="K89"/>
-      <c r="L89"/>
+      <c r="K89" s="19" t="s">
+        <v>1797</v>
+      </c>
+      <c r="L89" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M89"/>
       <c r="N89"/>
       <c r="O89"/>
@@ -9311,10 +11197,8 @@
       <c r="CV89"/>
       <c r="CW89"/>
       <c r="CX89"/>
-      <c r="CY89"/>
-      <c r="CZ89"/>
-    </row>
-    <row r="90" spans="1:104" ht="34">
+    </row>
+    <row r="90" spans="1:102" ht="34">
       <c r="A90" t="s">
         <v>589</v>
       </c>
@@ -9333,8 +11217,14 @@
       <c r="J90" s="17" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="91" spans="1:104" ht="17">
+      <c r="K90" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L90" s="17" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="91" spans="1:102" ht="17">
       <c r="B91">
         <v>3</v>
       </c>
@@ -9350,8 +11240,14 @@
       <c r="J91" s="17" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="92" spans="1:104" ht="34">
+      <c r="K91" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L91" s="17" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="92" spans="1:102" ht="34">
       <c r="A92" t="s">
         <v>589</v>
       </c>
@@ -9370,8 +11266,14 @@
       <c r="J92" s="17" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="93" spans="1:104" ht="17">
+      <c r="K92" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:102" ht="17">
       <c r="A93" t="s">
         <v>589</v>
       </c>
@@ -9390,8 +11292,14 @@
       <c r="J93" s="17" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="94" spans="1:104" ht="17">
+      <c r="K93" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L93" s="17" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="94" spans="1:102" ht="17">
       <c r="A94" t="s">
         <v>589</v>
       </c>
@@ -9410,8 +11318,14 @@
       <c r="J94" s="17" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="95" spans="1:104" ht="17">
+      <c r="K94" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L94" s="17" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="95" spans="1:102" ht="17">
       <c r="A95" t="s">
         <v>589</v>
       </c>
@@ -9430,8 +11344,14 @@
       <c r="J95" s="17" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="96" spans="1:104" ht="51">
+      <c r="K95" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L95" s="17" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="96" spans="1:102" ht="51">
       <c r="A96" t="s">
         <v>589</v>
       </c>
@@ -9450,8 +11370,14 @@
       <c r="J96" s="17" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="97" spans="1:104" ht="34">
+      <c r="K96" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L96" s="17" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:102" ht="34">
       <c r="A97" t="s">
         <v>589</v>
       </c>
@@ -9470,8 +11396,14 @@
       <c r="J97" s="17" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="98" spans="1:104" ht="51">
+      <c r="K97" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L97" s="17" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="98" spans="1:102" ht="51">
       <c r="A98" t="s">
         <v>589</v>
       </c>
@@ -9493,8 +11425,14 @@
       <c r="J98" s="17" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="99" spans="1:104" ht="34">
+      <c r="K98" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L98" s="17" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="99" spans="1:102" ht="34">
       <c r="A99" t="s">
         <v>589</v>
       </c>
@@ -9513,8 +11451,14 @@
       <c r="J99" s="17" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="100" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K99" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L99" s="17" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="100" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B100" s="10">
         <v>2</v>
       </c>
@@ -9536,8 +11480,12 @@
         <v>1432</v>
       </c>
       <c r="J100" s="17"/>
-      <c r="K100"/>
-      <c r="L100"/>
+      <c r="K100" s="19" t="s">
+        <v>1798</v>
+      </c>
+      <c r="L100" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M100"/>
       <c r="N100"/>
       <c r="O100"/>
@@ -9628,10 +11576,8 @@
       <c r="CV100"/>
       <c r="CW100"/>
       <c r="CX100"/>
-      <c r="CY100"/>
-      <c r="CZ100"/>
-    </row>
-    <row r="101" spans="1:104" ht="85">
+    </row>
+    <row r="101" spans="1:102" ht="85">
       <c r="A101" t="s">
         <v>589</v>
       </c>
@@ -9650,8 +11596,14 @@
       <c r="J101" s="17" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="102" spans="1:104" ht="68">
+      <c r="K101" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L101" s="17" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="102" spans="1:102" ht="68">
       <c r="A102" t="s">
         <v>589</v>
       </c>
@@ -9670,8 +11622,14 @@
       <c r="J102" s="17" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="103" spans="1:104" ht="34">
+      <c r="K102" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L102" s="17" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="103" spans="1:102" ht="34">
       <c r="B103">
         <v>3</v>
       </c>
@@ -9687,8 +11645,14 @@
       <c r="J103" s="17" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="104" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K103" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L103" s="17" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="104" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B104" s="8">
         <v>1</v>
       </c>
@@ -9710,8 +11674,12 @@
         <v>1436</v>
       </c>
       <c r="J104" s="17"/>
-      <c r="K104"/>
-      <c r="L104"/>
+      <c r="K104" s="20" t="s">
+        <v>1799</v>
+      </c>
+      <c r="L104" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M104"/>
       <c r="N104"/>
       <c r="O104"/>
@@ -9802,10 +11770,8 @@
       <c r="CV104"/>
       <c r="CW104"/>
       <c r="CX104"/>
-      <c r="CY104"/>
-      <c r="CZ104"/>
-    </row>
-    <row r="105" spans="1:104" s="10" customFormat="1" ht="34">
+    </row>
+    <row r="105" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B105" s="10">
         <v>2</v>
       </c>
@@ -9827,8 +11793,12 @@
         <v>1437</v>
       </c>
       <c r="J105" s="17"/>
-      <c r="K105"/>
-      <c r="L105"/>
+      <c r="K105" s="19" t="s">
+        <v>1800</v>
+      </c>
+      <c r="L105" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M105"/>
       <c r="N105"/>
       <c r="O105"/>
@@ -9919,10 +11889,8 @@
       <c r="CV105"/>
       <c r="CW105"/>
       <c r="CX105"/>
-      <c r="CY105"/>
-      <c r="CZ105"/>
-    </row>
-    <row r="106" spans="1:104" ht="68">
+    </row>
+    <row r="106" spans="1:102" ht="68">
       <c r="A106" t="s">
         <v>589</v>
       </c>
@@ -9941,8 +11909,14 @@
       <c r="J106" s="17" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="107" spans="1:104" ht="68">
+      <c r="K106" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L106" s="17" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="107" spans="1:102" ht="68">
       <c r="A107" t="s">
         <v>589</v>
       </c>
@@ -9964,8 +11938,14 @@
       <c r="J107" s="17" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="108" spans="1:104" ht="17">
+      <c r="K107" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L107" s="17" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="108" spans="1:102" ht="17">
       <c r="A108" t="s">
         <v>589</v>
       </c>
@@ -9984,8 +11964,14 @@
       <c r="J108" s="17" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="109" spans="1:104" ht="17">
+      <c r="K108" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L108" s="17" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="109" spans="1:102" ht="17">
       <c r="A109" t="s">
         <v>589</v>
       </c>
@@ -10004,8 +11990,14 @@
       <c r="J109" s="17" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="110" spans="1:104" ht="17">
+      <c r="K109" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L109" s="17" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="110" spans="1:102" ht="17">
       <c r="A110" t="s">
         <v>589</v>
       </c>
@@ -10024,8 +12016,14 @@
       <c r="J110" s="17" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="111" spans="1:104" ht="17">
+      <c r="K110" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L110" s="17" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:102" ht="17">
       <c r="A111" t="s">
         <v>589</v>
       </c>
@@ -10044,8 +12042,14 @@
       <c r="J111" s="17" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="112" spans="1:104" ht="17">
+      <c r="K111" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L111" s="17" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="112" spans="1:102" ht="17">
       <c r="A112" t="s">
         <v>589</v>
       </c>
@@ -10064,8 +12068,14 @@
       <c r="J112" s="17" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="113" spans="1:104" ht="34">
+      <c r="K112" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="113" spans="1:102" ht="34">
       <c r="A113" t="s">
         <v>589</v>
       </c>
@@ -10084,8 +12094,14 @@
       <c r="J113" s="17" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="114" spans="1:104" ht="17">
+      <c r="K113" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L113" s="17" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:102" ht="17">
       <c r="A114" t="s">
         <v>589</v>
       </c>
@@ -10104,8 +12120,14 @@
       <c r="J114" s="17" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="115" spans="1:104" ht="17">
+      <c r="K114" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L114" s="17" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="115" spans="1:102" ht="17">
       <c r="A115" t="s">
         <v>589</v>
       </c>
@@ -10124,8 +12146,14 @@
       <c r="J115" s="17" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="116" spans="1:104" ht="68">
+      <c r="K115" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L115" s="17" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:102" ht="68">
       <c r="A116" t="s">
         <v>589</v>
       </c>
@@ -10144,8 +12172,14 @@
       <c r="J116" s="17" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="117" spans="1:104" ht="85">
+      <c r="K116" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L116" s="17" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="117" spans="1:102" ht="85">
       <c r="A117" t="s">
         <v>589</v>
       </c>
@@ -10164,8 +12198,14 @@
       <c r="J117" s="17" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="118" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K117" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L117" s="17" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="118" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B118" s="10">
         <v>2</v>
       </c>
@@ -10187,8 +12227,12 @@
         <v>1450</v>
       </c>
       <c r="J118" s="17"/>
-      <c r="K118"/>
-      <c r="L118"/>
+      <c r="K118" s="19" t="s">
+        <v>1801</v>
+      </c>
+      <c r="L118" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
@@ -10279,10 +12323,8 @@
       <c r="CV118"/>
       <c r="CW118"/>
       <c r="CX118"/>
-      <c r="CY118"/>
-      <c r="CZ118"/>
-    </row>
-    <row r="119" spans="1:104" ht="51">
+    </row>
+    <row r="119" spans="1:102" ht="51">
       <c r="A119" t="s">
         <v>589</v>
       </c>
@@ -10301,8 +12343,14 @@
       <c r="J119" s="17" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="120" spans="1:104" ht="51">
+      <c r="K119" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L119" s="17" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="120" spans="1:102" ht="51">
       <c r="A120" t="s">
         <v>589</v>
       </c>
@@ -10324,8 +12372,14 @@
       <c r="J120" s="17" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="121" spans="1:104" ht="17">
+      <c r="K120" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L120" s="17" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="121" spans="1:102" ht="17">
       <c r="A121" t="s">
         <v>589</v>
       </c>
@@ -10344,8 +12398,14 @@
       <c r="J121" s="17" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="122" spans="1:104" ht="51">
+      <c r="K121" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L121" s="17" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="122" spans="1:102" ht="51">
       <c r="A122" t="s">
         <v>589</v>
       </c>
@@ -10364,8 +12424,14 @@
       <c r="J122" s="17" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="123" spans="1:104" ht="68">
+      <c r="K122" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L122" s="17" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="123" spans="1:102" ht="68">
       <c r="A123" t="s">
         <v>589</v>
       </c>
@@ -10384,8 +12450,14 @@
       <c r="J123" s="17" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="124" spans="1:104" ht="34">
+      <c r="K123" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L123" s="17" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="124" spans="1:102" ht="34">
       <c r="A124" t="s">
         <v>589</v>
       </c>
@@ -10404,8 +12476,14 @@
       <c r="J124" s="17" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="125" spans="1:104" ht="17">
+      <c r="K124" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L124" s="17" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="125" spans="1:102" ht="17">
       <c r="A125" t="s">
         <v>589</v>
       </c>
@@ -10424,8 +12502,14 @@
       <c r="J125" s="17" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="126" spans="1:104" ht="17">
+      <c r="K125" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="126" spans="1:102" ht="17">
       <c r="A126" t="s">
         <v>589</v>
       </c>
@@ -10444,8 +12528,14 @@
       <c r="J126" s="17" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="127" spans="1:104" ht="34">
+      <c r="K126" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L126" s="17" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="127" spans="1:102" ht="34">
       <c r="A127" t="s">
         <v>589</v>
       </c>
@@ -10464,8 +12554,14 @@
       <c r="J127" s="17" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="128" spans="1:104" ht="68">
+      <c r="K127" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L127" s="17" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="128" spans="1:102" ht="68">
       <c r="A128" t="s">
         <v>589</v>
       </c>
@@ -10487,8 +12583,14 @@
       <c r="J128" s="17" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="129" spans="1:104" ht="17">
+      <c r="K128" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L128" s="17" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="129" spans="1:102" ht="17">
       <c r="A129" t="s">
         <v>589</v>
       </c>
@@ -10507,8 +12609,14 @@
       <c r="J129" s="17" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="130" spans="1:104" ht="17">
+      <c r="K129" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L129" s="17" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="130" spans="1:102" ht="17">
       <c r="A130" t="s">
         <v>589</v>
       </c>
@@ -10527,8 +12635,14 @@
       <c r="J130" s="17" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="131" spans="1:104" ht="17">
+      <c r="K130" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L130" s="17" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="131" spans="1:102" ht="17">
       <c r="A131" t="s">
         <v>589</v>
       </c>
@@ -10547,8 +12661,14 @@
       <c r="J131" s="17" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="132" spans="1:104" ht="17">
+      <c r="K131" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L131" s="17" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="132" spans="1:102" ht="17">
       <c r="A132" t="s">
         <v>589</v>
       </c>
@@ -10567,8 +12687,14 @@
       <c r="J132" s="17" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="133" spans="1:104" ht="51">
+      <c r="K132" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L132" s="17" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="133" spans="1:102" ht="51">
       <c r="A133" t="s">
         <v>589</v>
       </c>
@@ -10587,8 +12713,14 @@
       <c r="J133" s="17" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="134" spans="1:104" ht="102">
+      <c r="K133" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L133" s="17" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="134" spans="1:102" ht="102">
       <c r="A134" t="s">
         <v>589</v>
       </c>
@@ -10607,8 +12739,14 @@
       <c r="J134" s="17" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="135" spans="1:104" s="8" customFormat="1" ht="17">
+      <c r="K134" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L134" s="17" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="135" spans="1:102" s="8" customFormat="1" ht="17">
       <c r="A135" s="10"/>
       <c r="B135" s="10">
         <v>2</v>
@@ -10631,8 +12769,12 @@
         <v>1467</v>
       </c>
       <c r="J135" s="17"/>
-      <c r="K135"/>
-      <c r="L135"/>
+      <c r="K135" s="19" t="s">
+        <v>1802</v>
+      </c>
+      <c r="L135" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M135"/>
       <c r="N135"/>
       <c r="O135"/>
@@ -10723,10 +12865,8 @@
       <c r="CV135"/>
       <c r="CW135"/>
       <c r="CX135"/>
-      <c r="CY135"/>
-      <c r="CZ135"/>
-    </row>
-    <row r="136" spans="1:104" ht="17">
+    </row>
+    <row r="136" spans="1:102" ht="17">
       <c r="A136" t="s">
         <v>589</v>
       </c>
@@ -10745,8 +12885,14 @@
       <c r="J136" s="17" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="137" spans="1:104" ht="34">
+      <c r="K136" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L136" s="17" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="137" spans="1:102" ht="34">
       <c r="A137" t="s">
         <v>589</v>
       </c>
@@ -10765,8 +12911,14 @@
       <c r="J137" s="17" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="138" spans="1:104" ht="51">
+      <c r="K137" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L137" s="17" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="138" spans="1:102" ht="51">
       <c r="A138" t="s">
         <v>589</v>
       </c>
@@ -10785,8 +12937,14 @@
       <c r="J138" s="17" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="139" spans="1:104" ht="34">
+      <c r="K138" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L138" s="17" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="139" spans="1:102" ht="34">
       <c r="A139" t="s">
         <v>589</v>
       </c>
@@ -10805,8 +12963,14 @@
       <c r="J139" s="17" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="140" spans="1:104" ht="34">
+      <c r="K139" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L139" s="17" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="140" spans="1:102" ht="34">
       <c r="A140" t="s">
         <v>589</v>
       </c>
@@ -10825,8 +12989,14 @@
       <c r="J140" s="17" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="141" spans="1:104" ht="68">
+      <c r="K140" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L140" s="17" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="141" spans="1:102" ht="68">
       <c r="A141" t="s">
         <v>589</v>
       </c>
@@ -10842,8 +13012,14 @@
       <c r="J141" s="17" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="142" spans="1:104" ht="68">
+      <c r="K141" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L141" s="17" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="142" spans="1:102" ht="68">
       <c r="A142" t="s">
         <v>589</v>
       </c>
@@ -10862,8 +13038,14 @@
       <c r="J142" s="17" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="143" spans="1:104" ht="51">
+      <c r="K142" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L142" s="17" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="143" spans="1:102" ht="51">
       <c r="A143" t="s">
         <v>589</v>
       </c>
@@ -10882,8 +13064,14 @@
       <c r="J143" s="17" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="144" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K143" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L143" s="17" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="144" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B144" s="8">
         <v>1</v>
       </c>
@@ -10905,8 +13093,12 @@
         <v>1476</v>
       </c>
       <c r="J144" s="17"/>
-      <c r="K144"/>
-      <c r="L144"/>
+      <c r="K144" s="20" t="s">
+        <v>1803</v>
+      </c>
+      <c r="L144" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M144"/>
       <c r="N144"/>
       <c r="O144"/>
@@ -10997,10 +13189,8 @@
       <c r="CV144"/>
       <c r="CW144"/>
       <c r="CX144"/>
-      <c r="CY144"/>
-      <c r="CZ144"/>
-    </row>
-    <row r="145" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="145" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B145" s="10">
         <v>2</v>
       </c>
@@ -11022,8 +13212,12 @@
         <v>1477</v>
       </c>
       <c r="J145" s="17"/>
-      <c r="K145"/>
-      <c r="L145"/>
+      <c r="K145" s="19" t="s">
+        <v>1804</v>
+      </c>
+      <c r="L145" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M145"/>
       <c r="N145"/>
       <c r="O145"/>
@@ -11114,10 +13308,8 @@
       <c r="CV145"/>
       <c r="CW145"/>
       <c r="CX145"/>
-      <c r="CY145"/>
-      <c r="CZ145"/>
-    </row>
-    <row r="146" spans="1:104" ht="136">
+    </row>
+    <row r="146" spans="1:102" ht="136">
       <c r="A146" t="s">
         <v>589</v>
       </c>
@@ -11136,8 +13328,14 @@
       <c r="J146" s="17" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="147" spans="1:104" ht="51">
+      <c r="K146" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L146" s="17" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="147" spans="1:102" ht="51">
       <c r="A147" t="s">
         <v>589</v>
       </c>
@@ -11159,8 +13357,14 @@
       <c r="J147" s="17" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="148" spans="1:104" ht="34">
+      <c r="K147" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L147" s="17" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="148" spans="1:102" ht="34">
       <c r="A148" t="s">
         <v>589</v>
       </c>
@@ -11179,8 +13383,14 @@
       <c r="J148" s="17" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="149" spans="1:104" ht="34">
+      <c r="K148" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L148" s="17" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="149" spans="1:102" ht="34">
       <c r="A149" t="s">
         <v>589</v>
       </c>
@@ -11199,8 +13409,14 @@
       <c r="J149" s="17" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="150" spans="1:104" ht="51">
+      <c r="K149" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L149" s="17" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="150" spans="1:102" ht="51">
       <c r="A150" t="s">
         <v>589</v>
       </c>
@@ -11219,8 +13435,14 @@
       <c r="J150" s="17" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="151" spans="1:104" ht="34">
+      <c r="K150" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L150" s="17" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="151" spans="1:102" ht="34">
       <c r="A151" t="s">
         <v>589</v>
       </c>
@@ -11239,8 +13461,14 @@
       <c r="J151" s="17" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="152" spans="1:104" ht="85">
+      <c r="K151" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L151" s="17" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="152" spans="1:102" ht="85">
       <c r="A152" t="s">
         <v>589</v>
       </c>
@@ -11259,8 +13487,14 @@
       <c r="J152" s="17" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="153" spans="1:104" ht="85">
+      <c r="K152" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L152" s="17" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="153" spans="1:102" ht="85">
       <c r="A153" t="s">
         <v>589</v>
       </c>
@@ -11282,8 +13516,14 @@
       <c r="J153" s="17" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="154" spans="1:104" ht="51">
+      <c r="K153" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L153" s="17" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="154" spans="1:102" ht="51">
       <c r="A154" t="s">
         <v>589</v>
       </c>
@@ -11305,8 +13545,14 @@
       <c r="J154" s="17" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="155" spans="1:104" ht="51">
+      <c r="K154" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L154" s="17" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="155" spans="1:102" ht="51">
       <c r="A155" t="s">
         <v>589</v>
       </c>
@@ -11325,8 +13571,14 @@
       <c r="J155" s="17" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="156" spans="1:104" ht="34">
+      <c r="K155" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L155" s="17" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="156" spans="1:102" ht="34">
       <c r="A156" t="s">
         <v>589</v>
       </c>
@@ -11345,8 +13597,14 @@
       <c r="J156" s="17" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="157" spans="1:104" ht="68">
+      <c r="K156" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L156" s="17" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="157" spans="1:102" ht="68">
       <c r="A157" t="s">
         <v>589</v>
       </c>
@@ -11365,8 +13623,14 @@
       <c r="J157" s="17" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="158" spans="1:104" ht="34">
+      <c r="K157" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L157" s="17" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="158" spans="1:102" ht="34">
       <c r="A158" t="s">
         <v>589</v>
       </c>
@@ -11385,8 +13649,14 @@
       <c r="J158" s="17" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="159" spans="1:104" ht="51">
+      <c r="K158" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L158" s="17" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="159" spans="1:102" ht="51">
       <c r="A159" t="s">
         <v>589</v>
       </c>
@@ -11405,8 +13675,14 @@
       <c r="J159" s="17" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="160" spans="1:104" ht="51">
+      <c r="K159" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L159" s="17" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="160" spans="1:102" ht="51">
       <c r="A160" t="s">
         <v>589</v>
       </c>
@@ -11425,8 +13701,14 @@
       <c r="J160" s="17" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="161" spans="1:104" ht="51">
+      <c r="K160" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L160" s="17" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="161" spans="1:102" ht="51">
       <c r="A161" t="s">
         <v>589</v>
       </c>
@@ -11445,8 +13727,14 @@
       <c r="J161" s="17" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="162" spans="1:104" ht="51">
+      <c r="K161" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L161" s="17" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="162" spans="1:102" ht="51">
       <c r="A162" t="s">
         <v>589</v>
       </c>
@@ -11468,8 +13756,14 @@
       <c r="J162" s="17" t="s">
         <v>1494</v>
       </c>
-    </row>
-    <row r="163" spans="1:104" ht="119">
+      <c r="K162" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L162" s="17" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="163" spans="1:102" ht="119">
       <c r="A163" t="s">
         <v>589</v>
       </c>
@@ -11488,8 +13782,14 @@
       <c r="J163" s="17" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="164" spans="1:104" ht="17">
+      <c r="K163" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L163" s="17" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="164" spans="1:102" ht="17">
       <c r="B164">
         <v>3</v>
       </c>
@@ -11508,8 +13808,14 @@
       <c r="J164" s="17" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="165" spans="1:104" ht="34">
+      <c r="K164" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L164" s="17" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="165" spans="1:102" ht="34">
       <c r="A165" t="s">
         <v>589</v>
       </c>
@@ -11528,8 +13834,14 @@
       <c r="J165" s="17" t="s">
         <v>1497</v>
       </c>
-    </row>
-    <row r="166" spans="1:104" ht="51">
+      <c r="K165" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L165" s="17" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="166" spans="1:102" ht="51">
       <c r="A166" t="s">
         <v>589</v>
       </c>
@@ -11548,8 +13860,14 @@
       <c r="J166" s="17" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="167" spans="1:104" ht="34">
+      <c r="K166" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L166" s="17" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="167" spans="1:102" ht="34">
       <c r="A167" t="s">
         <v>589</v>
       </c>
@@ -11568,8 +13886,14 @@
       <c r="J167" s="17" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="168" spans="1:104" ht="51">
+      <c r="K167" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L167" s="17" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="168" spans="1:102" ht="51">
       <c r="A168" t="s">
         <v>589</v>
       </c>
@@ -11588,8 +13912,14 @@
       <c r="J168" s="17" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="169" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K168" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L168" s="17" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="169" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B169" s="10">
         <v>2</v>
       </c>
@@ -11611,8 +13941,12 @@
         <v>1501</v>
       </c>
       <c r="J169" s="17"/>
-      <c r="K169"/>
-      <c r="L169"/>
+      <c r="K169" s="19" t="s">
+        <v>1805</v>
+      </c>
+      <c r="L169" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M169"/>
       <c r="N169"/>
       <c r="O169"/>
@@ -11703,10 +14037,8 @@
       <c r="CV169"/>
       <c r="CW169"/>
       <c r="CX169"/>
-      <c r="CY169"/>
-      <c r="CZ169"/>
-    </row>
-    <row r="170" spans="1:104" ht="51">
+    </row>
+    <row r="170" spans="1:102" ht="51">
       <c r="A170" t="s">
         <v>589</v>
       </c>
@@ -11722,8 +14054,14 @@
       <c r="J170" s="17" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="171" spans="1:104" ht="34">
+      <c r="K170" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L170" s="17" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="171" spans="1:102" ht="34">
       <c r="A171" t="s">
         <v>589</v>
       </c>
@@ -11742,8 +14080,14 @@
       <c r="J171" s="17" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="172" spans="1:104" ht="51">
+      <c r="K171" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L171" s="17" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="172" spans="1:102" ht="51">
       <c r="A172" t="s">
         <v>589</v>
       </c>
@@ -11762,8 +14106,14 @@
       <c r="J172" s="17" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="173" spans="1:104" s="8" customFormat="1" ht="51">
+      <c r="K172" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L172" s="17" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="173" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B173" s="8">
         <v>1</v>
       </c>
@@ -11785,8 +14135,12 @@
         <v>1505</v>
       </c>
       <c r="J173" s="17"/>
-      <c r="K173"/>
-      <c r="L173"/>
+      <c r="K173" s="20" t="s">
+        <v>1806</v>
+      </c>
+      <c r="L173" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M173"/>
       <c r="N173"/>
       <c r="O173"/>
@@ -11877,10 +14231,8 @@
       <c r="CV173"/>
       <c r="CW173"/>
       <c r="CX173"/>
-      <c r="CY173"/>
-      <c r="CZ173"/>
-    </row>
-    <row r="174" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="174" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B174" s="10">
         <v>2</v>
       </c>
@@ -11902,8 +14254,12 @@
         <v>1506</v>
       </c>
       <c r="J174" s="17"/>
-      <c r="K174"/>
-      <c r="L174"/>
+      <c r="K174" s="19" t="s">
+        <v>1807</v>
+      </c>
+      <c r="L174" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M174"/>
       <c r="N174"/>
       <c r="O174"/>
@@ -11994,10 +14350,8 @@
       <c r="CV174"/>
       <c r="CW174"/>
       <c r="CX174"/>
-      <c r="CY174"/>
-      <c r="CZ174"/>
-    </row>
-    <row r="175" spans="1:104" ht="119">
+    </row>
+    <row r="175" spans="1:102" ht="119">
       <c r="A175" t="s">
         <v>589</v>
       </c>
@@ -12019,8 +14373,14 @@
       <c r="J175" s="17" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="176" spans="1:104" ht="17">
+      <c r="K175" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L175" s="17" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="176" spans="1:102" ht="17">
       <c r="B176">
         <v>3</v>
       </c>
@@ -12039,8 +14399,14 @@
       <c r="J176" s="17" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="177" spans="1:104" ht="34">
+      <c r="K176" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L176" s="17" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="177" spans="1:102" ht="34">
       <c r="A177" t="s">
         <v>589</v>
       </c>
@@ -12059,8 +14425,14 @@
       <c r="J177" s="17" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="178" spans="1:104" ht="51">
+      <c r="K177" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L177" s="17" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:102" ht="51">
       <c r="A178" t="s">
         <v>589</v>
       </c>
@@ -12079,8 +14451,14 @@
       <c r="J178" s="17" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="179" spans="1:104" ht="51">
+      <c r="K178" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L178" s="17" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:102" ht="51">
       <c r="A179" t="s">
         <v>589</v>
       </c>
@@ -12099,8 +14477,14 @@
       <c r="J179" s="17" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="180" spans="1:104" ht="51">
+      <c r="K179" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L179" s="17" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:102" ht="51">
       <c r="A180" t="s">
         <v>589</v>
       </c>
@@ -12119,8 +14503,14 @@
       <c r="J180" s="17" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="181" spans="1:104" ht="34">
+      <c r="K180" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L180" s="17" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:102" ht="34">
       <c r="A181" t="s">
         <v>589</v>
       </c>
@@ -12139,8 +14529,14 @@
       <c r="J181" s="17" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="182" spans="1:104" ht="51">
+      <c r="K181" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L181" s="17" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:102" ht="51">
       <c r="A182" t="s">
         <v>589</v>
       </c>
@@ -12159,8 +14555,14 @@
       <c r="J182" s="17" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="183" spans="1:104" ht="51">
+      <c r="K182" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L182" s="17" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:102" ht="51">
       <c r="A183" t="s">
         <v>589</v>
       </c>
@@ -12179,8 +14581,14 @@
       <c r="J183" s="17" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="184" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K183" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L183" s="17" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="184" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B184" s="10">
         <v>2</v>
       </c>
@@ -12199,8 +14607,12 @@
         <v>1516</v>
       </c>
       <c r="J184" s="17"/>
-      <c r="K184"/>
-      <c r="L184"/>
+      <c r="K184" s="19" t="s">
+        <v>1808</v>
+      </c>
+      <c r="L184" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M184"/>
       <c r="N184"/>
       <c r="O184"/>
@@ -12291,10 +14703,8 @@
       <c r="CV184"/>
       <c r="CW184"/>
       <c r="CX184"/>
-      <c r="CY184"/>
-      <c r="CZ184"/>
-    </row>
-    <row r="185" spans="1:104" ht="102">
+    </row>
+    <row r="185" spans="1:102" ht="102">
       <c r="A185" t="s">
         <v>589</v>
       </c>
@@ -12313,8 +14723,14 @@
       <c r="J185" s="17" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="186" spans="1:104" ht="17">
+      <c r="K185" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L185" s="17" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:102" ht="17">
       <c r="B186">
         <v>3</v>
       </c>
@@ -12333,8 +14749,14 @@
       <c r="J186" s="17" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="187" spans="1:104" ht="51">
+      <c r="K186" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L186" s="17" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="187" spans="1:102" ht="51">
       <c r="A187" t="s">
         <v>589</v>
       </c>
@@ -12353,8 +14775,14 @@
       <c r="J187" s="17" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="188" spans="1:104" ht="68">
+      <c r="K187" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L187" s="17" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:102" ht="68">
       <c r="A188" t="s">
         <v>589</v>
       </c>
@@ -12373,8 +14801,14 @@
       <c r="J188" s="17" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="189" spans="1:104" ht="34">
+      <c r="K188" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L188" s="17" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="189" spans="1:102" ht="34">
       <c r="A189" t="s">
         <v>589</v>
       </c>
@@ -12393,8 +14827,14 @@
       <c r="J189" s="17" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="190" spans="1:104" ht="34">
+      <c r="K189" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L189" s="17" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="190" spans="1:102" ht="34">
       <c r="A190" t="s">
         <v>589</v>
       </c>
@@ -12413,8 +14853,14 @@
       <c r="J190" s="17" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="191" spans="1:104" ht="34">
+      <c r="K190" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L190" s="17" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:102" ht="34">
       <c r="A191" t="s">
         <v>589</v>
       </c>
@@ -12433,8 +14879,14 @@
       <c r="J191" s="17" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="192" spans="1:104" ht="34">
+      <c r="K191" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L191" s="17" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="192" spans="1:102" ht="34">
       <c r="A192" t="s">
         <v>589</v>
       </c>
@@ -12456,8 +14908,14 @@
       <c r="J192" s="17" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="193" spans="1:104" ht="51">
+      <c r="K192" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L192" s="17" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:102" ht="51">
       <c r="A193" t="s">
         <v>589</v>
       </c>
@@ -12479,8 +14937,14 @@
       <c r="J193" s="17" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="194" spans="1:104" ht="34">
+      <c r="K193" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L193" s="17" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="194" spans="1:102" ht="34">
       <c r="A194" t="s">
         <v>589</v>
       </c>
@@ -12499,8 +14963,14 @@
       <c r="J194" s="17" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="195" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K194" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L194" s="17" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="195" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B195" s="10">
         <v>2</v>
       </c>
@@ -12522,8 +14992,12 @@
         <v>1528</v>
       </c>
       <c r="J195" s="17"/>
-      <c r="K195"/>
-      <c r="L195"/>
+      <c r="K195" s="19" t="s">
+        <v>1809</v>
+      </c>
+      <c r="L195" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M195"/>
       <c r="N195"/>
       <c r="O195"/>
@@ -12614,10 +15088,8 @@
       <c r="CV195"/>
       <c r="CW195"/>
       <c r="CX195"/>
-      <c r="CY195"/>
-      <c r="CZ195"/>
-    </row>
-    <row r="196" spans="1:104" ht="68">
+    </row>
+    <row r="196" spans="1:102" ht="68">
       <c r="A196" t="s">
         <v>589</v>
       </c>
@@ -12636,8 +15108,14 @@
       <c r="J196" s="17" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="197" spans="1:104" ht="17">
+      <c r="K196" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L196" s="17" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="197" spans="1:102" ht="17">
       <c r="B197">
         <v>3</v>
       </c>
@@ -12656,8 +15134,14 @@
       <c r="J197" s="17" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="198" spans="1:104" ht="34">
+      <c r="K197" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L197" s="17" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="198" spans="1:102" ht="34">
       <c r="A198" t="s">
         <v>589</v>
       </c>
@@ -12676,8 +15160,14 @@
       <c r="J198" s="17" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="199" spans="1:104" ht="68">
+      <c r="K198" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L198" s="17" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="199" spans="1:102" ht="68">
       <c r="A199" t="s">
         <v>589</v>
       </c>
@@ -12696,8 +15186,14 @@
       <c r="J199" s="17" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="200" spans="1:104" ht="51">
+      <c r="K199" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L199" s="17" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="200" spans="1:102" ht="51">
       <c r="A200" t="s">
         <v>589</v>
       </c>
@@ -12716,8 +15212,14 @@
       <c r="J200" s="17" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="201" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K200" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L200" s="17" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="201" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B201" s="10">
         <v>2</v>
       </c>
@@ -12739,8 +15241,12 @@
         <v>1533</v>
       </c>
       <c r="J201" s="17"/>
-      <c r="K201"/>
-      <c r="L201"/>
+      <c r="K201" s="19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L201" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M201"/>
       <c r="N201"/>
       <c r="O201"/>
@@ -12831,10 +15337,8 @@
       <c r="CV201"/>
       <c r="CW201"/>
       <c r="CX201"/>
-      <c r="CY201"/>
-      <c r="CZ201"/>
-    </row>
-    <row r="202" spans="1:104" ht="68">
+    </row>
+    <row r="202" spans="1:102" ht="68">
       <c r="A202" t="s">
         <v>589</v>
       </c>
@@ -12853,8 +15357,14 @@
       <c r="J202" s="17" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="203" spans="1:104" ht="102">
+      <c r="K202" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L202" s="17" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="203" spans="1:102" ht="102">
       <c r="A203" t="s">
         <v>589</v>
       </c>
@@ -12876,8 +15386,14 @@
       <c r="J203" s="17" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="204" spans="1:104" ht="51">
+      <c r="K203" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L203" s="17" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="204" spans="1:102" ht="51">
       <c r="A204" t="s">
         <v>589</v>
       </c>
@@ -12896,8 +15412,14 @@
       <c r="J204" s="17" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="205" spans="1:104" ht="51">
+      <c r="K204" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L204" s="17" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="205" spans="1:102" ht="51">
       <c r="A205" t="s">
         <v>589</v>
       </c>
@@ -12916,8 +15438,14 @@
       <c r="J205" s="17" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="206" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K205" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L205" s="17" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="206" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B206" s="10">
         <v>2</v>
       </c>
@@ -12939,8 +15467,12 @@
         <v>1538</v>
       </c>
       <c r="J206" s="17"/>
-      <c r="K206"/>
-      <c r="L206"/>
+      <c r="K206" s="19" t="s">
+        <v>1811</v>
+      </c>
+      <c r="L206" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M206"/>
       <c r="N206"/>
       <c r="O206"/>
@@ -13031,10 +15563,8 @@
       <c r="CV206"/>
       <c r="CW206"/>
       <c r="CX206"/>
-      <c r="CY206"/>
-      <c r="CZ206"/>
-    </row>
-    <row r="207" spans="1:104" ht="34">
+    </row>
+    <row r="207" spans="1:102" ht="34">
       <c r="A207" t="s">
         <v>589</v>
       </c>
@@ -13053,8 +15583,14 @@
       <c r="J207" s="17" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="208" spans="1:104" ht="17">
+      <c r="K207" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L207" s="17" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="208" spans="1:102" ht="17">
       <c r="B208">
         <v>3</v>
       </c>
@@ -13070,8 +15606,14 @@
       <c r="J208" s="17" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="209" spans="1:104" ht="51">
+      <c r="K208" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L208" s="17" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="209" spans="1:102" ht="51">
       <c r="A209" t="s">
         <v>589</v>
       </c>
@@ -13093,8 +15635,14 @@
       <c r="J209" s="17" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="210" spans="1:104" ht="51">
+      <c r="K209" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L209" s="17" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="210" spans="1:102" ht="51">
       <c r="A210" t="s">
         <v>589</v>
       </c>
@@ -13113,8 +15661,14 @@
       <c r="J210" s="17" t="s">
         <v>1542</v>
       </c>
-    </row>
-    <row r="211" spans="1:104" ht="51">
+      <c r="K210" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L210" s="17" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="211" spans="1:102" ht="51">
       <c r="A211" t="s">
         <v>589</v>
       </c>
@@ -13133,8 +15687,14 @@
       <c r="J211" s="17" t="s">
         <v>1543</v>
       </c>
-    </row>
-    <row r="212" spans="1:104" ht="34">
+      <c r="K211" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L211" s="17" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="212" spans="1:102" ht="34">
       <c r="A212" t="s">
         <v>589</v>
       </c>
@@ -13153,8 +15713,14 @@
       <c r="J212" s="17" t="s">
         <v>1544</v>
       </c>
-    </row>
-    <row r="213" spans="1:104" ht="34">
+      <c r="K212" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L212" s="17" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="213" spans="1:102" ht="34">
       <c r="A213" t="s">
         <v>589</v>
       </c>
@@ -13173,8 +15739,14 @@
       <c r="J213" s="17" t="s">
         <v>1545</v>
       </c>
-    </row>
-    <row r="214" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K213" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L213" s="17" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="214" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B214" s="10">
         <v>2</v>
       </c>
@@ -13196,8 +15768,12 @@
         <v>1546</v>
       </c>
       <c r="J214" s="17"/>
-      <c r="K214"/>
-      <c r="L214"/>
+      <c r="K214" s="19" t="s">
+        <v>1812</v>
+      </c>
+      <c r="L214" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M214"/>
       <c r="N214"/>
       <c r="O214"/>
@@ -13288,10 +15864,8 @@
       <c r="CV214"/>
       <c r="CW214"/>
       <c r="CX214"/>
-      <c r="CY214"/>
-      <c r="CZ214"/>
-    </row>
-    <row r="215" spans="1:104" ht="68">
+    </row>
+    <row r="215" spans="1:102" ht="68">
       <c r="A215" t="s">
         <v>589</v>
       </c>
@@ -13313,8 +15887,14 @@
       <c r="J215" s="17" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="216" spans="1:104" ht="34">
+      <c r="K215" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L215" s="17" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="216" spans="1:102" ht="34">
       <c r="A216" t="s">
         <v>589</v>
       </c>
@@ -13333,8 +15913,14 @@
       <c r="J216" s="17" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="217" spans="1:104" ht="34">
+      <c r="K216" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L216" s="17" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="217" spans="1:102" ht="34">
       <c r="A217" t="s">
         <v>589</v>
       </c>
@@ -13353,8 +15939,14 @@
       <c r="J217" s="17" t="s">
         <v>1549</v>
       </c>
-    </row>
-    <row r="218" spans="1:104" ht="34">
+      <c r="K217" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L217" s="17" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="218" spans="1:102" ht="34">
       <c r="A218" t="s">
         <v>589</v>
       </c>
@@ -13373,8 +15965,14 @@
       <c r="J218" s="17" t="s">
         <v>1550</v>
       </c>
-    </row>
-    <row r="219" spans="1:104" ht="51">
+      <c r="K218" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L218" s="17" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="219" spans="1:102" ht="51">
       <c r="A219" t="s">
         <v>589</v>
       </c>
@@ -13396,8 +15994,14 @@
       <c r="J219" s="17" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="220" spans="1:104" ht="68">
+      <c r="K219" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L219" s="17" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="220" spans="1:102" ht="68">
       <c r="A220" t="s">
         <v>589</v>
       </c>
@@ -13419,8 +16023,14 @@
       <c r="J220" s="17" t="s">
         <v>1552</v>
       </c>
-    </row>
-    <row r="221" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K220" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L220" s="17" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="221" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B221" s="10">
         <v>2</v>
       </c>
@@ -13442,8 +16052,12 @@
         <v>1553</v>
       </c>
       <c r="J221" s="17"/>
-      <c r="K221"/>
-      <c r="L221"/>
+      <c r="K221" s="19" t="s">
+        <v>1813</v>
+      </c>
+      <c r="L221" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M221"/>
       <c r="N221"/>
       <c r="O221"/>
@@ -13534,10 +16148,8 @@
       <c r="CV221"/>
       <c r="CW221"/>
       <c r="CX221"/>
-      <c r="CY221"/>
-      <c r="CZ221"/>
-    </row>
-    <row r="222" spans="1:104" ht="34">
+    </row>
+    <row r="222" spans="1:102" ht="34">
       <c r="A222" t="s">
         <v>589</v>
       </c>
@@ -13556,8 +16168,14 @@
       <c r="J222" s="17" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="223" spans="1:104" ht="17">
+      <c r="K222" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L222" s="17" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="223" spans="1:102" ht="17">
       <c r="B223">
         <v>3</v>
       </c>
@@ -13576,8 +16194,14 @@
       <c r="J223" s="17" t="s">
         <v>1555</v>
       </c>
-    </row>
-    <row r="224" spans="1:104" ht="34">
+      <c r="K223" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L223" s="17" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="224" spans="1:102" ht="34">
       <c r="A224" t="s">
         <v>589</v>
       </c>
@@ -13596,8 +16220,14 @@
       <c r="J224" s="17" t="s">
         <v>1556</v>
       </c>
-    </row>
-    <row r="225" spans="1:104" ht="51">
+      <c r="K224" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L224" s="17" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="225" spans="1:102" ht="51">
       <c r="A225" t="s">
         <v>589</v>
       </c>
@@ -13616,8 +16246,14 @@
       <c r="J225" s="17" t="s">
         <v>1557</v>
       </c>
-    </row>
-    <row r="226" spans="1:104" ht="51">
+      <c r="K225" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L225" s="17" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="226" spans="1:102" ht="51">
       <c r="A226" t="s">
         <v>589</v>
       </c>
@@ -13636,8 +16272,14 @@
       <c r="J226" s="17" t="s">
         <v>1558</v>
       </c>
-    </row>
-    <row r="227" spans="1:104" ht="51">
+      <c r="K226" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L226" s="17" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="227" spans="1:102" ht="51">
       <c r="A227" t="s">
         <v>589</v>
       </c>
@@ -13656,8 +16298,14 @@
       <c r="J227" s="17" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="228" spans="1:104" ht="34">
+      <c r="K227" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L227" s="17" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="228" spans="1:102" ht="34">
       <c r="A228" t="s">
         <v>589</v>
       </c>
@@ -13676,8 +16324,14 @@
       <c r="J228" s="17" t="s">
         <v>1560</v>
       </c>
-    </row>
-    <row r="229" spans="1:104" ht="34">
+      <c r="K228" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L228" s="17" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="229" spans="1:102" ht="34">
       <c r="A229" t="s">
         <v>589</v>
       </c>
@@ -13696,8 +16350,14 @@
       <c r="J229" s="17" t="s">
         <v>1561</v>
       </c>
-    </row>
-    <row r="230" spans="1:104" ht="51">
+      <c r="K229" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L229" s="17" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="230" spans="1:102" ht="51">
       <c r="A230" t="s">
         <v>589</v>
       </c>
@@ -13716,8 +16376,14 @@
       <c r="J230" s="17" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="231" spans="1:104" ht="51">
+      <c r="K230" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L230" s="17" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="231" spans="1:102" ht="51">
       <c r="A231" t="s">
         <v>589</v>
       </c>
@@ -13736,8 +16402,14 @@
       <c r="J231" s="17" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="232" spans="1:104" ht="85">
+      <c r="K231" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L231" s="17" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="232" spans="1:102" ht="85">
       <c r="A232" t="s">
         <v>589</v>
       </c>
@@ -13756,8 +16428,14 @@
       <c r="J232" s="17" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="233" spans="1:104" ht="68">
+      <c r="K232" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L232" s="17" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="233" spans="1:102" ht="68">
       <c r="A233" t="s">
         <v>589</v>
       </c>
@@ -13776,8 +16454,14 @@
       <c r="J233" s="17" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="234" spans="1:104" ht="85">
+      <c r="K233" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L233" s="17" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="234" spans="1:102" ht="85">
       <c r="A234" t="s">
         <v>589</v>
       </c>
@@ -13796,8 +16480,14 @@
       <c r="J234" s="17" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="235" spans="1:104" ht="51">
+      <c r="K234" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L234" s="17" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="235" spans="1:102" ht="51">
       <c r="A235" t="s">
         <v>589</v>
       </c>
@@ -13816,8 +16506,14 @@
       <c r="J235" s="17" t="s">
         <v>1567</v>
       </c>
-    </row>
-    <row r="236" spans="1:104" ht="51">
+      <c r="K235" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L235" s="17" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="236" spans="1:102" ht="51">
       <c r="A236" t="s">
         <v>589</v>
       </c>
@@ -13836,8 +16532,14 @@
       <c r="J236" s="17" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="237" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K236" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L236" s="17" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="237" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B237" s="10">
         <v>2</v>
       </c>
@@ -13859,8 +16561,12 @@
         <v>1569</v>
       </c>
       <c r="J237" s="17"/>
-      <c r="K237"/>
-      <c r="L237"/>
+      <c r="K237" s="19" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L237" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M237"/>
       <c r="N237"/>
       <c r="O237"/>
@@ -13951,10 +16657,8 @@
       <c r="CV237"/>
       <c r="CW237"/>
       <c r="CX237"/>
-      <c r="CY237"/>
-      <c r="CZ237"/>
-    </row>
-    <row r="238" spans="1:104" ht="51">
+    </row>
+    <row r="238" spans="1:102" ht="51">
       <c r="A238" t="s">
         <v>589</v>
       </c>
@@ -13976,8 +16680,14 @@
       <c r="J238" s="17" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="239" spans="1:104" ht="17">
+      <c r="K238" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L238" s="17" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="239" spans="1:102" ht="17">
       <c r="B239">
         <v>3</v>
       </c>
@@ -13993,8 +16703,14 @@
       <c r="J239" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="240" spans="1:104" ht="51">
+      <c r="K239" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L239" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="240" spans="1:102" ht="51">
       <c r="A240" t="s">
         <v>589</v>
       </c>
@@ -14013,8 +16729,14 @@
       <c r="J240" s="17" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="241" spans="1:104" ht="34">
+      <c r="K240" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L240" s="17" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="241" spans="1:102" ht="34">
       <c r="A241" t="s">
         <v>589</v>
       </c>
@@ -14033,8 +16755,14 @@
       <c r="J241" s="17" t="s">
         <v>1573</v>
       </c>
-    </row>
-    <row r="242" spans="1:104" ht="51">
+      <c r="K241" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L241" s="17" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="242" spans="1:102" ht="51">
       <c r="A242" t="s">
         <v>589</v>
       </c>
@@ -14053,8 +16781,14 @@
       <c r="J242" s="17" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="243" spans="1:104" ht="51">
+      <c r="K242" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L242" s="17" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="243" spans="1:102" ht="51">
       <c r="A243" t="s">
         <v>589</v>
       </c>
@@ -14073,8 +16807,14 @@
       <c r="J243" s="17" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="244" spans="1:104" ht="51">
+      <c r="K243" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L243" s="17" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="244" spans="1:102" ht="51">
       <c r="A244" t="s">
         <v>589</v>
       </c>
@@ -14093,8 +16833,14 @@
       <c r="J244" s="17" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="245" spans="1:104" ht="51">
+      <c r="K244" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L244" s="17" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="245" spans="1:102" ht="51">
       <c r="A245" t="s">
         <v>589</v>
       </c>
@@ -14113,8 +16859,14 @@
       <c r="J245" s="17" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="246" spans="1:104" ht="34">
+      <c r="K245" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L245" s="17" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="246" spans="1:102" ht="34">
       <c r="A246" t="s">
         <v>589</v>
       </c>
@@ -14133,8 +16885,14 @@
       <c r="J246" s="17" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="247" spans="1:104" ht="51">
+      <c r="K246" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L246" s="17" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="247" spans="1:102" ht="51">
       <c r="A247" t="s">
         <v>589</v>
       </c>
@@ -14153,8 +16911,14 @@
       <c r="J247" s="17" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="248" spans="1:104" ht="51">
+      <c r="K247" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L247" s="17" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="248" spans="1:102" ht="51">
       <c r="A248" t="s">
         <v>589</v>
       </c>
@@ -14173,8 +16937,14 @@
       <c r="J248" s="17" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="249" spans="1:104" ht="34">
+      <c r="K248" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L248" s="17" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="249" spans="1:102" ht="34">
       <c r="A249" s="10"/>
       <c r="B249" s="10">
         <v>2</v>
@@ -14191,8 +16961,14 @@
       <c r="I249" s="19" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="250" spans="1:104" ht="34">
+      <c r="K249" s="19" t="s">
+        <v>1815</v>
+      </c>
+      <c r="L249" s="17" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="250" spans="1:102" ht="34">
       <c r="A250" t="s">
         <v>589</v>
       </c>
@@ -14211,8 +16987,14 @@
       <c r="J250" s="17" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="251" spans="1:104" ht="102">
+      <c r="K250" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L250" s="17" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="251" spans="1:102" ht="102">
       <c r="A251" t="s">
         <v>589</v>
       </c>
@@ -14234,8 +17016,14 @@
       <c r="J251" s="17" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="252" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K251" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L251" s="17" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="252" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B252" s="10">
         <v>2</v>
       </c>
@@ -14257,8 +17045,12 @@
         <v>1584</v>
       </c>
       <c r="J252" s="17"/>
-      <c r="K252"/>
-      <c r="L252"/>
+      <c r="K252" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L252" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M252"/>
       <c r="N252"/>
       <c r="O252"/>
@@ -14349,10 +17141,8 @@
       <c r="CV252"/>
       <c r="CW252"/>
       <c r="CX252"/>
-      <c r="CY252"/>
-      <c r="CZ252"/>
-    </row>
-    <row r="253" spans="1:104" ht="51">
+    </row>
+    <row r="253" spans="1:102" ht="51">
       <c r="A253" t="s">
         <v>589</v>
       </c>
@@ -14371,8 +17161,14 @@
       <c r="J253" s="17" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="254" spans="1:104" ht="17">
+      <c r="K253" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L253" s="17" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="254" spans="1:102" ht="17">
       <c r="B254">
         <v>3</v>
       </c>
@@ -14391,8 +17187,14 @@
       <c r="J254" s="17" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="255" spans="1:104" ht="51">
+      <c r="K254" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L254" s="17" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="255" spans="1:102" ht="51">
       <c r="A255" t="s">
         <v>589</v>
       </c>
@@ -14411,8 +17213,14 @@
       <c r="J255" s="17" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="256" spans="1:104" ht="51">
+      <c r="K255" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L255" s="17" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="256" spans="1:102" ht="51">
       <c r="A256" t="s">
         <v>589</v>
       </c>
@@ -14431,8 +17239,14 @@
       <c r="J256" s="17" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="257" spans="1:104" ht="51">
+      <c r="K256" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L256" s="17" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="257" spans="1:102" ht="51">
       <c r="A257" t="s">
         <v>589</v>
       </c>
@@ -14451,8 +17265,14 @@
       <c r="J257" s="17" t="s">
         <v>1589</v>
       </c>
-    </row>
-    <row r="258" spans="1:104" ht="51">
+      <c r="K257" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L257" s="17" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="258" spans="1:102" ht="51">
       <c r="A258" t="s">
         <v>589</v>
       </c>
@@ -14471,8 +17291,14 @@
       <c r="J258" s="17" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="259" spans="1:104" ht="51">
+      <c r="K258" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L258" s="17" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="259" spans="1:102" ht="51">
       <c r="A259" t="s">
         <v>589</v>
       </c>
@@ -14491,8 +17317,14 @@
       <c r="J259" s="17" t="s">
         <v>1591</v>
       </c>
-    </row>
-    <row r="260" spans="1:104" ht="68">
+      <c r="K259" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L259" s="17" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="260" spans="1:102" ht="68">
       <c r="A260" t="s">
         <v>589</v>
       </c>
@@ -14511,8 +17343,14 @@
       <c r="J260" s="17" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="261" spans="1:104" ht="51">
+      <c r="K260" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L260" s="17" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="261" spans="1:102" ht="51">
       <c r="A261" t="s">
         <v>589</v>
       </c>
@@ -14531,8 +17369,14 @@
       <c r="J261" s="17" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="262" spans="1:104" s="8" customFormat="1" ht="68">
+      <c r="K261" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L261" s="17" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="262" spans="1:102" s="8" customFormat="1" ht="68">
       <c r="B262" s="8">
         <v>1</v>
       </c>
@@ -14554,8 +17398,12 @@
         <v>1594</v>
       </c>
       <c r="J262" s="17"/>
-      <c r="K262"/>
-      <c r="L262"/>
+      <c r="K262" s="20" t="s">
+        <v>1817</v>
+      </c>
+      <c r="L262" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M262"/>
       <c r="N262"/>
       <c r="O262"/>
@@ -14646,10 +17494,8 @@
       <c r="CV262"/>
       <c r="CW262"/>
       <c r="CX262"/>
-      <c r="CY262"/>
-      <c r="CZ262"/>
-    </row>
-    <row r="263" spans="1:104" s="10" customFormat="1" ht="68">
+    </row>
+    <row r="263" spans="1:102" s="10" customFormat="1" ht="68">
       <c r="A263" s="10" t="s">
         <v>589</v>
       </c>
@@ -14670,8 +17516,12 @@
       <c r="J263" s="17" t="s">
         <v>1595</v>
       </c>
-      <c r="K263"/>
-      <c r="L263"/>
+      <c r="K263" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L263" s="17" t="s">
+        <v>2072</v>
+      </c>
       <c r="M263"/>
       <c r="N263"/>
       <c r="O263"/>
@@ -14762,10 +17612,8 @@
       <c r="CV263"/>
       <c r="CW263"/>
       <c r="CX263"/>
-      <c r="CY263"/>
-      <c r="CZ263"/>
-    </row>
-    <row r="264" spans="1:104" s="10" customFormat="1" ht="51">
+    </row>
+    <row r="264" spans="1:102" s="10" customFormat="1" ht="51">
       <c r="A264" s="10" t="s">
         <v>589</v>
       </c>
@@ -14788,8 +17636,12 @@
       <c r="J264" s="17" t="s">
         <v>1596</v>
       </c>
-      <c r="K264"/>
-      <c r="L264"/>
+      <c r="K264" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L264" s="17" t="s">
+        <v>2073</v>
+      </c>
       <c r="M264"/>
       <c r="N264"/>
       <c r="O264"/>
@@ -14880,10 +17732,8 @@
       <c r="CV264"/>
       <c r="CW264"/>
       <c r="CX264"/>
-      <c r="CY264"/>
-      <c r="CZ264"/>
-    </row>
-    <row r="265" spans="1:104" ht="51">
+    </row>
+    <row r="265" spans="1:102" ht="51">
       <c r="A265" t="s">
         <v>589</v>
       </c>
@@ -14902,8 +17752,14 @@
       <c r="J265" s="17" t="s">
         <v>1597</v>
       </c>
-    </row>
-    <row r="266" spans="1:104" ht="51">
+      <c r="K265" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L265" s="17" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="266" spans="1:102" ht="51">
       <c r="A266" t="s">
         <v>589</v>
       </c>
@@ -14922,8 +17778,14 @@
       <c r="J266" s="17" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="267" spans="1:104" ht="34">
+      <c r="K266" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L266" s="17" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="267" spans="1:102" ht="34">
       <c r="A267" t="s">
         <v>589</v>
       </c>
@@ -14942,8 +17804,14 @@
       <c r="J267" s="17" t="s">
         <v>1599</v>
       </c>
-    </row>
-    <row r="268" spans="1:104" ht="51">
+      <c r="K267" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L267" s="17" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="268" spans="1:102" ht="51">
       <c r="A268" t="s">
         <v>589</v>
       </c>
@@ -14962,8 +17830,14 @@
       <c r="J268" s="17" t="s">
         <v>1600</v>
       </c>
-    </row>
-    <row r="269" spans="1:104" ht="34">
+      <c r="K268" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L268" s="17" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="269" spans="1:102" ht="34">
       <c r="A269" t="s">
         <v>589</v>
       </c>
@@ -14982,8 +17856,14 @@
       <c r="J269" s="17" t="s">
         <v>1601</v>
       </c>
-    </row>
-    <row r="270" spans="1:104" ht="34">
+      <c r="K269" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L269" s="17" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="270" spans="1:102" ht="34">
       <c r="A270" t="s">
         <v>589</v>
       </c>
@@ -15002,8 +17882,14 @@
       <c r="J270" s="17" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="271" spans="1:104" s="10" customFormat="1" ht="51">
+      <c r="K270" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L270" s="17" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="271" spans="1:102" s="10" customFormat="1" ht="51">
       <c r="A271" s="10" t="s">
         <v>589</v>
       </c>
@@ -15024,8 +17910,12 @@
       <c r="J271" s="17" t="s">
         <v>1603</v>
       </c>
-      <c r="K271"/>
-      <c r="L271"/>
+      <c r="K271" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L271" s="17" t="s">
+        <v>2080</v>
+      </c>
       <c r="M271"/>
       <c r="N271"/>
       <c r="O271"/>
@@ -15116,10 +18006,8 @@
       <c r="CV271"/>
       <c r="CW271"/>
       <c r="CX271"/>
-      <c r="CY271"/>
-      <c r="CZ271"/>
-    </row>
-    <row r="272" spans="1:104" s="8" customFormat="1" ht="51">
+    </row>
+    <row r="272" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B272" s="8">
         <v>1</v>
       </c>
@@ -15141,8 +18029,12 @@
         <v>1604</v>
       </c>
       <c r="J272" s="17"/>
-      <c r="K272"/>
-      <c r="L272"/>
+      <c r="K272" s="20" t="s">
+        <v>1818</v>
+      </c>
+      <c r="L272" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M272"/>
       <c r="N272"/>
       <c r="O272"/>
@@ -15233,10 +18125,8 @@
       <c r="CV272"/>
       <c r="CW272"/>
       <c r="CX272"/>
-      <c r="CY272"/>
-      <c r="CZ272"/>
-    </row>
-    <row r="273" spans="1:104" s="10" customFormat="1" ht="34">
+    </row>
+    <row r="273" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B273" s="10">
         <v>2</v>
       </c>
@@ -15256,8 +18146,12 @@
         <v>1605</v>
       </c>
       <c r="J273" s="17"/>
-      <c r="K273"/>
-      <c r="L273"/>
+      <c r="K273" s="19" t="s">
+        <v>1819</v>
+      </c>
+      <c r="L273" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M273"/>
       <c r="N273"/>
       <c r="O273"/>
@@ -15348,10 +18242,8 @@
       <c r="CV273"/>
       <c r="CW273"/>
       <c r="CX273"/>
-      <c r="CY273"/>
-      <c r="CZ273"/>
-    </row>
-    <row r="274" spans="1:104" ht="85">
+    </row>
+    <row r="274" spans="1:102" ht="85">
       <c r="A274" t="s">
         <v>589</v>
       </c>
@@ -15370,8 +18262,14 @@
       <c r="J274" s="17" t="s">
         <v>1606</v>
       </c>
-    </row>
-    <row r="275" spans="1:104" ht="68">
+      <c r="K274" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L274" s="17" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="275" spans="1:102" ht="68">
       <c r="A275" t="s">
         <v>589</v>
       </c>
@@ -15393,8 +18291,14 @@
       <c r="J275" s="17" t="s">
         <v>1607</v>
       </c>
-    </row>
-    <row r="276" spans="1:104" ht="34">
+      <c r="K275" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L275" s="17" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="276" spans="1:102" ht="34">
       <c r="A276" t="s">
         <v>589</v>
       </c>
@@ -15413,8 +18317,14 @@
       <c r="J276" s="17" t="s">
         <v>1608</v>
       </c>
-    </row>
-    <row r="277" spans="1:104" ht="51">
+      <c r="K276" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L276" s="17" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="277" spans="1:102" ht="51">
       <c r="A277" t="s">
         <v>589</v>
       </c>
@@ -15433,8 +18343,14 @@
       <c r="J277" s="17" t="s">
         <v>1609</v>
       </c>
-    </row>
-    <row r="278" spans="1:104" ht="68">
+      <c r="K277" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L277" s="17" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="278" spans="1:102" ht="68">
       <c r="A278" t="s">
         <v>589</v>
       </c>
@@ -15453,8 +18369,14 @@
       <c r="J278" s="17" t="s">
         <v>1610</v>
       </c>
-    </row>
-    <row r="279" spans="1:104" ht="68">
+      <c r="K278" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L278" s="17" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="279" spans="1:102" ht="68">
       <c r="A279" t="s">
         <v>589</v>
       </c>
@@ -15473,8 +18395,14 @@
       <c r="J279" s="17" t="s">
         <v>1611</v>
       </c>
-    </row>
-    <row r="280" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K279" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L279" s="17" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="280" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B280" s="10">
         <v>2</v>
       </c>
@@ -15496,8 +18424,12 @@
         <v>1612</v>
       </c>
       <c r="J280" s="17"/>
-      <c r="K280"/>
-      <c r="L280"/>
+      <c r="K280" s="19" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L280" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M280"/>
       <c r="N280"/>
       <c r="O280"/>
@@ -15588,10 +18520,8 @@
       <c r="CV280"/>
       <c r="CW280"/>
       <c r="CX280"/>
-      <c r="CY280"/>
-      <c r="CZ280"/>
-    </row>
-    <row r="281" spans="1:104" ht="51">
+    </row>
+    <row r="281" spans="1:102" ht="51">
       <c r="A281" t="s">
         <v>589</v>
       </c>
@@ -15610,8 +18540,14 @@
       <c r="J281" s="17" t="s">
         <v>1613</v>
       </c>
-    </row>
-    <row r="282" spans="1:104" ht="85">
+      <c r="K281" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L281" s="17" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="282" spans="1:102" ht="85">
       <c r="A282" t="s">
         <v>589</v>
       </c>
@@ -15630,8 +18566,14 @@
       <c r="J282" s="17" t="s">
         <v>1614</v>
       </c>
-    </row>
-    <row r="283" spans="1:104" ht="51">
+      <c r="K282" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L282" s="17" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="283" spans="1:102" ht="51">
       <c r="A283" t="s">
         <v>589</v>
       </c>
@@ -15653,8 +18595,14 @@
       <c r="J283" s="17" t="s">
         <v>1615</v>
       </c>
-    </row>
-    <row r="284" spans="1:104" ht="51">
+      <c r="K283" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L283" s="17" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="284" spans="1:102" ht="51">
       <c r="A284" t="s">
         <v>589</v>
       </c>
@@ -15673,8 +18621,14 @@
       <c r="J284" s="17" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="285" spans="1:104" ht="34">
+      <c r="K284" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L284" s="17" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="285" spans="1:102" ht="34">
       <c r="A285" t="s">
         <v>589</v>
       </c>
@@ -15693,8 +18647,14 @@
       <c r="J285" s="17" t="s">
         <v>1617</v>
       </c>
-    </row>
-    <row r="286" spans="1:104" ht="34">
+      <c r="K285" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L285" s="17" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="286" spans="1:102" ht="34">
       <c r="A286" t="s">
         <v>589</v>
       </c>
@@ -15713,8 +18673,14 @@
       <c r="J286" s="17" t="s">
         <v>1618</v>
       </c>
-    </row>
-    <row r="287" spans="1:104" ht="51">
+      <c r="K286" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L286" s="17" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="287" spans="1:102" ht="51">
       <c r="A287" t="s">
         <v>589</v>
       </c>
@@ -15733,8 +18699,14 @@
       <c r="J287" s="17" t="s">
         <v>1619</v>
       </c>
-    </row>
-    <row r="288" spans="1:104" ht="51">
+      <c r="K287" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L287" s="17" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="288" spans="1:102" ht="51">
       <c r="A288" t="s">
         <v>589</v>
       </c>
@@ -15753,8 +18725,14 @@
       <c r="J288" s="17" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="289" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K288" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L288" s="17" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="289" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B289" s="8">
         <v>1</v>
       </c>
@@ -15776,8 +18754,12 @@
         <v>1621</v>
       </c>
       <c r="J289" s="17"/>
-      <c r="K289"/>
-      <c r="L289"/>
+      <c r="K289" s="20" t="s">
+        <v>1821</v>
+      </c>
+      <c r="L289" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M289"/>
       <c r="N289"/>
       <c r="O289"/>
@@ -15868,10 +18850,8 @@
       <c r="CV289"/>
       <c r="CW289"/>
       <c r="CX289"/>
-      <c r="CY289"/>
-      <c r="CZ289"/>
-    </row>
-    <row r="290" spans="1:104" s="10" customFormat="1" ht="102">
+    </row>
+    <row r="290" spans="1:102" s="10" customFormat="1" ht="102">
       <c r="A290" s="10" t="s">
         <v>589</v>
       </c>
@@ -15894,8 +18874,12 @@
       <c r="J290" s="17" t="s">
         <v>1622</v>
       </c>
-      <c r="K290"/>
-      <c r="L290"/>
+      <c r="K290" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L290" s="17" t="s">
+        <v>2095</v>
+      </c>
       <c r="M290"/>
       <c r="N290"/>
       <c r="O290"/>
@@ -15986,10 +18970,8 @@
       <c r="CV290"/>
       <c r="CW290"/>
       <c r="CX290"/>
-      <c r="CY290"/>
-      <c r="CZ290"/>
-    </row>
-    <row r="291" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="291" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="A291"/>
       <c r="B291" s="10">
         <v>2</v>
@@ -16010,8 +18992,12 @@
       <c r="J291" s="17" t="s">
         <v>1623</v>
       </c>
-      <c r="K291"/>
-      <c r="L291"/>
+      <c r="K291" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="L291" s="17" t="s">
+        <v>2096</v>
+      </c>
       <c r="M291"/>
       <c r="N291"/>
       <c r="O291"/>
@@ -16102,10 +19088,8 @@
       <c r="CV291"/>
       <c r="CW291"/>
       <c r="CX291"/>
-      <c r="CY291"/>
-      <c r="CZ291"/>
-    </row>
-    <row r="292" spans="1:104" ht="68">
+    </row>
+    <row r="292" spans="1:102" ht="68">
       <c r="A292" t="s">
         <v>589</v>
       </c>
@@ -16124,8 +19108,14 @@
       <c r="J292" s="17" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="293" spans="1:104" ht="85">
+      <c r="K292" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L292" s="17" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="293" spans="1:102" ht="85">
       <c r="A293" t="s">
         <v>589</v>
       </c>
@@ -16144,8 +19134,14 @@
       <c r="J293" s="17" t="s">
         <v>1625</v>
       </c>
-    </row>
-    <row r="294" spans="1:104" ht="34">
+      <c r="K293" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L293" s="17" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="294" spans="1:102" ht="34">
       <c r="A294" t="s">
         <v>589</v>
       </c>
@@ -16164,8 +19160,14 @@
       <c r="J294" s="17" t="s">
         <v>1626</v>
       </c>
-    </row>
-    <row r="295" spans="1:104" ht="34">
+      <c r="K294" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L294" s="17" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="295" spans="1:102" ht="34">
       <c r="A295" t="s">
         <v>589</v>
       </c>
@@ -16184,8 +19186,14 @@
       <c r="J295" s="17" t="s">
         <v>1627</v>
       </c>
-    </row>
-    <row r="296" spans="1:104" ht="34">
+      <c r="K295" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L295" s="17" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="296" spans="1:102" ht="34">
       <c r="A296" t="s">
         <v>589</v>
       </c>
@@ -16204,8 +19212,14 @@
       <c r="J296" s="17" t="s">
         <v>1628</v>
       </c>
-    </row>
-    <row r="297" spans="1:104" ht="34">
+      <c r="K296" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L296" s="17" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="297" spans="1:102" ht="34">
       <c r="A297" t="s">
         <v>589</v>
       </c>
@@ -16224,8 +19238,14 @@
       <c r="J297" s="17" t="s">
         <v>1629</v>
       </c>
-    </row>
-    <row r="298" spans="1:104" ht="34">
+      <c r="K297" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L297" s="17" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="298" spans="1:102" ht="34">
       <c r="A298" t="s">
         <v>589</v>
       </c>
@@ -16244,8 +19264,14 @@
       <c r="J298" s="17" t="s">
         <v>1630</v>
       </c>
-    </row>
-    <row r="299" spans="1:104" ht="34">
+      <c r="K298" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L298" s="17" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="299" spans="1:102" ht="34">
       <c r="A299" t="s">
         <v>589</v>
       </c>
@@ -16264,8 +19290,14 @@
       <c r="J299" s="17" t="s">
         <v>1631</v>
       </c>
-    </row>
-    <row r="300" spans="1:104" ht="34">
+      <c r="K299" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L299" s="17" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:102" ht="34">
       <c r="A300" t="s">
         <v>589</v>
       </c>
@@ -16284,8 +19316,14 @@
       <c r="J300" s="17" t="s">
         <v>1632</v>
       </c>
-    </row>
-    <row r="301" spans="1:104" ht="34">
+      <c r="K300" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L300" s="17" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="301" spans="1:102" ht="34">
       <c r="A301" t="s">
         <v>589</v>
       </c>
@@ -16304,8 +19342,14 @@
       <c r="J301" s="17" t="s">
         <v>1633</v>
       </c>
-    </row>
-    <row r="302" spans="1:104" ht="34">
+      <c r="K301" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L301" s="17" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="302" spans="1:102" ht="34">
       <c r="A302" t="s">
         <v>589</v>
       </c>
@@ -16324,8 +19368,14 @@
       <c r="J302" s="17" t="s">
         <v>1634</v>
       </c>
-    </row>
-    <row r="303" spans="1:104" ht="34">
+      <c r="K302" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L302" s="17" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="303" spans="1:102" ht="34">
       <c r="A303" t="s">
         <v>589</v>
       </c>
@@ -16344,8 +19394,14 @@
       <c r="J303" s="17" t="s">
         <v>1635</v>
       </c>
-    </row>
-    <row r="304" spans="1:104" ht="34">
+      <c r="K303" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L303" s="17" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="304" spans="1:102" ht="34">
       <c r="A304" t="s">
         <v>589</v>
       </c>
@@ -16364,8 +19420,14 @@
       <c r="J304" s="17" t="s">
         <v>1636</v>
       </c>
-    </row>
-    <row r="305" spans="1:104" ht="34">
+      <c r="K304" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L304" s="17" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="305" spans="1:102" ht="34">
       <c r="A305" t="s">
         <v>589</v>
       </c>
@@ -16384,8 +19446,14 @@
       <c r="J305" s="17" t="s">
         <v>1637</v>
       </c>
-    </row>
-    <row r="306" spans="1:104" ht="51">
+      <c r="K305" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L305" s="17" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="306" spans="1:102" ht="51">
       <c r="A306" t="s">
         <v>589</v>
       </c>
@@ -16404,8 +19472,14 @@
       <c r="J306" s="17" t="s">
         <v>1638</v>
       </c>
-    </row>
-    <row r="307" spans="1:104" ht="51">
+      <c r="K306" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L306" s="17" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="307" spans="1:102" ht="51">
       <c r="A307" t="s">
         <v>589</v>
       </c>
@@ -16424,8 +19498,14 @@
       <c r="J307" s="17" t="s">
         <v>1639</v>
       </c>
-    </row>
-    <row r="308" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K307" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L307" s="17" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="308" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B308" s="8">
         <v>1</v>
       </c>
@@ -16447,8 +19527,12 @@
         <v>1640</v>
       </c>
       <c r="J308" s="17"/>
-      <c r="K308"/>
-      <c r="L308"/>
+      <c r="K308" s="20" t="s">
+        <v>1822</v>
+      </c>
+      <c r="L308" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M308"/>
       <c r="N308"/>
       <c r="O308"/>
@@ -16539,10 +19623,8 @@
       <c r="CV308"/>
       <c r="CW308"/>
       <c r="CX308"/>
-      <c r="CY308"/>
-      <c r="CZ308"/>
-    </row>
-    <row r="309" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="309" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B309" s="10">
         <v>2</v>
       </c>
@@ -16564,8 +19646,12 @@
         <v>1641</v>
       </c>
       <c r="J309" s="17"/>
-      <c r="K309"/>
-      <c r="L309"/>
+      <c r="K309" s="19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="L309" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M309"/>
       <c r="N309"/>
       <c r="O309"/>
@@ -16656,10 +19742,8 @@
       <c r="CV309"/>
       <c r="CW309"/>
       <c r="CX309"/>
-      <c r="CY309"/>
-      <c r="CZ309"/>
-    </row>
-    <row r="310" spans="1:104" ht="102">
+    </row>
+    <row r="310" spans="1:102" ht="102">
       <c r="A310" t="s">
         <v>589</v>
       </c>
@@ -16678,8 +19762,14 @@
       <c r="J310" s="17" t="s">
         <v>1642</v>
       </c>
-    </row>
-    <row r="311" spans="1:104" ht="17">
+      <c r="K310" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L310" s="17" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="311" spans="1:102" ht="17">
       <c r="B311">
         <v>3</v>
       </c>
@@ -16698,8 +19788,14 @@
       <c r="J311" s="17" t="s">
         <v>1643</v>
       </c>
-    </row>
-    <row r="312" spans="1:104" ht="68">
+      <c r="K311" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L311" s="17" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:102" ht="68">
       <c r="A312" t="s">
         <v>589</v>
       </c>
@@ -16721,8 +19817,14 @@
       <c r="J312" s="17" t="s">
         <v>1644</v>
       </c>
-    </row>
-    <row r="313" spans="1:104" ht="51">
+      <c r="K312" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L312" s="17" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="313" spans="1:102" ht="51">
       <c r="A313" t="s">
         <v>589</v>
       </c>
@@ -16741,8 +19843,14 @@
       <c r="J313" s="17" t="s">
         <v>1645</v>
       </c>
-    </row>
-    <row r="314" spans="1:104" ht="68">
+      <c r="K313" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L313" s="17" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="314" spans="1:102" ht="68">
       <c r="A314" t="s">
         <v>589</v>
       </c>
@@ -16761,8 +19869,14 @@
       <c r="J314" s="17" t="s">
         <v>1646</v>
       </c>
-    </row>
-    <row r="315" spans="1:104" ht="51">
+      <c r="K314" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L314" s="17" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="315" spans="1:102" ht="51">
       <c r="A315" t="s">
         <v>589</v>
       </c>
@@ -16781,8 +19895,14 @@
       <c r="J315" s="17" t="s">
         <v>1647</v>
       </c>
-    </row>
-    <row r="316" spans="1:104" ht="68">
+      <c r="K315" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L315" s="17" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="316" spans="1:102" ht="68">
       <c r="A316" t="s">
         <v>589</v>
       </c>
@@ -16804,8 +19924,14 @@
       <c r="J316" s="17" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="317" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K316" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L316" s="17" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="317" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B317" s="10">
         <v>2</v>
       </c>
@@ -16827,8 +19953,12 @@
         <v>1649</v>
       </c>
       <c r="J317" s="17"/>
-      <c r="K317"/>
-      <c r="L317"/>
+      <c r="K317" s="19" t="s">
+        <v>1816</v>
+      </c>
+      <c r="L317" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M317"/>
       <c r="N317"/>
       <c r="O317"/>
@@ -16919,10 +20049,8 @@
       <c r="CV317"/>
       <c r="CW317"/>
       <c r="CX317"/>
-      <c r="CY317"/>
-      <c r="CZ317"/>
-    </row>
-    <row r="318" spans="1:104" ht="68">
+    </row>
+    <row r="318" spans="1:102" ht="68">
       <c r="A318" t="s">
         <v>589</v>
       </c>
@@ -16944,8 +20072,14 @@
       <c r="J318" s="17" t="s">
         <v>1650</v>
       </c>
-    </row>
-    <row r="319" spans="1:104" ht="17">
+      <c r="K318" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L318" s="17" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="319" spans="1:102" ht="17">
       <c r="B319">
         <v>3</v>
       </c>
@@ -16964,8 +20098,14 @@
       <c r="J319" s="17" t="s">
         <v>1651</v>
       </c>
-    </row>
-    <row r="320" spans="1:104" ht="51">
+      <c r="K319" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L319" s="17" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="320" spans="1:102" ht="51">
       <c r="A320" t="s">
         <v>589</v>
       </c>
@@ -16984,8 +20124,14 @@
       <c r="J320" s="17" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="321" spans="1:104" ht="102">
+      <c r="K320" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L320" s="17" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="321" spans="1:102" ht="102">
       <c r="A321" t="s">
         <v>589</v>
       </c>
@@ -17007,8 +20153,14 @@
       <c r="J321" s="17" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="322" spans="1:104" ht="34">
+      <c r="K321" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L321" s="17" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="322" spans="1:102" ht="34">
       <c r="A322" t="s">
         <v>589</v>
       </c>
@@ -17027,8 +20179,14 @@
       <c r="J322" s="17" t="s">
         <v>1654</v>
       </c>
-    </row>
-    <row r="323" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K322" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L322" s="17" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="323" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B323" s="10">
         <v>2</v>
       </c>
@@ -17050,8 +20208,12 @@
         <v>1655</v>
       </c>
       <c r="J323" s="17"/>
-      <c r="K323"/>
-      <c r="L323"/>
+      <c r="K323" s="19" t="s">
+        <v>1824</v>
+      </c>
+      <c r="L323" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M323"/>
       <c r="N323"/>
       <c r="O323"/>
@@ -17142,10 +20304,8 @@
       <c r="CV323"/>
       <c r="CW323"/>
       <c r="CX323"/>
-      <c r="CY323"/>
-      <c r="CZ323"/>
-    </row>
-    <row r="324" spans="1:104" ht="51">
+    </row>
+    <row r="324" spans="1:102" ht="51">
       <c r="A324" t="s">
         <v>589</v>
       </c>
@@ -17164,8 +20324,14 @@
       <c r="J324" s="17" t="s">
         <v>1656</v>
       </c>
-    </row>
-    <row r="325" spans="1:104" ht="68">
+      <c r="K324" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L324" s="17" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="325" spans="1:102" ht="68">
       <c r="A325" t="s">
         <v>589</v>
       </c>
@@ -17187,8 +20353,14 @@
       <c r="J325" s="17" t="s">
         <v>1657</v>
       </c>
-    </row>
-    <row r="326" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K325" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L325" s="17" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="326" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B326" s="10">
         <v>2</v>
       </c>
@@ -17210,8 +20382,12 @@
         <v>1658</v>
       </c>
       <c r="J326" s="17"/>
-      <c r="K326"/>
-      <c r="L326"/>
+      <c r="K326" s="19" t="s">
+        <v>1825</v>
+      </c>
+      <c r="L326" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M326"/>
       <c r="N326"/>
       <c r="O326"/>
@@ -17302,10 +20478,8 @@
       <c r="CV326"/>
       <c r="CW326"/>
       <c r="CX326"/>
-      <c r="CY326"/>
-      <c r="CZ326"/>
-    </row>
-    <row r="327" spans="1:104" ht="68">
+    </row>
+    <row r="327" spans="1:102" ht="68">
       <c r="A327" t="s">
         <v>589</v>
       </c>
@@ -17324,8 +20498,14 @@
       <c r="J327" s="17" t="s">
         <v>1659</v>
       </c>
-    </row>
-    <row r="328" spans="1:104" ht="51">
+      <c r="K327" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L327" s="17" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="328" spans="1:102" ht="51">
       <c r="A328" t="s">
         <v>589</v>
       </c>
@@ -17344,8 +20524,14 @@
       <c r="J328" s="17" t="s">
         <v>1660</v>
       </c>
-    </row>
-    <row r="329" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K328" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L328" s="17" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="329" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B329" s="8">
         <v>1</v>
       </c>
@@ -17367,8 +20553,12 @@
         <v>1661</v>
       </c>
       <c r="J329" s="17"/>
-      <c r="K329"/>
-      <c r="L329"/>
+      <c r="K329" s="20" t="s">
+        <v>1826</v>
+      </c>
+      <c r="L329" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M329"/>
       <c r="N329"/>
       <c r="O329"/>
@@ -17459,10 +20649,8 @@
       <c r="CV329"/>
       <c r="CW329"/>
       <c r="CX329"/>
-      <c r="CY329"/>
-      <c r="CZ329"/>
-    </row>
-    <row r="330" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="330" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B330" s="10">
         <v>2</v>
       </c>
@@ -17484,8 +20672,12 @@
         <v>1662</v>
       </c>
       <c r="J330" s="17"/>
-      <c r="K330"/>
-      <c r="L330"/>
+      <c r="K330" s="19" t="s">
+        <v>1827</v>
+      </c>
+      <c r="L330" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M330"/>
       <c r="N330"/>
       <c r="O330"/>
@@ -17576,10 +20768,8 @@
       <c r="CV330"/>
       <c r="CW330"/>
       <c r="CX330"/>
-      <c r="CY330"/>
-      <c r="CZ330"/>
-    </row>
-    <row r="331" spans="1:104" ht="85">
+    </row>
+    <row r="331" spans="1:102" ht="85">
       <c r="A331" t="s">
         <v>589</v>
       </c>
@@ -17598,8 +20788,14 @@
       <c r="J331" s="17" t="s">
         <v>1663</v>
       </c>
-    </row>
-    <row r="332" spans="1:104" ht="17">
+      <c r="K331" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L331" s="17" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="332" spans="1:102" ht="17">
       <c r="B332">
         <v>3</v>
       </c>
@@ -17618,8 +20814,14 @@
       <c r="J332" s="17" t="s">
         <v>1664</v>
       </c>
-    </row>
-    <row r="333" spans="1:104" ht="51">
+      <c r="K332" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L332" s="17" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="333" spans="1:102" ht="51">
       <c r="A333" t="s">
         <v>589</v>
       </c>
@@ -17638,8 +20840,14 @@
       <c r="J333" s="17" t="s">
         <v>1665</v>
       </c>
-    </row>
-    <row r="334" spans="1:104" ht="34">
+      <c r="K333" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L333" s="17" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="334" spans="1:102" ht="34">
       <c r="A334" t="s">
         <v>589</v>
       </c>
@@ -17658,8 +20866,14 @@
       <c r="J334" s="17" t="s">
         <v>1666</v>
       </c>
-    </row>
-    <row r="335" spans="1:104" ht="34">
+      <c r="K334" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L334" s="17" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="335" spans="1:102" ht="34">
       <c r="A335" t="s">
         <v>589</v>
       </c>
@@ -17678,8 +20892,14 @@
       <c r="J335" s="17" t="s">
         <v>1667</v>
       </c>
-    </row>
-    <row r="336" spans="1:104" ht="51">
+      <c r="K335" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L335" s="17" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="336" spans="1:102" ht="51">
       <c r="A336" t="s">
         <v>589</v>
       </c>
@@ -17698,8 +20918,14 @@
       <c r="J336" s="17" t="s">
         <v>1668</v>
       </c>
-    </row>
-    <row r="337" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K336" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L336" s="17" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="337" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B337" s="10">
         <v>2</v>
       </c>
@@ -17721,8 +20947,12 @@
         <v>1669</v>
       </c>
       <c r="J337" s="17"/>
-      <c r="K337"/>
-      <c r="L337"/>
+      <c r="K337" s="19" t="s">
+        <v>1828</v>
+      </c>
+      <c r="L337" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M337"/>
       <c r="N337"/>
       <c r="O337"/>
@@ -17813,10 +21043,8 @@
       <c r="CV337"/>
       <c r="CW337"/>
       <c r="CX337"/>
-      <c r="CY337"/>
-      <c r="CZ337"/>
-    </row>
-    <row r="338" spans="1:104" ht="51">
+    </row>
+    <row r="338" spans="1:102" ht="51">
       <c r="A338" t="s">
         <v>589</v>
       </c>
@@ -17838,8 +21066,14 @@
       <c r="J338" s="17" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="339" spans="1:104" ht="17">
+      <c r="K338" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L338" s="17" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="339" spans="1:102" ht="17">
       <c r="B339">
         <v>3</v>
       </c>
@@ -17855,8 +21089,14 @@
       <c r="J339" s="17" t="s">
         <v>1540</v>
       </c>
-    </row>
-    <row r="340" spans="1:104" ht="51">
+      <c r="K339" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L339" s="17" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="340" spans="1:102" ht="51">
       <c r="A340" t="s">
         <v>589</v>
       </c>
@@ -17875,8 +21115,14 @@
       <c r="J340" s="17" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="341" spans="1:104" ht="51">
+      <c r="K340" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L340" s="17" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="341" spans="1:102" ht="51">
       <c r="A341" t="s">
         <v>589</v>
       </c>
@@ -17895,8 +21141,14 @@
       <c r="J341" s="17" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="342" spans="1:104" ht="34">
+      <c r="K341" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L341" s="17" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="342" spans="1:102" ht="34">
       <c r="A342" t="s">
         <v>589</v>
       </c>
@@ -17915,8 +21167,14 @@
       <c r="J342" s="17" t="s">
         <v>1673</v>
       </c>
-    </row>
-    <row r="343" spans="1:104" ht="68">
+      <c r="K342" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L342" s="17" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="343" spans="1:102" ht="68">
       <c r="A343" t="s">
         <v>589</v>
       </c>
@@ -17935,8 +21193,14 @@
       <c r="J343" s="17" t="s">
         <v>1674</v>
       </c>
-    </row>
-    <row r="344" spans="1:104" ht="34">
+      <c r="K343" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L343" s="17" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="344" spans="1:102" ht="34">
       <c r="A344" t="s">
         <v>589</v>
       </c>
@@ -17955,8 +21219,14 @@
       <c r="J344" s="17" t="s">
         <v>1675</v>
       </c>
-    </row>
-    <row r="345" spans="1:104" ht="34">
+      <c r="K344" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L344" s="17" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:102" ht="34">
       <c r="A345" t="s">
         <v>589</v>
       </c>
@@ -17975,8 +21245,14 @@
       <c r="J345" s="17" t="s">
         <v>1676</v>
       </c>
-    </row>
-    <row r="346" spans="1:104" ht="68">
+      <c r="K345" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L345" s="17" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:102" ht="68">
       <c r="A346" t="s">
         <v>589</v>
       </c>
@@ -17995,8 +21271,14 @@
       <c r="J346" s="17" t="s">
         <v>1677</v>
       </c>
-    </row>
-    <row r="347" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K346" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L346" s="17" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="347" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B347" s="10">
         <v>2</v>
       </c>
@@ -18018,8 +21300,12 @@
         <v>1678</v>
       </c>
       <c r="J347" s="17"/>
-      <c r="K347"/>
-      <c r="L347"/>
+      <c r="K347" s="19" t="s">
+        <v>1829</v>
+      </c>
+      <c r="L347" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M347"/>
       <c r="N347"/>
       <c r="O347"/>
@@ -18110,10 +21396,8 @@
       <c r="CV347"/>
       <c r="CW347"/>
       <c r="CX347"/>
-      <c r="CY347"/>
-      <c r="CZ347"/>
-    </row>
-    <row r="348" spans="1:104" ht="51">
+    </row>
+    <row r="348" spans="1:102" ht="51">
       <c r="A348" t="s">
         <v>589</v>
       </c>
@@ -18135,8 +21419,14 @@
       <c r="J348" s="17" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="349" spans="1:104" ht="17">
+      <c r="K348" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L348" s="17" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="349" spans="1:102" ht="17">
       <c r="B349">
         <v>3</v>
       </c>
@@ -18155,8 +21445,14 @@
       <c r="J349" s="17" t="s">
         <v>1680</v>
       </c>
-    </row>
-    <row r="350" spans="1:104" ht="51">
+      <c r="K349" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L349" s="17" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="350" spans="1:102" ht="51">
       <c r="A350" t="s">
         <v>589</v>
       </c>
@@ -18175,8 +21471,14 @@
       <c r="J350" s="17" t="s">
         <v>1681</v>
       </c>
-    </row>
-    <row r="351" spans="1:104" ht="51">
+      <c r="K350" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L350" s="17" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="351" spans="1:102" ht="51">
       <c r="A351" t="s">
         <v>589</v>
       </c>
@@ -18195,8 +21497,14 @@
       <c r="J351" s="17" t="s">
         <v>1682</v>
       </c>
-    </row>
-    <row r="352" spans="1:104" ht="34">
+      <c r="K351" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L351" s="17" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="352" spans="1:102" ht="34">
       <c r="A352" t="s">
         <v>589</v>
       </c>
@@ -18215,8 +21523,14 @@
       <c r="J352" s="17" t="s">
         <v>1683</v>
       </c>
-    </row>
-    <row r="353" spans="1:104" ht="51">
+      <c r="K352" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L352" s="17" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="353" spans="1:102" ht="51">
       <c r="A353" t="s">
         <v>589</v>
       </c>
@@ -18235,8 +21549,14 @@
       <c r="J353" s="17" t="s">
         <v>1684</v>
       </c>
-    </row>
-    <row r="354" spans="1:104" ht="68">
+      <c r="K353" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L353" s="17" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="354" spans="1:102" ht="68">
       <c r="A354" t="s">
         <v>589</v>
       </c>
@@ -18255,8 +21575,14 @@
       <c r="J354" s="17" t="s">
         <v>1685</v>
       </c>
-    </row>
-    <row r="355" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K354" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L354" s="17" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="355" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B355" s="10">
         <v>2</v>
       </c>
@@ -18278,8 +21604,12 @@
         <v>1686</v>
       </c>
       <c r="J355" s="17"/>
-      <c r="K355"/>
-      <c r="L355"/>
+      <c r="K355" s="19" t="s">
+        <v>1830</v>
+      </c>
+      <c r="L355" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M355"/>
       <c r="N355"/>
       <c r="O355"/>
@@ -18370,10 +21700,8 @@
       <c r="CV355"/>
       <c r="CW355"/>
       <c r="CX355"/>
-      <c r="CY355"/>
-      <c r="CZ355"/>
-    </row>
-    <row r="356" spans="1:104" ht="34">
+    </row>
+    <row r="356" spans="1:102" ht="34">
       <c r="A356" t="s">
         <v>589</v>
       </c>
@@ -18395,8 +21723,14 @@
       <c r="J356" s="17" t="s">
         <v>1687</v>
       </c>
-    </row>
-    <row r="357" spans="1:104" ht="17">
+      <c r="K356" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L356" s="17" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="357" spans="1:102" ht="17">
       <c r="B357">
         <v>3</v>
       </c>
@@ -18412,8 +21746,14 @@
       <c r="J357" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="358" spans="1:104" ht="51">
+      <c r="K357" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L357" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="358" spans="1:102" ht="51">
       <c r="A358" t="s">
         <v>589</v>
       </c>
@@ -18432,8 +21772,14 @@
       <c r="J358" s="17" t="s">
         <v>1688</v>
       </c>
-    </row>
-    <row r="359" spans="1:104" ht="51">
+      <c r="K358" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L358" s="17" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="359" spans="1:102" ht="51">
       <c r="A359" t="s">
         <v>589</v>
       </c>
@@ -18452,8 +21798,14 @@
       <c r="J359" s="17" t="s">
         <v>1689</v>
       </c>
-    </row>
-    <row r="360" spans="1:104" ht="34">
+      <c r="K359" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L359" s="17" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="360" spans="1:102" ht="34">
       <c r="A360" t="s">
         <v>589</v>
       </c>
@@ -18472,8 +21824,14 @@
       <c r="J360" s="17" t="s">
         <v>1690</v>
       </c>
-    </row>
-    <row r="361" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K360" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L360" s="17" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="361" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B361" s="10">
         <v>2</v>
       </c>
@@ -18495,8 +21853,12 @@
         <v>1691</v>
       </c>
       <c r="J361" s="17"/>
-      <c r="K361"/>
-      <c r="L361"/>
+      <c r="K361" s="19" t="s">
+        <v>1831</v>
+      </c>
+      <c r="L361" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M361"/>
       <c r="N361"/>
       <c r="O361"/>
@@ -18587,10 +21949,8 @@
       <c r="CV361"/>
       <c r="CW361"/>
       <c r="CX361"/>
-      <c r="CY361"/>
-      <c r="CZ361"/>
-    </row>
-    <row r="362" spans="1:104" ht="34">
+    </row>
+    <row r="362" spans="1:102" ht="34">
       <c r="A362" t="s">
         <v>589</v>
       </c>
@@ -18609,8 +21969,14 @@
       <c r="J362" s="17" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="363" spans="1:104" ht="17">
+      <c r="K362" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L362" s="17" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="363" spans="1:102" ht="17">
       <c r="B363">
         <v>3</v>
       </c>
@@ -18626,8 +21992,14 @@
       <c r="J363" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="364" spans="1:104" ht="34">
+      <c r="K363" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L363" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="364" spans="1:102" ht="34">
       <c r="A364" t="s">
         <v>589</v>
       </c>
@@ -18646,8 +22018,14 @@
       <c r="J364" s="17" t="s">
         <v>1693</v>
       </c>
-    </row>
-    <row r="365" spans="1:104" ht="34">
+      <c r="K364" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L364" s="17" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="365" spans="1:102" ht="34">
       <c r="A365" t="s">
         <v>589</v>
       </c>
@@ -18666,8 +22044,14 @@
       <c r="J365" s="17" t="s">
         <v>1694</v>
       </c>
-    </row>
-    <row r="366" spans="1:104" ht="34">
+      <c r="K365" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L365" s="17" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="366" spans="1:102" ht="34">
       <c r="A366" t="s">
         <v>589</v>
       </c>
@@ -18686,8 +22070,14 @@
       <c r="J366" s="17" t="s">
         <v>1695</v>
       </c>
-    </row>
-    <row r="367" spans="1:104" ht="34">
+      <c r="K366" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L366" s="17" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="367" spans="1:102" ht="34">
       <c r="A367" t="s">
         <v>589</v>
       </c>
@@ -18706,8 +22096,14 @@
       <c r="J367" s="17" t="s">
         <v>1696</v>
       </c>
-    </row>
-    <row r="368" spans="1:104" ht="102">
+      <c r="K367" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L367" s="17" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="368" spans="1:102" ht="102">
       <c r="A368" t="s">
         <v>589</v>
       </c>
@@ -18729,8 +22125,14 @@
       <c r="J368" s="17" t="s">
         <v>1697</v>
       </c>
-    </row>
-    <row r="369" spans="1:104" ht="51">
+      <c r="K368" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L368" s="17" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="369" spans="1:102" ht="51">
       <c r="A369" t="s">
         <v>589</v>
       </c>
@@ -18749,8 +22151,14 @@
       <c r="J369" s="17" t="s">
         <v>1698</v>
       </c>
-    </row>
-    <row r="370" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K369" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L369" s="17" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="370" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B370" s="10">
         <v>2</v>
       </c>
@@ -18772,8 +22180,12 @@
         <v>1699</v>
       </c>
       <c r="J370" s="17"/>
-      <c r="K370"/>
-      <c r="L370"/>
+      <c r="K370" s="19" t="s">
+        <v>1832</v>
+      </c>
+      <c r="L370" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M370"/>
       <c r="N370"/>
       <c r="O370"/>
@@ -18864,10 +22276,8 @@
       <c r="CV370"/>
       <c r="CW370"/>
       <c r="CX370"/>
-      <c r="CY370"/>
-      <c r="CZ370"/>
-    </row>
-    <row r="371" spans="1:104" ht="51">
+    </row>
+    <row r="371" spans="1:102" ht="51">
       <c r="A371" t="s">
         <v>589</v>
       </c>
@@ -18886,8 +22296,14 @@
       <c r="J371" s="17" t="s">
         <v>1700</v>
       </c>
-    </row>
-    <row r="372" spans="1:104" ht="17">
+      <c r="K371" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L371" s="17" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="372" spans="1:102" ht="17">
       <c r="B372">
         <v>3</v>
       </c>
@@ -18903,8 +22319,14 @@
       <c r="J372" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="373" spans="1:104" ht="34">
+      <c r="K372" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L372" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="373" spans="1:102" ht="34">
       <c r="A373" t="s">
         <v>589</v>
       </c>
@@ -18923,8 +22345,14 @@
       <c r="J373" s="17" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="374" spans="1:104" ht="68">
+      <c r="K373" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L373" s="17" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="374" spans="1:102" ht="68">
       <c r="A374" t="s">
         <v>589</v>
       </c>
@@ -18943,8 +22371,14 @@
       <c r="J374" s="17" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="375" spans="1:104" ht="51">
+      <c r="K374" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L374" s="17" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="375" spans="1:102" ht="51">
       <c r="A375" t="s">
         <v>589</v>
       </c>
@@ -18963,8 +22397,14 @@
       <c r="J375" s="17" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="376" spans="1:104" ht="51">
+      <c r="K375" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L375" s="17" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="376" spans="1:102" ht="51">
       <c r="A376" t="s">
         <v>589</v>
       </c>
@@ -18983,8 +22423,14 @@
       <c r="J376" s="17" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="377" spans="1:104" ht="34">
+      <c r="K376" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L376" s="17" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="377" spans="1:102" ht="34">
       <c r="A377" t="s">
         <v>589</v>
       </c>
@@ -19003,8 +22449,14 @@
       <c r="J377" s="17" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="378" spans="1:104" ht="51">
+      <c r="K377" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L377" s="17" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="378" spans="1:102" ht="51">
       <c r="A378" t="s">
         <v>589</v>
       </c>
@@ -19023,8 +22475,14 @@
       <c r="J378" s="17" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="379" spans="1:104" ht="68">
+      <c r="K378" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L378" s="17" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="379" spans="1:102" ht="68">
       <c r="A379" t="s">
         <v>589</v>
       </c>
@@ -19043,8 +22501,14 @@
       <c r="J379" s="17" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="380" spans="1:104" ht="34">
+      <c r="K379" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L379" s="17" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="380" spans="1:102" ht="34">
       <c r="A380" t="s">
         <v>589</v>
       </c>
@@ -19063,8 +22527,14 @@
       <c r="J380" s="17" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="381" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K380" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L380" s="17" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="381" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B381" s="10">
         <v>2</v>
       </c>
@@ -19086,8 +22556,12 @@
         <v>1709</v>
       </c>
       <c r="J381" s="17"/>
-      <c r="K381"/>
-      <c r="L381"/>
+      <c r="K381" s="19" t="s">
+        <v>1833</v>
+      </c>
+      <c r="L381" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M381"/>
       <c r="N381"/>
       <c r="O381"/>
@@ -19178,10 +22652,8 @@
       <c r="CV381"/>
       <c r="CW381"/>
       <c r="CX381"/>
-      <c r="CY381"/>
-      <c r="CZ381"/>
-    </row>
-    <row r="382" spans="1:104" ht="68">
+    </row>
+    <row r="382" spans="1:102" ht="68">
       <c r="A382" t="s">
         <v>589</v>
       </c>
@@ -19200,8 +22672,14 @@
       <c r="J382" s="17" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="383" spans="1:104" ht="34">
+      <c r="K382" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L382" s="17" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="383" spans="1:102" ht="34">
       <c r="A383" t="s">
         <v>589</v>
       </c>
@@ -19220,8 +22698,14 @@
       <c r="J383" s="17" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="384" spans="1:104" s="8" customFormat="1" ht="34">
+      <c r="K383" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L383" s="17" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="384" spans="1:102" s="8" customFormat="1" ht="34">
       <c r="B384" s="8">
         <v>1</v>
       </c>
@@ -19243,8 +22727,12 @@
         <v>1712</v>
       </c>
       <c r="J384" s="17"/>
-      <c r="K384"/>
-      <c r="L384"/>
+      <c r="K384" s="20" t="s">
+        <v>1834</v>
+      </c>
+      <c r="L384" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M384"/>
       <c r="N384"/>
       <c r="O384"/>
@@ -19335,10 +22823,8 @@
       <c r="CV384"/>
       <c r="CW384"/>
       <c r="CX384"/>
-      <c r="CY384"/>
-      <c r="CZ384"/>
-    </row>
-    <row r="385" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="385" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B385" s="10">
         <v>2</v>
       </c>
@@ -19360,8 +22846,12 @@
         <v>1713</v>
       </c>
       <c r="J385" s="17"/>
-      <c r="K385"/>
-      <c r="L385"/>
+      <c r="K385" s="19" t="s">
+        <v>1835</v>
+      </c>
+      <c r="L385" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M385"/>
       <c r="N385"/>
       <c r="O385"/>
@@ -19452,10 +22942,8 @@
       <c r="CV385"/>
       <c r="CW385"/>
       <c r="CX385"/>
-      <c r="CY385"/>
-      <c r="CZ385"/>
-    </row>
-    <row r="386" spans="1:104" ht="68">
+    </row>
+    <row r="386" spans="1:102" ht="68">
       <c r="A386" t="s">
         <v>589</v>
       </c>
@@ -19474,8 +22962,14 @@
       <c r="J386" s="17" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="387" spans="1:104" ht="17">
+      <c r="K386" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L386" s="17" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="387" spans="1:102" ht="17">
       <c r="B387">
         <v>3</v>
       </c>
@@ -19494,8 +22988,14 @@
       <c r="J387" s="17" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="388" spans="1:104" ht="34">
+      <c r="K387" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L387" s="17" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="388" spans="1:102" ht="34">
       <c r="A388" t="s">
         <v>589</v>
       </c>
@@ -19514,8 +23014,14 @@
       <c r="J388" s="17" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="389" spans="1:104" ht="68">
+      <c r="K388" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L388" s="17" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="389" spans="1:102" ht="68">
       <c r="A389" t="s">
         <v>589</v>
       </c>
@@ -19534,8 +23040,14 @@
       <c r="J389" s="17" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="390" spans="1:104" ht="51">
+      <c r="K389" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L389" s="17" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="390" spans="1:102" ht="51">
       <c r="A390" t="s">
         <v>589</v>
       </c>
@@ -19554,8 +23066,14 @@
       <c r="J390" s="17" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="391" spans="1:104" ht="34">
+      <c r="K390" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L390" s="17" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="391" spans="1:102" ht="34">
       <c r="A391" t="s">
         <v>589</v>
       </c>
@@ -19574,8 +23092,14 @@
       <c r="J391" s="17" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="392" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K391" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L391" s="17" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="392" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B392" s="10">
         <v>2</v>
       </c>
@@ -19597,8 +23121,12 @@
         <v>1720</v>
       </c>
       <c r="J392" s="17"/>
-      <c r="K392"/>
-      <c r="L392"/>
+      <c r="K392" s="19" t="s">
+        <v>1836</v>
+      </c>
+      <c r="L392" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M392"/>
       <c r="N392"/>
       <c r="O392"/>
@@ -19689,10 +23217,8 @@
       <c r="CV392"/>
       <c r="CW392"/>
       <c r="CX392"/>
-      <c r="CY392"/>
-      <c r="CZ392"/>
-    </row>
-    <row r="393" spans="1:104" ht="68">
+    </row>
+    <row r="393" spans="1:102" ht="68">
       <c r="A393" t="s">
         <v>589</v>
       </c>
@@ -19711,8 +23237,14 @@
       <c r="J393" s="17" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="394" spans="1:104" ht="17">
+      <c r="K393" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L393" s="17" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="394" spans="1:102" ht="17">
       <c r="B394">
         <v>3</v>
       </c>
@@ -19728,8 +23260,14 @@
       <c r="J394" s="17" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="395" spans="1:104" ht="51">
+      <c r="K394" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L394" s="17" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="395" spans="1:102" ht="51">
       <c r="A395" t="s">
         <v>589</v>
       </c>
@@ -19748,8 +23286,14 @@
       <c r="J395" s="17" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="396" spans="1:104" ht="51">
+      <c r="K395" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L395" s="17" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="396" spans="1:102" ht="51">
       <c r="A396" t="s">
         <v>589</v>
       </c>
@@ -19768,8 +23312,14 @@
       <c r="J396" s="17" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="397" spans="1:104" ht="34">
+      <c r="K396" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L396" s="17" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="397" spans="1:102" ht="34">
       <c r="A397" t="s">
         <v>589</v>
       </c>
@@ -19788,8 +23338,14 @@
       <c r="J397" s="17" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="398" spans="1:104" ht="51">
+      <c r="K397" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L397" s="17" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="398" spans="1:102" ht="51">
       <c r="A398" t="s">
         <v>589</v>
       </c>
@@ -19808,8 +23364,14 @@
       <c r="J398" s="21" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="399" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K398" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L398" s="21" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="399" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B399" s="10">
         <v>2</v>
       </c>
@@ -19831,8 +23393,12 @@
         <v>1727</v>
       </c>
       <c r="J399" s="17"/>
-      <c r="K399"/>
-      <c r="L399"/>
+      <c r="K399" s="19" t="s">
+        <v>1837</v>
+      </c>
+      <c r="L399" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M399"/>
       <c r="N399"/>
       <c r="O399"/>
@@ -19923,10 +23489,8 @@
       <c r="CV399"/>
       <c r="CW399"/>
       <c r="CX399"/>
-      <c r="CY399"/>
-      <c r="CZ399"/>
-    </row>
-    <row r="400" spans="1:104" ht="102">
+    </row>
+    <row r="400" spans="1:102" ht="102">
       <c r="A400" t="s">
         <v>589</v>
       </c>
@@ -19945,8 +23509,14 @@
       <c r="J400" s="17" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="401" spans="1:104" ht="17">
+      <c r="K400" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L400" s="17" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="401" spans="1:102" ht="17">
       <c r="B401">
         <v>3</v>
       </c>
@@ -19962,8 +23532,14 @@
       <c r="J401" s="17" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="402" spans="1:104" ht="51">
+      <c r="K401" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L401" s="17" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="402" spans="1:102" ht="51">
       <c r="A402" t="s">
         <v>589</v>
       </c>
@@ -19982,8 +23558,14 @@
       <c r="J402" s="17" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="403" spans="1:104" ht="51">
+      <c r="K402" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L402" s="17" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="403" spans="1:102" ht="51">
       <c r="A403" t="s">
         <v>589</v>
       </c>
@@ -20002,8 +23584,14 @@
       <c r="J403" s="17" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="404" spans="1:104" ht="51">
+      <c r="K403" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L403" s="17" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="404" spans="1:102" ht="51">
       <c r="A404" t="s">
         <v>589</v>
       </c>
@@ -20022,8 +23610,14 @@
       <c r="J404" s="17" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="405" spans="1:104" ht="51">
+      <c r="K404" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L404" s="17" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="405" spans="1:102" ht="51">
       <c r="A405" t="s">
         <v>589</v>
       </c>
@@ -20042,8 +23636,14 @@
       <c r="J405" s="17" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="406" spans="1:104" ht="51">
+      <c r="K405" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L405" s="17" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="406" spans="1:102" ht="51">
       <c r="A406" t="s">
         <v>589</v>
       </c>
@@ -20062,8 +23662,14 @@
       <c r="J406" s="17" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="407" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K406" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L406" s="17" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="407" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B407" s="10">
         <v>2</v>
       </c>
@@ -20085,8 +23691,12 @@
         <v>1734</v>
       </c>
       <c r="J407" s="17"/>
-      <c r="K407"/>
-      <c r="L407"/>
+      <c r="K407" s="19" t="s">
+        <v>1838</v>
+      </c>
+      <c r="L407" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M407"/>
       <c r="N407"/>
       <c r="O407"/>
@@ -20177,10 +23787,8 @@
       <c r="CV407"/>
       <c r="CW407"/>
       <c r="CX407"/>
-      <c r="CY407"/>
-      <c r="CZ407"/>
-    </row>
-    <row r="408" spans="1:104" ht="51">
+    </row>
+    <row r="408" spans="1:102" ht="51">
       <c r="A408" t="s">
         <v>589</v>
       </c>
@@ -20199,8 +23807,14 @@
       <c r="J408" s="17" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="409" spans="1:104" ht="34">
+      <c r="K408" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L408" s="17" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="409" spans="1:102" ht="34">
       <c r="A409" t="s">
         <v>589</v>
       </c>
@@ -20219,8 +23833,14 @@
       <c r="J409" s="17" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="410" spans="1:104" ht="34">
+      <c r="K409" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L409" s="17" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="410" spans="1:102" ht="34">
       <c r="A410" t="s">
         <v>589</v>
       </c>
@@ -20239,8 +23859,14 @@
       <c r="J410" s="17" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="411" spans="1:104" ht="51">
+      <c r="K410" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L410" s="17" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="411" spans="1:102" ht="51">
       <c r="A411" t="s">
         <v>589</v>
       </c>
@@ -20259,8 +23885,14 @@
       <c r="J411" s="17" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="412" spans="1:104" ht="34">
+      <c r="K411" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L411" s="17" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="412" spans="1:102" ht="34">
       <c r="A412" t="s">
         <v>589</v>
       </c>
@@ -20279,8 +23911,14 @@
       <c r="J412" s="17" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="413" spans="1:104" s="10" customFormat="1" ht="34">
+      <c r="K412" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L412" s="17" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="413" spans="1:102" s="10" customFormat="1" ht="34">
       <c r="B413" s="10">
         <v>2</v>
       </c>
@@ -20302,8 +23940,12 @@
         <v>1740</v>
       </c>
       <c r="J413" s="17"/>
-      <c r="K413"/>
-      <c r="L413"/>
+      <c r="K413" s="19" t="s">
+        <v>1839</v>
+      </c>
+      <c r="L413" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M413"/>
       <c r="N413"/>
       <c r="O413"/>
@@ -20394,10 +24036,8 @@
       <c r="CV413"/>
       <c r="CW413"/>
       <c r="CX413"/>
-      <c r="CY413"/>
-      <c r="CZ413"/>
-    </row>
-    <row r="414" spans="1:104" ht="136">
+    </row>
+    <row r="414" spans="1:102" ht="136">
       <c r="A414" t="s">
         <v>589</v>
       </c>
@@ -20416,8 +24056,14 @@
       <c r="J414" s="17" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="415" spans="1:104" s="8" customFormat="1" ht="51">
+      <c r="K414" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L414" s="17" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="415" spans="1:102" s="8" customFormat="1" ht="51">
       <c r="B415" s="8">
         <v>1</v>
       </c>
@@ -20439,8 +24085,12 @@
         <v>1742</v>
       </c>
       <c r="J415" s="17"/>
-      <c r="K415"/>
-      <c r="L415"/>
+      <c r="K415" s="20" t="s">
+        <v>1840</v>
+      </c>
+      <c r="L415" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M415"/>
       <c r="N415"/>
       <c r="O415"/>
@@ -20531,10 +24181,8 @@
       <c r="CV415"/>
       <c r="CW415"/>
       <c r="CX415"/>
-      <c r="CY415"/>
-      <c r="CZ415"/>
-    </row>
-    <row r="416" spans="1:104" s="10" customFormat="1" ht="17">
+    </row>
+    <row r="416" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B416" s="10">
         <v>2</v>
       </c>
@@ -20556,8 +24204,12 @@
         <v>1743</v>
       </c>
       <c r="J416" s="17"/>
-      <c r="K416"/>
-      <c r="L416"/>
+      <c r="K416" s="19" t="s">
+        <v>1841</v>
+      </c>
+      <c r="L416" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M416"/>
       <c r="N416"/>
       <c r="O416"/>
@@ -20648,10 +24300,8 @@
       <c r="CV416"/>
       <c r="CW416"/>
       <c r="CX416"/>
-      <c r="CY416"/>
-      <c r="CZ416"/>
-    </row>
-    <row r="417" spans="1:104" ht="68">
+    </row>
+    <row r="417" spans="1:102" ht="68">
       <c r="A417" t="s">
         <v>589</v>
       </c>
@@ -20670,8 +24320,14 @@
       <c r="J417" s="17" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="418" spans="1:104" ht="17">
+      <c r="K417" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L417" s="17" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="418" spans="1:102" ht="17">
       <c r="B418">
         <v>3</v>
       </c>
@@ -20687,8 +24343,14 @@
       <c r="J418" s="17" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="419" spans="1:104" ht="68">
+      <c r="K418" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L418" s="17" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="419" spans="1:102" ht="68">
       <c r="A419" t="s">
         <v>589</v>
       </c>
@@ -20707,8 +24369,14 @@
       <c r="J419" s="17" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="420" spans="1:104" ht="34">
+      <c r="K419" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L419" s="17" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="420" spans="1:102" ht="34">
       <c r="A420" t="s">
         <v>589</v>
       </c>
@@ -20727,8 +24395,14 @@
       <c r="J420" s="17" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="421" spans="1:104" ht="51">
+      <c r="K420" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L420" s="17" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="421" spans="1:102" ht="51">
       <c r="A421" t="s">
         <v>589</v>
       </c>
@@ -20747,8 +24421,14 @@
       <c r="J421" s="17" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="422" spans="1:104" ht="68">
+      <c r="K421" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L421" s="17" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="422" spans="1:102" ht="68">
       <c r="A422" t="s">
         <v>589</v>
       </c>
@@ -20770,8 +24450,14 @@
       <c r="J422" s="17" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="423" spans="1:104" ht="51">
+      <c r="K422" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L422" s="17" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="423" spans="1:102" ht="51">
       <c r="B423">
         <v>4</v>
       </c>
@@ -20787,8 +24473,14 @@
       <c r="J423" s="17" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="424" spans="1:104" ht="68">
+      <c r="K423" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L423" s="17" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="424" spans="1:102" ht="68">
       <c r="A424" t="s">
         <v>589</v>
       </c>
@@ -20807,8 +24499,14 @@
       <c r="J424" s="17" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="425" spans="1:104" ht="51">
+      <c r="K424" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L424" s="17" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="425" spans="1:102" ht="51">
       <c r="A425" t="s">
         <v>589</v>
       </c>
@@ -20827,8 +24525,14 @@
       <c r="J425" s="17" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="426" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K425" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L425" s="17" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="426" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B426" s="10">
         <v>2</v>
       </c>
@@ -20850,8 +24554,12 @@
         <v>1753</v>
       </c>
       <c r="J426" s="17"/>
-      <c r="K426"/>
-      <c r="L426"/>
+      <c r="K426" s="19" t="s">
+        <v>1842</v>
+      </c>
+      <c r="L426" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M426"/>
       <c r="N426"/>
       <c r="O426"/>
@@ -20942,10 +24650,8 @@
       <c r="CV426"/>
       <c r="CW426"/>
       <c r="CX426"/>
-      <c r="CY426"/>
-      <c r="CZ426"/>
-    </row>
-    <row r="427" spans="1:104" ht="85">
+    </row>
+    <row r="427" spans="1:102" ht="85">
       <c r="A427" t="s">
         <v>589</v>
       </c>
@@ -20967,8 +24673,14 @@
       <c r="J427" s="17" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="428" spans="1:104" ht="17">
+      <c r="K427" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L427" s="17" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="428" spans="1:102" ht="17">
       <c r="B428">
         <v>3</v>
       </c>
@@ -20984,8 +24696,14 @@
       <c r="J428" s="17" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="429" spans="1:104" ht="34">
+      <c r="K428" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L428" s="17" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="429" spans="1:102" ht="34">
       <c r="A429" t="s">
         <v>589</v>
       </c>
@@ -21004,8 +24722,14 @@
       <c r="J429" s="17" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="430" spans="1:104" ht="51">
+      <c r="K429" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L429" s="17" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="430" spans="1:102" ht="51">
       <c r="A430" t="s">
         <v>589</v>
       </c>
@@ -21024,8 +24748,14 @@
       <c r="J430" s="17" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="431" spans="1:104" ht="68">
+      <c r="K430" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L430" s="17" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="431" spans="1:102" ht="68">
       <c r="A431" t="s">
         <v>589</v>
       </c>
@@ -21044,8 +24774,14 @@
       <c r="J431" s="17" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="432" spans="1:104" ht="51">
+      <c r="K431" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L431" s="17" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="432" spans="1:102" ht="51">
       <c r="A432" t="s">
         <v>589</v>
       </c>
@@ -21064,8 +24800,14 @@
       <c r="J432" s="17" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="433" spans="1:104" s="10" customFormat="1" ht="17">
+      <c r="K432" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L432" s="17" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="433" spans="1:102" s="10" customFormat="1" ht="17">
       <c r="B433" s="10">
         <v>2</v>
       </c>
@@ -21087,8 +24829,12 @@
         <v>1759</v>
       </c>
       <c r="J433" s="17"/>
-      <c r="K433"/>
-      <c r="L433"/>
+      <c r="K433" s="19" t="s">
+        <v>1843</v>
+      </c>
+      <c r="L433" s="17" t="s">
+        <v>600</v>
+      </c>
       <c r="M433"/>
       <c r="N433"/>
       <c r="O433"/>
@@ -21179,10 +24925,8 @@
       <c r="CV433"/>
       <c r="CW433"/>
       <c r="CX433"/>
-      <c r="CY433"/>
-      <c r="CZ433"/>
-    </row>
-    <row r="434" spans="1:104" ht="51">
+    </row>
+    <row r="434" spans="1:102" ht="51">
       <c r="A434" t="s">
         <v>589</v>
       </c>
@@ -21201,8 +24945,14 @@
       <c r="J434" s="17" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="435" spans="1:104" ht="17">
+      <c r="K434" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L434" s="17" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="435" spans="1:102" ht="17">
       <c r="B435">
         <v>3</v>
       </c>
@@ -21218,8 +24968,14 @@
       <c r="J435" s="17" t="s">
         <v>1571</v>
       </c>
-    </row>
-    <row r="436" spans="1:104" ht="68">
+      <c r="K435" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L435" s="17" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="436" spans="1:102" ht="68">
       <c r="A436" t="s">
         <v>589</v>
       </c>
@@ -21241,8 +24997,14 @@
       <c r="J436" s="17" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="437" spans="1:104" ht="34">
+      <c r="K436" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L436" s="17" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="437" spans="1:102" ht="34">
       <c r="A437" t="s">
         <v>589</v>
       </c>
@@ -21261,8 +25023,14 @@
       <c r="J437" s="17" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="438" spans="1:104" ht="34">
+      <c r="K437" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L437" s="17" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="438" spans="1:102" ht="34">
       <c r="A438" t="s">
         <v>589</v>
       </c>
@@ -21281,8 +25049,14 @@
       <c r="J438" s="17" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="439" spans="1:104" ht="51">
+      <c r="K438" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L438" s="17" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="439" spans="1:102" ht="51">
       <c r="A439" t="s">
         <v>589</v>
       </c>
@@ -21301,8 +25075,14 @@
       <c r="J439" s="17" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="440" spans="1:104" ht="51">
+      <c r="K439" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L439" s="17" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="440" spans="1:102" ht="51">
       <c r="A440" t="s">
         <v>589</v>
       </c>
@@ -21320,6 +25100,12 @@
       </c>
       <c r="J440" s="17" t="s">
         <v>1765</v>
+      </c>
+      <c r="K440" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="L440" s="17" t="s">
+        <v>2214</v>
       </c>
     </row>
   </sheetData>
